--- a/application/static/excel_data/data_crawling -- 3. #belajardirumah.xlsx
+++ b/application/static/excel_data/data_crawling -- 3. #belajardirumah.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1600" uniqueCount="1084">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1810" uniqueCount="1197">
   <si>
     <t>id</t>
   </si>
@@ -4444,6 +4444,483 @@
   </si>
   <si>
     <t>Sat Dec 12 16:20:27 +0000 2020</t>
+  </si>
+  <si>
+    <t>SERI KALIMAT THAYYIBAH ; Alhamdulillah - Diskon 20% menjadi Rp.28000
+Gratis ongkos kirim hingga 40rb keseluruh Indonesia.
+#mainanbukuanak #promo #dirumahaja #belajardirumah #buku #membaca #booklover #bookstorm  
+SINOPSIS:Alhamdulillaairabbil `aalamiin segala puji bagi https://t.co/ha7oAyIRER</t>
+  </si>
+  <si>
+    <t>Thu Dec 17 13:42:42 +0000 2020</t>
+  </si>
+  <si>
+    <t>Guru juga manusia, kerepotan menghadapi #belajardirumah . Jadi jauhkan stigma negatif buat para guru di tengah pandemi ini. 
+}---&amp;gt; #Opini #guru 
+https://t.co/xcRTG6sNE0</t>
+  </si>
+  <si>
+    <t>Thu Dec 17 13:41:00 +0000 2020</t>
+  </si>
+  <si>
+    <t>PADA FGD BPS, KADIS KOMINFO PAPARKAN PERAN DISKOMINFO DALAM PENYEBARLUASAN INFORMASI
+BACA INFORMASI LENGKAPNYA DI 👉 https://t.co/Cmsq456wX1
+#ayolawancorona #belajardirumah #dirumahsaja #jagakebersihan #jagakesehatan #jagajarak #pakemasker #tetapwaspada #coronabisasembuh https://t.co/ZayAqBCbOR</t>
+  </si>
+  <si>
+    <t>Thu Dec 17 13:10:51 +0000 2020</t>
+  </si>
+  <si>
+    <t>Hayo, kamu masuk tipe murid yang mana nih?!
+#belajardirumah #pjjonline #pjjonlineclass #bimbelonline #kelaspintarindonesia https://t.co/ZAcNwg3WxZ</t>
+  </si>
+  <si>
+    <t>Thu Dec 17 13:01:55 +0000 2020</t>
+  </si>
+  <si>
+    <t>TOTAL PASIEN SEMBUH MENCAPAI 1.811 ORANG DARI 1.914 KASUS DAN 1 PASIEN MENINGGAL
+INFORMASI LENGKAPNYA DI 👉 https://t.co/fAqpLVyapz
+#ayolawancorona #belajardirumah #bermaindirumah #dirumahsaja #jagakebersihan #jagakesehatan #jagajarak #pakemasker #tetapwaspada #coronabisasembuh https://t.co/Pvu5u8XUFG</t>
+  </si>
+  <si>
+    <t>Thu Dec 17 11:19:49 +0000 2020</t>
+  </si>
+  <si>
+    <t>Update Perkembangan Covid-19 di Kabupaten Luwu Timur per 17 Desember 2020.
+3 sembuh, 5 kasus baru dan 1 meninggal.
+Perbaharui terus informasi anda di https://t.co/D4pL3qgDlY
+#ayolawancorona #belajardirumah #bermaindirumah #dirumahsaja #jagakebersihan #jagakesehatan #jagajarak https://t.co/UBUlaNIpus</t>
+  </si>
+  <si>
+    <t>Thu Dec 17 11:17:34 +0000 2020</t>
+  </si>
+  <si>
+    <t>SERI KALIMAT THAYYIBAH ; Insya Allah - Diskon 20% menjadi Rp.28000
+Gratis ongkos kirim hingga 40rb keseluruh Indonesia.
+#mainanbukuanak #promo #dirumahaja #belajardirumah #buku #membaca #booklover #bookstorm  
+SINOPSIS:Insya Allah artinya jika Allah menghendaki.Jika kita https://t.co/VqWXLM09Bw</t>
+  </si>
+  <si>
+    <t>Thu Dec 17 11:13:14 +0000 2020</t>
+  </si>
+  <si>
+    <t>⏩PAKET DESIGN ADOBE ILLUSTRATOR🤩 - Pembuatan Design Menggunakan Adobe Illustrator 18 Module 
+https://t.co/V7y8EtJmDu
+#PaketDesign #adobeillustrator #pakaimasker #jagajarak #mencucitangan #dirumahaja #kerjadarirumah #belajardirumah #KuliahOnline #IndonesiaMaju #ai #jagakesehatan</t>
+  </si>
+  <si>
+    <t>Thu Dec 17 10:00:01 +0000 2020</t>
+  </si>
+  <si>
+    <t>Kamu punya banyak soal yang gak ngerti jawabannya? TANYA di Kelas Pintar yuk!
+#belajardirumah #pjjonline #bimbelonline #bimbelgenerasicerdas #kelaspintarindonesia https://t.co/DcktLZoktr</t>
+  </si>
+  <si>
+    <t>Thu Dec 17 09:01:34 +0000 2020</t>
+  </si>
+  <si>
+    <t>SERI KALIMAT THAYYIBAH ; Subhanallah - Diskon 20% menjadi Rp.28000
+Gratis ongkos kirim hingga 40rb keseluruh Indonesia.
+#mainanbukuanak #promo #dirumahaja #belajardirumah #buku #membaca #booklover #bookstorm  
+SINOPSIS:Jika kita melihat keburukanKita ucapkan Subhanallah https://t.co/5sHBlqkcG6</t>
+  </si>
+  <si>
+    <t>Thu Dec 17 08:43:31 +0000 2020</t>
+  </si>
+  <si>
+    <t>SERI KALIMAT THAYYIBAH ; Masya Allah - Diskon 20% menjadi Rp.28000
+Gratis ongkos kirim hingga 40rb keseluruh Indonesia.
+#mainanbukuanak #promo #dirumahaja #belajardirumah #buku #membaca #booklover #bookstorm  
+SINOPSIS:Masya Allah artinya dengan kehednak Allah.Masya https://t.co/egLWfdDcLH</t>
+  </si>
+  <si>
+    <t>Thu Dec 17 06:24:04 +0000 2020</t>
+  </si>
+  <si>
+    <t>Kirim pesan ke Arie indihome di WhatsApp. https://t.co/CUfOYHjhpZ
+#wifiindihome #indihome #wifi #telkom #wifiindihom #infosamarinda #modem #stb #wfh #onlineschool #sekolahdirumah #belajardirumah #tanyaindihome #samarinda #penting https://t.co/DOY6aMq3TQ</t>
+  </si>
+  <si>
+    <t>Thu Dec 17 05:51:29 +0000 2020</t>
+  </si>
+  <si>
+    <t>Ini loh Mugwort yang lagi jadi holy grail-nya sobat tiktok sekalian karena emang hasilnya sebagus itu di muka :')
+#kelaskita #carabarubelajarseru #belajardirumah #elearning #belajaronline #dirumahaja #mugwort https://t.co/kArzlIgUUJ</t>
+  </si>
+  <si>
+    <t>Thu Dec 17 05:13:26 +0000 2020</t>
+  </si>
+  <si>
+    <t>SERI KALIMAT THAYYIBAH ; Astaghfirullah - Diskon 20% menjadi Rp.28000
+Gratis ongkos kirim hingga 40rb keseluruh Indonesia.
+#mainanbukuanak #promo #dirumahaja #belajardirumah #buku #membaca #booklover #bookstorm  
+SINOPSIS:Astaghfirullaahal `azhiim artinya aku meminta https://t.co/78SmBFVASz</t>
+  </si>
+  <si>
+    <t>Thu Dec 17 03:45:33 +0000 2020</t>
+  </si>
+  <si>
+    <t>SEKDA BAHRI SULI BUKA KEGIATAN FGD BPS LUTIM
+BACA INFORMASI LENGKAPNYA DI 👉 https://t.co/OYdPmVpRhN
+#ayolawancorona #belajardirumah #beribadahdirumah #bermaindirumah #dirumahsaja #jagakebersihan #jagakesehatan #jagajarak #pakemasker #tetapwaspada #coronabisasembuh https://t.co/MXXZ2D0jWl</t>
+  </si>
+  <si>
+    <t>Thu Dec 17 03:27:02 +0000 2020</t>
+  </si>
+  <si>
+    <t>SERI KALIMAT THAYYIBAH ; Assalamualaikum - Diskon 20% menjadi Rp.28000
+Gratis ongkos kirim hingga 40rb keseluruh Indonesia.
+#mainanbukuanak #promo #dirumahaja #belajardirumah #buku #membaca #booklover #bookstorm  
+SINOPSIS:Assalamu`alaikum wa rahmatullaahi wa barakaatuh https://t.co/JGDxbnSozA</t>
+  </si>
+  <si>
+    <t>Thu Dec 17 01:13:14 +0000 2020</t>
+  </si>
+  <si>
+    <t>SERI KALIMAT THAYYIBAH ;  Innalillahi - Diskon 20% menjadi Rp.28000
+Gratis ongkos kirim hingga 40rb keseluruh Indonesia.
+#mainanbukuanak #promo #dirumahaja #belajardirumah #buku #membaca #booklover #bookstorm  
+SINOPSIS:Innaa Lillahi wa inna ilahi raaji`uun artinya https://t.co/D1lnMKp0PE</t>
+  </si>
+  <si>
+    <t>Wed Dec 16 22:42:25 +0000 2020</t>
+  </si>
+  <si>
+    <t>SERI KALIMAT THAYYIBAH ; Laa Haula wa laa Quwwata Illaa Billaah - Diskon 20% menjadi Rp.28000
+Gratis ongkos kirim hingga 40rb keseluruh Indonesia.
+#mainanbukuanak #promo #dirumahaja #belajardirumah #buku #membaca #booklover #bookstorm  
+SINOPSIS:Laa Haula wa laa Quwwata</t>
+  </si>
+  <si>
+    <t>Wed Dec 16 20:32:40 +0000 2020</t>
+  </si>
+  <si>
+    <t>SERI KALIMAT THAYYIBAH ; Laa Ilaaha Illallaah - Diskon 20% menjadi Rp.28000
+Gratis ongkos kirim hingga 40rb keseluruh Indonesia.
+#mainanbukuanak #promo #dirumahaja #belajardirumah #buku #membaca #booklover #bookstorm  
+SINOPSIS: Laa Ilaaha Illallaah artinya tiada Tuhan https://t.co/Sc0a0j6u0v</t>
+  </si>
+  <si>
+    <t>Wed Dec 16 17:42:26 +0000 2020</t>
+  </si>
+  <si>
+    <t>Seri Kebenaran al Quran; Mawar di Langit - Diskon 20% menjadi Rp.20000
+Gratis ongkos kirim hingga 40rb keseluruh Indonesia.
+#mainanbukuanak #promo #dirumahaja #belajardirumah #buku #membaca #booklover #bookstorm  
+SINOPSIS:Para mawar di kebun Salma penasaran.Mereka https://t.co/faQhTRNh3p</t>
+  </si>
+  <si>
+    <t>Wed Dec 16 15:13:49 +0000 2020</t>
+  </si>
+  <si>
+    <t>Seri Kebenaran al quran ; Laut Terbelah - Diskon 20% menjadi Rp.20000
+Gratis ongkos kirim hingga 40rb keseluruh Indonesia.
+#mainanbukuanak #promo #dirumahaja #belajardirumah #buku #membaca #booklover #bookstorm  
+SINOPSIS:Ikan Buntal Bintang Laut dan hewan-hewan laut https://t.co/RaQuZthczj</t>
+  </si>
+  <si>
+    <t>Wed Dec 16 12:42:58 +0000 2020</t>
+  </si>
+  <si>
+    <t>Udah tahu waktu belajar terbaik belum? Simak yuk!
+#waktubelajar #belajardirumah # pjjonline #pjjonlineclass #kelaspintarindonesia https://t.co/3m43KrjMek</t>
+  </si>
+  <si>
+    <t>Wed Dec 16 12:02:04 +0000 2020</t>
+  </si>
+  <si>
+    <t>MELONJAK DRASTIS, PASIEN SEMBUH DARI COVID 13 ORANG DAN 22 KASUS BARU
+INFORMASI LENGKAPNYA BACA DI 👉 https://t.co/f9icNFSKcQ
+#ayolawancorona #belajardirumah #bermaindirumah #dirumahsaja #jagakebersihan #jagakesehatan #jagajarak #pakemasker #tetapwaspada #coronabisasembuh https://t.co/2EZJBLzDUc</t>
+  </si>
+  <si>
+    <t>Wed Dec 16 11:03:16 +0000 2020</t>
+  </si>
+  <si>
+    <t>Update Perkembangan Covid-19 di Kabupaten Luwu Timur per 16 Desember 2020.
+13 sembuh dan 22 kasus baru
+Perbaharui terus informasi di https://t.co/D4pL3qgDlY
+#ayolawancorona #belajardirumah #beribadahdirumah #bermaindirumah #dirumahsaja #jagakebersihan #jagakesehatan #jagajarak https://t.co/iRciF7beFa</t>
+  </si>
+  <si>
+    <t>Wed Dec 16 11:00:05 +0000 2020</t>
+  </si>
+  <si>
+    <t>Komik Sirah Rasulullah Periode Madinah - Diskon 20% menjadi Rp.52000
+Gratis ongkos kirim hingga 40rb keseluruh Indonesia.
+#mainanbukuanak #promo #dirumahaja #belajardirumah #buku #membaca #booklover #bookstorm  
+SINOPSIS:Setelah berdakwah selama 13 tahun di Mekah Allah https://t.co/PLsZ3fueB5</t>
+  </si>
+  <si>
+    <t>Wed Dec 16 10:13:07 +0000 2020</t>
+  </si>
+  <si>
+    <t>⏩PAKET DESIGN ADOBE ILLUSTRATOR🤩 - Pembuatan Design Menggunakan Adobe Illustrator 18 Module 
+https://t.co/V7y8EtrLeU
+#PaketDesign #adobeillustrator #pakaimasker #jagajarak #mencucitangan #dirumahaja #kerjadarirumah #belajardirumah #KuliahOnline #IndonesiaMaju #ai #jagakesehatan</t>
+  </si>
+  <si>
+    <t>Wed Dec 16 09:00:01 +0000 2020</t>
+  </si>
+  <si>
+    <t>Komik Sirah Rasulullah Periode Mekah - Diskon 20% menjadi Rp.52000
+Gratis ongkos kirim hingga 40rb keseluruh Indonesia.
+#mainanbukuanak #promo #dirumahaja #belajardirumah #buku #membaca #booklover #bookstorm  
+SINOPSIS:Sebelum Nabi Muhammad Saw di utus menjadi Rasul kota https://t.co/doj8dj0AHd</t>
+  </si>
+  <si>
+    <t>Wed Dec 16 07:45:11 +0000 2020</t>
+  </si>
+  <si>
+    <t>WARGA RUSUNAWA SOROWAKO SUDAH NIKMATI JARINGAN SELULAR
+BACA INFORMASI LENGKAPNYA DI 👉 https://t.co/vSqDGqekBU
+#ayolawancorona #belajardirumah #beribadahdirumah #bermaindirumah #dirumahsaja #jagakebersihan #jagakesehatan #jagajarak #pakemasker #tetapwaspada #coronabisasembuh https://t.co/yWLs2SbOLv</t>
+  </si>
+  <si>
+    <t>Wed Dec 16 06:54:38 +0000 2020</t>
+  </si>
+  <si>
+    <t>1 Set Komik Sirah Rasulullah - Diskon 20% menjadi Rp.104000
+Gratis ongkos kirim hingga 40rb keseluruh Indonesia.
+#mainanbukuanak #promo #dirumahaja #belajardirumah #buku #membaca #booklover #bookstorm  
+SINOPSIS:
+PENULIS:Fajar Istiqal https://t.co/Xx4870zZvl</t>
+  </si>
+  <si>
+    <t>Wed Dec 16 05:12:25 +0000 2020</t>
+  </si>
+  <si>
+    <t>PEDULI ZAKAT, PEMKAB LUWU TIMUR TERIMA PENGHARGAAN DARI BAZNAS
+BACA INFORMASI LENGKAPNYA DI 👉 https://t.co/pbFdsRjq9T
+#ayolawancorona #belajardirumah #bermaindirumah #dirumahsaja #jagakebersihan #jagakesehatan #jagajarak #pakemasker #tetapwaspada #coronabisasembuh https://t.co/cjV66p3PBk</t>
+  </si>
+  <si>
+    <t>Wed Dec 16 05:09:52 +0000 2020</t>
+  </si>
+  <si>
+    <t>Makan sekuteng pagi-pagi
+Kelaskita dateng, mau giveaway lagi
+Kali ini ada gift set cantik banget dari @mytulisan yang gak boleh kalian lewatin. 
+Cek Instagram @kelaskitadotcom sekarang!
+#kelaskita #carabarubelajarseru #belajardirumah #dirumahaja #giveaway #tulisan https://t.co/6DFlrGO7go</t>
+  </si>
+  <si>
+    <t>Wed Dec 16 05:08:22 +0000 2020</t>
+  </si>
+  <si>
+    <t>Jenis daun berdasar bentuk tulang daun itu adalah tulang daun sejajar, tulang daun menyirip, tulang daun menjari, dan tulang daun melengkung. #belajardirumah https://t.co/6aJX99NxNm</t>
+  </si>
+  <si>
+    <t>Wed Dec 16 04:35:00 +0000 2020</t>
+  </si>
+  <si>
+    <t>SASB Alhamdulillah ; Aku Punya Rumah - Diskon 20% menjadi Rp.30400
+Gratis ongkos kirim hingga 40rb keseluruh Indonesia.
+#mainanbukuanak #promo #dirumahaja #belajardirumah #buku #membaca #booklover #bookstorm  
+SINOPSIS:Alhamdulillah terima kasih ya Allah. Engkau sudah https://t.co/26BkyEjV0d</t>
+  </si>
+  <si>
+    <t>Wed Dec 16 02:43:57 +0000 2020</t>
+  </si>
+  <si>
+    <t>SASB Alhamdulillah ; Tubuhku Sehat - Diskon 20% menjadi Rp.30400
+Gratis ongkos kirim hingga 40rb keseluruh Indonesia.
+#mainanbukuanak #promo #dirumahaja #belajardirumah #buku #membaca #booklover #bookstorm  
+SINOPSIS:Alhamdulillah.Terima kasih ya Allah. Engkau memberi https://t.co/vwQeZB0FZ1</t>
+  </si>
+  <si>
+    <t>Wed Dec 16 00:13:55 +0000 2020</t>
+  </si>
+  <si>
+    <t>SASB Alhamdulillah ; Allah Menciptakan Alam Yang Indah - Diskon 20% menjadi Rp.30400
+Gratis ongkos kirim hingga 40rb keseluruh Indonesia.
+#mainanbukuanak #promo #dirumahaja #belajardirumah #buku #membaca #booklover #bookstorm  
+SINOPSIS:Alhamdulillah terima kasih Ya https://t.co/VsuJCtIjRu</t>
+  </si>
+  <si>
+    <t>Tue Dec 15 21:44:01 +0000 2020</t>
+  </si>
+  <si>
+    <t>SASB Alhamdulillah ; Allah Memberiku Makan - Diskon 20% menjadi Rp.30400
+Gratis ongkos kirim hingga 40rb keseluruh Indonesia.
+#mainanbukuanak #promo #dirumahaja #belajardirumah #buku #membaca #booklover #bookstorm  
+SINOPSIS:Alhamdulillah. Terima kasih ya Allah. Engkau https://t.co/MDIb4jACF3</t>
+  </si>
+  <si>
+    <t>Tue Dec 15 16:49:13 +0000 2020</t>
+  </si>
+  <si>
+    <t>Seri Amal Jariyah ; Pahala Membangun Masjid - Diskon 20% menjadi Rp.20000
+Gratis ongkos kirim hingga 40rb keseluruh Indonesia.
+#mainanbukuanak #promo #dirumahaja #belajardirumah #buku #membaca #booklover #bookstorm  
+SINOPSIS:Althaf dan teman-temannya semangat membantu https://t.co/bEonZZBa77</t>
+  </si>
+  <si>
+    <t>Tue Dec 15 14:14:08 +0000 2020</t>
+  </si>
+  <si>
+    <t>Seri Amal Jariyah ; Pahala Wakaf Al-Quran - Diskon 20% menjadi Rp.20000
+Gratis ongkos kirim hingga 40rb keseluruh Indonesia.
+#mainanbukuanak #promo #dirumahaja #belajardirumah #buku #membaca #booklover #bookstorm  
+SINOPSIS:Al Quran Althaf hilang. Bapak berjanji akan https://t.co/iUKLfjUvTN</t>
+  </si>
+  <si>
+    <t>Tue Dec 15 11:45:46 +0000 2020</t>
+  </si>
+  <si>
+    <t>PASIEN SEMBUH MENINGKAT MENJADI 1.795 DAN 18 KASUS BARU
+INFORMASI LENGKAPNYA BACA DI 👉 https://t.co/G5A0z6aRDS
+#ayolawancorona #belajardirumah #beribadahdirumah #bermaindirumah #dirumahsaja #jagakebersihan #jagakesehatan #jagajarak #pakemasker #tetapwaspada #coronabisasembuh https://t.co/eMGpGVL9h9</t>
+  </si>
+  <si>
+    <t>Tue Dec 15 10:24:07 +0000 2020</t>
+  </si>
+  <si>
+    <t>Update Perkembangan Covid-19 di Kabupaten Luwu Timur per 15 Desember 2020.
+12 sembuh dan 18 kasus baru
+Perbaharui terus informasi di https://t.co/D4pL3qgDlY
+#ayolawancorona #belajardirumah #beribadahdirumah #bermaindirumah #dirumahsaja #jagakebersihan #jagakesehatan #jagajarak https://t.co/vkCRRohkRd</t>
+  </si>
+  <si>
+    <t>Tue Dec 15 10:22:16 +0000 2020</t>
+  </si>
+  <si>
+    <t>Dapatkan Bantuan Kuota Internet dari Kementerian Agama melalui nomor IM3 Ooredoo-mu!
+Untuk kamu pelajar di lembaga pendidikan berbasis keagamaan bisa mendapatkan bantuan kuota biar makin nyaman untuk #belajardirumah!
+Cek di *123*075# atau myIM3. Klik 👉🏻 https://t.co/xHmXakVwA8 https://t.co/1B9OuTtqAi</t>
+  </si>
+  <si>
+    <t>Tue Dec 15 10:00:01 +0000 2020</t>
+  </si>
+  <si>
+    <t>Seri Amal Jariyah ; Pahala Menanam Pohon - Diskon 20% menjadi Rp.20000
+Gratis ongkos kirim hingga 40rb keseluruh Indonesia.
+#mainanbukuanak #promo #dirumahaja #belajardirumah #buku #membaca #booklover #bookstorm  
+SINOPSIS:Kakek Burhan sudah tiada. Namun dua pohon kersen https://t.co/ikdtOedgyq</t>
+  </si>
+  <si>
+    <t>Tue Dec 15 09:12:54 +0000 2020</t>
+  </si>
+  <si>
+    <t>Seri Amal Jariyah ; Pahala Menggali Sumur - Diskon 20% menjadi Rp.20000
+Gratis ongkos kirim hingga 40rb keseluruh Indonesia.
+#mainanbukuanak #promo #dirumahaja #belajardirumah #buku #membaca #booklover #bookstorm  
+SINOPSIS:Zayna ternganga mendengarkan kisah sahabat https://t.co/2bksIebU6q</t>
+  </si>
+  <si>
+    <t>Tue Dec 15 06:44:57 +0000 2020</t>
+  </si>
+  <si>
+    <t>Terima kasih, suhu~ @MelissaSunjaya 
+#kelaskita #carabarubelajarseru #belajardirumah #elearning #belajaronline #dirumahaja #tulisa https://t.co/gTFH9khSL7</t>
+  </si>
+  <si>
+    <t>Tue Dec 15 05:42:19 +0000 2020</t>
+  </si>
+  <si>
+    <t>Ya, gimana ya. Aduh mba Mel, aku bingung menjelaskannya~
+#kelaskita #carabarubelajarseru #belajardirumah #elearning #belajaronline #dirumahaja #tulisa https://t.co/jYQwJNvBJr</t>
+  </si>
+  <si>
+    <t>Tue Dec 15 05:41:31 +0000 2020</t>
+  </si>
+  <si>
+    <t>Iya plissss pulsa internet sama subscribe layanan streaming-nya sekalian~
+#kelaskita #carabarubelajarseru #belajardirumah #elearning #belajaronline #dirumahaja #tulisa https://t.co/d0b1vfWkvc</t>
+  </si>
+  <si>
+    <t>Tue Dec 15 05:40:38 +0000 2020</t>
+  </si>
+  <si>
+    <t>Ga lengkap kalo ga lucu-lucuan, ya kan?!
+#kelaskita #carabarubelajarseru #belajardirumah #elearning #belajaronline #dirumahaja #tulisa https://t.co/vI793G1wc6</t>
+  </si>
+  <si>
+    <t>Tue Dec 15 05:39:13 +0000 2020</t>
+  </si>
+  <si>
+    <t>Pas banget buat sobi twitter yang hobinya 2 a.m thoughts :")
+#kelaskita #carabarubelajarseru #belajardirumah #elearning #belajaronline #dirumahaja #tulisa https://t.co/nH1IVEfeHk</t>
+  </si>
+  <si>
+    <t>Tue Dec 15 05:38:27 +0000 2020</t>
+  </si>
+  <si>
+    <t>Yang udah dapet jadwal tuker kado akhir tahun, sini dulu yuk!
+Ada rekomendasi kado paling 'sumpah ga ngerti lagi' dari Melissa Sunjaya biar momen tuker kado kamu lebih asik, lop.
+#kelaskita #carabarubelajarseru #belajardirumah #elearning #belajaronline #dirumahaja #tulisan https://t.co/od6zPaYitb</t>
+  </si>
+  <si>
+    <t>Tue Dec 15 05:36:38 +0000 2020</t>
+  </si>
+  <si>
+    <t>Seri Amal Jariyah ; Pahala Mengajarkan Al-Quran - Diskon 20% menjadi Rp.20000
+Gratis ongkos kirim hingga 40rb keseluruh Indonesia.
+#mainanbukuanak #promo #dirumahaja #belajardirumah #buku #membaca #booklover #bookstorm  
+SINOPSIS:Zayna kesal karena diganggu Ayra setiap https://t.co/tljjVSYYd2</t>
+  </si>
+  <si>
+    <t>Tue Dec 15 04:12:54 +0000 2020</t>
+  </si>
+  <si>
+    <t>Berhasil menjahit pot dan merangkai bunga😍 #todaylearning
+.
+#babykhairina #4y8m #belajardirumah https://t.co/m9WLwdWGMz</t>
+  </si>
+  <si>
+    <t>lidya_octavia</t>
+  </si>
+  <si>
+    <t>Tue Dec 15 03:43:28 +0000 2020</t>
+  </si>
+  <si>
+    <t>1 Set Seri Amal Jariyah - Diskon 20% menjadi Rp.100000
+Gratis ongkos kirim hingga 40rb keseluruh Indonesia.
+#mainanbukuanak #promo #dirumahaja #belajardirumah #buku #membaca #booklover #bookstorm  
+SINOPSIS:
+PENULIS:AAN WULANDARI https://t.co/DHSrVI5Iog</t>
+  </si>
+  <si>
+    <t>Tue Dec 15 01:42:29 +0000 2020</t>
+  </si>
+  <si>
+    <t>Komik Hadist Sayangi Sesama - Diskon 20% menjadi Rp.52000
+Gratis ongkos kirim hingga 40rb keseluruh Indonesia.
+#mainanbukuanak #promo #dirumahaja #belajardirumah #buku #membaca #booklover #bookstorm  
+SINOPSIS:Didalam komik ini banyak cerita seru kakak beradik Dimas dan https://t.co/9xn4C4VXFf</t>
+  </si>
+  <si>
+    <t>Mon Dec 14 23:13:24 +0000 2020</t>
+  </si>
+  <si>
+    <t>1 Set Seri Kalimat Thayyibah - Diskon 20% menjadi Rp.280000
+Gratis ongkos kirim hingga 40rb keseluruh Indonesia.
+#mainanbukuanak #promo #dirumahaja #belajardirumah #buku #membaca #booklover #bookstorm  
+SINOPSIS:
+PENULIS:Ririn Rahayu Astuti Ningrum https://t.co/rgALbBFI3L</t>
+  </si>
+  <si>
+    <t>Mon Dec 14 20:43:38 +0000 2020</t>
+  </si>
+  <si>
+    <t>1 SET SASB Alhamdulillah - Diskon 20% menjadi Rp.152000
+Gratis ongkos kirim hingga 40rb keseluruh Indonesia.
+#mainanbukuanak #promo #dirumahaja #belajardirumah #buku #membaca #booklover #bookstorm  
+SINOPSIS:
+PENULIS:Fitri Restiana https://t.co/yxnjg5vFBa</t>
+  </si>
+  <si>
+    <t>Mon Dec 14 18:18:59 +0000 2020</t>
+  </si>
+  <si>
+    <t>1 Set Seri Kebenaran al Quran - Diskon 20% menjadi Rp.100000
+Gratis ongkos kirim hingga 40rb keseluruh Indonesia.
+#mainanbukuanak #promo #dirumahaja #belajardirumah #buku #membaca #booklover #bookstorm  
+SINOPSIS:
+PENULIS:Nurul Ikoma K. https://t.co/TiDnMhZnhb</t>
+  </si>
+  <si>
+    <t>Mon Dec 14 15:47:41 +0000 2020</t>
   </si>
 </sst>
 </file>
@@ -4806,10 +5283,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D533"/>
+  <dimension ref="A1:D603"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A514" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="J536" sqref="J536"/>
+    <sheetView tabSelected="1" topLeftCell="A580" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="J597" sqref="J597"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -12276,6 +12753,986 @@
         <v>965</v>
       </c>
     </row>
+    <row r="534" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A534">
+        <v>1.3395666940338381E+18</v>
+      </c>
+      <c r="B534" t="s">
+        <v>1084</v>
+      </c>
+      <c r="C534" t="s">
+        <v>625</v>
+      </c>
+      <c r="D534" t="s">
+        <v>1085</v>
+      </c>
+    </row>
+    <row r="535" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A535">
+        <v>1.339566265275478E+18</v>
+      </c>
+      <c r="B535" t="s">
+        <v>1086</v>
+      </c>
+      <c r="C535" t="s">
+        <v>141</v>
+      </c>
+      <c r="D535" t="s">
+        <v>1087</v>
+      </c>
+    </row>
+    <row r="536" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A536">
+        <v>1.339558680073708E+18</v>
+      </c>
+      <c r="B536" t="s">
+        <v>1088</v>
+      </c>
+      <c r="C536" t="s">
+        <v>21</v>
+      </c>
+      <c r="D536" t="s">
+        <v>1089</v>
+      </c>
+    </row>
+    <row r="537" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A537">
+        <v>1.3395564299639229E+18</v>
+      </c>
+      <c r="B537" t="s">
+        <v>1090</v>
+      </c>
+      <c r="C537" t="s">
+        <v>72</v>
+      </c>
+      <c r="D537" t="s">
+        <v>1091</v>
+      </c>
+    </row>
+    <row r="538" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A538">
+        <v>1.3395307383838231E+18</v>
+      </c>
+      <c r="B538" t="s">
+        <v>1092</v>
+      </c>
+      <c r="C538" t="s">
+        <v>21</v>
+      </c>
+      <c r="D538" t="s">
+        <v>1093</v>
+      </c>
+    </row>
+    <row r="539" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A539">
+        <v>1.3395301682227121E+18</v>
+      </c>
+      <c r="B539" t="s">
+        <v>1094</v>
+      </c>
+      <c r="C539" t="s">
+        <v>21</v>
+      </c>
+      <c r="D539" t="s">
+        <v>1095</v>
+      </c>
+    </row>
+    <row r="540" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A540">
+        <v>1.339529080266314E+18</v>
+      </c>
+      <c r="B540" t="s">
+        <v>1096</v>
+      </c>
+      <c r="C540" t="s">
+        <v>625</v>
+      </c>
+      <c r="D540" t="s">
+        <v>1097</v>
+      </c>
+    </row>
+    <row r="541" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A541">
+        <v>1.3395106546638359E+18</v>
+      </c>
+      <c r="B541" t="s">
+        <v>1098</v>
+      </c>
+      <c r="C541" t="s">
+        <v>18</v>
+      </c>
+      <c r="D541" t="s">
+        <v>1099</v>
+      </c>
+    </row>
+    <row r="542" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A542">
+        <v>1.3394959456130381E+18</v>
+      </c>
+      <c r="B542" t="s">
+        <v>1100</v>
+      </c>
+      <c r="C542" t="s">
+        <v>72</v>
+      </c>
+      <c r="D542" t="s">
+        <v>1101</v>
+      </c>
+    </row>
+    <row r="543" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A543">
+        <v>1.339491402594484E+18</v>
+      </c>
+      <c r="B543" t="s">
+        <v>1102</v>
+      </c>
+      <c r="C543" t="s">
+        <v>625</v>
+      </c>
+      <c r="D543" t="s">
+        <v>1103</v>
+      </c>
+    </row>
+    <row r="544" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A544">
+        <v>1.339456308735402E+18</v>
+      </c>
+      <c r="B544" t="s">
+        <v>1104</v>
+      </c>
+      <c r="C544" t="s">
+        <v>625</v>
+      </c>
+      <c r="D544" t="s">
+        <v>1105</v>
+      </c>
+    </row>
+    <row r="545" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A545">
+        <v>1.339448110381056E+18</v>
+      </c>
+      <c r="B545" t="s">
+        <v>1106</v>
+      </c>
+      <c r="C545" t="s">
+        <v>1032</v>
+      </c>
+      <c r="D545" t="s">
+        <v>1107</v>
+      </c>
+    </row>
+    <row r="546" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A546">
+        <v>1.3394385334260449E+18</v>
+      </c>
+      <c r="B546" t="s">
+        <v>1108</v>
+      </c>
+      <c r="C546" t="s">
+        <v>45</v>
+      </c>
+      <c r="D546" t="s">
+        <v>1109</v>
+      </c>
+    </row>
+    <row r="547" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A547">
+        <v>1.339416414814261E+18</v>
+      </c>
+      <c r="B547" t="s">
+        <v>1110</v>
+      </c>
+      <c r="C547" t="s">
+        <v>625</v>
+      </c>
+      <c r="D547" t="s">
+        <v>1111</v>
+      </c>
+    </row>
+    <row r="548" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A548">
+        <v>1.3394117561462909E+18</v>
+      </c>
+      <c r="B548" t="s">
+        <v>1112</v>
+      </c>
+      <c r="C548" t="s">
+        <v>21</v>
+      </c>
+      <c r="D548" t="s">
+        <v>1113</v>
+      </c>
+    </row>
+    <row r="549" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A549">
+        <v>1.339378083132948E+18</v>
+      </c>
+      <c r="B549" t="s">
+        <v>1114</v>
+      </c>
+      <c r="C549" t="s">
+        <v>625</v>
+      </c>
+      <c r="D549" t="s">
+        <v>1115</v>
+      </c>
+    </row>
+    <row r="550" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A550">
+        <v>1.339340131749097E+18</v>
+      </c>
+      <c r="B550" t="s">
+        <v>1116</v>
+      </c>
+      <c r="C550" t="s">
+        <v>625</v>
+      </c>
+      <c r="D550" t="s">
+        <v>1117</v>
+      </c>
+    </row>
+    <row r="551" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A551">
+        <v>1.3393074774525261E+18</v>
+      </c>
+      <c r="B551" t="s">
+        <v>1118</v>
+      </c>
+      <c r="C551" t="s">
+        <v>625</v>
+      </c>
+      <c r="D551" t="s">
+        <v>1119</v>
+      </c>
+    </row>
+    <row r="552" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A552">
+        <v>1.3392646358793989E+18</v>
+      </c>
+      <c r="B552" t="s">
+        <v>1120</v>
+      </c>
+      <c r="C552" t="s">
+        <v>625</v>
+      </c>
+      <c r="D552" t="s">
+        <v>1121</v>
+      </c>
+    </row>
+    <row r="553" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A553">
+        <v>1.3392272361262159E+18</v>
+      </c>
+      <c r="B553" t="s">
+        <v>1122</v>
+      </c>
+      <c r="C553" t="s">
+        <v>625</v>
+      </c>
+      <c r="D553" t="s">
+        <v>1123</v>
+      </c>
+    </row>
+    <row r="554" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A554">
+        <v>1.339189274755756E+18</v>
+      </c>
+      <c r="B554" t="s">
+        <v>1124</v>
+      </c>
+      <c r="C554" t="s">
+        <v>625</v>
+      </c>
+      <c r="D554" t="s">
+        <v>1125</v>
+      </c>
+    </row>
+    <row r="555" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A555">
+        <v>1.3391789817828521E+18</v>
+      </c>
+      <c r="B555" t="s">
+        <v>1126</v>
+      </c>
+      <c r="C555" t="s">
+        <v>72</v>
+      </c>
+      <c r="D555" t="s">
+        <v>1127</v>
+      </c>
+    </row>
+    <row r="556" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A556">
+        <v>1.3391641852009999E+18</v>
+      </c>
+      <c r="B556" t="s">
+        <v>1128</v>
+      </c>
+      <c r="C556" t="s">
+        <v>21</v>
+      </c>
+      <c r="D556" t="s">
+        <v>1129</v>
+      </c>
+    </row>
+    <row r="557" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A557">
+        <v>1.3391633824112479E+18</v>
+      </c>
+      <c r="B557" t="s">
+        <v>1130</v>
+      </c>
+      <c r="C557" t="s">
+        <v>21</v>
+      </c>
+      <c r="D557" t="s">
+        <v>1131</v>
+      </c>
+    </row>
+    <row r="558" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A558">
+        <v>1.339151562376053E+18</v>
+      </c>
+      <c r="B558" t="s">
+        <v>1132</v>
+      </c>
+      <c r="C558" t="s">
+        <v>625</v>
+      </c>
+      <c r="D558" t="s">
+        <v>1133</v>
+      </c>
+    </row>
+    <row r="559" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A559">
+        <v>1.3391331650345861E+18</v>
+      </c>
+      <c r="B559" t="s">
+        <v>1134</v>
+      </c>
+      <c r="C559" t="s">
+        <v>18</v>
+      </c>
+      <c r="D559" t="s">
+        <v>1135</v>
+      </c>
+    </row>
+    <row r="560" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A560">
+        <v>1.3391143363928919E+18</v>
+      </c>
+      <c r="B560" t="s">
+        <v>1136</v>
+      </c>
+      <c r="C560" t="s">
+        <v>625</v>
+      </c>
+      <c r="D560" t="s">
+        <v>1137</v>
+      </c>
+    </row>
+    <row r="561" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A561">
+        <v>1.3391016121202811E+18</v>
+      </c>
+      <c r="B561" t="s">
+        <v>1138</v>
+      </c>
+      <c r="C561" t="s">
+        <v>21</v>
+      </c>
+      <c r="D561" t="s">
+        <v>1139</v>
+      </c>
+    </row>
+    <row r="562" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A562">
+        <v>1.3390758913982789E+18</v>
+      </c>
+      <c r="B562" t="s">
+        <v>1140</v>
+      </c>
+      <c r="C562" t="s">
+        <v>625</v>
+      </c>
+      <c r="D562" t="s">
+        <v>1141</v>
+      </c>
+    </row>
+    <row r="563" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A563">
+        <v>1.3390752468763159E+18</v>
+      </c>
+      <c r="B563" t="s">
+        <v>1142</v>
+      </c>
+      <c r="C563" t="s">
+        <v>21</v>
+      </c>
+      <c r="D563" t="s">
+        <v>1143</v>
+      </c>
+    </row>
+    <row r="564" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A564">
+        <v>1.3390748707520799E+18</v>
+      </c>
+      <c r="B564" t="s">
+        <v>1144</v>
+      </c>
+      <c r="C564" t="s">
+        <v>45</v>
+      </c>
+      <c r="D564" t="s">
+        <v>1145</v>
+      </c>
+    </row>
+    <row r="565" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A565">
+        <v>1.3390664720401651E+18</v>
+      </c>
+      <c r="B565" t="s">
+        <v>1146</v>
+      </c>
+      <c r="C565" t="s">
+        <v>48</v>
+      </c>
+      <c r="D565" t="s">
+        <v>1147</v>
+      </c>
+    </row>
+    <row r="566" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A566">
+        <v>1.3390385280936509E+18</v>
+      </c>
+      <c r="B566" t="s">
+        <v>1148</v>
+      </c>
+      <c r="C566" t="s">
+        <v>625</v>
+      </c>
+      <c r="D566" t="s">
+        <v>1149</v>
+      </c>
+    </row>
+    <row r="567" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A567">
+        <v>1.3390007701175209E+18</v>
+      </c>
+      <c r="B567" t="s">
+        <v>1150</v>
+      </c>
+      <c r="C567" t="s">
+        <v>625</v>
+      </c>
+      <c r="D567" t="s">
+        <v>1151</v>
+      </c>
+    </row>
+    <row r="568" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A568">
+        <v>1.3389630444543921E+18</v>
+      </c>
+      <c r="B568" t="s">
+        <v>1152</v>
+      </c>
+      <c r="C568" t="s">
+        <v>625</v>
+      </c>
+      <c r="D568" t="s">
+        <v>1153</v>
+      </c>
+    </row>
+    <row r="569" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A569">
+        <v>1.3388888549048361E+18</v>
+      </c>
+      <c r="B569" t="s">
+        <v>1154</v>
+      </c>
+      <c r="C569" t="s">
+        <v>625</v>
+      </c>
+      <c r="D569" t="s">
+        <v>1155</v>
+      </c>
+    </row>
+    <row r="570" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A570">
+        <v>1.3388498283027699E+18</v>
+      </c>
+      <c r="B570" t="s">
+        <v>1156</v>
+      </c>
+      <c r="C570" t="s">
+        <v>625</v>
+      </c>
+      <c r="D570" t="s">
+        <v>1157</v>
+      </c>
+    </row>
+    <row r="571" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A571">
+        <v>1.3388124899500559E+18</v>
+      </c>
+      <c r="B571" t="s">
+        <v>1158</v>
+      </c>
+      <c r="C571" t="s">
+        <v>625</v>
+      </c>
+      <c r="D571" t="s">
+        <v>1159</v>
+      </c>
+    </row>
+    <row r="572" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A572">
+        <v>1.3387919419793039E+18</v>
+      </c>
+      <c r="B572" t="s">
+        <v>1160</v>
+      </c>
+      <c r="C572" t="s">
+        <v>21</v>
+      </c>
+      <c r="D572" t="s">
+        <v>1161</v>
+      </c>
+    </row>
+    <row r="573" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A573">
+        <v>1.3387914778711411E+18</v>
+      </c>
+      <c r="B573" t="s">
+        <v>1162</v>
+      </c>
+      <c r="C573" t="s">
+        <v>21</v>
+      </c>
+      <c r="D573" t="s">
+        <v>1163</v>
+      </c>
+    </row>
+    <row r="574" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A574">
+        <v>1.3387858784544479E+18</v>
+      </c>
+      <c r="B574" t="s">
+        <v>1164</v>
+      </c>
+      <c r="C574" t="s">
+        <v>420</v>
+      </c>
+      <c r="D574" t="s">
+        <v>1165</v>
+      </c>
+    </row>
+    <row r="575" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A575">
+        <v>1.3387740192569841E+18</v>
+      </c>
+      <c r="B575" t="s">
+        <v>1166</v>
+      </c>
+      <c r="C575" t="s">
+        <v>625</v>
+      </c>
+      <c r="D575" t="s">
+        <v>1167</v>
+      </c>
+    </row>
+    <row r="576" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A576">
+        <v>1.3387367871165929E+18</v>
+      </c>
+      <c r="B576" t="s">
+        <v>1168</v>
+      </c>
+      <c r="C576" t="s">
+        <v>625</v>
+      </c>
+      <c r="D576" t="s">
+        <v>1169</v>
+      </c>
+    </row>
+    <row r="577" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A577">
+        <v>1.338721025832362E+18</v>
+      </c>
+      <c r="B577" t="s">
+        <v>1170</v>
+      </c>
+      <c r="C577" t="s">
+        <v>45</v>
+      </c>
+      <c r="D577" t="s">
+        <v>1171</v>
+      </c>
+    </row>
+    <row r="578" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A578">
+        <v>1.338720825596236E+18</v>
+      </c>
+      <c r="B578" t="s">
+        <v>1172</v>
+      </c>
+      <c r="C578" t="s">
+        <v>45</v>
+      </c>
+      <c r="D578" t="s">
+        <v>1173</v>
+      </c>
+    </row>
+    <row r="579" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A579">
+        <v>1.3387206031891251E+18</v>
+      </c>
+      <c r="B579" t="s">
+        <v>1174</v>
+      </c>
+      <c r="C579" t="s">
+        <v>45</v>
+      </c>
+      <c r="D579" t="s">
+        <v>1175</v>
+      </c>
+    </row>
+    <row r="580" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A580">
+        <v>1.3387202467907169E+18</v>
+      </c>
+      <c r="B580" t="s">
+        <v>1176</v>
+      </c>
+      <c r="C580" t="s">
+        <v>45</v>
+      </c>
+      <c r="D580" t="s">
+        <v>1177</v>
+      </c>
+    </row>
+    <row r="581" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A581">
+        <v>1.338720054427337E+18</v>
+      </c>
+      <c r="B581" t="s">
+        <v>1178</v>
+      </c>
+      <c r="C581" t="s">
+        <v>45</v>
+      </c>
+      <c r="D581" t="s">
+        <v>1179</v>
+      </c>
+    </row>
+    <row r="582" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A582">
+        <v>1.3387195954236211E+18</v>
+      </c>
+      <c r="B582" t="s">
+        <v>1180</v>
+      </c>
+      <c r="C582" t="s">
+        <v>45</v>
+      </c>
+      <c r="D582" t="s">
+        <v>1181</v>
+      </c>
+    </row>
+    <row r="583" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A583">
+        <v>1.338698525245227E+18</v>
+      </c>
+      <c r="B583" t="s">
+        <v>1182</v>
+      </c>
+      <c r="C583" t="s">
+        <v>625</v>
+      </c>
+      <c r="D583" t="s">
+        <v>1183</v>
+      </c>
+    </row>
+    <row r="584" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A584">
+        <v>1.3386911145980931E+18</v>
+      </c>
+      <c r="B584" t="s">
+        <v>1184</v>
+      </c>
+      <c r="C584" t="s">
+        <v>1185</v>
+      </c>
+      <c r="D584" t="s">
+        <v>1186</v>
+      </c>
+    </row>
+    <row r="585" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A585">
+        <v>1.3386606680571131E+18</v>
+      </c>
+      <c r="B585" t="s">
+        <v>1187</v>
+      </c>
+      <c r="C585" t="s">
+        <v>625</v>
+      </c>
+      <c r="D585" t="s">
+        <v>1188</v>
+      </c>
+    </row>
+    <row r="586" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A586">
+        <v>1.338623150775435E+18</v>
+      </c>
+      <c r="B586" t="s">
+        <v>1189</v>
+      </c>
+      <c r="C586" t="s">
+        <v>625</v>
+      </c>
+      <c r="D586" t="s">
+        <v>1190</v>
+      </c>
+    </row>
+    <row r="587" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A587">
+        <v>1.33858546136782E+18</v>
+      </c>
+      <c r="B587" t="s">
+        <v>1191</v>
+      </c>
+      <c r="C587" t="s">
+        <v>625</v>
+      </c>
+      <c r="D587" t="s">
+        <v>1192</v>
+      </c>
+    </row>
+    <row r="588" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A588">
+        <v>1.338549058424566E+18</v>
+      </c>
+      <c r="B588" t="s">
+        <v>1193</v>
+      </c>
+      <c r="C588" t="s">
+        <v>625</v>
+      </c>
+      <c r="D588" t="s">
+        <v>1194</v>
+      </c>
+    </row>
+    <row r="589" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A589">
+        <v>1.3385109818449841E+18</v>
+      </c>
+      <c r="B589" t="s">
+        <v>1195</v>
+      </c>
+      <c r="C589" t="s">
+        <v>625</v>
+      </c>
+      <c r="D589" t="s">
+        <v>1196</v>
+      </c>
+    </row>
+    <row r="590" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A590">
+        <v>1.3384724872275441E+18</v>
+      </c>
+      <c r="B590" t="s">
+        <v>1021</v>
+      </c>
+      <c r="C590" t="s">
+        <v>625</v>
+      </c>
+      <c r="D590" t="s">
+        <v>1022</v>
+      </c>
+    </row>
+    <row r="591" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A591">
+        <v>1.338438394485985E+18</v>
+      </c>
+      <c r="B591" t="s">
+        <v>1023</v>
+      </c>
+      <c r="C591" t="s">
+        <v>21</v>
+      </c>
+      <c r="D591" t="s">
+        <v>1024</v>
+      </c>
+    </row>
+    <row r="592" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A592">
+        <v>1.3384377817946931E+18</v>
+      </c>
+      <c r="B592" t="s">
+        <v>1025</v>
+      </c>
+      <c r="C592" t="s">
+        <v>21</v>
+      </c>
+      <c r="D592" t="s">
+        <v>1026</v>
+      </c>
+    </row>
+    <row r="593" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A593">
+        <v>1.338434470320329E+18</v>
+      </c>
+      <c r="B593" t="s">
+        <v>1027</v>
+      </c>
+      <c r="C593" t="s">
+        <v>625</v>
+      </c>
+      <c r="D593" t="s">
+        <v>1028</v>
+      </c>
+    </row>
+    <row r="594" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A594">
+        <v>1.3384072296245E+18</v>
+      </c>
+      <c r="B594" t="s">
+        <v>1029</v>
+      </c>
+      <c r="C594" t="s">
+        <v>21</v>
+      </c>
+      <c r="D594" t="s">
+        <v>1030</v>
+      </c>
+    </row>
+    <row r="595" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A595">
+        <v>1.3384049305838961E+18</v>
+      </c>
+      <c r="B595" t="s">
+        <v>1031</v>
+      </c>
+      <c r="C595" t="s">
+        <v>1032</v>
+      </c>
+      <c r="D595" t="s">
+        <v>1033</v>
+      </c>
+    </row>
+    <row r="596" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A596">
+        <v>1.3383995111614221E+18</v>
+      </c>
+      <c r="B596" t="s">
+        <v>1034</v>
+      </c>
+      <c r="C596" t="s">
+        <v>625</v>
+      </c>
+      <c r="D596" t="s">
+        <v>1035</v>
+      </c>
+    </row>
+    <row r="597" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A597">
+        <v>1.338391443543532E+18</v>
+      </c>
+      <c r="B597" t="s">
+        <v>1036</v>
+      </c>
+      <c r="C597" t="s">
+        <v>45</v>
+      </c>
+      <c r="D597" t="s">
+        <v>1037</v>
+      </c>
+    </row>
+    <row r="598" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A598">
+        <v>1.3383586720160361E+18</v>
+      </c>
+      <c r="B598" t="s">
+        <v>1038</v>
+      </c>
+      <c r="C598" t="s">
+        <v>625</v>
+      </c>
+      <c r="D598" t="s">
+        <v>1039</v>
+      </c>
+    </row>
+    <row r="599" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A599">
+        <v>1.3383216777011159E+18</v>
+      </c>
+      <c r="B599" t="s">
+        <v>1040</v>
+      </c>
+      <c r="C599" t="s">
+        <v>625</v>
+      </c>
+      <c r="D599" t="s">
+        <v>1041</v>
+      </c>
+    </row>
+    <row r="600" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A600">
+        <v>1.338304450864288E+18</v>
+      </c>
+      <c r="B600" t="s">
+        <v>1042</v>
+      </c>
+      <c r="C600" t="s">
+        <v>53</v>
+      </c>
+      <c r="D600" t="s">
+        <v>1043</v>
+      </c>
+    </row>
+    <row r="601" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A601">
+        <v>1.3382969010751491E+18</v>
+      </c>
+      <c r="B601" t="s">
+        <v>1044</v>
+      </c>
+      <c r="C601" t="s">
+        <v>53</v>
+      </c>
+      <c r="D601" t="s">
+        <v>1045</v>
+      </c>
+    </row>
+    <row r="602" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A602">
+        <v>1.338295640799945E+18</v>
+      </c>
+      <c r="B602" t="s">
+        <v>1046</v>
+      </c>
+      <c r="C602" t="s">
+        <v>1047</v>
+      </c>
+      <c r="D602" t="s">
+        <v>1048</v>
+      </c>
+    </row>
+    <row r="603" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A603">
+        <v>1.338285673258729E+18</v>
+      </c>
+      <c r="B603" t="s">
+        <v>1049</v>
+      </c>
+      <c r="C603" t="s">
+        <v>625</v>
+      </c>
+      <c r="D603" t="s">
+        <v>1050</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/application/static/excel_data/data_crawling -- 3. #belajardirumah.xlsx
+++ b/application/static/excel_data/data_crawling -- 3. #belajardirumah.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1810" uniqueCount="1197">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2074" uniqueCount="1345">
   <si>
     <t>id</t>
   </si>
@@ -4921,6 +4921,629 @@
   </si>
   <si>
     <t>Mon Dec 14 15:47:41 +0000 2020</t>
+  </si>
+  <si>
+    <t>Seri Akhlak For Kids ;Ceria &amp;amp; Murah Hati - Diskon 20% menjadi Rp.20000
+Gratis ongkos kirim hingga 40rb keseluruh Indonesia.
+#mainanbukuanak #promo #dirumahaja #belajardirumah #buku #membaca #booklover #bookstorm  
+SINOPSIS:Aisyah dan teman-teman sekelas ditugaskan Bu https://t.co/NRPr1jUcyY</t>
+  </si>
+  <si>
+    <t>Mon Dec 21 15:12:08 +0000 2020</t>
+  </si>
+  <si>
+    <t>Belajar materi lengkap? Kelas pintar aja!
+#belajardirumah #ojjonline #bimbelonline #infosma #kelaspintarindonesia https://t.co/dqDlRS05wL</t>
+  </si>
+  <si>
+    <t>Mon Dec 21 14:02:04 +0000 2020</t>
+  </si>
+  <si>
+    <t>Pengajaran &amp;amp; Pembelajaran (PdP) di rumah
+Teaching &amp;amp; Learning (PdP) at home
+@KemPendidikan #belajardirumah #OnlineClasses 
+[Infografik / Infographics] https://t.co/mUeSAGw6ys</t>
+  </si>
+  <si>
+    <t>bernamadotcom</t>
+  </si>
+  <si>
+    <t>Mon Dec 21 12:50:07 +0000 2020</t>
+  </si>
+  <si>
+    <t>Seri Akhlak For Kids ; Mememuliakan Tamu &amp;amp; Menghormati Tetangga - Diskon 20% menjadi Rp.20000
+Gratis ongkos kirim hingga 40rb keseluruh Indonesia.
+#mainanbukuanak #promo #dirumahaja #belajardirumah #buku #membaca #booklover #bookstorm  
+SINOPSIS:Ada seorang tamu mencari https://t.co/yMFGojphDN</t>
+  </si>
+  <si>
+    <t>Mon Dec 21 12:43:05 +0000 2020</t>
+  </si>
+  <si>
+    <t>Sesi Kelas GURU mau launch podcast loh! Catet ya jadwalnya dan set as reminder di tanggalan kamu biar kamu gak lupa!
+#bimbelonline #bimbel #generasimilenial #belajardirumah #kelaspintarindonesia https://t.co/IIDuQkJslT</t>
+  </si>
+  <si>
+    <t>Mon Dec 21 11:39:58 +0000 2020</t>
+  </si>
+  <si>
+    <t>PKK LUTIM IKUTI WEBINAR RAPAT KONSOLIDASI SECARA VIRTUAL
+BACA INFORMASI LENGKAPNYA DI 👉 https://t.co/BiaJo9dxsB
+#ayolawancorona #belajardirumah #beribadahdirumah #bermaindirumah #dirumahsaja #jagakebersihan #jagakesehatan #jagajarak #pakemasker #tetapwaspada #coronabisasembuh https://t.co/JgonUCcfKI</t>
+  </si>
+  <si>
+    <t>Mon Dec 21 11:27:19 +0000 2020</t>
+  </si>
+  <si>
+    <t>Seri Akhlak For Kids ;Berkata Baik &amp;amp; Pemberani - Diskon 20% menjadi Rp.20000
+Gratis ongkos kirim hingga 40rb keseluruh Indonesia.
+#mainanbukuanak #promo #dirumahaja #belajardirumah #buku #membaca #booklover #bookstorm  
+SINOPSIS:Aisyah dan teman-teman tidak bisa pulang https://t.co/iYdJG2E0Mk</t>
+  </si>
+  <si>
+    <t>Mon Dec 21 10:12:14 +0000 2020</t>
+  </si>
+  <si>
+    <t>2. Dukungan Lingkungan Sesuai Kebutuhan
+Karena kebutuhan setiap anak dalam proses pembelajaran berbeda, orangtua harus mengerti apa yang menjadi daya tarik anak selama #belajardirumah . Jadi, yuk cari tau kebutuhan anak selama proses belajar!</t>
+  </si>
+  <si>
+    <t>pitakuning</t>
+  </si>
+  <si>
+    <t>Mon Dec 21 09:42:09 +0000 2020</t>
+  </si>
+  <si>
+    <t>Untuk thread kali ini, mimin mau kasih sedikit bocoran pembahasan tentang "Mendampingi Anak Belajar" karena tantangan #belajardirumah bukan hanya untuk anak, tapi juga orangtua berperan sebagai guru dadakan yang pasti ga mudah. Jadi apasih yang harus orang tua ketahui?</t>
+  </si>
+  <si>
+    <t>Mon Dec 21 09:42:07 +0000 2020</t>
+  </si>
+  <si>
+    <t>Update Perkembangan Covid-19 di Kabupaten Luwu Timur per 21 Desember 2020.
+10 sembuh dan 5 kasus baru.
+Perbaharui terus informasi di https://t.co/D4pL3qgDlY
+#ayolawancorona #belajardirumah #beribadahdirumah #bermaindirumah #dirumahsaja #jagakebersihan #jagakesehatan #jagajarak https://t.co/xz5UpXAc8m</t>
+  </si>
+  <si>
+    <t>Mon Dec 21 09:05:29 +0000 2020</t>
+  </si>
+  <si>
+    <t>OPERASI LILIN 2020, SEKDA LUWU TIMUR INGATKAN DISIPLIN PROTOKOL KESEHATAN
+BACA INFORMASI LENGKAPNYA DI 👉 https://t.co/2MHSkEUKRd
+#ayolawancorona #belajardirumah #bermaindirumah #dirumahsaja #jagakebersihan #jagakesehatan #jagajarak #pakemasker #tetapwaspada #coronabisasembuh https://t.co/tVYUkSMiWH</t>
+  </si>
+  <si>
+    <t>Mon Dec 21 08:06:22 +0000 2020</t>
+  </si>
+  <si>
+    <t>Seri Akhlak For Kids  ; Malu Berbuat Dosa &amp;amp; Bekerja Keras - Diskon 20% menjadi Rp.20000
+Gratis ongkos kirim hingga 40rb keseluruh Indonesia.
+#mainanbukuanak #promo #dirumahaja #belajardirumah #buku #membaca #booklover #bookstorm  
+SINOPSIS:Aisyah ingin membelikan https://t.co/OVQeNcLTYp</t>
+  </si>
+  <si>
+    <t>Mon Dec 21 07:42:33 +0000 2020</t>
+  </si>
+  <si>
+    <t>PENGURUS DWP LUTIM IKUTI WEBINAR HUT KE-21 DHARMA WANITA SULSEL
+BACA INFORMASI LENGKAPNYA DI 👉 https://t.co/mNed0uQ4yd
+#ayolawancorona #belajardirumah #bermaindirumah #dirumahsaja #jagakebersihan #jagakesehatan #jagajarak #pakemasker #tetapwaspada #coronabisasembuh https://t.co/UrqmADb5Mk</t>
+  </si>
+  <si>
+    <t>Mon Dec 21 05:16:15 +0000 2020</t>
+  </si>
+  <si>
+    <t>Seri Akhlak For Kids ; Lemah Lembut &amp;amp; Bertanggung Jawab - Diskon 20% menjadi Rp.20000
+Gratis ongkos kirim hingga 40rb keseluruh Indonesia.
+#mainanbukuanak #promo #dirumahaja #belajardirumah #buku #membaca #booklover #bookstorm  
+SINOPSIS:Zaki tidak suka dengan teman Ibu https://t.co/tlpKcleW5f</t>
+  </si>
+  <si>
+    <t>Mon Dec 21 05:13:06 +0000 2020</t>
+  </si>
+  <si>
+    <t>Seri Akhlak For Kids ; Menjaga Kehormatan Diri &amp;amp; Jujur - Diskon 20% menjadi Rp.20000
+Gratis ongkos kirim hingga 40rb keseluruh Indonesia.
+#mainanbukuanak #promo #dirumahaja #belajardirumah #buku #membaca #booklover #bookstorm  
+SINOPSIS:Zaki dan teman-teman pengajiannya https://t.co/t4gVsLj3IK</t>
+  </si>
+  <si>
+    <t>Mon Dec 21 02:42:32 +0000 2020</t>
+  </si>
+  <si>
+    <t>Terima kasih @studiopfn @tvrinasional buat belajar Corat Coret nya bareng @paman_gery @sheilasplayground.
+Tapi kata anak saya durasi kurang panjang mba @tjandrawibowo 😁
+#coratcoret #menggambar #mewarnai #belajardirumah https://t.co/xMep6sLRsw</t>
+  </si>
+  <si>
+    <t>ugihebat</t>
+  </si>
+  <si>
+    <t>Mon Dec 21 01:22:53 +0000 2020</t>
+  </si>
+  <si>
+    <t>TUGAS TVRI HARI INI APAKAH ADA? SD KELAS 1-3 4-6 SMP SMA, JADWAL BELAJAR DARI RUMAH 21 DESEMBER 2020
+#Belajardirumah #TribunKaltim
+https://t.co/MKcwWs9L5z via @tribunkaltim</t>
+  </si>
+  <si>
+    <t>Mon Dec 21 00:20:02 +0000 2020</t>
+  </si>
+  <si>
+    <t>Persahabatan Gajah Dan Semut ( SC ) - Diskon 20% menjadi Rp.31200
+Gratis ongkos kirim hingga 40rb keseluruh Indonesia.
+#mainanbukuanak #promo #dirumahaja #belajardirumah #buku #membaca #booklover #bookstorm  
+SINOPSIS:Persahabatan ini indah….Selamanya tak anak</t>
+  </si>
+  <si>
+    <t>Mon Dec 21 00:12:17 +0000 2020</t>
+  </si>
+  <si>
+    <t>Seri Akhlak For Kids  ; Mendamaikan Dua Pihak Yang Berseteru &amp;amp; Penyayang - Diskon 20% menjadi Rp.20000
+Gratis ongkos kirim hingga 40rb keseluruh Indonesia.
+#mainanbukuanak #promo #dirumahaja #belajardirumah #buku #membaca #booklover #bookstorm  
+SINOPSIS:Abim adalah https://t.co/6PZdN5xJKh</t>
+  </si>
+  <si>
+    <t>Sun Dec 20 21:53:15 +0000 2020</t>
+  </si>
+  <si>
+    <t>Kunci Jawaban Tema 4 Kelas 3 Halaman 118 Sampai 123, Buku Tematik: Aku Ingin Lingkungan Bersih
+#KunciJawaban #BukuTematik #BelajardariRumah #BelajardiRumah 
+ https://t.co/otFvP2gABN via @tribunkaltim</t>
+  </si>
+  <si>
+    <t>Sun Dec 20 21:44:59 +0000 2020</t>
+  </si>
+  <si>
+    <t>Seri Akhlak For Kids  ; Menepati janji &amp;amp; Pemaaf - Diskon 20% menjadi Rp.20000
+Gratis ongkos kirim hingga 40rb keseluruh Indonesia.
+#mainanbukuanak #promo #dirumahaja #belajardirumah #buku #membaca #booklover #bookstorm  
+SINOPSIS:Hujan turun dengan deras sedangkan Aisyah https://t.co/evo8raXRSZ</t>
+  </si>
+  <si>
+    <t>Sun Dec 20 19:21:06 +0000 2020</t>
+  </si>
+  <si>
+    <t>Seri Akhlak For Kids ; Dapat Di Percaya &amp;amp; Zuhud - Diskon 20% menjadi Rp.20000
+Gratis ongkos kirim hingga 40rb keseluruh Indonesia.
+#mainanbukuanak #promo #dirumahaja #belajardirumah #buku #membaca #booklover #bookstorm  
+SINOPSIS:Ada lomba lari di perumahan Aisyah. Semua https://t.co/d7OF79ltpq</t>
+  </si>
+  <si>
+    <t>Sun Dec 20 16:42:15 +0000 2020</t>
+  </si>
+  <si>
+    <t>@feliciaveline @MyRepublic @MyRepublicID Wah tiap bulan ada aja ya, tadinya mau pasang setelah diliat-liat sepertinya CSnya kurang responsif. #MyRepublicID #YLKI_ID #InternetServiceProvider #Suara_Konsumen #BPKN #BelajarDirumah #umkmpanganlokaljuara Tunggu kalau udah pro aja dulu, sampai kapan ya..?</t>
+  </si>
+  <si>
+    <t>Saya_Nohan</t>
+  </si>
+  <si>
+    <t>Sun Dec 20 15:17:12 +0000 2020</t>
+  </si>
+  <si>
+    <t>Seri Sahabat Rasulullah : Salman al-Farisi - Diskon 20% menjadi Rp.20000
+Gratis ongkos kirim hingga 40rb keseluruh Indonesia.
+#mainanbukuanak #promo #dirumahaja #belajardirumah #buku #membaca #booklover #bookstorm  
+SINOPSIS:Dani sangat senang menginap di rumah sepupunya https://t.co/mIYHaOfhsd</t>
+  </si>
+  <si>
+    <t>Sun Dec 20 14:12:33 +0000 2020</t>
+  </si>
+  <si>
+    <t>ANGKA PASIEN SEMBUH BERTAMBAH LAGI MENJADI 1.828 DAN 55 KASUS BARU
+INFORMASI LENGKAPNYA BACA DI 👉 https://t.co/WOt9Cx7tEp
+#ayolawancorona #belajardirumah #bermaindirumah #dirumahsaja #jagakebersihan #jagakesehatan #jagajarak #pakemasker #tetapwaspada #coronabisasembuh https://t.co/xJhdDaKPhu</t>
+  </si>
+  <si>
+    <t>Sun Dec 20 12:04:56 +0000 2020</t>
+  </si>
+  <si>
+    <t>Update Perkembangan Covid-19 di Kabupaten Luwu Timur per 20 Desember 2020.
+4 sembuh dan 55 kasus baru.
+Perbaharui terus informasi di https://t.co/D4pL3qgDlY
+#ayolawancorona #belajardirumah #beribadahdirumah #bermaindirumah #dirumahsaja #jagakebersihan #jagakesehatan #jagajarak https://t.co/WyB9kyhSAt</t>
+  </si>
+  <si>
+    <t>Sun Dec 20 12:04:35 +0000 2020</t>
+  </si>
+  <si>
+    <t>Mana yang lebih baik menurut kamu?
+#belajardirumah #dirumahaja #pendidikan #bimbelonline #kelaspintarindonesia https://t.co/ltBkYumQzY</t>
+  </si>
+  <si>
+    <t>Sun Dec 20 12:01:54 +0000 2020</t>
+  </si>
+  <si>
+    <t>Seri Sahabat Rasulullah : Mush`ab bin Umair - Diskon 20% menjadi Rp.20000
+Gratis ongkos kirim hingga 40rb keseluruh Indonesia.
+#mainanbukuanak #promo #dirumahaja #belajardirumah #buku #membaca #booklover #bookstorm  
+SINOPSIS:Arkan senang sekali dijuluki sebagai Duta https://t.co/7bVLNmnAnp</t>
+  </si>
+  <si>
+    <t>Sun Dec 20 11:42:07 +0000 2020</t>
+  </si>
+  <si>
+    <t>Untuk mengisi libur akhir tahun selama #AdaptasiKebiasaanBaru, apa saja #aplikasiedukasi yang dapat membantu ia belajar sambil bermain? Adakah manfaat lainnya? Baca langsung di link ini https://t.co/6JD52WmPjU #PanduanBunda #ParentingAnak #InfoAnak #TipsParenting #BelajardiRumah https://t.co/rHtWmA8WHy</t>
+  </si>
+  <si>
+    <t>Sun Dec 20 10:30:02 +0000 2020</t>
+  </si>
+  <si>
+    <t>Seri Sahabat Rasulullah : Bilal bin Rabah - Diskon 20% menjadi Rp.20000
+Gratis ongkos kirim hingga 40rb keseluruh Indonesia.
+#mainanbukuanak #promo #dirumahaja #belajardirumah #buku #membaca #booklover #bookstorm  
+SINOPSIS:Bilal mengaji dengan suara merdu dan bacaan https://t.co/hc3K9wPoGH</t>
+  </si>
+  <si>
+    <t>Sun Dec 20 09:12:01 +0000 2020</t>
+  </si>
+  <si>
+    <t>Hayo, siapa di sini yang lika-liku belajarnya kayak gini?
+#generasimillenial #belajardirumah #bimbelonline #pjjonline #kelaspintarindonesia https://t.co/t8p3rU3vTX</t>
+  </si>
+  <si>
+    <t>Sun Dec 20 09:01:26 +0000 2020</t>
+  </si>
+  <si>
+    <t>1 Set Seri Fabel Kepemimpinan - Diskon 20% menjadi Rp.100000
+Gratis ongkos kirim hingga 40rb keseluruh Indonesia.
+#mainanbukuanak #promo #dirumahaja #belajardirumah #buku #membaca #booklover #bookstorm  
+SINOPSIS:
+PENULIS:Novi Anggraheni https://t.co/0zKXc8Igj0</t>
+  </si>
+  <si>
+    <t>Sun Dec 20 06:49:33 +0000 2020</t>
+  </si>
+  <si>
+    <t>Terakhir nih! Cuci tangan yang bersih. Inget kan koreografinya?
+#kelaskita #carabarubelajarseru #belajardirumah #elearning #belajaronline #dirumahaja #covid19 https://t.co/toaXphA9io</t>
+  </si>
+  <si>
+    <t>Sun Dec 20 06:45:10 +0000 2020</t>
+  </si>
+  <si>
+    <t>Abis dibuka, sampahnya juga langsung dibuang di luar ya. Jangan lupa semprot pake disinfektan biar virusnya hempaaassss~
+#kelaskita #carabarubelajarseru #belajardirumah #elearning #belajaronline #dirumahaja #COVID19 https://t.co/kFcqNsSqIT</t>
+  </si>
+  <si>
+    <t>Sun Dec 20 06:44:10 +0000 2020</t>
+  </si>
+  <si>
+    <t>LDR sama mas kurirnya dulu ya, biar tetap patuh sama protokol kesehatan. Abis itu, buka paketnya di luar rumah agar supaya tetangga bertanya-tanya. Canda tetangga.
+#kelaskita #carabarubelajarseru #belajardirumah #elearning #belajaronline #dirumahaja #COVID19 https://t.co/3M7yROzgLC</t>
+  </si>
+  <si>
+    <t>Sun Dec 20 06:38:00 +0000 2020</t>
+  </si>
+  <si>
+    <t>PAKEEET!
+Santai, simak dulu tips aman terima paket di masa pandemi ini biar ga maen mashoookkk aja paketnya.
+#kelaskita #carabarubelajarseru #belajardirumah #elearning #belajaronline #dirumahaja #COVID19 https://t.co/WVbzFqlm4Z</t>
+  </si>
+  <si>
+    <t>Sun Dec 20 06:35:39 +0000 2020</t>
+  </si>
+  <si>
+    <t>Seri Sahabat Rasulullah : Khalid bin Walid - Diskon 20% menjadi Rp.20000
+Gratis ongkos kirim hingga 40rb keseluruh Indonesia.
+#mainanbukuanak #promo #dirumahaja #belajardirumah #buku #membaca #booklover #bookstorm  
+SINOPSIS:Alif senang sekali dibelikan pedang mainan https://t.co/uyspWkUp9K</t>
+  </si>
+  <si>
+    <t>Sun Dec 20 04:12:09 +0000 2020</t>
+  </si>
+  <si>
+    <t>Seri Sahabat Rasulullah : Usamah bin Zaid - Diskon 20% menjadi Rp.20000
+Gratis ongkos kirim hingga 40rb keseluruh Indonesia.
+#mainanbukuanak #promo #dirumahaja #belajardirumah #buku #membaca #booklover #bookstorm  
+SINOPSIS:Faris dan Budi malas sekali mengikuti kerja https://t.co/pVftPD5MOG</t>
+  </si>
+  <si>
+    <t>Sun Dec 20 01:42:12 +0000 2020</t>
+  </si>
+  <si>
+    <t>Seri Sahabat Rasulullah : Zaid bin Tsabit - Diskon 20% menjadi Rp.20000
+Gratis ongkos kirim hingga 40rb keseluruh Indonesia.
+#mainanbukuanak #promo #dirumahaja #belajardirumah #buku #membaca #booklover #bookstorm  
+SINOPSIS:Sarah kehilangan satu lembar kertas catatan https://t.co/8buXgUZgG3</t>
+  </si>
+  <si>
+    <t>Sat Dec 19 23:12:17 +0000 2020</t>
+  </si>
+  <si>
+    <t>Seri Aku cinta Al Quran ; Kitab-Kitab Allah - Diskon 20% menjadi Rp.20000
+Gratis ongkos kirim hingga 40rb keseluruh Indonesia.
+#mainanbukuanak #promo #dirumahaja #belajardirumah #buku #membaca #booklover #bookstorm  
+SINOPSIS:Ojan mendapat peringkat satu saat kenaikan https://t.co/rzyO9Y7wVS</t>
+  </si>
+  <si>
+    <t>Sat Dec 19 20:44:02 +0000 2020</t>
+  </si>
+  <si>
+    <t>Seri Aku cinta Al Quran ; Nuzulul Qur`an - Diskon 20% menjadi Rp.20000
+Gratis ongkos kirim hingga 40rb keseluruh Indonesia.
+#mainanbukuanak #promo #dirumahaja #belajardirumah #buku #membaca #booklover #bookstorm  
+SINOPSIS:Ada lomba hafalan Al-Qur’an di kelas Ojan. Bu https://t.co/snRp2vQ4Tt</t>
+  </si>
+  <si>
+    <t>Sat Dec 19 18:12:09 +0000 2020</t>
+  </si>
+  <si>
+    <t>Seri Aku cinta Al Quran ; Al Qur`an Pertamaku - Diskon 20% menjadi Rp.20000
+Gratis ongkos kirim hingga 40rb keseluruh Indonesia.
+#mainanbukuanak #promo #dirumahaja #belajardirumah #buku #membaca #booklover #bookstorm  
+SINOPSIS:Setiap hari Ojan melihat Oji tidak jajan. https://t.co/CSKrvYk7qo</t>
+  </si>
+  <si>
+    <t>Sat Dec 19 15:44:42 +0000 2020</t>
+  </si>
+  <si>
+    <t>Seri Komik Asmaul Husna 2 - Diskon 20% menjadi Rp.48000
+Gratis ongkos kirim hingga 40rb keseluruh Indonesia.
+#mainanbukuanak #promo #dirumahaja #belajardirumah #buku #membaca #booklover #bookstorm  
+SINOPSIS:Assalamu alaikum Teman-Teman!
+Apakah di antara kalian ada yang https://t.co/oORbSG8Zth</t>
+  </si>
+  <si>
+    <t>Sat Dec 19 13:12:25 +0000 2020</t>
+  </si>
+  <si>
+    <t>SEKDA LUTIM IKUTI PERINGATAN HARI IBU KE 92 TINGKAT PROVINSI SULSEL SECARA VIRTUAL
+BACA INFORMASI LENGKAPNYA DI 👉 https://t.co/GjM55GNK2j
+#ayolawancorona #belajardirumah #dirumahsaja #jagakebersihan #jagakesehatan #jagajarak #pakemasker #tetapwaspada #coronabisasembuh https://t.co/gFybQ1KPBD</t>
+  </si>
+  <si>
+    <t>Sat Dec 19 10:50:31 +0000 2020</t>
+  </si>
+  <si>
+    <t>Berkunjung ke Bosscha - Diskon 20% menjadi Rp.40000
+Gratis ongkos kirim hingga 40rb keseluruh Indonesia.
+#mainanbukuanak #promo #dirumahaja #belajardirumah #buku #membaca #booklover #bookstorm  
+SINOPSIS:
+PENULIS:Lisdy Rahayu https://t.co/wivUdaYjzM</t>
+  </si>
+  <si>
+    <t>Sat Dec 19 10:44:51 +0000 2020</t>
+  </si>
+  <si>
+    <t>Update Perkembangan Covid-19 di Kabupaten Luwu Timur per 19 Desember 2020.
+5 sembuh dan 2 kasus baru.
+Perbaharui terus informasi di https://t.co/D4pL3qgDlY
+#ayolawancorona #belajardirumah #beribadahdirumah #bermaindirumah #dirumahsaja #jagakebersihan #jagakesehatan #jagajarak https://t.co/hUNhJ68M0y</t>
+  </si>
+  <si>
+    <t>Sat Dec 19 10:02:13 +0000 2020</t>
+  </si>
+  <si>
+    <t>Seri Sahabat Rasulullah : Abu Hurairah - Diskon 20% menjadi Rp.20000
+Gratis ongkos kirim hingga 40rb keseluruh Indonesia.
+#mainanbukuanak #promo #dirumahaja #belajardirumah #buku #membaca #booklover #bookstorm  
+SINOPSIS:Budi menemukan seekor kucing kelaparan di sekolah. https://t.co/CLtGSUXJa3</t>
+  </si>
+  <si>
+    <t>Sat Dec 19 08:20:07 +0000 2020</t>
+  </si>
+  <si>
+    <t>Ayo siapa di sini yang udah burnout? Yuk, simak ciri-cirinya!
+#pendidikankarakter #belajardirumah #dirumahaja #generasimillenial #kelaspintarindonesia https://t.co/cOW21YhUOr</t>
+  </si>
+  <si>
+    <t>Sat Dec 19 06:01:47 +0000 2020</t>
+  </si>
+  <si>
+    <t>Seri Sahabat Rasulullah : Abdurrahman bin Auf - Diskon 20% menjadi Rp.20000
+Gratis ongkos kirim hingga 40rb keseluruh Indonesia.
+#mainanbukuanak #promo #dirumahaja #belajardirumah #buku #membaca #booklover #bookstorm  
+SINOPSIS:Setiap hari Salwa menjual donat buatan https://t.co/8q0E6oJHzA</t>
+  </si>
+  <si>
+    <t>Sat Dec 19 05:42:52 +0000 2020</t>
+  </si>
+  <si>
+    <t>Seri Sahabat Rasulullah : Hudzaifah bin Yaman - Diskon 20% menjadi Rp.20000
+Gratis ongkos kirim hingga 40rb keseluruh Indonesia.
+#mainanbukuanak #promo #dirumahaja #belajardirumah #buku #membaca #booklover #bookstorm  
+SINOPSIS:Muti dan Reni sedang bertengkar. Reni yakin https://t.co/x9K969Sut3</t>
+  </si>
+  <si>
+    <t>Sat Dec 19 03:13:30 +0000 2020</t>
+  </si>
+  <si>
+    <t>Seri Sahabat Rasulullah : Abu Dzar al-Ghifari - Diskon 20% menjadi Rp.20000
+Gratis ongkos kirim hingga 40rb keseluruh Indonesia.
+#mainanbukuanak #promo #dirumahaja #belajardirumah #buku #membaca #booklover #bookstorm  
+SINOPSIS:Dhea memiliki setumpuk mainan dan pakaian https://t.co/ktjRaiuHGW</t>
+  </si>
+  <si>
+    <t>Sat Dec 19 00:43:44 +0000 2020</t>
+  </si>
+  <si>
+    <t>PEDULI BENCANA, BTB LUWU TIMUR SIAP BERKONTRIBUSI
+BACA INFORMASI LENGKAPNYA DI 👉 https://t.co/9Ey6NRszBG
+#ayolawancorona #belajardirumah #beribadahdirumah #bermaindirumah #dirumahsaja #jagakebersihan #jagakesehatan #jagajarak #pakemasker #tetapwaspada #coronabisasembuh https://t.co/MI2m4mIelp</t>
+  </si>
+  <si>
+    <t>Fri Dec 18 23:23:14 +0000 2020</t>
+  </si>
+  <si>
+    <t>Seri Aku Cinta Al Quran ; Keajaiban Al Qur`an - Diskon 20% menjadi Rp.20000
+Gratis ongkos kirim hingga 40rb keseluruh Indonesia.
+#mainanbukuanak #promo #dirumahaja #belajardirumah #buku #membaca #booklover #bookstorm  
+SINOPSIS:Ojan Oji dan teman-teman sedang berlibur di https://t.co/5e2nwkIp0C</t>
+  </si>
+  <si>
+    <t>Fri Dec 18 22:16:04 +0000 2020</t>
+  </si>
+  <si>
+    <t>1 Set Seri Aku Cinta Al Quran - Diskon 20% menjadi Rp.100000
+Gratis ongkos kirim hingga 40rb keseluruh Indonesia.
+#mainanbukuanak #promo #dirumahaja #belajardirumah #buku #membaca #booklover #bookstorm  
+SINOPSIS:
+PENULIS:Irvan Aqila https://t.co/hgBHTIi0qu</t>
+  </si>
+  <si>
+    <t>Fri Dec 18 19:42:44 +0000 2020</t>
+  </si>
+  <si>
+    <t>Seri Aku Cinta Al Quran ; Hafizh dan Hafizhah - Diskon 20% menjadi Rp.20000
+Gratis ongkos kirim hingga 40rb keseluruh Indonesia.
+#mainanbukuanak #promo #dirumahaja #belajardirumah #buku #membaca #booklover #bookstorm  
+SINOPSIS:Oji sedang bingung. Ia ingin sekali memberi https://t.co/FQhqEdttXA</t>
+  </si>
+  <si>
+    <t>Fri Dec 18 17:14:13 +0000 2020</t>
+  </si>
+  <si>
+    <t>1 Set Seri Sahabat Rasulullah - Diskon 20% menjadi Rp.200000
+Gratis ongkos kirim hingga 40rb keseluruh Indonesia.
+#mainanbukuanak #promo #dirumahaja #belajardirumah #buku #membaca #booklover #bookstorm  
+SINOPSIS:
+PENULIS:Ridha Anwar,Rien.riennn,Shinta Handini https://t.co/giD7iEBWKH</t>
+  </si>
+  <si>
+    <t>Fri Dec 18 14:42:09 +0000 2020</t>
+  </si>
+  <si>
+    <t>Ekonomi kebal covid? Mungkin saja karena kegiatan ekonomi wajib berjalan meski tersendat. Sebaliknya, bidang pendidikan tak berdaya hadapi sistem pembelajaran daring. 
+}---&amp;gt; #Opini #pendidikan #belajardirumah 
+https://t.co/9RiHkFoLUI</t>
+  </si>
+  <si>
+    <t>Fri Dec 18 13:15:00 +0000 2020</t>
+  </si>
+  <si>
+    <t>Ringkasan Kebijakan terkait pembelajaran jarak jauh adalah yang paling banyak diunduh dan dibaca di tahun ini. Semoga apa yang kami tulis dapat bermanfaat bagi banyak pihak. #PJJ #BelajardiRumah https://t.co/fvLFzOSJtB</t>
+  </si>
+  <si>
+    <t>cips_id</t>
+  </si>
+  <si>
+    <t>Fri Dec 18 12:27:24 +0000 2020</t>
+  </si>
+  <si>
+    <t>Seri Komik Asmaul Husna 3 - Diskon 20% menjadi Rp.48000
+Gratis ongkos kirim hingga 40rb keseluruh Indonesia.
+#mainanbukuanak #promo #dirumahaja #belajardirumah #buku #membaca #booklover #bookstorm  
+SINOPSIS:Assalamu alaikum Teman-Teman!
+Apakah di antara kalian ada yang https://t.co/TTBKXlkNrA</t>
+  </si>
+  <si>
+    <t>Fri Dec 18 12:12:10 +0000 2020</t>
+  </si>
+  <si>
+    <t>Fri Dec 18 11:00:00 +0000 2020</t>
+  </si>
+  <si>
+    <t>HARI INI PASIEN SEMBUH BERTAMBAH 8, KASUS BARU 11 DAN 1 LAGI PASIEN COVID19 MENINGGAL
+INFORMASI LENGKAPNYA BACA DI 👉 https://t.co/m7z1IY2Sv2
+#ayolawancorona #belajardirumah #dirumahsaja #jagakebersihan #jagakesehatan #jagajarak #pakemasker #tetapwaspada #coronabisasembuh https://t.co/QAdEK1cgnG</t>
+  </si>
+  <si>
+    <t>Fri Dec 18 10:26:05 +0000 2020</t>
+  </si>
+  <si>
+    <t>Update Perkembangan Covid-19 di Kabupaten Luwu Timur per 18 Desember 2020.
+8 sembuh, 11 kasus baru dan 1 meninggal.
+Perbaharui terus informasi anda di https://t.co/D4pL3qgDlY
+#ayolawancorona #belajardirumah #bermaindirumah #dirumahsaja #jagakebersihan #jagakesehatan #jagajarak https://t.co/XpUOTkGaXJ</t>
+  </si>
+  <si>
+    <t>Fri Dec 18 10:25:32 +0000 2020</t>
+  </si>
+  <si>
+    <t>Rindu Al -Aqsha - Diskon 20% menjadi Rp.20000
+Gratis ongkos kirim hingga 40rb keseluruh Indonesia.
+#mainanbukuanak #promo #dirumahaja #belajardirumah #buku #membaca #booklover #bookstorm  
+SINOPSIS:Masjidil Aqsha yang diberkahi memiliki banyak keistimewaan. Para dan Paru https://t.co/ha3ND3Fk9M</t>
+  </si>
+  <si>
+    <t>Fri Dec 18 09:42:07 +0000 2020</t>
+  </si>
+  <si>
+    <t>Pernah ketemu impostor seperti ini gak?
+#pendidikankarakter #gameonline #belajardirumah #generasicerdas #kelaspintarindonesia https://t.co/mXCQzMBFoz</t>
+  </si>
+  <si>
+    <t>Fri Dec 18 09:01:32 +0000 2020</t>
+  </si>
+  <si>
+    <t>1 Set Aku Suka Sedekah - Diskon 20% menjadi Rp.100000
+Gratis ongkos kirim hingga 40rb keseluruh Indonesia.
+#mainanbukuanak #promo #dirumahaja #belajardirumah #buku #membaca #booklover #bookstorm  
+SINOPSIS:
+PENULIS: Syarifah Levi https://t.co/j1QcCOYyRX</t>
+  </si>
+  <si>
+    <t>Fri Dec 18 07:14:36 +0000 2020</t>
+  </si>
+  <si>
+    <t>Gong Yo naek perahu
+Yok, masih ada waktu tau!
+Dapetin gift set cantik banget dari @mytulisan yang gak boleh kalian lewatin. 
+Cek Instagram @kelaskitadotcom sekarang!
+#kelaskita #carabarubelajarseru #belajardirumah #elearning #belajaronline #dirumahaja #giveaway #tulisan https://t.co/HdjlovNxsM</t>
+  </si>
+  <si>
+    <t>Fri Dec 18 05:18:04 +0000 2020</t>
+  </si>
+  <si>
+    <t>1 Set Seri Perempuan Penghulu surga - Diskon 20% menjadi Rp.134400
+Gratis ongkos kirim hingga 40rb keseluruh Indonesia.
+#mainanbukuanak #promo #dirumahaja #belajardirumah #buku #membaca #booklover #bookstorm  
+SINOPSIS:
+PENULIS:Ririn Rahayu Astuti Ningrum https://t.co/qSAjHJqnKD</t>
+  </si>
+  <si>
+    <t>Fri Dec 18 04:42:34 +0000 2020</t>
+  </si>
+  <si>
+    <t>Seri Kebenaran al Quran ; Gunung Pelangi - Diskon 20% menjadi Rp.20000
+Gratis ongkos kirim hingga 40rb keseluruh Indonesia.
+#mainanbukuanak #promo #dirumahaja #belajardirumah #buku #membaca #booklover #bookstorm  
+SINOPSIS:Hutan tempat Elang tinggal kebakaran. Ia pun https://t.co/7JZ1n2esFz</t>
+  </si>
+  <si>
+    <t>Fri Dec 18 02:13:29 +0000 2020</t>
+  </si>
+  <si>
+    <t>Seri Kebenaran al Quran ; Api di Laut - Diskon 20% menjadi Rp.20000
+Gratis ongkos kirim hingga 40rb keseluruh Indonesia.
+#mainanbukuanak #promo #dirumahaja #belajardirumah #buku #membaca #booklover #bookstorm  
+SINOPSIS:Suatu hari Kepiting mendengar nelayan bercerita https://t.co/D8FYxHXdtr</t>
+  </si>
+  <si>
+    <t>Fri Dec 18 00:01:01 +0000 2020</t>
+  </si>
+  <si>
+    <t>Seri Kebenaran al Quran ; Tumbuhan Bertasbih - Diskon 20% menjadi Rp.20000
+Gratis ongkos kirim hingga 40rb keseluruh Indonesia.
+#mainanbukuanak #promo #dirumahaja #belajardirumah #buku #membaca #booklover #bookstorm  
+SINOPSIS:Zaid dan Zahra sangat menyayangi Gaga si https://t.co/aE6EiD74Q0</t>
+  </si>
+  <si>
+    <t>Thu Dec 17 21:12:34 +0000 2020</t>
+  </si>
+  <si>
+    <t>Mengenal Huruf abjad - Diskon 20% menjadi Rp.16000
+Gratis ongkos kirim hingga 40rb keseluruh Indonesia.
+#mainanbukuanak #promo #dirumahaja #belajardirumah #buku #membaca #booklover #bookstorm  
+SINOPSIS:Yuk kita belajar mengenal huruf abjad bersama-sama!
+Di dalam buku https://t.co/QTgURKrrnt</t>
+  </si>
+  <si>
+    <t>Thu Dec 17 18:42:59 +0000 2020</t>
+  </si>
+  <si>
+    <t>SERI KALIMAT THAYYIBAH ; Bismillah - Diskon 20% menjadi Rp.28000
+Gratis ongkos kirim hingga 40rb keseluruh Indonesia.
+#mainanbukuanak #promo #dirumahaja #belajardirumah #buku #membaca #booklover #bookstorm  
+SINOPSIS:Sebelum melakukan kegiatan ucapkanlah https://t.co/bzv8k9F7aF</t>
+  </si>
+  <si>
+    <t>Thu Dec 17 16:17:05 +0000 2020</t>
   </si>
 </sst>
 </file>
@@ -5283,10 +5906,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D603"/>
+  <dimension ref="A1:D691"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A580" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="J597" sqref="J597"/>
+    <sheetView tabSelected="1" topLeftCell="A670" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="I686" sqref="I686"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -13733,6 +14356,1238 @@
         <v>1050</v>
       </c>
     </row>
+    <row r="604" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A604">
+        <v>1.3410387534779021E+18</v>
+      </c>
+      <c r="B604" t="s">
+        <v>1197</v>
+      </c>
+      <c r="C604" t="s">
+        <v>625</v>
+      </c>
+      <c r="D604" t="s">
+        <v>1198</v>
+      </c>
+    </row>
+    <row r="605" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A605">
+        <v>1.341021118841418E+18</v>
+      </c>
+      <c r="B605" t="s">
+        <v>1199</v>
+      </c>
+      <c r="C605" t="s">
+        <v>72</v>
+      </c>
+      <c r="D605" t="s">
+        <v>1200</v>
+      </c>
+    </row>
+    <row r="606" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A606">
+        <v>1.3410030126558331E+18</v>
+      </c>
+      <c r="B606" t="s">
+        <v>1201</v>
+      </c>
+      <c r="C606" t="s">
+        <v>1202</v>
+      </c>
+      <c r="D606" t="s">
+        <v>1203</v>
+      </c>
+    </row>
+    <row r="607" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A607">
+        <v>1.3410012429993569E+18</v>
+      </c>
+      <c r="B607" t="s">
+        <v>1204</v>
+      </c>
+      <c r="C607" t="s">
+        <v>625</v>
+      </c>
+      <c r="D607" t="s">
+        <v>1205</v>
+      </c>
+    </row>
+    <row r="608" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A608">
+        <v>1.3409853597824079E+18</v>
+      </c>
+      <c r="B608" t="s">
+        <v>1206</v>
+      </c>
+      <c r="C608" t="s">
+        <v>72</v>
+      </c>
+      <c r="D608" t="s">
+        <v>1207</v>
+      </c>
+    </row>
+    <row r="609" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A609">
+        <v>1.340982174732833E+18</v>
+      </c>
+      <c r="B609" t="s">
+        <v>1208</v>
+      </c>
+      <c r="C609" t="s">
+        <v>21</v>
+      </c>
+      <c r="D609" t="s">
+        <v>1209</v>
+      </c>
+    </row>
+    <row r="610" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A610">
+        <v>1.340963280349622E+18</v>
+      </c>
+      <c r="B610" t="s">
+        <v>1210</v>
+      </c>
+      <c r="C610" t="s">
+        <v>625</v>
+      </c>
+      <c r="D610" t="s">
+        <v>1211</v>
+      </c>
+    </row>
+    <row r="611" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A611">
+        <v>1.3409557084480719E+18</v>
+      </c>
+      <c r="B611" t="s">
+        <v>1212</v>
+      </c>
+      <c r="C611" t="s">
+        <v>1213</v>
+      </c>
+      <c r="D611" t="s">
+        <v>1214</v>
+      </c>
+    </row>
+    <row r="612" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A612">
+        <v>1.3409557019847309E+18</v>
+      </c>
+      <c r="B612" t="s">
+        <v>1215</v>
+      </c>
+      <c r="C612" t="s">
+        <v>1213</v>
+      </c>
+      <c r="D612" t="s">
+        <v>1216</v>
+      </c>
+    </row>
+    <row r="613" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A613">
+        <v>1.3409464835084659E+18</v>
+      </c>
+      <c r="B613" t="s">
+        <v>1217</v>
+      </c>
+      <c r="C613" t="s">
+        <v>21</v>
+      </c>
+      <c r="D613" t="s">
+        <v>1218</v>
+      </c>
+    </row>
+    <row r="614" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A614">
+        <v>1.3409316051293919E+18</v>
+      </c>
+      <c r="B614" t="s">
+        <v>1219</v>
+      </c>
+      <c r="C614" t="s">
+        <v>21</v>
+      </c>
+      <c r="D614" t="s">
+        <v>1220</v>
+      </c>
+    </row>
+    <row r="615" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A615">
+        <v>1.3409256127775869E+18</v>
+      </c>
+      <c r="B615" t="s">
+        <v>1221</v>
+      </c>
+      <c r="C615" t="s">
+        <v>625</v>
+      </c>
+      <c r="D615" t="s">
+        <v>1222</v>
+      </c>
+    </row>
+    <row r="616" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A616">
+        <v>1.340888793260278E+18</v>
+      </c>
+      <c r="B616" t="s">
+        <v>1223</v>
+      </c>
+      <c r="C616" t="s">
+        <v>21</v>
+      </c>
+      <c r="D616" t="s">
+        <v>1224</v>
+      </c>
+    </row>
+    <row r="617" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A617">
+        <v>1.340888001304351E+18</v>
+      </c>
+      <c r="B617" t="s">
+        <v>1225</v>
+      </c>
+      <c r="C617" t="s">
+        <v>625</v>
+      </c>
+      <c r="D617" t="s">
+        <v>1226</v>
+      </c>
+    </row>
+    <row r="618" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A618">
+        <v>1.3408501103942331E+18</v>
+      </c>
+      <c r="B618" t="s">
+        <v>1227</v>
+      </c>
+      <c r="C618" t="s">
+        <v>625</v>
+      </c>
+      <c r="D618" t="s">
+        <v>1228</v>
+      </c>
+    </row>
+    <row r="619" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A619">
+        <v>1.340830065920193E+18</v>
+      </c>
+      <c r="B619" t="s">
+        <v>1229</v>
+      </c>
+      <c r="C619" t="s">
+        <v>1230</v>
+      </c>
+      <c r="D619" t="s">
+        <v>1231</v>
+      </c>
+    </row>
+    <row r="620" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A620">
+        <v>1.3408142466412009E+18</v>
+      </c>
+      <c r="B620" t="s">
+        <v>1232</v>
+      </c>
+      <c r="C620" t="s">
+        <v>53</v>
+      </c>
+      <c r="D620" t="s">
+        <v>1233</v>
+      </c>
+    </row>
+    <row r="621" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A621">
+        <v>1.3408122987015539E+18</v>
+      </c>
+      <c r="B621" t="s">
+        <v>1234</v>
+      </c>
+      <c r="C621" t="s">
+        <v>625</v>
+      </c>
+      <c r="D621" t="s">
+        <v>1235</v>
+      </c>
+    </row>
+    <row r="622" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A622">
+        <v>1.3407773076072451E+18</v>
+      </c>
+      <c r="B622" t="s">
+        <v>1236</v>
+      </c>
+      <c r="C622" t="s">
+        <v>625</v>
+      </c>
+      <c r="D622" t="s">
+        <v>1237</v>
+      </c>
+    </row>
+    <row r="623" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A623">
+        <v>1.340775229719658E+18</v>
+      </c>
+      <c r="B623" t="s">
+        <v>1238</v>
+      </c>
+      <c r="C623" t="s">
+        <v>53</v>
+      </c>
+      <c r="D623" t="s">
+        <v>1239</v>
+      </c>
+    </row>
+    <row r="624" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A624">
+        <v>1.340739019429143E+18</v>
+      </c>
+      <c r="B624" t="s">
+        <v>1240</v>
+      </c>
+      <c r="C624" t="s">
+        <v>625</v>
+      </c>
+      <c r="D624" t="s">
+        <v>1241</v>
+      </c>
+    </row>
+    <row r="625" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A625">
+        <v>1.3406990414751291E+18</v>
+      </c>
+      <c r="B625" t="s">
+        <v>1242</v>
+      </c>
+      <c r="C625" t="s">
+        <v>625</v>
+      </c>
+      <c r="D625" t="s">
+        <v>1243</v>
+      </c>
+    </row>
+    <row r="626" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A626">
+        <v>1.340677638868767E+18</v>
+      </c>
+      <c r="B626" t="s">
+        <v>1244</v>
+      </c>
+      <c r="C626" t="s">
+        <v>1245</v>
+      </c>
+      <c r="D626" t="s">
+        <v>1246</v>
+      </c>
+    </row>
+    <row r="627" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A627">
+        <v>1.3406613701240379E+18</v>
+      </c>
+      <c r="B627" t="s">
+        <v>1247</v>
+      </c>
+      <c r="C627" t="s">
+        <v>625</v>
+      </c>
+      <c r="D627" t="s">
+        <v>1248</v>
+      </c>
+    </row>
+    <row r="628" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A628">
+        <v>1.3406292519894999E+18</v>
+      </c>
+      <c r="B628" t="s">
+        <v>1249</v>
+      </c>
+      <c r="C628" t="s">
+        <v>21</v>
+      </c>
+      <c r="D628" t="s">
+        <v>1250</v>
+      </c>
+    </row>
+    <row r="629" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A629">
+        <v>1.3406291657629901E+18</v>
+      </c>
+      <c r="B629" t="s">
+        <v>1251</v>
+      </c>
+      <c r="C629" t="s">
+        <v>21</v>
+      </c>
+      <c r="D629" t="s">
+        <v>1252</v>
+      </c>
+    </row>
+    <row r="630" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A630">
+        <v>1.34062849145326E+18</v>
+      </c>
+      <c r="B630" t="s">
+        <v>1253</v>
+      </c>
+      <c r="C630" t="s">
+        <v>72</v>
+      </c>
+      <c r="D630" t="s">
+        <v>1254</v>
+      </c>
+    </row>
+    <row r="631" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A631">
+        <v>1.340623512873026E+18</v>
+      </c>
+      <c r="B631" t="s">
+        <v>1255</v>
+      </c>
+      <c r="C631" t="s">
+        <v>625</v>
+      </c>
+      <c r="D631" t="s">
+        <v>1256</v>
+      </c>
+    </row>
+    <row r="632" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A632">
+        <v>1.3406053717911181E+18</v>
+      </c>
+      <c r="B632" t="s">
+        <v>1257</v>
+      </c>
+      <c r="C632" t="s">
+        <v>273</v>
+      </c>
+      <c r="D632" t="s">
+        <v>1258</v>
+      </c>
+    </row>
+    <row r="633" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A633">
+        <v>1.3405857376583839E+18</v>
+      </c>
+      <c r="B633" t="s">
+        <v>1259</v>
+      </c>
+      <c r="C633" t="s">
+        <v>625</v>
+      </c>
+      <c r="D633" t="s">
+        <v>1260</v>
+      </c>
+    </row>
+    <row r="634" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A634">
+        <v>1.340583074686484E+18</v>
+      </c>
+      <c r="B634" t="s">
+        <v>1261</v>
+      </c>
+      <c r="C634" t="s">
+        <v>72</v>
+      </c>
+      <c r="D634" t="s">
+        <v>1262</v>
+      </c>
+    </row>
+    <row r="635" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A635">
+        <v>1.3405498845464041E+18</v>
+      </c>
+      <c r="B635" t="s">
+        <v>1263</v>
+      </c>
+      <c r="C635" t="s">
+        <v>625</v>
+      </c>
+      <c r="D635" t="s">
+        <v>1264</v>
+      </c>
+    </row>
+    <row r="636" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A636">
+        <v>1.3405487812347369E+18</v>
+      </c>
+      <c r="B636" t="s">
+        <v>1265</v>
+      </c>
+      <c r="C636" t="s">
+        <v>45</v>
+      </c>
+      <c r="D636" t="s">
+        <v>1266</v>
+      </c>
+    </row>
+    <row r="637" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A637">
+        <v>1.3405485299205161E+18</v>
+      </c>
+      <c r="B637" t="s">
+        <v>1267</v>
+      </c>
+      <c r="C637" t="s">
+        <v>45</v>
+      </c>
+      <c r="D637" t="s">
+        <v>1268</v>
+      </c>
+    </row>
+    <row r="638" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A638">
+        <v>1.340546976627061E+18</v>
+      </c>
+      <c r="B638" t="s">
+        <v>1269</v>
+      </c>
+      <c r="C638" t="s">
+        <v>45</v>
+      </c>
+      <c r="D638" t="s">
+        <v>1270</v>
+      </c>
+    </row>
+    <row r="639" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A639">
+        <v>1.3405463890470049E+18</v>
+      </c>
+      <c r="B639" t="s">
+        <v>1271</v>
+      </c>
+      <c r="C639" t="s">
+        <v>45</v>
+      </c>
+      <c r="D639" t="s">
+        <v>1272</v>
+      </c>
+    </row>
+    <row r="640" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A640">
+        <v>1.3405102737952891E+18</v>
+      </c>
+      <c r="B640" t="s">
+        <v>1273</v>
+      </c>
+      <c r="C640" t="s">
+        <v>625</v>
+      </c>
+      <c r="D640" t="s">
+        <v>1274</v>
+      </c>
+    </row>
+    <row r="641" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A641">
+        <v>1.340472537805812E+18</v>
+      </c>
+      <c r="B641" t="s">
+        <v>1275</v>
+      </c>
+      <c r="C641" t="s">
+        <v>625</v>
+      </c>
+      <c r="D641" t="s">
+        <v>1276</v>
+      </c>
+    </row>
+    <row r="642" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A642">
+        <v>1.3404348112703081E+18</v>
+      </c>
+      <c r="B642" t="s">
+        <v>1277</v>
+      </c>
+      <c r="C642" t="s">
+        <v>625</v>
+      </c>
+      <c r="D642" t="s">
+        <v>1278</v>
+      </c>
+    </row>
+    <row r="643" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A643">
+        <v>1.340397501279392E+18</v>
+      </c>
+      <c r="B643" t="s">
+        <v>1279</v>
+      </c>
+      <c r="C643" t="s">
+        <v>625</v>
+      </c>
+      <c r="D643" t="s">
+        <v>1280</v>
+      </c>
+    </row>
+    <row r="644" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A644">
+        <v>1.340359279727895E+18</v>
+      </c>
+      <c r="B644" t="s">
+        <v>1281</v>
+      </c>
+      <c r="C644" t="s">
+        <v>625</v>
+      </c>
+      <c r="D644" t="s">
+        <v>1282</v>
+      </c>
+    </row>
+    <row r="645" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A645">
+        <v>1.3403221710049359E+18</v>
+      </c>
+      <c r="B645" t="s">
+        <v>1283</v>
+      </c>
+      <c r="C645" t="s">
+        <v>625</v>
+      </c>
+      <c r="D645" t="s">
+        <v>1284</v>
+      </c>
+    </row>
+    <row r="646" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A646">
+        <v>1.3402838469153669E+18</v>
+      </c>
+      <c r="B646" t="s">
+        <v>1285</v>
+      </c>
+      <c r="C646" t="s">
+        <v>625</v>
+      </c>
+      <c r="D646" t="s">
+        <v>1286</v>
+      </c>
+    </row>
+    <row r="647" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A647">
+        <v>1.340248137231786E+18</v>
+      </c>
+      <c r="B647" t="s">
+        <v>1287</v>
+      </c>
+      <c r="C647" t="s">
+        <v>21</v>
+      </c>
+      <c r="D647" t="s">
+        <v>1288</v>
+      </c>
+    </row>
+    <row r="648" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A648">
+        <v>1.3402467117849851E+18</v>
+      </c>
+      <c r="B648" t="s">
+        <v>1289</v>
+      </c>
+      <c r="C648" t="s">
+        <v>625</v>
+      </c>
+      <c r="D648" t="s">
+        <v>1290</v>
+      </c>
+    </row>
+    <row r="649" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A649">
+        <v>1.34023598478959E+18</v>
+      </c>
+      <c r="B649" t="s">
+        <v>1291</v>
+      </c>
+      <c r="C649" t="s">
+        <v>21</v>
+      </c>
+      <c r="D649" t="s">
+        <v>1292</v>
+      </c>
+    </row>
+    <row r="650" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A650">
+        <v>1.3402102898205901E+18</v>
+      </c>
+      <c r="B650" t="s">
+        <v>1293</v>
+      </c>
+      <c r="C650" t="s">
+        <v>625</v>
+      </c>
+      <c r="D650" t="s">
+        <v>1294</v>
+      </c>
+    </row>
+    <row r="651" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A651">
+        <v>1.340175474643841E+18</v>
+      </c>
+      <c r="B651" t="s">
+        <v>1295</v>
+      </c>
+      <c r="C651" t="s">
+        <v>72</v>
+      </c>
+      <c r="D651" t="s">
+        <v>1296</v>
+      </c>
+    </row>
+    <row r="652" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A652">
+        <v>1.3401707178752251E+18</v>
+      </c>
+      <c r="B652" t="s">
+        <v>1297</v>
+      </c>
+      <c r="C652" t="s">
+        <v>625</v>
+      </c>
+      <c r="D652" t="s">
+        <v>1298</v>
+      </c>
+    </row>
+    <row r="653" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A653">
+        <v>1.3401331281914061E+18</v>
+      </c>
+      <c r="B653" t="s">
+        <v>1299</v>
+      </c>
+      <c r="C653" t="s">
+        <v>625</v>
+      </c>
+      <c r="D653" t="s">
+        <v>1300</v>
+      </c>
+    </row>
+    <row r="654" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A654">
+        <v>1.3400954353697101E+18</v>
+      </c>
+      <c r="B654" t="s">
+        <v>1301</v>
+      </c>
+      <c r="C654" t="s">
+        <v>625</v>
+      </c>
+      <c r="D654" t="s">
+        <v>1302</v>
+      </c>
+    </row>
+    <row r="655" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A655">
+        <v>1.340075177548214E+18</v>
+      </c>
+      <c r="B655" t="s">
+        <v>1303</v>
+      </c>
+      <c r="C655" t="s">
+        <v>21</v>
+      </c>
+      <c r="D655" t="s">
+        <v>1304</v>
+      </c>
+    </row>
+    <row r="656" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A656">
+        <v>1.34005827510288E+18</v>
+      </c>
+      <c r="B656" t="s">
+        <v>1305</v>
+      </c>
+      <c r="C656" t="s">
+        <v>625</v>
+      </c>
+      <c r="D656" t="s">
+        <v>1306</v>
+      </c>
+    </row>
+    <row r="657" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A657">
+        <v>1.340019688814772E+18</v>
+      </c>
+      <c r="B657" t="s">
+        <v>1307</v>
+      </c>
+      <c r="C657" t="s">
+        <v>625</v>
+      </c>
+      <c r="D657" t="s">
+        <v>1308</v>
+      </c>
+    </row>
+    <row r="658" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A658">
+        <v>1.3399823121637949E+18</v>
+      </c>
+      <c r="B658" t="s">
+        <v>1309</v>
+      </c>
+      <c r="C658" t="s">
+        <v>625</v>
+      </c>
+      <c r="D658" t="s">
+        <v>1310</v>
+      </c>
+    </row>
+    <row r="659" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A659">
+        <v>1.339944044940542E+18</v>
+      </c>
+      <c r="B659" t="s">
+        <v>1311</v>
+      </c>
+      <c r="C659" t="s">
+        <v>625</v>
+      </c>
+      <c r="D659" t="s">
+        <v>1312</v>
+      </c>
+    </row>
+    <row r="660" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A660">
+        <v>1.3399221100224719E+18</v>
+      </c>
+      <c r="B660" t="s">
+        <v>1313</v>
+      </c>
+      <c r="C660" t="s">
+        <v>141</v>
+      </c>
+      <c r="D660" t="s">
+        <v>1314</v>
+      </c>
+    </row>
+    <row r="661" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A661">
+        <v>1.339910130339521E+18</v>
+      </c>
+      <c r="B661" t="s">
+        <v>1315</v>
+      </c>
+      <c r="C661" t="s">
+        <v>1316</v>
+      </c>
+      <c r="D661" t="s">
+        <v>1317</v>
+      </c>
+    </row>
+    <row r="662" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A662">
+        <v>1.339906299123778E+18</v>
+      </c>
+      <c r="B662" t="s">
+        <v>1318</v>
+      </c>
+      <c r="C662" t="s">
+        <v>625</v>
+      </c>
+      <c r="D662" t="s">
+        <v>1319</v>
+      </c>
+    </row>
+    <row r="663" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A663">
+        <v>1.339888136969728E+18</v>
+      </c>
+      <c r="B663" t="s">
+        <v>1098</v>
+      </c>
+      <c r="C663" t="s">
+        <v>18</v>
+      </c>
+      <c r="D663" t="s">
+        <v>1320</v>
+      </c>
+    </row>
+    <row r="664" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A664">
+        <v>1.339879602492076E+18</v>
+      </c>
+      <c r="B664" t="s">
+        <v>1321</v>
+      </c>
+      <c r="C664" t="s">
+        <v>21</v>
+      </c>
+      <c r="D664" t="s">
+        <v>1322</v>
+      </c>
+    </row>
+    <row r="665" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A665">
+        <v>1.3398794618318851E+18</v>
+      </c>
+      <c r="B665" t="s">
+        <v>1323</v>
+      </c>
+      <c r="C665" t="s">
+        <v>21</v>
+      </c>
+      <c r="D665" t="s">
+        <v>1324</v>
+      </c>
+    </row>
+    <row r="666" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A666">
+        <v>1.339868535233729E+18</v>
+      </c>
+      <c r="B666" t="s">
+        <v>1325</v>
+      </c>
+      <c r="C666" t="s">
+        <v>625</v>
+      </c>
+      <c r="D666" t="s">
+        <v>1326</v>
+      </c>
+    </row>
+    <row r="667" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A667">
+        <v>1.3398583231690099E+18</v>
+      </c>
+      <c r="B667" t="s">
+        <v>1327</v>
+      </c>
+      <c r="C667" t="s">
+        <v>72</v>
+      </c>
+      <c r="D667" t="s">
+        <v>1328</v>
+      </c>
+    </row>
+    <row r="668" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A668">
+        <v>1.339831414309601E+18</v>
+      </c>
+      <c r="B668" t="s">
+        <v>1329</v>
+      </c>
+      <c r="C668" t="s">
+        <v>625</v>
+      </c>
+      <c r="D668" t="s">
+        <v>1330</v>
+      </c>
+    </row>
+    <row r="669" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A669">
+        <v>1.3398020885581171E+18</v>
+      </c>
+      <c r="B669" t="s">
+        <v>1331</v>
+      </c>
+      <c r="C669" t="s">
+        <v>45</v>
+      </c>
+      <c r="D669" t="s">
+        <v>1332</v>
+      </c>
+    </row>
+    <row r="670" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A670">
+        <v>1.3397931514106309E+18</v>
+      </c>
+      <c r="B670" t="s">
+        <v>1333</v>
+      </c>
+      <c r="C670" t="s">
+        <v>625</v>
+      </c>
+      <c r="D670" t="s">
+        <v>1334</v>
+      </c>
+    </row>
+    <row r="671" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A671">
+        <v>1.339755636070838E+18</v>
+      </c>
+      <c r="B671" t="s">
+        <v>1335</v>
+      </c>
+      <c r="C671" t="s">
+        <v>625</v>
+      </c>
+      <c r="D671" t="s">
+        <v>1336</v>
+      </c>
+    </row>
+    <row r="672" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A672">
+        <v>1.3397222991009421E+18</v>
+      </c>
+      <c r="B672" t="s">
+        <v>1337</v>
+      </c>
+      <c r="C672" t="s">
+        <v>625</v>
+      </c>
+      <c r="D672" t="s">
+        <v>1338</v>
+      </c>
+    </row>
+    <row r="673" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A673">
+        <v>1.3396799088055749E+18</v>
+      </c>
+      <c r="B673" t="s">
+        <v>1339</v>
+      </c>
+      <c r="C673" t="s">
+        <v>625</v>
+      </c>
+      <c r="D673" t="s">
+        <v>1340</v>
+      </c>
+    </row>
+    <row r="674" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A674">
+        <v>1.339642264495116E+18</v>
+      </c>
+      <c r="B674" t="s">
+        <v>1341</v>
+      </c>
+      <c r="C674" t="s">
+        <v>625</v>
+      </c>
+      <c r="D674" t="s">
+        <v>1342</v>
+      </c>
+    </row>
+    <row r="675" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A675">
+        <v>1.339605544538018E+18</v>
+      </c>
+      <c r="B675" t="s">
+        <v>1343</v>
+      </c>
+      <c r="C675" t="s">
+        <v>625</v>
+      </c>
+      <c r="D675" t="s">
+        <v>1344</v>
+      </c>
+    </row>
+    <row r="676" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A676">
+        <v>1.3395666940338381E+18</v>
+      </c>
+      <c r="B676" t="s">
+        <v>1084</v>
+      </c>
+      <c r="C676" t="s">
+        <v>625</v>
+      </c>
+      <c r="D676" t="s">
+        <v>1085</v>
+      </c>
+    </row>
+    <row r="677" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A677">
+        <v>1.339566265275478E+18</v>
+      </c>
+      <c r="B677" t="s">
+        <v>1086</v>
+      </c>
+      <c r="C677" t="s">
+        <v>141</v>
+      </c>
+      <c r="D677" t="s">
+        <v>1087</v>
+      </c>
+    </row>
+    <row r="678" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A678">
+        <v>1.339558680073708E+18</v>
+      </c>
+      <c r="B678" t="s">
+        <v>1088</v>
+      </c>
+      <c r="C678" t="s">
+        <v>21</v>
+      </c>
+      <c r="D678" t="s">
+        <v>1089</v>
+      </c>
+    </row>
+    <row r="679" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A679">
+        <v>1.3395564299639229E+18</v>
+      </c>
+      <c r="B679" t="s">
+        <v>1090</v>
+      </c>
+      <c r="C679" t="s">
+        <v>72</v>
+      </c>
+      <c r="D679" t="s">
+        <v>1091</v>
+      </c>
+    </row>
+    <row r="680" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A680">
+        <v>1.3395307383838231E+18</v>
+      </c>
+      <c r="B680" t="s">
+        <v>1092</v>
+      </c>
+      <c r="C680" t="s">
+        <v>21</v>
+      </c>
+      <c r="D680" t="s">
+        <v>1093</v>
+      </c>
+    </row>
+    <row r="681" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A681">
+        <v>1.3395301682227121E+18</v>
+      </c>
+      <c r="B681" t="s">
+        <v>1094</v>
+      </c>
+      <c r="C681" t="s">
+        <v>21</v>
+      </c>
+      <c r="D681" t="s">
+        <v>1095</v>
+      </c>
+    </row>
+    <row r="682" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A682">
+        <v>1.339529080266314E+18</v>
+      </c>
+      <c r="B682" t="s">
+        <v>1096</v>
+      </c>
+      <c r="C682" t="s">
+        <v>625</v>
+      </c>
+      <c r="D682" t="s">
+        <v>1097</v>
+      </c>
+    </row>
+    <row r="683" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A683">
+        <v>1.3395106546638359E+18</v>
+      </c>
+      <c r="B683" t="s">
+        <v>1098</v>
+      </c>
+      <c r="C683" t="s">
+        <v>18</v>
+      </c>
+      <c r="D683" t="s">
+        <v>1099</v>
+      </c>
+    </row>
+    <row r="684" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A684">
+        <v>1.3394959456130381E+18</v>
+      </c>
+      <c r="B684" t="s">
+        <v>1100</v>
+      </c>
+      <c r="C684" t="s">
+        <v>72</v>
+      </c>
+      <c r="D684" t="s">
+        <v>1101</v>
+      </c>
+    </row>
+    <row r="685" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A685">
+        <v>1.339491402594484E+18</v>
+      </c>
+      <c r="B685" t="s">
+        <v>1102</v>
+      </c>
+      <c r="C685" t="s">
+        <v>625</v>
+      </c>
+      <c r="D685" t="s">
+        <v>1103</v>
+      </c>
+    </row>
+    <row r="686" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A686">
+        <v>1.339456308735402E+18</v>
+      </c>
+      <c r="B686" t="s">
+        <v>1104</v>
+      </c>
+      <c r="C686" t="s">
+        <v>625</v>
+      </c>
+      <c r="D686" t="s">
+        <v>1105</v>
+      </c>
+    </row>
+    <row r="687" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A687">
+        <v>1.339448110381056E+18</v>
+      </c>
+      <c r="B687" t="s">
+        <v>1106</v>
+      </c>
+      <c r="C687" t="s">
+        <v>1032</v>
+      </c>
+      <c r="D687" t="s">
+        <v>1107</v>
+      </c>
+    </row>
+    <row r="688" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A688">
+        <v>1.3394385334260449E+18</v>
+      </c>
+      <c r="B688" t="s">
+        <v>1108</v>
+      </c>
+      <c r="C688" t="s">
+        <v>45</v>
+      </c>
+      <c r="D688" t="s">
+        <v>1109</v>
+      </c>
+    </row>
+    <row r="689" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A689">
+        <v>1.339416414814261E+18</v>
+      </c>
+      <c r="B689" t="s">
+        <v>1110</v>
+      </c>
+      <c r="C689" t="s">
+        <v>625</v>
+      </c>
+      <c r="D689" t="s">
+        <v>1111</v>
+      </c>
+    </row>
+    <row r="690" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A690">
+        <v>1.3394117561462909E+18</v>
+      </c>
+      <c r="B690" t="s">
+        <v>1112</v>
+      </c>
+      <c r="C690" t="s">
+        <v>21</v>
+      </c>
+      <c r="D690" t="s">
+        <v>1113</v>
+      </c>
+    </row>
+    <row r="691" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A691">
+        <v>1.339378083132948E+18</v>
+      </c>
+      <c r="B691" t="s">
+        <v>1114</v>
+      </c>
+      <c r="C691" t="s">
+        <v>625</v>
+      </c>
+      <c r="D691" t="s">
+        <v>1115</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/application/static/excel_data/data_crawling -- 3. #belajardirumah.xlsx
+++ b/application/static/excel_data/data_crawling -- 3. #belajardirumah.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2074" uniqueCount="1345">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2329" uniqueCount="1490">
   <si>
     <t>id</t>
   </si>
@@ -5544,6 +5544,609 @@
   </si>
   <si>
     <t>Thu Dec 17 16:17:05 +0000 2020</t>
+  </si>
+  <si>
+    <t>Seri Anak Saleh Didoakan Malaikat;Rahasia Shaf Pertama - Diskon 20% menjadi Rp.20000
+Gratis ongkos kirim hingga 40rb keseluruh Indonesia.
+#mainanbukuanak #promo #dirumahaja #belajardirumah #buku #membaca #booklover #bookstorm  
+SINOPSIS:Saat shalat berjamaah Fawwaz https://t.co/9X0ezyJBAx</t>
+  </si>
+  <si>
+    <t>Fri Dec 25 14:17:33 +0000 2020</t>
+  </si>
+  <si>
+    <t>Update Perkembangan Covid-19 di Kabupaten Luwu Timur per 25 Desember 2020.
+13 sembuh dan 14 kasus baru
+Perbaharui terus informasi di https://t.co/D4pL3qgDlY
+#ayolawancorona #belajardirumah #beribadahdirumah #bermaindirumah #dirumahsaja #jagakebersihan #jagakesehatan #jagajarak https://t.co/RlUCvBWIt8</t>
+  </si>
+  <si>
+    <t>Fri Dec 25 11:55:58 +0000 2020</t>
+  </si>
+  <si>
+    <t>Seri Anak Saleh Didoakan Malaikat;Korban Petasan - Diskon 20% menjadi Rp.20000
+Gratis ongkos kirim hingga 40rb keseluruh Indonesia.
+#mainanbukuanak #promo #dirumahaja #belajardirumah #buku #membaca #booklover #bookstorm  
+SINOPSIS:Usai shalat Sabiq Fawwaz dan teman-teman https://t.co/iaeBcwAl5G</t>
+  </si>
+  <si>
+    <t>Fri Dec 25 11:45:19 +0000 2020</t>
+  </si>
+  <si>
+    <t>Seri Anak Saleh Didoakan Malaikat; shofa dan makan sahur - Diskon 20% menjadi Rp.20000
+Gratis ongkos kirim hingga 40rb keseluruh Indonesia.
+#mainanbukuanak #promo #dirumahaja #belajardirumah #buku #membaca #booklover #bookstorm  
+SINOPSIS:Shofwa berniat puasa sunnah https://t.co/fl6YqNQY5C</t>
+  </si>
+  <si>
+    <t>Fri Dec 25 09:12:00 +0000 2020</t>
+  </si>
+  <si>
+    <t>Kamu bisa belajar hingga 14 sesi kelas online gratis di Kelas Pintar loh!
+#belajaronline #bimbinganbelajar #belajardirumah #bimbelterbaik #kelaspintarindonesia https://t.co/CP0jnmGbZw</t>
+  </si>
+  <si>
+    <t>Fri Dec 25 09:01:41 +0000 2020</t>
+  </si>
+  <si>
+    <t>Seri Anak Saleh Didoakan Malaikat; Menjenguk Tante Ami - Diskon 20% menjadi Rp.20000
+Gratis ongkos kirim hingga 40rb keseluruh Indonesia.
+#mainanbukuanak #promo #dirumahaja #belajardirumah #buku #membaca #booklover #bookstorm  
+SINOPSIS:Umi mengajak Fawwaz dan Shofwa ke https://t.co/yCMq4yBXb0</t>
+  </si>
+  <si>
+    <t>Fri Dec 25 06:44:26 +0000 2020</t>
+  </si>
+  <si>
+    <t>Seri Anak Saleh Didoakan Malaikat; Mainan Baru sabiq - Diskon 20% menjadi Rp.20000
+Gratis ongkos kirim hingga 40rb keseluruh Indonesia.
+#mainanbukuanak #promo #dirumahaja #belajardirumah #buku #membaca #booklover #bookstorm  
+SINOPSIS:Bunda selalu memberikan uang saku https://t.co/2jQ1IMaRXY</t>
+  </si>
+  <si>
+    <t>Fri Dec 25 04:12:25 +0000 2020</t>
+  </si>
+  <si>
+    <t>Selamat Hari Natal buat yang merayakan!
+Selamat tanggal merah buat yang liburan!
+Yok bahagia yok! Tahunnya bentar lagi ganti, nih.
+#kelaskita #carabarubelajarseru #belajardirumah #elearning #belajaronline #dirumahaja #SelamatHariNatal #MerryChristmas2020 https://t.co/AwAZ4Tjz5S</t>
+  </si>
+  <si>
+    <t>Fri Dec 25 03:00:02 +0000 2020</t>
+  </si>
+  <si>
+    <t>Erlangga🤩Sale dari penerbit Erlangga, diskon menarik hingga 58% untuk semua jenis buku👍
+#PromoBuku #bukuibuku #JualBuku #BeliBuku #TokoBuku #DiskonBuku #belajardirumah #ingatpesanibu #pakaimasker #CuciTanganPakaiSabun #JagaJarak #ingatpesanibu
+Klik👉 https://t.co/pSCtWCF9QX ✔ https://t.co/6qGnaAnLRP</t>
+  </si>
+  <si>
+    <t>Fri Dec 25 02:00:00 +0000 2020</t>
+  </si>
+  <si>
+    <t>Seri Tauhid for Kids;Larangan Berbuat Riya: Rahasia Shalat Baim - Diskon 20% menjadi Rp.20000
+Gratis ongkos kirim hingga 40rb keseluruh Indonesia.
+#mainanbukuanak #promo #dirumahaja #belajardirumah #buku #membaca #booklover #bookstorm  
+SINOPSIS:Baim semangat sekali https://t.co/8Djo6uKAE0</t>
+  </si>
+  <si>
+    <t>Fri Dec 25 01:42:20 +0000 2020</t>
+  </si>
+  <si>
+    <t>Seri Tauhid for Kids;Allah Menghidupkan dan Mematikan; Salah warna Bendera - Diskon 20% menjadi Rp.20000
+Gratis ongkos kirim hingga 40rb keseluruh Indonesia.
+#mainanbukuanak #promo #dirumahaja #belajardirumah #buku #membaca #booklover #bookstorm  
+SINOPSIS:Ayah denis https://t.co/T1XRxZqRAE</t>
+  </si>
+  <si>
+    <t>Thu Dec 24 23:12:34 +0000 2020</t>
+  </si>
+  <si>
+    <t>Seri Tauhid for Kids;Allah Maha Mengabulkan Doa; Tamasya Ke Pulau Bebek - Diskon 20% menjadi Rp.20000
+Gratis ongkos kirim hingga 40rb keseluruh Indonesia.
+#mainanbukuanak #promo #dirumahaja #belajardirumah #buku #membaca #booklover #bookstorm  
+SINOPSIS:Baim dan teman https://t.co/2BINutl14s</t>
+  </si>
+  <si>
+    <t>Thu Dec 24 20:43:37 +0000 2020</t>
+  </si>
+  <si>
+    <t>Seri Tauhid for Kids;Allah Menciptakan Mahluk Ghaib ; Jangan Takut Hantu - Diskon 20% menjadi Rp.20000
+Gratis ongkos kirim hingga 40rb keseluruh Indonesia.
+#mainanbukuanak #promo #dirumahaja #belajardirumah #buku #membaca #booklover #bookstorm  
+SINOPSIS:Baim dan Sarah https://t.co/CMwORCTuNB</t>
+  </si>
+  <si>
+    <t>Thu Dec 24 18:12:33 +0000 2020</t>
+  </si>
+  <si>
+    <t>Seri Tauhid for Kids;Allah Maha Mendatangkan Manfaat dan Mudharat ; Blangkon Pohon Asem - Diskon 20% menjadi Rp.20000
+Gratis ongkos kirim hingga 40rb keseluruh Indonesia.
+#mainanbukuanak #promo #dirumahaja #belajardirumah #buku #membaca #booklover #bookstorm https://t.co/HKt882dDXI</t>
+  </si>
+  <si>
+    <t>Thu Dec 24 15:42:18 +0000 2020</t>
+  </si>
+  <si>
+    <t>Seri Tauhid for Kids; Larangan Memakai Jimat ; Jimat Pak Min. - Diskon 20% menjadi Rp.20000
+Gratis ongkos kirim hingga 40rb keseluruh Indonesia.
+#mainanbukuanak #promo #dirumahaja #belajardirumah #buku #membaca #booklover #bookstorm  
+SINOPSIS:Baim Tidak mau makan Bubur https://t.co/kezwNQDpJX</t>
+  </si>
+  <si>
+    <t>Thu Dec 24 13:13:12 +0000 2020</t>
+  </si>
+  <si>
+    <t>Selamat NATAL dan TAHUN BARU 🎉 
+#liaonline #kelapagading #liakelapagading #lia #kursusbahasainggris #belajardirumah #dirumahaja #funlearning #englishcourse #english #flippedclassroom https://t.co/lHRkbcjFcO</t>
+  </si>
+  <si>
+    <t>Thu Dec 24 12:59:04 +0000 2020</t>
+  </si>
+  <si>
+    <t>Seri Tauhid for Kids;Larangan Mendatangi Dukun; Gara-Gara Dukun Sakti - Diskon 20% menjadi Rp.20000
+Gratis ongkos kirim hingga 40rb keseluruh Indonesia.
+#mainanbukuanak #promo #dirumahaja #belajardirumah #buku #membaca #booklover #bookstorm  
+SINOPSIS:Baim menjenguk pak https://t.co/MhqOaaIchB</t>
+  </si>
+  <si>
+    <t>Thu Dec 24 10:42:16 +0000 2020</t>
+  </si>
+  <si>
+    <t>PASIEN SEMBUH BERTAMBAH 18 ORANG, KASUS BARU 12 DAN 1 PASIEN COVID19 MENINGGAL
+INFORMASI LENGKAPNYA DI 👉 https://t.co/Dl7LBYjost
+#ayolawancorona #belajardirumah #bermaindirumah #dirumahsaja #jagakebersihan #jagakesehatan #jagajarak #pakemasker #tetapwaspada #coronabisasembuh https://t.co/iQXAoSWTBX</t>
+  </si>
+  <si>
+    <t>Thu Dec 24 10:32:42 +0000 2020</t>
+  </si>
+  <si>
+    <t>Update Perkembangan Covid-19 di Kabupaten Luwu Timur per 24 Desember 2020.
+18 sembuh, 12 kasus baru dan 1 meninggal
+Perbaharui terus informasi anda di https://t.co/D4pL3qgDlY
+#ayolawancorona #belajardirumah #bermaindirumah #dirumahsaja #jagakebersihan #jagakesehatan #jagajarak https://t.co/RR1qDLnvGr</t>
+  </si>
+  <si>
+    <t>Thu Dec 24 10:32:13 +0000 2020</t>
+  </si>
+  <si>
+    <t>Seri Aku Sehat Seperti Rasulullah ; Aku Suka Madu; &amp;amp;  Aku Tidak Makan Berlebihan - Diskon 20% menjadi Rp.20000
+Gratis ongkos kirim hingga 40rb keseluruh Indonesia.
+#mainanbukuanak #promo #dirumahaja #belajardirumah #buku #membaca #booklover #bookstorm  
+SINOPSIS:Sinopsis https://t.co/vWWaL47Z6o</t>
+  </si>
+  <si>
+    <t>Thu Dec 24 08:12:21 +0000 2020</t>
+  </si>
+  <si>
+    <t>1 Set Seri Aku Senang Berbagi - Diskon 20% menjadi Rp.100000
+Gratis ongkos kirim hingga 40rb keseluruh Indonesia.
+#mainanbukuanak #promo #dirumahaja #belajardirumah #buku #membaca #booklover #bookstorm  
+SINOPSIS:
+PENULIS:Fitri Restiana https://t.co/6KzcylKO0W</t>
+  </si>
+  <si>
+    <t>Thu Dec 24 05:42:12 +0000 2020</t>
+  </si>
+  <si>
+    <t>1 Set Seri Anak saleh didoakan Malaikat - Diskon 20% menjadi Rp.200000
+Gratis ongkos kirim hingga 40rb keseluruh Indonesia.
+#mainanbukuanak #promo #dirumahaja #belajardirumah #buku #membaca #booklover #bookstorm  
+SINOPSIS:
+PENULIS:Fadila Hanum https://t.co/lPxFKiPLHc</t>
+  </si>
+  <si>
+    <t>Thu Dec 24 03:12:13 +0000 2020</t>
+  </si>
+  <si>
+    <t>Erlangga🤩Sale dari penerbit Erlangga, diskon menarik hingga 58% untuk semua jenis buku👍
+#PromoBuku #bukuibuku #JualBuku #BeliBuku #TokoBuku #DiskonBuku #belajardirumah #ingatpesanibu #pakaimasker #CuciTanganPakaiSabun #JagaJarak #ingatpesanibu
+Klik👉 https://t.co/pSCtWCWLfx ✔ https://t.co/ILypTc3m5W</t>
+  </si>
+  <si>
+    <t>Thu Dec 24 02:00:00 +0000 2020</t>
+  </si>
+  <si>
+    <t>Seri Aku sehat Seperti Rasulullah ; Aku Suka Makan Sayur &amp;amp; Aku Selalu Mandi Pagi - Diskon 20% menjadi Rp.20000
+Gratis ongkos kirim hingga 40rb keseluruh Indonesia.
+#mainanbukuanak #promo #dirumahaja #belajardirumah #buku #membaca #booklover #bookstorm  
+SINOPSIS:Sinopsis https://t.co/DWEEVZEEZm</t>
+  </si>
+  <si>
+    <t>Thu Dec 24 00:55:44 +0000 2020</t>
+  </si>
+  <si>
+    <t>Seri Aku sehat Seperti Rasulullah ; Aku Rajin Memotong Kuku &amp;amp; Aku Rajin Menggosok Gigi - Diskon 20% menjadi Rp.20000
+Gratis ongkos kirim hingga 40rb keseluruh Indonesia.
+#mainanbukuanak #promo #dirumahaja #belajardirumah #buku #membaca #booklover #bookstorm https://t.co/MDEqSG1tTw</t>
+  </si>
+  <si>
+    <t>Wed Dec 23 22:12:14 +0000 2020</t>
+  </si>
+  <si>
+    <t>SFK; Raja Hutan Kena Marah - Diskon 20% menjadi Rp.20000
+Gratis ongkos kirim hingga 40rb keseluruh Indonesia.
+#mainanbukuanak #promo #dirumahaja #belajardirumah #buku #membaca #booklover #bookstorm  
+SINOPSIS:Ozlan si Raja Hutan sedang berpatroli malam bersama Simi si https://t.co/Scu7FcilzQ</t>
+  </si>
+  <si>
+    <t>Wed Dec 23 19:50:05 +0000 2020</t>
+  </si>
+  <si>
+    <t>Apa harapan kalian di 2021?      Me: mau glow up 😭. #fyp #20200626_6pm #BLINK #BelajarDiRumah #BMKG</t>
+  </si>
+  <si>
+    <t>Ergiaditya2</t>
+  </si>
+  <si>
+    <t>Wed Dec 23 18:17:31 +0000 2020</t>
+  </si>
+  <si>
+    <t>Persahabatan Gajah Dan Semut ( SC ) - Diskon 20% menjadi Rp.31200
+Gratis ongkos kirim hingga 40rb keseluruh Indonesia.
+#mainanbukuanak #promo #dirumahaja #belajardirumah #buku #membaca #booklover #bookstorm  
+SINOPSIS:Persahabatan ini indah….Selamanya tak anak https://t.co/8PrrrqObAI</t>
+  </si>
+  <si>
+    <t>Wed Dec 23 17:16:47 +0000 2020</t>
+  </si>
+  <si>
+    <t>Terimakasih teteh Azkia @pradjadinata_zidni 
+telah menyelesaikan tantangan menggambar tanpa sketsa menggunakan Paint 3D. 
+Makin rajin dan terus semangat ya... 
+#belajardirumah https://t.co/Skom79Agjx</t>
+  </si>
+  <si>
+    <t>AjiPanjalu</t>
+  </si>
+  <si>
+    <t>Wed Dec 23 15:26:25 +0000 2020</t>
+  </si>
+  <si>
+    <t>Seri Aku sehat Seperti Rasulullah ; Aku Senang Minum Air Putih &amp;amp; Aku Mau Tidur Siang - Diskon 20% menjadi Rp.20000
+Gratis ongkos kirim hingga 40rb keseluruh Indonesia.
+#mainanbukuanak #promo #dirumahaja #belajardirumah #buku #membaca #booklover #bookstorm https://t.co/aAPDLLeSRO</t>
+  </si>
+  <si>
+    <t>Wed Dec 23 14:57:09 +0000 2020</t>
+  </si>
+  <si>
+    <t>Selama libur panjang 🎉
+#liaonline #kelapagading #liakelapagading #lia #kursusbahasainggris #belajardirumah #dirumahaja #funlearning #englishcourse #english #FlippedClassroom https://t.co/5Eugumjic9</t>
+  </si>
+  <si>
+    <t>Wed Dec 23 12:51:07 +0000 2020</t>
+  </si>
+  <si>
+    <t>Seri Aku sehat Seperti Rasulullah ; Aku Makan Sambil Duduk &amp;amp; Aku Berani Tidur Gelap - Diskon 20% menjadi Rp.20000
+Gratis ongkos kirim hingga 40rb keseluruh Indonesia.
+#mainanbukuanak #promo #dirumahaja #belajardirumah #buku #membaca #booklover #bookstorm https://t.co/ck79heaDo0</t>
+  </si>
+  <si>
+    <t>Wed Dec 23 12:12:11 +0000 2020</t>
+  </si>
+  <si>
+    <t>1 Set Seri Aku Sehat Seperti Rasulullah - Diskon 20% menjadi Rp.100000
+Gratis ongkos kirim hingga 40rb keseluruh Indonesia.
+#mainanbukuanak #promo #dirumahaja #belajardirumah #buku #membaca #booklover #bookstorm  
+SINOPSIS:Buku yang memperkenalkan sunnah-sunnah https://t.co/AWKhqasqcz</t>
+  </si>
+  <si>
+    <t>Wed Dec 23 09:42:11 +0000 2020</t>
+  </si>
+  <si>
+    <t>🛑 Satu Kesalahan Terbesar Dalam Belajar #BelajardiRumah https://t.co/eLsEoQw2nU lewat @YouTube</t>
+  </si>
+  <si>
+    <t>msyurika31</t>
+  </si>
+  <si>
+    <t>Wed Dec 23 09:38:45 +0000 2020</t>
+  </si>
+  <si>
+    <t>Update Perkembangan Covid-19 di Kabupaten Luwu Timur per 23 Desember 2020.
+2 sembuh dan 8 kasus baru.
+Perbaharui terus informasi di https://t.co/D4pL3qgDlY
+#ayolawancorona #belajardirumah #beribadahdirumah #bermaindirumah #dirumahsaja #jagakebersihan #jagakesehatan #jagajarak https://t.co/ingHPrutyj</t>
+  </si>
+  <si>
+    <t>Wed Dec 23 09:30:04 +0000 2020</t>
+  </si>
+  <si>
+    <t>Persahabatan Gajah Dan Semut ( SC ) - Diskon 20% menjadi Rp.31200
+Gratis ongkos kirim hingga 40rb keseluruh Indonesia.
+#mainanbukuanak #promo #dirumahaja #belajardirumah #buku #membaca #booklover #bookstorm  
+SINOPSIS:Persahabatan ini indah….Selamanya tak anak https://t.co/qMTQwGDXH6</t>
+  </si>
+  <si>
+    <t>Wed Dec 23 07:19:29 +0000 2020</t>
+  </si>
+  <si>
+    <t>Les Privat Semua Jenjang Pendidikan (PAUD/TK - SD - SMP - SMA - Mahasiswa/Umum) untuk semua mapel wilayah Yogyakarta dan sekitarnya.
+Ayo, temukan guru les privat terbaik kamu agar #BelajarDiRumah lebih menyenangkan.
+*Pustaka Guru Solusi Belajar Apapun, Dimanapun, Kapanpun* https://t.co/4rW6HhIM4s</t>
+  </si>
+  <si>
+    <t>bimbelpstkguru</t>
+  </si>
+  <si>
+    <t>Wed Dec 23 04:55:02 +0000 2020</t>
+  </si>
+  <si>
+    <t>SFK; Raja Hutan yang Jujur - Diskon 20% menjadi Rp.20000
+Gratis ongkos kirim hingga 40rb keseluruh Indonesia.
+#mainanbukuanak #promo #dirumahaja #belajardirumah #buku #membaca #booklover #bookstorm  
+SINOPSIS:Ozlan si Raja Hutan tidak sengaja menginjak sarang semut. Ia https://t.co/KBO2H5p4jA</t>
+  </si>
+  <si>
+    <t>Wed Dec 23 04:42:01 +0000 2020</t>
+  </si>
+  <si>
+    <t>PEMKAB LUWU TIMUR GELAR SOSIALISASI DAN BIMTEK APLIKASI E-SAKIP
+BACA INFORMASI LENGKAPNYA DI 👉 https://t.co/eibXwHhTyN
+#ayolawancorona #belajardirumah #bermaindirumah #dirumahsaja #jagakebersihan #jagakesehatan #jagajarak #pakemasker #tetapwaspada #coronabisasembuh https://t.co/2sIrUADu56</t>
+  </si>
+  <si>
+    <t>Wed Dec 23 03:35:44 +0000 2020</t>
+  </si>
+  <si>
+    <t>SFK; Raja Hutan yang Sederhana - Diskon 20% menjadi Rp.20000
+Gratis ongkos kirim hingga 40rb keseluruh Indonesia.
+#mainanbukuanak #promo #dirumahaja #belajardirumah #buku #membaca #booklover #bookstorm  
+SINOPSIS:Kanin si kelinci terluka dan tersesat di hutan. Syukurlah https://t.co/hBK0WXYUWz</t>
+  </si>
+  <si>
+    <t>Wed Dec 23 02:12:00 +0000 2020</t>
+  </si>
+  <si>
+    <t>Erlangga🤩Sale dari penerbit Erlangga, diskon menarik hingga 58% untuk semua jenis buku👍
+#PromoBuku #bukuibuku #JualBuku #BeliBuku #TokoBuku #DiskonBuku #belajardirumah #ingatpesanibu #pakaimasker #CuciTanganPakaiSabun #JagaJarak #ingatpesanibu
+Klik👉 https://t.co/pSCtWCF9QX ✔ https://t.co/BkJ0JimLih</t>
+  </si>
+  <si>
+    <t>Wed Dec 23 02:00:01 +0000 2020</t>
+  </si>
+  <si>
+    <t>Stay tuned untuk podcast kita hari ini ya!
+#bimbelonline #belajardirumah #bimbelberkualitas #bimbelterbaik #kelaspintarindonesia https://t.co/fGMei9ZBA7</t>
+  </si>
+  <si>
+    <t>Wed Dec 23 01:01:52 +0000 2020</t>
+  </si>
+  <si>
+    <t>⏩PAKET DESIGN #ADOBE ILLUSTRATOR🤩 - Pembuatan Design Menggunakan Adobe Illustrator 18 Module https://t.co/V7y8EtrLeU
+#PaketDesign #adobeillustrator #pakaimasker #jagajarak #cucitangan #dirumahaja #kerjadarirumah #belajardirumah #KuliahOnline #IndonesiaSehat #ai #jagakesehatan</t>
+  </si>
+  <si>
+    <t>Wed Dec 23 01:00:00 +0000 2020</t>
+  </si>
+  <si>
+    <t>Seri Perempuan Penghulu Surga ; Khadijah Binti Khuwailid Yang Dermawan - Diskon 20% menjadi Rp.33600
+Gratis ongkos kirim hingga 40rb keseluruh Indonesia.
+#mainanbukuanak #promo #dirumahaja #belajardirumah #buku #membaca #booklover #bookstorm  
+SINOPSIS:Adik-Adik maukah https://t.co/2GaLXyu6MH</t>
+  </si>
+  <si>
+    <t>Tue Dec 22 23:42:40 +0000 2020</t>
+  </si>
+  <si>
+    <t>Seri Aku Suka Sedekah; Berkunjung Ke Pemadam Kebakaran - Diskon 20% menjadi Rp.20000
+Gratis ongkos kirim hingga 40rb keseluruh Indonesia.
+#mainanbukuanak #promo #dirumahaja #belajardirumah #buku #membaca #booklover #bookstorm  
+SINOPSIS:Thariq dan teman-teman sedang https://t.co/vOkQgk8xpb</t>
+  </si>
+  <si>
+    <t>Tue Dec 22 21:12:08 +0000 2020</t>
+  </si>
+  <si>
+    <t>Seri Aku Suka Sedekah; Senyum Terindah Rajwa - Diskon 20% menjadi Rp.20000
+Gratis ongkos kirim hingga 40rb keseluruh Indonesia.
+#mainanbukuanak #promo #dirumahaja #belajardirumah #buku #membaca #booklover #bookstorm  
+SINOPSIS:Rajwa dan teman-teman sedang berlatih Tari https://t.co/DIPsLj6Sg4</t>
+  </si>
+  <si>
+    <t>Tue Dec 22 18:50:33 +0000 2020</t>
+  </si>
+  <si>
+    <t>Seri Aku Suka Sedekah; Pohon Berduri Berbuah Surga - Diskon 20% menjadi Rp.20000
+Gratis ongkos kirim hingga 40rb keseluruh Indonesia.
+#mainanbukuanak #promo #dirumahaja #belajardirumah #buku #membaca #booklover #bookstorm  
+SINOPSIS:Pohon berduri berbuah surga? Seperti https://t.co/xiP3iDjx4e</t>
+  </si>
+  <si>
+    <t>Tue Dec 22 16:12:20 +0000 2020</t>
+  </si>
+  <si>
+    <t>PKK LUTIM IKUT WEBINAR PERINGATAN HARI IBU
+BACA INFORMASI LENGKAPNYA DI 👉 https://t.co/JWM9FAS36Z
+#ayolawancorona #belajardirumah #beribadahdirumah #bermaindirumah #dirumahsaja #jagakebersihan #jagakesehatan #jagajarak #pakemasker #tetapwaspada #coronabisasembuh https://t.co/WIBeHFa4sn</t>
+  </si>
+  <si>
+    <t>Tue Dec 22 14:11:47 +0000 2020</t>
+  </si>
+  <si>
+    <t>Belajar Tatap Muka Tunggu Rekom Tim Satgas Covid 
+https://t.co/gV9qJd6Mk3
+#beritakitacoid #sobatkita #Lampung #Lampungselatan #Lamsel #Pendidikan #Sekolah #Covid19 #Masuksekolah #belajardirumah #belajar #tatapmuka https://t.co/qvVs1Zwy0i</t>
+  </si>
+  <si>
+    <t>beritakitacoid</t>
+  </si>
+  <si>
+    <t>Tue Dec 22 13:49:04 +0000 2020</t>
+  </si>
+  <si>
+    <t>Seri Perempuan Penghulu Surga ; Maryam Binti Imran Yang Cerdas - Diskon 20% menjadi Rp.33600
+Gratis ongkos kirim hingga 40rb keseluruh Indonesia.
+#mainanbukuanak #promo #dirumahaja #belajardirumah #buku #membaca #booklover #bookstorm  
+SINOPSIS:Buku seri ketiga ini https://t.co/reHLEC0CmI</t>
+  </si>
+  <si>
+    <t>Tue Dec 22 13:42:14 +0000 2020</t>
+  </si>
+  <si>
+    <t>mendampingi UAS kimia nih, ikut deg2an ngerjainnya tp aman dong semenit selesai soalnya masih kelas 10, masih konfigurasi elektron menentukan Periode sama Golongan udah bisa belum nih temen2 yang lain? 📝
+#kimia
+#belajarkimia
+#belajardirumah 
+#chemistry https://t.co/N1TYYBXPWG</t>
+  </si>
+  <si>
+    <t>jasatugas1</t>
+  </si>
+  <si>
+    <t>Tue Dec 22 13:08:22 +0000 2020</t>
+  </si>
+  <si>
+    <t>Seri Perempuan Penghulu Surga ; Fatimah Binti Muhammad saw yang sabar - Diskon 20% menjadi Rp.33600
+Gratis ongkos kirim hingga 40rb keseluruh Indonesia.
+#mainanbukuanak #promo #dirumahaja #belajardirumah #buku #membaca #booklover #bookstorm  
+SINOPSIS:Buku seri kedua ini https://t.co/XkgxUKejEP</t>
+  </si>
+  <si>
+    <t>Tue Dec 22 11:12:11 +0000 2020</t>
+  </si>
+  <si>
+    <t>UPDATE COVID19, 8 PASIEN SEMBUH, 19 KASUS BARU DAN 1 LAGI PASIEN MENINGGAL
+INFORMASI LENGKAPNYA BACA DI 👉 https://t.co/dDw2OT9WlC
+#ayolawancorona #belajardirumah #bermaindirumah #dirumahsaja #jagakebersihan #jagakesehatan #jagajarak #pakemasker #tetapwaspada #coronabisasembuh https://t.co/NFqIMg3EYP</t>
+  </si>
+  <si>
+    <t>Tue Dec 22 11:02:09 +0000 2020</t>
+  </si>
+  <si>
+    <t>Update Perkembangan Covid-19 di Kabupaten Luwu Timur per 22 Desember 2020.
+8 sembuh, 19 kasus baru dan 1 meninggal.
+Perbaharui terus informasi anda di https://t.co/D4pL3qgDlY
+#ayolawancorona #belajardirumah #bermaindirumah #dirumahsaja #jagakebersihan #jagakesehatan #jagajarak https://t.co/Z1id4Ms0IP</t>
+  </si>
+  <si>
+    <t>Tue Dec 22 11:00:54 +0000 2020</t>
+  </si>
+  <si>
+    <t>Ayo stay tuned sekarang untuk podcast hari ini!
+#belajardirumah #bimbelonline #bimbelberkualitas #pjj #kelaspintarindonesia https://t.co/Bc3bd1Sk8t</t>
+  </si>
+  <si>
+    <t>Tue Dec 22 09:01:46 +0000 2020</t>
+  </si>
+  <si>
+    <t>Seri Perempuan Penghulu Surga ; Asiyah Binti Mujahim Yang Teguh Pendirian - Diskon 20% menjadi Rp.33600
+Gratis ongkos kirim hingga 40rb keseluruh Indonesia.
+#mainanbukuanak #promo #dirumahaja #belajardirumah #buku #membaca #booklover #bookstorm  
+SINOPSIS:Buku seri https://t.co/Zoq2m1ntPQ</t>
+  </si>
+  <si>
+    <t>Tue Dec 22 08:42:46 +0000 2020</t>
+  </si>
+  <si>
+    <t>Di hari yang spesial ini, Kelaskita mau ngumumin siapa aja sih pemenang giveaway bingkisan cantik dari @mytulisan?
+Mampir ke Instagram @kelaskitadotcom, ya!
+#kelaskita #carabarubelajarseru #belajardirumah #elearning #belajaronline #dirumahaja  #giveaway #tulisan https://t.co/vUKlKwY6xC</t>
+  </si>
+  <si>
+    <t>Tue Dec 22 08:13:41 +0000 2020</t>
+  </si>
+  <si>
+    <t>SFK; Raja Hutan yang Rendah Hati - Diskon 20% menjadi Rp.20000
+Gratis ongkos kirim hingga 40rb keseluruh Indonesia.
+#mainanbukuanak #promo #dirumahaja #belajardirumah #buku #membaca #booklover #bookstorm  
+SINOPSIS:Ozlan si Raja Hutan tampak sibuk mengemasi makanan. 
+Ia https://t.co/uaRyDqNGXR</t>
+  </si>
+  <si>
+    <t>Tue Dec 22 06:12:03 +0000 2020</t>
+  </si>
+  <si>
+    <t>SFK; Raja Hutan yang Adil - Diskon 20% menjadi Rp.20000
+Gratis ongkos kirim hingga 40rb keseluruh Indonesia.
+#mainanbukuanak #promo #dirumahaja #belajardirumah #buku #membaca #booklover #bookstorm  
+SINOPSIS:Suatu hari kissa si kucin hutan mengadu pada ozlan ia https://t.co/SK0YyVhzDn</t>
+  </si>
+  <si>
+    <t>Tue Dec 22 03:44:46 +0000 2020</t>
+  </si>
+  <si>
+    <t>Baca postingannya di web blog Catatan IzRuYan
+https://t.co/n1Smew0E6I
+#IzRuWeb #CatatanIzRuYan #SuaraHatiAnak #BelajardiRumah #BelajardariRumah #Sedih #Susah #Sulit #Cerita #CeritaSedih #CatatanSedih #Curhat #CurhatanAnakSekolah https://t.co/TinaF9ZkPg</t>
+  </si>
+  <si>
+    <t>IzRuWeb</t>
+  </si>
+  <si>
+    <t>Tue Dec 22 03:34:30 +0000 2020</t>
+  </si>
+  <si>
+    <t>Yak abis ngucapin selamat hari Ibu, jangan lupa dibantu kerjaan Ibunya. Konteeeennn terosssss~
+#kelaskita #carabarubelajarseru #belajardirumah #elearning #belajaronline #dirumahaja #SelamatHariIbu</t>
+  </si>
+  <si>
+    <t>Tue Dec 22 03:09:33 +0000 2020</t>
+  </si>
+  <si>
+    <t>Selamat Hari Ibu, Bunda, Mama, Mami, Umi, Emak, dan semua Ibu yang sudah berjuang sekuat ini.
+Terima kasih cintaku sepanjang masa~
+#kelaskita #carabarubelajarseru #belajardirumah #elearning #belajaronline #dirumahaja #SelamatHariIbu https://t.co/4CQOub0r2j</t>
+  </si>
+  <si>
+    <t>Tue Dec 22 03:07:59 +0000 2020</t>
+  </si>
+  <si>
+    <t>Selamat Hari ibu 👩 #liaonline #kelapagading #liakelapagading #lia #kursusbahasainggris #belajardirumah #dirumahaja #funlearning #englishcourse #english #flippedclassroom https://t.co/Szu3HWMhAr</t>
+  </si>
+  <si>
+    <t>Tue Dec 22 03:03:20 +0000 2020</t>
+  </si>
+  <si>
+    <t>Pengajaran &amp;amp; Pembelajaran (PdP) di rumah
+Teaching &amp;amp; Learning (PdP) at home
+@KemPendidikan #belajardirumah #OnlineClasses #sodiakroks https://t.co/1LoMONyBXC</t>
+  </si>
+  <si>
+    <t>JapenSarawak</t>
+  </si>
+  <si>
+    <t>Tue Dec 22 02:14:19 +0000 2020</t>
+  </si>
+  <si>
+    <t>Persahabatan Gajah Dan Semut ( SC ) - Diskon 20% menjadi Rp.31200
+Gratis ongkos kirim hingga 40rb keseluruh Indonesia.
+#mainanbukuanak #promo #dirumahaja #belajardirumah #buku #membaca #booklover #bookstorm  
+SINOPSIS:Persahabatan ini indah….Selamanya tak anak https://t.co/ce11nTZe6d</t>
+  </si>
+  <si>
+    <t>Tue Dec 22 01:15:10 +0000 2020</t>
+  </si>
+  <si>
+    <t>Tue Dec 22 01:00:00 +0000 2020</t>
+  </si>
+  <si>
+    <t>Seri Aku Suka Sedekah ; Tersesat di Hutan - Diskon 20% menjadi Rp.20000
+Gratis ongkos kirim hingga 40rb keseluruh Indonesia.
+#mainanbukuanak #promo #dirumahaja #belajardirumah #buku #membaca #booklover #bookstorm  
+SINOPSIS:Thariq dan Teman-temannya sedang mengadakan https://t.co/OLaEsvlBM1</t>
+  </si>
+  <si>
+    <t>Mon Dec 21 22:44:22 +0000 2020</t>
+  </si>
+  <si>
+    <t>Seri Aku Suka Sedekah ;  Al-Qur`an Braile Untuk Tumi - Diskon 20% menjadi Rp.20000
+Gratis ongkos kirim hingga 40rb keseluruh Indonesia.
+#mainanbukuanak #promo #dirumahaja #belajardirumah #buku #membaca #booklover #bookstorm  
+SINOPSIS:Rajwa sedang berlibuf  di rumah https://t.co/XuVsVBUHUQ</t>
+  </si>
+  <si>
+    <t>Mon Dec 21 20:12:28 +0000 2020</t>
+  </si>
+  <si>
+    <t>Seri Akhlak For Kids ; Rendah Hati &amp;amp; Sabar - Diskon 20% menjadi Rp.20000
+Gratis ongkos kirim hingga 40rb keseluruh Indonesia.
+#mainanbukuanak #promo #dirumahaja #belajardirumah #buku #membaca #booklover #bookstorm  
+SINOPSIS:Zaki ingin mengikuti lomba adzan di https://t.co/WfBGq9XqnF</t>
+  </si>
+  <si>
+    <t>Mon Dec 21 17:47:22 +0000 2020</t>
   </si>
 </sst>
 </file>
@@ -5906,10 +6509,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D691"/>
+  <dimension ref="A1:D776"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A670" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="I686" sqref="I686"/>
+    <sheetView tabSelected="1" topLeftCell="A754" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="I774" sqref="I774"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -15588,6 +16191,1196 @@
         <v>1115</v>
       </c>
     </row>
+    <row r="692" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A692">
+        <v>1.342474565381812E+18</v>
+      </c>
+      <c r="B692" t="s">
+        <v>1345</v>
+      </c>
+      <c r="C692" t="s">
+        <v>625</v>
+      </c>
+      <c r="D692" t="s">
+        <v>1346</v>
+      </c>
+    </row>
+    <row r="693" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A693">
+        <v>1.3424389384687329E+18</v>
+      </c>
+      <c r="B693" t="s">
+        <v>1347</v>
+      </c>
+      <c r="C693" t="s">
+        <v>21</v>
+      </c>
+      <c r="D693" t="s">
+        <v>1348</v>
+      </c>
+    </row>
+    <row r="694" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A694">
+        <v>1.342436257444418E+18</v>
+      </c>
+      <c r="B694" t="s">
+        <v>1349</v>
+      </c>
+      <c r="C694" t="s">
+        <v>625</v>
+      </c>
+      <c r="D694" t="s">
+        <v>1350</v>
+      </c>
+    </row>
+    <row r="695" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A695">
+        <v>1.3423976752541161E+18</v>
+      </c>
+      <c r="B695" t="s">
+        <v>1351</v>
+      </c>
+      <c r="C695" t="s">
+        <v>625</v>
+      </c>
+      <c r="D695" t="s">
+        <v>1352</v>
+      </c>
+    </row>
+    <row r="696" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A696">
+        <v>1.342395076568363E+18</v>
+      </c>
+      <c r="B696" t="s">
+        <v>1353</v>
+      </c>
+      <c r="C696" t="s">
+        <v>72</v>
+      </c>
+      <c r="D696" t="s">
+        <v>1354</v>
+      </c>
+    </row>
+    <row r="697" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A697">
+        <v>1.3423605385215549E+18</v>
+      </c>
+      <c r="B697" t="s">
+        <v>1355</v>
+      </c>
+      <c r="C697" t="s">
+        <v>625</v>
+      </c>
+      <c r="D697" t="s">
+        <v>1356</v>
+      </c>
+    </row>
+    <row r="698" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A698">
+        <v>1.3423222819308421E+18</v>
+      </c>
+      <c r="B698" t="s">
+        <v>1357</v>
+      </c>
+      <c r="C698" t="s">
+        <v>625</v>
+      </c>
+      <c r="D698" t="s">
+        <v>1358</v>
+      </c>
+    </row>
+    <row r="699" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A699">
+        <v>1.342304066517524E+18</v>
+      </c>
+      <c r="B699" t="s">
+        <v>1359</v>
+      </c>
+      <c r="C699" t="s">
+        <v>45</v>
+      </c>
+      <c r="D699" t="s">
+        <v>1360</v>
+      </c>
+    </row>
+    <row r="700" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A700">
+        <v>1.342288958592406E+18</v>
+      </c>
+      <c r="B700" t="s">
+        <v>1361</v>
+      </c>
+      <c r="C700" t="s">
+        <v>18</v>
+      </c>
+      <c r="D700" t="s">
+        <v>1362</v>
+      </c>
+    </row>
+    <row r="701" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A701">
+        <v>1.3422845105665679E+18</v>
+      </c>
+      <c r="B701" t="s">
+        <v>1363</v>
+      </c>
+      <c r="C701" t="s">
+        <v>625</v>
+      </c>
+      <c r="D701" t="s">
+        <v>1364</v>
+      </c>
+    </row>
+    <row r="702" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A702">
+        <v>1.3422468196742469E+18</v>
+      </c>
+      <c r="B702" t="s">
+        <v>1365</v>
+      </c>
+      <c r="C702" t="s">
+        <v>625</v>
+      </c>
+      <c r="D702" t="s">
+        <v>1366</v>
+      </c>
+    </row>
+    <row r="703" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A703">
+        <v>1.342209335602999E+18</v>
+      </c>
+      <c r="B703" t="s">
+        <v>1367</v>
+      </c>
+      <c r="C703" t="s">
+        <v>625</v>
+      </c>
+      <c r="D703" t="s">
+        <v>1368</v>
+      </c>
+    </row>
+    <row r="704" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A704">
+        <v>1.342171319689867E+18</v>
+      </c>
+      <c r="B704" t="s">
+        <v>1369</v>
+      </c>
+      <c r="C704" t="s">
+        <v>625</v>
+      </c>
+      <c r="D704" t="s">
+        <v>1370</v>
+      </c>
+    </row>
+    <row r="705" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A705">
+        <v>1.342133506810421E+18</v>
+      </c>
+      <c r="B705" t="s">
+        <v>1371</v>
+      </c>
+      <c r="C705" t="s">
+        <v>625</v>
+      </c>
+      <c r="D705" t="s">
+        <v>1372</v>
+      </c>
+    </row>
+    <row r="706" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A706">
+        <v>1.342095986261291E+18</v>
+      </c>
+      <c r="B706" t="s">
+        <v>1373</v>
+      </c>
+      <c r="C706" t="s">
+        <v>625</v>
+      </c>
+      <c r="D706" t="s">
+        <v>1374</v>
+      </c>
+    </row>
+    <row r="707" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A707">
+        <v>1.3420924291265861E+18</v>
+      </c>
+      <c r="B707" t="s">
+        <v>1375</v>
+      </c>
+      <c r="C707" t="s">
+        <v>336</v>
+      </c>
+      <c r="D707" t="s">
+        <v>1376</v>
+      </c>
+    </row>
+    <row r="708" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A708">
+        <v>1.3420580001109519E+18</v>
+      </c>
+      <c r="B708" t="s">
+        <v>1377</v>
+      </c>
+      <c r="C708" t="s">
+        <v>625</v>
+      </c>
+      <c r="D708" t="s">
+        <v>1378</v>
+      </c>
+    </row>
+    <row r="709" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A709">
+        <v>1.34205559239585E+18</v>
+      </c>
+      <c r="B709" t="s">
+        <v>1379</v>
+      </c>
+      <c r="C709" t="s">
+        <v>21</v>
+      </c>
+      <c r="D709" t="s">
+        <v>1380</v>
+      </c>
+    </row>
+    <row r="710" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A710">
+        <v>1.342055471692202E+18</v>
+      </c>
+      <c r="B710" t="s">
+        <v>1381</v>
+      </c>
+      <c r="C710" t="s">
+        <v>21</v>
+      </c>
+      <c r="D710" t="s">
+        <v>1382</v>
+      </c>
+    </row>
+    <row r="711" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A711">
+        <v>1.342020275903156E+18</v>
+      </c>
+      <c r="B711" t="s">
+        <v>1383</v>
+      </c>
+      <c r="C711" t="s">
+        <v>625</v>
+      </c>
+      <c r="D711" t="s">
+        <v>1384</v>
+      </c>
+    </row>
+    <row r="712" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A712">
+        <v>1.3419824883153669E+18</v>
+      </c>
+      <c r="B712" t="s">
+        <v>1385</v>
+      </c>
+      <c r="C712" t="s">
+        <v>625</v>
+      </c>
+      <c r="D712" t="s">
+        <v>1386</v>
+      </c>
+    </row>
+    <row r="713" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A713">
+        <v>1.341944742687306E+18</v>
+      </c>
+      <c r="B713" t="s">
+        <v>1387</v>
+      </c>
+      <c r="C713" t="s">
+        <v>625</v>
+      </c>
+      <c r="D713" t="s">
+        <v>1388</v>
+      </c>
+    </row>
+    <row r="714" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A714">
+        <v>1.3419265694980749E+18</v>
+      </c>
+      <c r="B714" t="s">
+        <v>1389</v>
+      </c>
+      <c r="C714" t="s">
+        <v>18</v>
+      </c>
+      <c r="D714" t="s">
+        <v>1390</v>
+      </c>
+    </row>
+    <row r="715" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A715">
+        <v>1.341910397507445E+18</v>
+      </c>
+      <c r="B715" t="s">
+        <v>1391</v>
+      </c>
+      <c r="C715" t="s">
+        <v>625</v>
+      </c>
+      <c r="D715" t="s">
+        <v>1392</v>
+      </c>
+    </row>
+    <row r="716" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A716">
+        <v>1.3418692475892741E+18</v>
+      </c>
+      <c r="B716" t="s">
+        <v>1393</v>
+      </c>
+      <c r="C716" t="s">
+        <v>625</v>
+      </c>
+      <c r="D716" t="s">
+        <v>1394</v>
+      </c>
+    </row>
+    <row r="717" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A717">
+        <v>1.341833476484436E+18</v>
+      </c>
+      <c r="B717" t="s">
+        <v>1395</v>
+      </c>
+      <c r="C717" t="s">
+        <v>625</v>
+      </c>
+      <c r="D717" t="s">
+        <v>1396</v>
+      </c>
+    </row>
+    <row r="718" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A718">
+        <v>1.341810181307466E+18</v>
+      </c>
+      <c r="B718" t="s">
+        <v>1397</v>
+      </c>
+      <c r="C718" t="s">
+        <v>1398</v>
+      </c>
+      <c r="D718" t="s">
+        <v>1399</v>
+      </c>
+    </row>
+    <row r="719" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A719">
+        <v>1.341794899109183E+18</v>
+      </c>
+      <c r="B719" t="s">
+        <v>1400</v>
+      </c>
+      <c r="C719" t="s">
+        <v>625</v>
+      </c>
+      <c r="D719" t="s">
+        <v>1401</v>
+      </c>
+    </row>
+    <row r="720" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A720">
+        <v>1.3417671211188841E+18</v>
+      </c>
+      <c r="B720" t="s">
+        <v>1402</v>
+      </c>
+      <c r="C720" t="s">
+        <v>1403</v>
+      </c>
+      <c r="D720" t="s">
+        <v>1404</v>
+      </c>
+    </row>
+    <row r="721" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A721">
+        <v>1.341759755316969E+18</v>
+      </c>
+      <c r="B721" t="s">
+        <v>1405</v>
+      </c>
+      <c r="C721" t="s">
+        <v>625</v>
+      </c>
+      <c r="D721" t="s">
+        <v>1406</v>
+      </c>
+    </row>
+    <row r="722" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A722">
+        <v>1.3417280420837051E+18</v>
+      </c>
+      <c r="B722" t="s">
+        <v>1407</v>
+      </c>
+      <c r="C722" t="s">
+        <v>336</v>
+      </c>
+      <c r="D722" t="s">
+        <v>1408</v>
+      </c>
+    </row>
+    <row r="723" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A723">
+        <v>1.3417182437365801E+18</v>
+      </c>
+      <c r="B723" t="s">
+        <v>1409</v>
+      </c>
+      <c r="C723" t="s">
+        <v>625</v>
+      </c>
+      <c r="D723" t="s">
+        <v>1410</v>
+      </c>
+    </row>
+    <row r="724" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A724">
+        <v>1.341680492182049E+18</v>
+      </c>
+      <c r="B724" t="s">
+        <v>1411</v>
+      </c>
+      <c r="C724" t="s">
+        <v>625</v>
+      </c>
+      <c r="D724" t="s">
+        <v>1412</v>
+      </c>
+    </row>
+    <row r="725" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A725">
+        <v>1.341679630491681E+18</v>
+      </c>
+      <c r="B725" t="s">
+        <v>1413</v>
+      </c>
+      <c r="C725" t="s">
+        <v>1414</v>
+      </c>
+      <c r="D725" t="s">
+        <v>1415</v>
+      </c>
+    </row>
+    <row r="726" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A726">
+        <v>1.341677443862548E+18</v>
+      </c>
+      <c r="B726" t="s">
+        <v>1416</v>
+      </c>
+      <c r="C726" t="s">
+        <v>21</v>
+      </c>
+      <c r="D726" t="s">
+        <v>1417</v>
+      </c>
+    </row>
+    <row r="727" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A727">
+        <v>1.3416445827489751E+18</v>
+      </c>
+      <c r="B727" t="s">
+        <v>1418</v>
+      </c>
+      <c r="C727" t="s">
+        <v>625</v>
+      </c>
+      <c r="D727" t="s">
+        <v>1419</v>
+      </c>
+    </row>
+    <row r="728" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A728">
+        <v>1.3416082284429719E+18</v>
+      </c>
+      <c r="B728" t="s">
+        <v>1420</v>
+      </c>
+      <c r="C728" t="s">
+        <v>1421</v>
+      </c>
+      <c r="D728" t="s">
+        <v>1422</v>
+      </c>
+    </row>
+    <row r="729" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A729">
+        <v>1.3416049542602099E+18</v>
+      </c>
+      <c r="B729" t="s">
+        <v>1423</v>
+      </c>
+      <c r="C729" t="s">
+        <v>625</v>
+      </c>
+      <c r="D729" t="s">
+        <v>1424</v>
+      </c>
+    </row>
+    <row r="730" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A730">
+        <v>1.3415882736432251E+18</v>
+      </c>
+      <c r="B730" t="s">
+        <v>1425</v>
+      </c>
+      <c r="C730" t="s">
+        <v>21</v>
+      </c>
+      <c r="D730" t="s">
+        <v>1426</v>
+      </c>
+    </row>
+    <row r="731" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A731">
+        <v>1.341567200054764E+18</v>
+      </c>
+      <c r="B731" t="s">
+        <v>1427</v>
+      </c>
+      <c r="C731" t="s">
+        <v>625</v>
+      </c>
+      <c r="D731" t="s">
+        <v>1428</v>
+      </c>
+    </row>
+    <row r="732" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A732">
+        <v>1.3415641835490711E+18</v>
+      </c>
+      <c r="B732" t="s">
+        <v>1429</v>
+      </c>
+      <c r="C732" t="s">
+        <v>18</v>
+      </c>
+      <c r="D732" t="s">
+        <v>1430</v>
+      </c>
+    </row>
+    <row r="733" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A733">
+        <v>1.3415495500168681E+18</v>
+      </c>
+      <c r="B733" t="s">
+        <v>1431</v>
+      </c>
+      <c r="C733" t="s">
+        <v>72</v>
+      </c>
+      <c r="D733" t="s">
+        <v>1432</v>
+      </c>
+    </row>
+    <row r="734" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A734">
+        <v>1.3415490809005629E+18</v>
+      </c>
+      <c r="B734" t="s">
+        <v>1433</v>
+      </c>
+      <c r="C734" t="s">
+        <v>18</v>
+      </c>
+      <c r="D734" t="s">
+        <v>1434</v>
+      </c>
+    </row>
+    <row r="735" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A735">
+        <v>1.3415296189567301E+18</v>
+      </c>
+      <c r="B735" t="s">
+        <v>1435</v>
+      </c>
+      <c r="C735" t="s">
+        <v>625</v>
+      </c>
+      <c r="D735" t="s">
+        <v>1436</v>
+      </c>
+    </row>
+    <row r="736" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A736">
+        <v>1.3414917371941599E+18</v>
+      </c>
+      <c r="B736" t="s">
+        <v>1437</v>
+      </c>
+      <c r="C736" t="s">
+        <v>625</v>
+      </c>
+      <c r="D736" t="s">
+        <v>1438</v>
+      </c>
+    </row>
+    <row r="737" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A737">
+        <v>1.3414561044845729E+18</v>
+      </c>
+      <c r="B737" t="s">
+        <v>1439</v>
+      </c>
+      <c r="C737" t="s">
+        <v>625</v>
+      </c>
+      <c r="D737" t="s">
+        <v>1440</v>
+      </c>
+    </row>
+    <row r="738" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A738">
+        <v>1.341416291765121E+18</v>
+      </c>
+      <c r="B738" t="s">
+        <v>1441</v>
+      </c>
+      <c r="C738" t="s">
+        <v>625</v>
+      </c>
+      <c r="D738" t="s">
+        <v>1442</v>
+      </c>
+    </row>
+    <row r="739" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A739">
+        <v>1.3413859541881359E+18</v>
+      </c>
+      <c r="B739" t="s">
+        <v>1443</v>
+      </c>
+      <c r="C739" t="s">
+        <v>21</v>
+      </c>
+      <c r="D739" t="s">
+        <v>1444</v>
+      </c>
+    </row>
+    <row r="740" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A740">
+        <v>1.3413802376621179E+18</v>
+      </c>
+      <c r="B740" t="s">
+        <v>1445</v>
+      </c>
+      <c r="C740" t="s">
+        <v>1446</v>
+      </c>
+      <c r="D740" t="s">
+        <v>1447</v>
+      </c>
+    </row>
+    <row r="741" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A741">
+        <v>1.3413785173096571E+18</v>
+      </c>
+      <c r="B741" t="s">
+        <v>1448</v>
+      </c>
+      <c r="C741" t="s">
+        <v>625</v>
+      </c>
+      <c r="D741" t="s">
+        <v>1449</v>
+      </c>
+    </row>
+    <row r="742" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A742">
+        <v>1.3413699913004521E+18</v>
+      </c>
+      <c r="B742" t="s">
+        <v>1450</v>
+      </c>
+      <c r="C742" t="s">
+        <v>1451</v>
+      </c>
+      <c r="D742" t="s">
+        <v>1452</v>
+      </c>
+    </row>
+    <row r="743" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A743">
+        <v>1.341340756422709E+18</v>
+      </c>
+      <c r="B743" t="s">
+        <v>1453</v>
+      </c>
+      <c r="C743" t="s">
+        <v>625</v>
+      </c>
+      <c r="D743" t="s">
+        <v>1454</v>
+      </c>
+    </row>
+    <row r="744" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A744">
+        <v>1.3413382314055639E+18</v>
+      </c>
+      <c r="B744" t="s">
+        <v>1455</v>
+      </c>
+      <c r="C744" t="s">
+        <v>21</v>
+      </c>
+      <c r="D744" t="s">
+        <v>1456</v>
+      </c>
+    </row>
+    <row r="745" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A745">
+        <v>1.3413379158051919E+18</v>
+      </c>
+      <c r="B745" t="s">
+        <v>1457</v>
+      </c>
+      <c r="C745" t="s">
+        <v>21</v>
+      </c>
+      <c r="D745" t="s">
+        <v>1458</v>
+      </c>
+    </row>
+    <row r="746" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A746">
+        <v>1.341307934157001E+18</v>
+      </c>
+      <c r="B746" t="s">
+        <v>1459</v>
+      </c>
+      <c r="C746" t="s">
+        <v>72</v>
+      </c>
+      <c r="D746" t="s">
+        <v>1460</v>
+      </c>
+    </row>
+    <row r="747" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A747">
+        <v>1.3413031533381709E+18</v>
+      </c>
+      <c r="B747" t="s">
+        <v>1461</v>
+      </c>
+      <c r="C747" t="s">
+        <v>625</v>
+      </c>
+      <c r="D747" t="s">
+        <v>1462</v>
+      </c>
+    </row>
+    <row r="748" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A748">
+        <v>1.3412958325076659E+18</v>
+      </c>
+      <c r="B748" t="s">
+        <v>1463</v>
+      </c>
+      <c r="C748" t="s">
+        <v>45</v>
+      </c>
+      <c r="D748" t="s">
+        <v>1464</v>
+      </c>
+    </row>
+    <row r="749" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A749">
+        <v>1.341265221826974E+18</v>
+      </c>
+      <c r="B749" t="s">
+        <v>1465</v>
+      </c>
+      <c r="C749" t="s">
+        <v>625</v>
+      </c>
+      <c r="D749" t="s">
+        <v>1466</v>
+      </c>
+    </row>
+    <row r="750" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A750">
+        <v>1.34122815667021E+18</v>
+      </c>
+      <c r="B750" t="s">
+        <v>1467</v>
+      </c>
+      <c r="C750" t="s">
+        <v>625</v>
+      </c>
+      <c r="D750" t="s">
+        <v>1468</v>
+      </c>
+    </row>
+    <row r="751" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A751">
+        <v>1.3412255743757271E+18</v>
+      </c>
+      <c r="B751" t="s">
+        <v>1469</v>
+      </c>
+      <c r="C751" t="s">
+        <v>1470</v>
+      </c>
+      <c r="D751" t="s">
+        <v>1471</v>
+      </c>
+    </row>
+    <row r="752" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A752">
+        <v>1.3412192956158851E+18</v>
+      </c>
+      <c r="B752" t="s">
+        <v>1472</v>
+      </c>
+      <c r="C752" t="s">
+        <v>45</v>
+      </c>
+      <c r="D752" t="s">
+        <v>1473</v>
+      </c>
+    </row>
+    <row r="753" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A753">
+        <v>1.3412189007598589E+18</v>
+      </c>
+      <c r="B753" t="s">
+        <v>1474</v>
+      </c>
+      <c r="C753" t="s">
+        <v>45</v>
+      </c>
+      <c r="D753" t="s">
+        <v>1475</v>
+      </c>
+    </row>
+    <row r="754" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A754">
+        <v>1.341217733552181E+18</v>
+      </c>
+      <c r="B754" t="s">
+        <v>1476</v>
+      </c>
+      <c r="C754" t="s">
+        <v>336</v>
+      </c>
+      <c r="D754" t="s">
+        <v>1477</v>
+      </c>
+    </row>
+    <row r="755" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A755">
+        <v>1.341205396371862E+18</v>
+      </c>
+      <c r="B755" t="s">
+        <v>1478</v>
+      </c>
+      <c r="C755" t="s">
+        <v>1479</v>
+      </c>
+      <c r="D755" t="s">
+        <v>1480</v>
+      </c>
+    </row>
+    <row r="756" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A756">
+        <v>1.341190509121794E+18</v>
+      </c>
+      <c r="B756" t="s">
+        <v>1481</v>
+      </c>
+      <c r="C756" t="s">
+        <v>625</v>
+      </c>
+      <c r="D756" t="s">
+        <v>1482</v>
+      </c>
+    </row>
+    <row r="757" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A757">
+        <v>1.3411866940919191E+18</v>
+      </c>
+      <c r="B757" t="s">
+        <v>1433</v>
+      </c>
+      <c r="C757" t="s">
+        <v>18</v>
+      </c>
+      <c r="D757" t="s">
+        <v>1483</v>
+      </c>
+    </row>
+    <row r="758" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A758">
+        <v>1.3411525616093591E+18</v>
+      </c>
+      <c r="B758" t="s">
+        <v>1484</v>
+      </c>
+      <c r="C758" t="s">
+        <v>625</v>
+      </c>
+      <c r="D758" t="s">
+        <v>1485</v>
+      </c>
+    </row>
+    <row r="759" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A759">
+        <v>1.341114332252258E+18</v>
+      </c>
+      <c r="B759" t="s">
+        <v>1486</v>
+      </c>
+      <c r="C759" t="s">
+        <v>625</v>
+      </c>
+      <c r="D759" t="s">
+        <v>1487</v>
+      </c>
+    </row>
+    <row r="760" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A760">
+        <v>1.341077820072554E+18</v>
+      </c>
+      <c r="B760" t="s">
+        <v>1488</v>
+      </c>
+      <c r="C760" t="s">
+        <v>625</v>
+      </c>
+      <c r="D760" t="s">
+        <v>1489</v>
+      </c>
+    </row>
+    <row r="761" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A761">
+        <v>1.3410387534779021E+18</v>
+      </c>
+      <c r="B761" t="s">
+        <v>1197</v>
+      </c>
+      <c r="C761" t="s">
+        <v>625</v>
+      </c>
+      <c r="D761" t="s">
+        <v>1198</v>
+      </c>
+    </row>
+    <row r="762" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A762">
+        <v>1.3410030126558331E+18</v>
+      </c>
+      <c r="B762" t="s">
+        <v>1201</v>
+      </c>
+      <c r="C762" t="s">
+        <v>1202</v>
+      </c>
+      <c r="D762" t="s">
+        <v>1203</v>
+      </c>
+    </row>
+    <row r="763" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A763">
+        <v>1.3410012429993569E+18</v>
+      </c>
+      <c r="B763" t="s">
+        <v>1204</v>
+      </c>
+      <c r="C763" t="s">
+        <v>625</v>
+      </c>
+      <c r="D763" t="s">
+        <v>1205</v>
+      </c>
+    </row>
+    <row r="764" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A764">
+        <v>1.340982174732833E+18</v>
+      </c>
+      <c r="B764" t="s">
+        <v>1208</v>
+      </c>
+      <c r="C764" t="s">
+        <v>21</v>
+      </c>
+      <c r="D764" t="s">
+        <v>1209</v>
+      </c>
+    </row>
+    <row r="765" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A765">
+        <v>1.340963280349622E+18</v>
+      </c>
+      <c r="B765" t="s">
+        <v>1210</v>
+      </c>
+      <c r="C765" t="s">
+        <v>625</v>
+      </c>
+      <c r="D765" t="s">
+        <v>1211</v>
+      </c>
+    </row>
+    <row r="766" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A766">
+        <v>1.3409557084480719E+18</v>
+      </c>
+      <c r="B766" t="s">
+        <v>1212</v>
+      </c>
+      <c r="C766" t="s">
+        <v>1213</v>
+      </c>
+      <c r="D766" t="s">
+        <v>1214</v>
+      </c>
+    </row>
+    <row r="767" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A767">
+        <v>1.3409557019847309E+18</v>
+      </c>
+      <c r="B767" t="s">
+        <v>1215</v>
+      </c>
+      <c r="C767" t="s">
+        <v>1213</v>
+      </c>
+      <c r="D767" t="s">
+        <v>1216</v>
+      </c>
+    </row>
+    <row r="768" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A768">
+        <v>1.3409464835084659E+18</v>
+      </c>
+      <c r="B768" t="s">
+        <v>1217</v>
+      </c>
+      <c r="C768" t="s">
+        <v>21</v>
+      </c>
+      <c r="D768" t="s">
+        <v>1218</v>
+      </c>
+    </row>
+    <row r="769" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A769">
+        <v>1.3409316051293919E+18</v>
+      </c>
+      <c r="B769" t="s">
+        <v>1219</v>
+      </c>
+      <c r="C769" t="s">
+        <v>21</v>
+      </c>
+      <c r="D769" t="s">
+        <v>1220</v>
+      </c>
+    </row>
+    <row r="770" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A770">
+        <v>1.3409256127775869E+18</v>
+      </c>
+      <c r="B770" t="s">
+        <v>1221</v>
+      </c>
+      <c r="C770" t="s">
+        <v>625</v>
+      </c>
+      <c r="D770" t="s">
+        <v>1222</v>
+      </c>
+    </row>
+    <row r="771" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A771">
+        <v>1.340888793260278E+18</v>
+      </c>
+      <c r="B771" t="s">
+        <v>1223</v>
+      </c>
+      <c r="C771" t="s">
+        <v>21</v>
+      </c>
+      <c r="D771" t="s">
+        <v>1224</v>
+      </c>
+    </row>
+    <row r="772" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A772">
+        <v>1.340888001304351E+18</v>
+      </c>
+      <c r="B772" t="s">
+        <v>1225</v>
+      </c>
+      <c r="C772" t="s">
+        <v>625</v>
+      </c>
+      <c r="D772" t="s">
+        <v>1226</v>
+      </c>
+    </row>
+    <row r="773" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A773">
+        <v>1.3408501103942331E+18</v>
+      </c>
+      <c r="B773" t="s">
+        <v>1227</v>
+      </c>
+      <c r="C773" t="s">
+        <v>625</v>
+      </c>
+      <c r="D773" t="s">
+        <v>1228</v>
+      </c>
+    </row>
+    <row r="774" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A774">
+        <v>1.340830065920193E+18</v>
+      </c>
+      <c r="B774" t="s">
+        <v>1229</v>
+      </c>
+      <c r="C774" t="s">
+        <v>1230</v>
+      </c>
+      <c r="D774" t="s">
+        <v>1231</v>
+      </c>
+    </row>
+    <row r="775" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A775">
+        <v>1.3408142466412009E+18</v>
+      </c>
+      <c r="B775" t="s">
+        <v>1232</v>
+      </c>
+      <c r="C775" t="s">
+        <v>53</v>
+      </c>
+      <c r="D775" t="s">
+        <v>1233</v>
+      </c>
+    </row>
+    <row r="776" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A776">
+        <v>1.3408122987015539E+18</v>
+      </c>
+      <c r="B776" t="s">
+        <v>1234</v>
+      </c>
+      <c r="C776" t="s">
+        <v>625</v>
+      </c>
+      <c r="D776" t="s">
+        <v>1235</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/application/static/excel_data/data_crawling -- 3. #belajardirumah.xlsx
+++ b/application/static/excel_data/data_crawling -- 3. #belajardirumah.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2329" uniqueCount="1490">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2437" uniqueCount="1542">
   <si>
     <t>id</t>
   </si>
@@ -6147,6 +6147,232 @@
   </si>
   <si>
     <t>Mon Dec 21 17:47:22 +0000 2020</t>
+  </si>
+  <si>
+    <t>25 Kisah Sebab Turunya Ayat Al-Quran - Diskon 20% menjadi Rp.60800
+Gratis ongkos kirim hingga 40rb keseluruh Indonesia.
+#mainanbukuanak #promo #dirumahaja #belajardirumah #buku #membaca #booklover #bookstorm  
+SINOPSIS:Benarkah Rasulullah pernah terkena sihir? Apakah https://t.co/5QAWI9nwTP</t>
+  </si>
+  <si>
+    <t>Sun Dec 27 13:49:42 +0000 2020</t>
+  </si>
+  <si>
+    <t>Dongeng di Angkasa ; Kisah Hewan Bersayap - Diskon 20% menjadi Rp.44000
+Gratis ongkos kirim hingga 40rb keseluruh Indonesia.
+#mainanbukuanak #promo #dirumahaja #belajardirumah #buku #membaca #booklover #bookstorm  
+SINOPSIS:Rego si elang peregrine terpeleset saat hinggap https://t.co/do2q1QwiF6</t>
+  </si>
+  <si>
+    <t>Sun Dec 27 11:12:33 +0000 2020</t>
+  </si>
+  <si>
+    <t>Update Perkembangan Covid-19 di Kabupaten Luwu Timur per 27 Desember 2020.
+6 sembuh dan 8 kasus baru.
+Perbaharui terus informasi di https://t.co/D4pL3qgDlY
+#ayolawancorona #belajardirumah #beribadahdirumah #bermaindirumah #dirumahsaja #jagakebersihan #jagakesehatan #jagajarak https://t.co/wz2CWIPVf2</t>
+  </si>
+  <si>
+    <t>Sun Dec 27 10:41:58 +0000 2020</t>
+  </si>
+  <si>
+    <t>Petualangan Salman di Tanah Suci - Diskon 20% menjadi Rp.40000
+Gratis ongkos kirim hingga 40rb keseluruh Indonesia.
+#mainanbukuanak #promo #dirumahaja #belajardirumah #buku #membaca #booklover #bookstorm  
+SINOPSIS:Salman senang sekali karena memenangkan lomba tahfizh Al https://t.co/e9qzaUGKzt</t>
+  </si>
+  <si>
+    <t>Sun Dec 27 08:42:34 +0000 2020</t>
+  </si>
+  <si>
+    <t>Ayo belajar di Kelas Pintar aja!
+#bimbelonline #bimbelberkualitas #belajardirumah #pjj #kelaspintarindonesia https://t.co/ym9eEyEGH4</t>
+  </si>
+  <si>
+    <t>Sun Dec 27 07:01:29 +0000 2020</t>
+  </si>
+  <si>
+    <t>Seri Ayo Merawat Tubuh; Mengapa Rambutku Kusam? - Diskon 20% menjadi Rp.20000
+Gratis ongkos kirim hingga 40rb keseluruh Indonesia.
+#mainanbukuanak #promo #dirumahaja #belajardirumah #buku #membaca #booklover #bookstorm  
+SINOPSIS:Setiap Pagi dan Sore Hari Faqih selalu https://t.co/Jx0bUx8UQj</t>
+  </si>
+  <si>
+    <t>Sun Dec 27 06:12:47 +0000 2020</t>
+  </si>
+  <si>
+    <t>⏩PAKET DESIGN #ADOBE ILLUSTRATOR🤩 - Pembuatan Design Menggunakan Adobe Illustrator 18 Module https://t.co/V7y8EtJmDu
+#PaketDesign #adobeillustrator #pakaimasker #jagajarak #cucitangan #dirumahsaja #belajardirumah #KuliahOnline #IndonesiaSehat #ai #jagakesehatan #IndonesiaMaju</t>
+  </si>
+  <si>
+    <t>Sun Dec 27 04:00:00 +0000 2020</t>
+  </si>
+  <si>
+    <t>Seri Aku Senang Berbagi ; Oleh - Oleh Naira - Diskon 20% menjadi Rp.20000
+Gratis ongkos kirim hingga 40rb keseluruh Indonesia.
+#mainanbukuanak #promo #dirumahaja #belajardirumah #buku #membaca #booklover #bookstorm  
+SINOPSIS:Naira tidak mau membagioleh-olehnya kepada https://t.co/IFlbHqg0I7</t>
+  </si>
+  <si>
+    <t>Sun Dec 27 03:42:50 +0000 2020</t>
+  </si>
+  <si>
+    <t>Seri Aku Senang Berbagi ;Mainan Robot Syahmi - Diskon 20% menjadi Rp.20000
+Gratis ongkos kirim hingga 40rb keseluruh Indonesia.
+#mainanbukuanak #promo #dirumahaja #belajardirumah #buku #membaca #booklover #bookstorm  
+SINOPSIS:Husni sepupu Syahmi dirawatdi rumah sakit. https://t.co/QLdjGuVdlS</t>
+  </si>
+  <si>
+    <t>Sun Dec 27 01:12:05 +0000 2020</t>
+  </si>
+  <si>
+    <t>Seri Ayo Merawat Tubuh ; Gigiku Sehat Gigiku Kuat - Diskon 20% menjadi Rp.20000
+Gratis ongkos kirim hingga 40rb keseluruh Indonesia.
+#mainanbukuanak #promo #dirumahaja #belajardirumah #buku #membaca #booklover #bookstorm  
+SINOPSIS:Yoga tidak suka makan permen atau https://t.co/rEypjbPAPr</t>
+  </si>
+  <si>
+    <t>Sat Dec 26 22:42:01 +0000 2020</t>
+  </si>
+  <si>
+    <t>Seri Aku Senang Berbagi ; Kamar Impian Fauza - Diskon 20% menjadi Rp.20000
+Gratis ongkos kirim hingga 40rb keseluruh Indonesia.
+#mainanbukuanak #promo #dirumahaja #belajardirumah #buku #membaca #booklover #bookstorm  
+SINOPSIS:Fauza ingin punya kamar sendiri yang  rapi https://t.co/2tidQANf6P</t>
+  </si>
+  <si>
+    <t>Sat Dec 26 20:12:00 +0000 2020</t>
+  </si>
+  <si>
+    <t>Seri Anak Saleh Didoakan Malaikat; Mimpi Shofwa; Berwudhu sebelum Tidur - Diskon 20% menjadi Rp.20000
+Gratis ongkos kirim hingga 40rb keseluruh Indonesia.
+#mainanbukuanak #promo #dirumahaja #belajardirumah #buku #membaca #booklover #bookstorm  
+SINOPSIS:Shofwa mimpi https://t.co/WoWu3R5QI8</t>
+  </si>
+  <si>
+    <t>Sat Dec 26 17:43:10 +0000 2020</t>
+  </si>
+  <si>
+    <t>Pelajaran terbesar dalam kehidupan diperoleh dari kegagalan. So, jangan pernah berhenti berjuang, karena terkadang kita menang, terkadang kita belajar.
+#kelaskita #carabarubelajarseru #belajardirumah #elearning #belajaronline #dirumahaja #quotes https://t.co/Om62fMj9dx</t>
+  </si>
+  <si>
+    <t>Sat Dec 26 17:00:00 +0000 2020</t>
+  </si>
+  <si>
+    <t>Seri Aku Senang Berbagi; Taman Baca Nasya - Diskon 20% menjadi Rp.20000
+Gratis ongkos kirim hingga 40rb keseluruh Indonesia.
+#mainanbukuanak #promo #dirumahaja #belajardirumah #buku #membaca #booklover #bookstorm  
+SINOPSIS:Setiap ahad pagi ibu-ibu komplek belajar https://t.co/8HNvMFjBt8</t>
+  </si>
+  <si>
+    <t>Sat Dec 26 15:12:01 +0000 2020</t>
+  </si>
+  <si>
+    <t>Seri Tauhid for Kids; Allah Maha Mengatur Alam; Kentongan Pengusir Gerhana - Diskon 20% menjadi Rp.20000
+Gratis ongkos kirim hingga 40rb keseluruh Indonesia.
+#mainanbukuanak #promo #dirumahaja #belajardirumah #buku #membaca #booklover #bookstorm  
+SINOPSIS:Nanti malam https://t.co/zaseRNJo21</t>
+  </si>
+  <si>
+    <t>Sat Dec 26 12:42:02 +0000 2020</t>
+  </si>
+  <si>
+    <t>ANGKA PASIEN SEMBUH KEMBALI BERTAMBAH 17 DAN 41 KASUS BARU
+INFORMASI LENGKAPNYA BACA DI👉 https://t.co/dTeNg6AcIN
+#ayolawancorona #belajardirumah #beribadahdirumah #bermaindirumah #dirumahsaja #jagakebersihan #jagakesehatan #jagajarak #pakemasker #tetapwaspada #coronabisasembuh https://t.co/QB9CCI8oJu</t>
+  </si>
+  <si>
+    <t>Sat Dec 26 11:57:40 +0000 2020</t>
+  </si>
+  <si>
+    <t>Update Perkembangan Covid-19 di Kabupaten Luwu Timur per 26 Desember 2020.
+17 sembuh dan 41 kasus baru
+Perbaharui terus informasi di https://t.co/D4pL3qgDlY
+#ayolawancorona #belajardirumah #beribadahdirumah #bermaindirumah #dirumahsaja #jagakebersihan #jagakesehatan #jagajarak https://t.co/WB1olrl9gZ</t>
+  </si>
+  <si>
+    <t>Sat Dec 26 11:57:21 +0000 2020</t>
+  </si>
+  <si>
+    <t>Seri Tauhid for Kids; Allah Maha Memberi Rezeki; Sepatu Bola Baim - Diskon 20% menjadi Rp.20000
+Gratis ongkos kirim hingga 40rb keseluruh Indonesia.
+#mainanbukuanak #promo #dirumahaja #belajardirumah #buku #membaca #booklover #bookstorm  
+SINOPSIS:Baim sedih karena tidak https://t.co/0MUsN2juTG</t>
+  </si>
+  <si>
+    <t>Sat Dec 26 10:12:16 +0000 2020</t>
+  </si>
+  <si>
+    <t>Seri Tauhid for Kids; Larangan Percaya Ramalan; Ramalan Bintang Baim - Diskon 20% menjadi Rp.20000
+Gratis ongkos kirim hingga 40rb keseluruh Indonesia.
+#mainanbukuanak #promo #dirumahaja #belajardirumah #buku #membaca #booklover #bookstorm  
+SINOPSIS:Baim senang. Menurut https://t.co/lkPH76lpnJ</t>
+  </si>
+  <si>
+    <t>Sat Dec 26 07:42:03 +0000 2020</t>
+  </si>
+  <si>
+    <t>Seri Aku Senang Berbagi : Adik Baru Muthia - Diskon 20% menjadi Rp.20000
+Gratis ongkos kirim hingga 40rb keseluruh Indonesia.
+#mainanbukuanak #promo #dirumahaja #belajardirumah #buku #membaca #booklover #bookstorm  
+SINOPSIS:Naura sepupu Muthia baru saja kehilangan kedua https://t.co/d5tRUoZQm8</t>
+  </si>
+  <si>
+    <t>Sat Dec 26 05:12:21 +0000 2020</t>
+  </si>
+  <si>
+    <t>⏩PAKET DESIGN #ADOBE ILLUSTRATOR🤩 - Pembuatan Design Menggunakan Adobe Illustrator 18 Module https://t.co/V7y8EtrLeU
+#PaketDesign #adobeillustrator #pakaimasker #jagajarak #cucitangan #dirumahsaja #belajardirumah #KuliahOnline #IndonesiaSehat #ai #jagakesehatan #IndonesiaMaju</t>
+  </si>
+  <si>
+    <t>Sat Dec 26 04:00:00 +0000 2020</t>
+  </si>
+  <si>
+    <t>1 Set Fiqh For Kids - Diskon 20% menjadi Rp.200000
+Gratis ongkos kirim hingga 40rb keseluruh Indonesia.
+#mainanbukuanak #promo #dirumahaja #belajardirumah #buku #membaca #booklover #bookstorm  
+SINOPSIS:
+PENULIS:Tethy Permanasari https://t.co/GSSNq7DHtc</t>
+  </si>
+  <si>
+    <t>Sat Dec 26 02:42:08 +0000 2020</t>
+  </si>
+  <si>
+    <t>Seri Anak saleh didoakan Malaikat ; Ikan-Ikan ikut Mendoakan - Diskon 20% menjadi Rp.20000
+Gratis ongkos kirim hingga 40rb keseluruh Indonesia.
+#mainanbukuanak #promo #dirumahaja #belajardirumah #buku #membaca #booklover #bookstorm  
+SINOPSIS:Fawwaz malas sekali https://t.co/ADLtzsImXV</t>
+  </si>
+  <si>
+    <t>Sat Dec 26 00:12:19 +0000 2020</t>
+  </si>
+  <si>
+    <t>Seri Anak Saleh Didoakan Malaikat; Awas Terpleset - Diskon 20% menjadi Rp.20000
+Gratis ongkos kirim hingga 40rb keseluruh Indonesia.
+#mainanbukuanak #promo #dirumahaja #belajardirumah #buku #membaca #booklover #bookstorm  
+SINOPSIS:Sabiq menunda pergi ke masjid karena https://t.co/nYjTTC68Y4</t>
+  </si>
+  <si>
+    <t>Fri Dec 25 21:42:01 +0000 2020</t>
+  </si>
+  <si>
+    <t>Seri Anak Saleh Didoakan Malaikat; Doa-doa Umi - Diskon 20% menjadi Rp.20000
+Gratis ongkos kirim hingga 40rb keseluruh Indonesia.
+#mainanbukuanak #promo #dirumahaja #belajardirumah #buku #membaca #booklover #bookstorm  
+SINOPSIS:Fawwaz heran dengan Umi. Umi selalu https://t.co/fsXfJyPLfa</t>
+  </si>
+  <si>
+    <t>Fri Dec 25 19:12:05 +0000 2020</t>
+  </si>
+  <si>
+    <t>Seri Anak Saleh Didoakan Malaikat; Nasihat Kakek Fuad - Diskon 20% menjadi Rp.20000
+Gratis ongkos kirim hingga 40rb keseluruh Indonesia.
+#mainanbukuanak #promo #dirumahaja #belajardirumah #buku #membaca #booklover #bookstorm  
+SINOPSIS:Sabiq paling malas shalat Shubuh https://t.co/TzYmINiLSu</t>
+  </si>
+  <si>
+    <t>Fri Dec 25 16:42:05 +0000 2020</t>
   </si>
 </sst>
 </file>
@@ -6509,10 +6735,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D776"/>
+  <dimension ref="A1:D812"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A754" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="I774" sqref="I774"/>
+    <sheetView tabSelected="1" topLeftCell="A796" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="I813" sqref="I813"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -17381,6 +17607,510 @@
         <v>1235</v>
       </c>
     </row>
+    <row r="777" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A777">
+        <v>1.3431923334082931E+18</v>
+      </c>
+      <c r="B777" t="s">
+        <v>1490</v>
+      </c>
+      <c r="C777" t="s">
+        <v>625</v>
+      </c>
+      <c r="D777" t="s">
+        <v>1491</v>
+      </c>
+    </row>
+    <row r="778" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A778">
+        <v>1.343152785303327E+18</v>
+      </c>
+      <c r="B778" t="s">
+        <v>1492</v>
+      </c>
+      <c r="C778" t="s">
+        <v>625</v>
+      </c>
+      <c r="D778" t="s">
+        <v>1493</v>
+      </c>
+    </row>
+    <row r="779" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A779">
+        <v>1.343145090261217E+18</v>
+      </c>
+      <c r="B779" t="s">
+        <v>1494</v>
+      </c>
+      <c r="C779" t="s">
+        <v>21</v>
+      </c>
+      <c r="D779" t="s">
+        <v>1495</v>
+      </c>
+    </row>
+    <row r="780" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A780">
+        <v>1.343115042749706E+18</v>
+      </c>
+      <c r="B780" t="s">
+        <v>1496</v>
+      </c>
+      <c r="C780" t="s">
+        <v>625</v>
+      </c>
+      <c r="D780" t="s">
+        <v>1497</v>
+      </c>
+    </row>
+    <row r="781" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A781">
+        <v>1.3430896049420411E+18</v>
+      </c>
+      <c r="B781" t="s">
+        <v>1498</v>
+      </c>
+      <c r="C781" t="s">
+        <v>72</v>
+      </c>
+      <c r="D781" t="s">
+        <v>1499</v>
+      </c>
+    </row>
+    <row r="782" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A782">
+        <v>1.343077346828407E+18</v>
+      </c>
+      <c r="B782" t="s">
+        <v>1500</v>
+      </c>
+      <c r="C782" t="s">
+        <v>625</v>
+      </c>
+      <c r="D782" t="s">
+        <v>1501</v>
+      </c>
+    </row>
+    <row r="783" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A783">
+        <v>1.343043933564244E+18</v>
+      </c>
+      <c r="B783" t="s">
+        <v>1502</v>
+      </c>
+      <c r="C783" t="s">
+        <v>18</v>
+      </c>
+      <c r="D783" t="s">
+        <v>1503</v>
+      </c>
+    </row>
+    <row r="784" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A784">
+        <v>1.343039613221237E+18</v>
+      </c>
+      <c r="B784" t="s">
+        <v>1504</v>
+      </c>
+      <c r="C784" t="s">
+        <v>625</v>
+      </c>
+      <c r="D784" t="s">
+        <v>1505</v>
+      </c>
+    </row>
+    <row r="785" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A785">
+        <v>1.3430016735563451E+18</v>
+      </c>
+      <c r="B785" t="s">
+        <v>1506</v>
+      </c>
+      <c r="C785" t="s">
+        <v>625</v>
+      </c>
+      <c r="D785" t="s">
+        <v>1507</v>
+      </c>
+    </row>
+    <row r="786" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A786">
+        <v>1.3429639101780421E+18</v>
+      </c>
+      <c r="B786" t="s">
+        <v>1508</v>
+      </c>
+      <c r="C786" t="s">
+        <v>625</v>
+      </c>
+      <c r="D786" t="s">
+        <v>1509</v>
+      </c>
+    </row>
+    <row r="787" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A787">
+        <v>1.34292615356099E+18</v>
+      </c>
+      <c r="B787" t="s">
+        <v>1510</v>
+      </c>
+      <c r="C787" t="s">
+        <v>625</v>
+      </c>
+      <c r="D787" t="s">
+        <v>1511</v>
+      </c>
+    </row>
+    <row r="788" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A788">
+        <v>1.3428886990008361E+18</v>
+      </c>
+      <c r="B788" t="s">
+        <v>1512</v>
+      </c>
+      <c r="C788" t="s">
+        <v>625</v>
+      </c>
+      <c r="D788" t="s">
+        <v>1513</v>
+      </c>
+    </row>
+    <row r="789" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A789">
+        <v>1.342877838102442E+18</v>
+      </c>
+      <c r="B789" t="s">
+        <v>1514</v>
+      </c>
+      <c r="C789" t="s">
+        <v>45</v>
+      </c>
+      <c r="D789" t="s">
+        <v>1515</v>
+      </c>
+    </row>
+    <row r="790" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A790">
+        <v>1.342850662426558E+18</v>
+      </c>
+      <c r="B790" t="s">
+        <v>1516</v>
+      </c>
+      <c r="C790" t="s">
+        <v>625</v>
+      </c>
+      <c r="D790" t="s">
+        <v>1517</v>
+      </c>
+    </row>
+    <row r="791" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A791">
+        <v>1.3428129181868769E+18</v>
+      </c>
+      <c r="B791" t="s">
+        <v>1518</v>
+      </c>
+      <c r="C791" t="s">
+        <v>625</v>
+      </c>
+      <c r="D791" t="s">
+        <v>1519</v>
+      </c>
+    </row>
+    <row r="792" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A792">
+        <v>1.342801754174366E+18</v>
+      </c>
+      <c r="B792" t="s">
+        <v>1520</v>
+      </c>
+      <c r="C792" t="s">
+        <v>21</v>
+      </c>
+      <c r="D792" t="s">
+        <v>1521</v>
+      </c>
+    </row>
+    <row r="793" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A793">
+        <v>1.342801674499285E+18</v>
+      </c>
+      <c r="B793" t="s">
+        <v>1522</v>
+      </c>
+      <c r="C793" t="s">
+        <v>21</v>
+      </c>
+      <c r="D793" t="s">
+        <v>1523</v>
+      </c>
+    </row>
+    <row r="794" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A794">
+        <v>1.342775229358068E+18</v>
+      </c>
+      <c r="B794" t="s">
+        <v>1524</v>
+      </c>
+      <c r="C794" t="s">
+        <v>625</v>
+      </c>
+      <c r="D794" t="s">
+        <v>1525</v>
+      </c>
+    </row>
+    <row r="795" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A795">
+        <v>1.342737426217759E+18</v>
+      </c>
+      <c r="B795" t="s">
+        <v>1526</v>
+      </c>
+      <c r="C795" t="s">
+        <v>625</v>
+      </c>
+      <c r="D795" t="s">
+        <v>1527</v>
+      </c>
+    </row>
+    <row r="796" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A796">
+        <v>1.342699749871243E+18</v>
+      </c>
+      <c r="B796" t="s">
+        <v>1528</v>
+      </c>
+      <c r="C796" t="s">
+        <v>625</v>
+      </c>
+      <c r="D796" t="s">
+        <v>1529</v>
+      </c>
+    </row>
+    <row r="797" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A797">
+        <v>1.34268154246051E+18</v>
+      </c>
+      <c r="B797" t="s">
+        <v>1530</v>
+      </c>
+      <c r="C797" t="s">
+        <v>18</v>
+      </c>
+      <c r="D797" t="s">
+        <v>1531</v>
+      </c>
+    </row>
+    <row r="798" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A798">
+        <v>1.3426619467603149E+18</v>
+      </c>
+      <c r="B798" t="s">
+        <v>1532</v>
+      </c>
+      <c r="C798" t="s">
+        <v>625</v>
+      </c>
+      <c r="D798" t="s">
+        <v>1533</v>
+      </c>
+    </row>
+    <row r="799" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A799">
+        <v>1.3426242449711839E+18</v>
+      </c>
+      <c r="B799" t="s">
+        <v>1534</v>
+      </c>
+      <c r="C799" t="s">
+        <v>625</v>
+      </c>
+      <c r="D799" t="s">
+        <v>1535</v>
+      </c>
+    </row>
+    <row r="800" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A800">
+        <v>1.342586419701641E+18</v>
+      </c>
+      <c r="B800" t="s">
+        <v>1536</v>
+      </c>
+      <c r="C800" t="s">
+        <v>625</v>
+      </c>
+      <c r="D800" t="s">
+        <v>1537</v>
+      </c>
+    </row>
+    <row r="801" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A801">
+        <v>1.3425486887034061E+18</v>
+      </c>
+      <c r="B801" t="s">
+        <v>1538</v>
+      </c>
+      <c r="C801" t="s">
+        <v>625</v>
+      </c>
+      <c r="D801" t="s">
+        <v>1539</v>
+      </c>
+    </row>
+    <row r="802" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A802">
+        <v>1.34251093912447E+18</v>
+      </c>
+      <c r="B802" t="s">
+        <v>1540</v>
+      </c>
+      <c r="C802" t="s">
+        <v>625</v>
+      </c>
+      <c r="D802" t="s">
+        <v>1541</v>
+      </c>
+    </row>
+    <row r="803" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A803">
+        <v>1.342474565381812E+18</v>
+      </c>
+      <c r="B803" t="s">
+        <v>1345</v>
+      </c>
+      <c r="C803" t="s">
+        <v>625</v>
+      </c>
+      <c r="D803" t="s">
+        <v>1346</v>
+      </c>
+    </row>
+    <row r="804" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A804">
+        <v>1.3424389384687329E+18</v>
+      </c>
+      <c r="B804" t="s">
+        <v>1347</v>
+      </c>
+      <c r="C804" t="s">
+        <v>21</v>
+      </c>
+      <c r="D804" t="s">
+        <v>1348</v>
+      </c>
+    </row>
+    <row r="805" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A805">
+        <v>1.342436257444418E+18</v>
+      </c>
+      <c r="B805" t="s">
+        <v>1349</v>
+      </c>
+      <c r="C805" t="s">
+        <v>625</v>
+      </c>
+      <c r="D805" t="s">
+        <v>1350</v>
+      </c>
+    </row>
+    <row r="806" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A806">
+        <v>1.3423976752541161E+18</v>
+      </c>
+      <c r="B806" t="s">
+        <v>1351</v>
+      </c>
+      <c r="C806" t="s">
+        <v>625</v>
+      </c>
+      <c r="D806" t="s">
+        <v>1352</v>
+      </c>
+    </row>
+    <row r="807" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A807">
+        <v>1.342395076568363E+18</v>
+      </c>
+      <c r="B807" t="s">
+        <v>1353</v>
+      </c>
+      <c r="C807" t="s">
+        <v>72</v>
+      </c>
+      <c r="D807" t="s">
+        <v>1354</v>
+      </c>
+    </row>
+    <row r="808" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A808">
+        <v>1.3423605385215549E+18</v>
+      </c>
+      <c r="B808" t="s">
+        <v>1355</v>
+      </c>
+      <c r="C808" t="s">
+        <v>625</v>
+      </c>
+      <c r="D808" t="s">
+        <v>1356</v>
+      </c>
+    </row>
+    <row r="809" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A809">
+        <v>1.3423222819308421E+18</v>
+      </c>
+      <c r="B809" t="s">
+        <v>1357</v>
+      </c>
+      <c r="C809" t="s">
+        <v>625</v>
+      </c>
+      <c r="D809" t="s">
+        <v>1358</v>
+      </c>
+    </row>
+    <row r="810" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A810">
+        <v>1.342304066517524E+18</v>
+      </c>
+      <c r="B810" t="s">
+        <v>1359</v>
+      </c>
+      <c r="C810" t="s">
+        <v>45</v>
+      </c>
+      <c r="D810" t="s">
+        <v>1360</v>
+      </c>
+    </row>
+    <row r="811" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A811">
+        <v>1.342288958592406E+18</v>
+      </c>
+      <c r="B811" t="s">
+        <v>1361</v>
+      </c>
+      <c r="C811" t="s">
+        <v>18</v>
+      </c>
+      <c r="D811" t="s">
+        <v>1362</v>
+      </c>
+    </row>
+    <row r="812" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A812">
+        <v>1.3422845105665679E+18</v>
+      </c>
+      <c r="B812" t="s">
+        <v>1363</v>
+      </c>
+      <c r="C812" t="s">
+        <v>625</v>
+      </c>
+      <c r="D812" t="s">
+        <v>1364</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/application/static/excel_data/data_crawling -- 3. #belajardirumah.xlsx
+++ b/application/static/excel_data/data_crawling -- 3. #belajardirumah.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2437" uniqueCount="1542">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2614" uniqueCount="1641">
   <si>
     <t>id</t>
   </si>
@@ -6373,6 +6373,422 @@
   </si>
   <si>
     <t>Fri Dec 25 16:42:05 +0000 2020</t>
+  </si>
+  <si>
+    <t>Seri Sirah Nabi 4 ; Cahaya di Langit Mekah - Diskon 20% menjadi Rp.57600
+Gratis ongkos kirim hingga 40rb keseluruh Indonesia.
+#mainanbukuanak #promo #dirumahaja #belajardirumah #buku #membaca #booklover #bookstorm  
+SINOPSIS:Suatu malam di Tahun Gajah Bulan purnama https://t.co/Xi8n3ZkEAK</t>
+  </si>
+  <si>
+    <t>Wed Dec 30 11:44:13 +0000 2020</t>
+  </si>
+  <si>
+    <t>TOTAL PASIEN SEMBUH MENCAPAI 1.922, KASUS BARU 12 DAN 1 PASIEN COVID19 MENINGGAL
+INFORMASI LENGKAPNYA DI 👉 https://t.co/kK6NdxJcPg
+#ayolawancorona #belajardirumah #bermaindirumah #dirumahsaja #jagakebersihan #jagakesehatan #jagajarak #pakemasker #tetapwaspada #coronabisasembuh https://t.co/tb1Pqr7S1p</t>
+  </si>
+  <si>
+    <t>Wed Dec 30 10:45:02 +0000 2020</t>
+  </si>
+  <si>
+    <t>Update Perkembangan Covid-19 di Kabupaten Luwu Timur per 30 Desember 2020.
+3 sembuh, 12 kasus baru &amp;amp; 1 meninggal.
+Perbaharui terus informasi anda di https://t.co/D4pL3qgDlY
+#ayolawancorona #belajardirumah #beribadahdirumah #bermaindirumah #dirumahsaja #jagakebersihan #ja https://t.co/yjBeWe59Iy</t>
+  </si>
+  <si>
+    <t>Wed Dec 30 10:44:34 +0000 2020</t>
+  </si>
+  <si>
+    <t>Fiqh For Kids Halal &amp;amp; Haram 10 : Memilih Jajanan - Diskon 20% menjadi Rp.20000
+Gratis ongkos kirim hingga 40rb keseluruh Indonesia.
+#mainanbukuanak #promo #dirumahaja #belajardirumah #buku #membaca #booklover #bookstorm  
+SINOPSIS:Kali ini Zahra Nayla dan Fatimah dibuat https://t.co/7cBViD61n4</t>
+  </si>
+  <si>
+    <t>Wed Dec 30 09:13:48 +0000 2020</t>
+  </si>
+  <si>
+    <t>Hap! Hap! Hap! ; Fabel Kemandirian &amp;amp; Keberanian (FC) - Diskon 20% menjadi Rp.52000
+Gratis ongkos kirim hingga 40rb keseluruh Indonesia.
+#mainanbukuanak #promo #dirumahaja #belajardirumah #buku #membaca #booklover #bookstorm  
+SINOPSIS:Tidak ada tempat paling nyaman dan https://t.co/eIL8VjxgSA</t>
+  </si>
+  <si>
+    <t>Wed Dec 30 06:42:24 +0000 2020</t>
+  </si>
+  <si>
+    <t>Pernah diserempet Brompton?
+#kelaskita #carabarubelajarseru #belajardirumah #elearning #belajaronline #dirumahaja #2020throwback #welcome2021 https://t.co/krYEvu7LCL</t>
+  </si>
+  <si>
+    <t>Wed Dec 30 05:09:47 +0000 2020</t>
+  </si>
+  <si>
+    <t>Dua tren jagoan yang masih hits sampe sekarang~
+#kelaskita #carabarubelajarseru #belajardirumah #elearning #belajaronline #dirumahaja #2020throwback #welcome2021 https://t.co/GMfMUGS7J4</t>
+  </si>
+  <si>
+    <t>Wed Dec 30 05:09:16 +0000 2020</t>
+  </si>
+  <si>
+    <t>Bersama itu asyik 😉
+#belajar #belajarbersama #sinau #liburandirumahaja #belajardirumah #pandemi https://t.co/YJVuJeJh8O</t>
+  </si>
+  <si>
+    <t>jangasef_xnine</t>
+  </si>
+  <si>
+    <t>Wed Dec 30 05:09:12 +0000 2020</t>
+  </si>
+  <si>
+    <t>ke dapur ngocok dalgona
+balik ke kamar poto-poto
+gitu aja terus kannnnn~
+#kelaskita #carabarubelajarseru #belajardirumah #elearning #belajaronline #dirumahaja #2020throwback #welcome2021 https://t.co/IBKEUsEXaa</t>
+  </si>
+  <si>
+    <t>Wed Dec 30 05:07:56 +0000 2020</t>
+  </si>
+  <si>
+    <t>Sebelum tahun baru abis, mending kita throwback dulu nih apa aja sih tren yang pernah hits di tahun yang penuh liku-liku ini :')
+Cekidot!
+#kelaskita #carabarubelajarseru #belajardirumah #elearning #belajaronline #dirumahaja #2020throwback #welcome2021 https://t.co/DPmOQqA4Dh</t>
+  </si>
+  <si>
+    <t>Wed Dec 30 05:06:41 +0000 2020</t>
+  </si>
+  <si>
+    <t>4 In 1 ; Dongeng Binatang Untuk Anak - Diskon 20% menjadi Rp.52000
+Gratis ongkos kirim hingga 40rb keseluruh Indonesia.
+#mainanbukuanak #promo #dirumahaja #belajardirumah #buku #membaca #booklover #bookstorm  
+SINOPSIS:Cerita-cerita di buku ini mengandung hikmah dan https://t.co/uYwpDhiEN4</t>
+  </si>
+  <si>
+    <t>Wed Dec 30 04:13:18 +0000 2020</t>
+  </si>
+  <si>
+    <t>Wed Dec 30 04:00:01 +0000 2020</t>
+  </si>
+  <si>
+    <t>Seri Sirah Nabi 6 ; Ibu Dari Pegunungan - Diskon 20% menjadi Rp.57600
+Gratis ongkos kirim hingga 40rb keseluruh Indonesia.
+#mainanbukuanak #promo #dirumahaja #belajardirumah #buku #membaca #booklover #bookstorm  
+SINOPSIS:Masa ke Mekah sudah tiba. Ibu desa turun gunung https://t.co/KnGc3kVDH0</t>
+  </si>
+  <si>
+    <t>Wed Dec 30 01:41:59 +0000 2020</t>
+  </si>
+  <si>
+    <t>Seri Sirah Nabi 10 ; Pulang Ke Mekah - Diskon 20% menjadi Rp.57600
+Gratis ongkos kirim hingga 40rb keseluruh Indonesia.
+#mainanbukuanak #promo #dirumahaja #belajardirumah #buku #membaca #booklover #bookstorm  
+SINOPSIS:Saat penduduk tidur lelap Halimah bawa Muhammad https://t.co/PKJsEENXhL</t>
+  </si>
+  <si>
+    <t>Tue Dec 29 23:12:13 +0000 2020</t>
+  </si>
+  <si>
+    <t>Seri Sirah Nabi 7 ; Unta Tua Yang bahagia - Diskon 20% menjadi Rp.57600
+Gratis ongkos kirim hingga 40rb keseluruh Indonesia.
+#mainanbukuanak #promo #dirumahaja #belajardirumah #buku #membaca #booklover #bookstorm  
+SINOPSIS:“Aku merasa banyak tenaga. Aku kuat bagai https://t.co/xCouZwr3zR</t>
+  </si>
+  <si>
+    <t>Tue Dec 29 20:42:00 +0000 2020</t>
+  </si>
+  <si>
+    <t>Kisah 7 Bayi Bisa Bicara - Diskon 20% menjadi Rp.31200
+Gratis ongkos kirim hingga 40rb keseluruh Indonesia.
+#mainanbukuanak #promo #dirumahaja #belajardirumah #buku #membaca #booklover #bookstorm  
+SINOPSIS:Sobat Cilik pernahkah kamu mendengar bahwa ada bayi yang bisa https://t.co/UoP2oFEgmL</t>
+  </si>
+  <si>
+    <t>Tue Dec 29 18:14:27 +0000 2020</t>
+  </si>
+  <si>
+    <t>Hipo, Si Hiu Yang Baik hati ; + 9 Kisah Penuh - Diskon 20% menjadi Rp.69600
+Gratis ongkos kirim hingga 40rb keseluruh Indonesia.
+#mainanbukuanak #promo #dirumahaja #belajardirumah #buku #membaca #booklover #bookstorm  
+SINOPSIS:Hipo adalah seekor hiu biru yang suka https://t.co/aGg37S5lbp</t>
+  </si>
+  <si>
+    <t>Tue Dec 29 15:43:50 +0000 2020</t>
+  </si>
+  <si>
+    <t>Dongeng Bawah Tanah - Diskon 20% menjadi Rp.69600
+Gratis ongkos kirim hingga 40rb keseluruh Indonesia.
+#mainanbukuanak #promo #dirumahaja #belajardirumah #buku #membaca #booklover #bookstorm  
+SINOPSIS:Kuki si jangkrik rajin berlatih mengerik. sayangnya  para tetangga https://t.co/lBiRPCnlM4</t>
+  </si>
+  <si>
+    <t>Tue Dec 29 13:12:18 +0000 2020</t>
+  </si>
+  <si>
+    <t>Proses Belajar Mengajar Secara Tatap Muka Ditunda Kembali
+https://t.co/6nxP9Eefcb
+#beritakitacoid #sobatkita #Lampung #Lampungselatan #Lamsel #Sekolah #Pendidikan #Belajardirumah #Online https://t.co/3yKbM7jyzW</t>
+  </si>
+  <si>
+    <t>Tue Dec 29 13:02:08 +0000 2020</t>
+  </si>
+  <si>
+    <t>MY Super MOM &amp;amp; DAD - Diskon 20% menjadi Rp.48800
+Gratis ongkos kirim hingga 40rb keseluruh Indonesia.
+#mainanbukuanak #promo #dirumahaja #belajardirumah #buku #membaca #booklover #bookstorm  
+SINOPSIS:Aku mempunyai dua orang pahlawan. Keduanya adalah pahlawan hebat dalam https://t.co/sl3xTj7XUI</t>
+  </si>
+  <si>
+    <t>Tue Dec 29 10:43:02 +0000 2020</t>
+  </si>
+  <si>
+    <t>Update Perkembangan Covid-19 di Kabupaten Luwu Timur per 29 Desember 2020.
+4 kasus baru.
+Perbaharui terus informasi anda di https://t.co/D4pL3qgDlY
+#ayolawancorona #belajardirumah #beribadahdirumah #bermaindirumah #dirumahsaja #jagakebersihan #jagakesehatan #jagajarak https://t.co/GNHsW98M4G</t>
+  </si>
+  <si>
+    <t>Tue Dec 29 10:37:17 +0000 2020</t>
+  </si>
+  <si>
+    <t>Pahlawan Bumi - Diskon 20% menjadi Rp.32800
+Gratis ongkos kirim hingga 40rb keseluruh Indonesia.
+#mainanbukuanak #promo #dirumahaja #belajardirumah #buku #membaca #booklover #bookstorm  
+SINOPSIS:Raya sedang menjalani diet. Tapi bukan diet makanan seperti biasa melainkan https://t.co/DE0EL0txc6</t>
+  </si>
+  <si>
+    <t>Tue Dec 29 08:12:25 +0000 2020</t>
+  </si>
+  <si>
+    <t>Pangeran Karim dan Puteri Karimah - Diskon 20% menjadi Rp.52800
+Gratis ongkos kirim hingga 40rb keseluruh Indonesia.
+#mainanbukuanak #promo #dirumahaja #belajardirumah #buku #membaca #booklover #bookstorm  
+SINOPSIS:Suatu pagi Pangeran Karim Putri Karimah dan sepupu https://t.co/QxnoqzwhwR</t>
+  </si>
+  <si>
+    <t>Tue Dec 29 05:43:48 +0000 2020</t>
+  </si>
+  <si>
+    <t>Serena Williams harus istirahat dulu tahun ini karena Wimbledon diundur tahun depan. Yang nungguin Jojo maen badminton juga sabar ya hyung~
+#kelaskita #carabarubelajarseru #belajardirumah #elearning #belajaronline #dirumahaja #Kaleidoskop2020 #Welcome2021 https://t.co/MG5ewCbi2h</t>
+  </si>
+  <si>
+    <t>Tue Dec 29 05:05:58 +0000 2020</t>
+  </si>
+  <si>
+    <t>Acara tahunan buat sobat developer sekalian juga harus batal. Gak cuma itu, Summer Olympics yang diadain di Jepang juga diundur tahun depan :'(
+#kelaskita #carabarubelajarseru #belajardirumah #elearning #belajaronline #dirumahaja #Kaleidoskop2020 #Welcome2021 https://t.co/FJXNFfspmS</t>
+  </si>
+  <si>
+    <t>Tue Dec 29 05:01:10 +0000 2020</t>
+  </si>
+  <si>
+    <t>Pantes tongkrongan sepi, ga ada yang nonton bola. Tapi tenang, diundur taun depan kok.
+#kelaskita #carabarubelajarseru #belajardirumah #elearning #belajaronline #dirumahaja #Kaleidoskop2020 #Welcome2021 https://t.co/paKLmzxQnw</t>
+  </si>
+  <si>
+    <t>Tue Dec 29 04:59:36 +0000 2020</t>
+  </si>
+  <si>
+    <t>Selain batal nonton Raisa, ternyata banyak juga acara yang batal di tahun 2020 ini.
+Simak yuk!
+#kelaskita #carabarubelajarseru #belajardirumah #elearning #belajaronline #dirumahaja #Kaleidoskop2020 #Welcome2021 https://t.co/Q6gsJVjbYV</t>
+  </si>
+  <si>
+    <t>Tue Dec 29 04:58:13 +0000 2020</t>
+  </si>
+  <si>
+    <t>Tue Dec 29 04:00:00 +0000 2020</t>
+  </si>
+  <si>
+    <t>Belu Beli Bola - Diskon 20% menjadi Rp.52000
+Gratis ongkos kirim hingga 40rb keseluruh Indonesia.
+#mainanbukuanak #promo #dirumahaja #belajardirumah #buku #membaca #booklover #bookstorm  
+SINOPSIS:Belu sangat ingin memiliki bola sendiri. Namun ia tak tega meminta uang https://t.co/LvkkmhWl5t</t>
+  </si>
+  <si>
+    <t>Tue Dec 29 03:13:30 +0000 2020</t>
+  </si>
+  <si>
+    <t>Rockschool Learning Platform
+Berisi semua materi lagu dari debut - grade 8 dan sangat membantu dalam pengajaran online 
+#belajardirumah #belajarmusik #belajargitar #belajaronline #rockschool #rslawards https://t.co/JERt8RxGP8</t>
+  </si>
+  <si>
+    <t>uda_rulli</t>
+  </si>
+  <si>
+    <t>Tue Dec 29 02:27:04 +0000 2020</t>
+  </si>
+  <si>
+    <t>Seri Fabel Andung ila ; Dimana Telur Mak Ayam ? - Diskon 20% menjadi Rp.31200
+Gratis ongkos kirim hingga 40rb keseluruh Indonesia.
+#mainanbukuanak #promo #dirumahaja #belajardirumah #buku #membaca #booklover #bookstorm  
+SINOPSIS:Mak Ayam Kehilangan satu telurnya ! https://t.co/S0bjQqWFr5</t>
+  </si>
+  <si>
+    <t>Tue Dec 29 00:42:12 +0000 2020</t>
+  </si>
+  <si>
+    <t>Seri Fabel Andung ila ; Nasihat Si Angsa Tua - Diskon 20% menjadi Rp.31200
+Gratis ongkos kirim hingga 40rb keseluruh Indonesia.
+#mainanbukuanak #promo #dirumahaja #belajardirumah #buku #membaca #booklover #bookstorm  
+SINOPSIS:Ada anak rotan tumbuh menjalar dibatang https://t.co/RTC3OTOOyP</t>
+  </si>
+  <si>
+    <t>Mon Dec 28 22:13:33 +0000 2020</t>
+  </si>
+  <si>
+    <t>Seri Fabel Andung ila ; Adba Si Unta Yang Bahagia - Diskon 20% menjadi Rp.31200
+Gratis ongkos kirim hingga 40rb keseluruh Indonesia.
+#mainanbukuanak #promo #dirumahaja #belajardirumah #buku #membaca #booklover #bookstorm  
+SINOPSIS:Adba adalah seekor anak unta yang https://t.co/PBLhXKL5yU</t>
+  </si>
+  <si>
+    <t>Mon Dec 28 19:42:49 +0000 2020</t>
+  </si>
+  <si>
+    <t>Seri Fabel Andung ila ; Dika Si landak Duri - Diskon 20% menjadi Rp.31200
+Gratis ongkos kirim hingga 40rb keseluruh Indonesia.
+#mainanbukuanak #promo #dirumahaja #belajardirumah #buku #membaca #booklover #bookstorm  
+SINOPSIS:Suatu pagi Dika si landak mendengar sebuah https://t.co/e11GrKRrwr</t>
+  </si>
+  <si>
+    <t>Mon Dec 28 17:13:40 +0000 2020</t>
+  </si>
+  <si>
+    <t>Seri Fabel Andung ila ; Si Berang - Berang Kecil - Diskon 20% menjadi Rp.31200
+Gratis ongkos kirim hingga 40rb keseluruh Indonesia.
+#mainanbukuanak #promo #dirumahaja #belajardirumah #buku #membaca #booklover #bookstorm  
+SINOPSIS:Sibuk semua sibuk! Keluarga https://t.co/M4YmCaMIUn</t>
+  </si>
+  <si>
+    <t>Mon Dec 28 14:42:23 +0000 2020</t>
+  </si>
+  <si>
+    <t>Gimana sih cara ningkatin nilai anak? Belajar SOAL aja di Kelas Pintar!
+#pjj #pjjonline #belajardirumah #onlineclass #kelaspintarindonesia https://t.co/9Iz5yGxL1V</t>
+  </si>
+  <si>
+    <t>Mon Dec 28 14:01:56 +0000 2020</t>
+  </si>
+  <si>
+    <t>Heaven Fantastic Four ; Perempuan Istimewa di Surga - Diskon 20% menjadi Rp.44000
+Gratis ongkos kirim hingga 40rb keseluruh Indonesia.
+#mainanbukuanak #promo #dirumahaja #belajardirumah #buku #membaca #booklover #bookstorm  
+SINOPSIS:Adik-adik maukah kalian menghuni https://t.co/UllqmAOdzR</t>
+  </si>
+  <si>
+    <t>Mon Dec 28 12:12:17 +0000 2020</t>
+  </si>
+  <si>
+    <t>HARI INI PASIEN SEMBUH BERTAMBAH 17 DAN 7 KASUS BARU
+INFORMASI LENGKAPNYA BACA DI 👉 https://t.co/ixOG7QiAce
+#ayolawancorona #belajardirumah #beribadahdirumah #bermaindirumah #dirumahsaja #jagakebersihan #jagakesehatan #jagajarak #pakemasker #tetapwaspada #coronabisasembuh https://t.co/eDhimJcLUC</t>
+  </si>
+  <si>
+    <t>Mon Dec 28 10:41:27 +0000 2020</t>
+  </si>
+  <si>
+    <t>Update Perkembangan Covid-19 di Kabupaten Luwu Timur per 28 Desember 2020.
+17 sembuh dan 7 kasus baru.
+Perbaharui terus informasi di https://t.co/D4pL3qgDlY
+#ayolawancorona #belajardirumah #beribadahdirumah #bermaindirumah #dirumahsaja #jagakebersihan #jagakesehatan #jagajarak https://t.co/37lEJLhT9D</t>
+  </si>
+  <si>
+    <t>Mon Dec 28 10:41:09 +0000 2020</t>
+  </si>
+  <si>
+    <t>Heaven Fantastic Four 2 ; Perempuan Istimewa di Surga - Diskon 20% menjadi Rp.48800
+Gratis ongkos kirim hingga 40rb keseluruh Indonesia.
+#mainanbukuanak #promo #dirumahaja #belajardirumah #buku #membaca #booklover #bookstorm  
+SINOPSIS:Adik-adik maukah kalian menghuni https://t.co/Ln16QwmSCn</t>
+  </si>
+  <si>
+    <t>Mon Dec 28 09:42:35 +0000 2020</t>
+  </si>
+  <si>
+    <t>Ada yang udah dapat Bantuan Kuota Internet dari Kementerian Agama di IM3 Ooredoo?
+Untuk pelajar di lembaga pendidikan berbasis keagamaan, kamu bisa dapetin bantuan kuota biar makin nyaman #belajardirumah!
+Cek kuota kamu di *123*075# atau myIM3. Klik 👉🏻 https://t.co/xHmXald7rG https://t.co/YAPBiY0CL2</t>
+  </si>
+  <si>
+    <t>Mon Dec 28 08:00:00 +0000 2020</t>
+  </si>
+  <si>
+    <t>10 Sahabat Rasulullah - Diskon 20% menjadi Rp.78400
+Gratis ongkos kirim hingga 40rb keseluruh Indonesia.
+#mainanbukuanak #promo #dirumahaja #belajardirumah #buku #membaca #booklover #bookstorm  
+SINOPSIS:Adik-adik Muslim yang saleh dan shalihah apakah kalian pernah https://t.co/DWIKYLztdn</t>
+  </si>
+  <si>
+    <t>Mon Dec 28 07:15:17 +0000 2020</t>
+  </si>
+  <si>
+    <t>Sisa 2 hari lagi buat dapetin bingkisan cantik dari @parangkencana.
+Yuk, cek Instagram @kelaskitadotcom sekarang banget!
+#kelaskita #carabarubelajarseru #belajardirumah #elearning #belajaronline #dirumahaja #ikancupang #giveaway #parangkencana https://t.co/1GXkCst5cv</t>
+  </si>
+  <si>
+    <t>Mon Dec 28 05:00:30 +0000 2020</t>
+  </si>
+  <si>
+    <t>Seri 3 Kota Suci : Madinah ; Kota Yang Bercahaya - Diskon 20% menjadi Rp.52800
+Gratis ongkos kirim hingga 40rb keseluruh Indonesia.
+#mainanbukuanak #promo #dirumahaja #belajardirumah #buku #membaca #booklover #bookstorm  
+SINOPSIS:Kota Madinah adalahsalah satu dari tiga https://t.co/uikvHAnCZM</t>
+  </si>
+  <si>
+    <t>Mon Dec 28 04:44:18 +0000 2020</t>
+  </si>
+  <si>
+    <t>Mon Dec 28 04:00:00 +0000 2020</t>
+  </si>
+  <si>
+    <t>Dongeng Islami Hutan Cahaya - Diskon 20% menjadi Rp.38400
+Gratis ongkos kirim hingga 40rb keseluruh Indonesia.
+#mainanbukuanak #promo #dirumahaja #belajardirumah #buku #membaca #booklover #bookstorm  
+SINOPSIS:Muti si semut merah dan Mumu si semut hitam sedang bermain di https://t.co/KKmNUSLq9G</t>
+  </si>
+  <si>
+    <t>Mon Dec 28 02:13:23 +0000 2020</t>
+  </si>
+  <si>
+    <t>Seri Khulafaur Rasyidin Usman ; Pemilik Dua Cahaya - Diskon 20% menjadi Rp.48800
+Gratis ongkos kirim hingga 40rb keseluruh Indonesia.
+#mainanbukuanak #promo #dirumahaja #belajardirumah #buku #membaca #booklover #bookstorm  
+SINOPSIS:Khalifah Utsman bin Affan adalah https://t.co/k3hwxIwfP6</t>
+  </si>
+  <si>
+    <t>Sun Dec 27 23:44:55 +0000 2020</t>
+  </si>
+  <si>
+    <t>Seri Khulafaur Rasyidin  Abu Bakar  ; yang membenarkan - Diskon 20% menjadi Rp.48800
+Gratis ongkos kirim hingga 40rb keseluruh Indonesia.
+#mainanbukuanak #promo #dirumahaja #belajardirumah #buku #membaca #booklover #bookstorm  
+SINOPSIS:Abu Bakar ash-Shiddiq adalah https://t.co/UpmKNFHkha</t>
+  </si>
+  <si>
+    <t>Sun Dec 27 21:13:03 +0000 2020</t>
+  </si>
+  <si>
+    <t>Seri Khulafaur Rasyidin Ali Bin Abi Thalib ; Pemuda Yang Pemberani - Diskon 20% menjadi Rp.48800
+Gratis ongkos kirim hingga 40rb keseluruh Indonesia.
+#mainanbukuanak #promo #dirumahaja #belajardirumah #buku #membaca #booklover #bookstorm  
+SINOPSIS:Sejak kecil Ali bin https://t.co/KhdLz5K0ZU</t>
+  </si>
+  <si>
+    <t>Sun Dec 27 18:43:48 +0000 2020</t>
+  </si>
+  <si>
+    <t>Seri Khulafaur Rasyidin Umar Bin Khaththab ; Yang Membedakan Haq dan Batil - Diskon 20% menjadi Rp.48800
+Gratis ongkos kirim hingga 40rb keseluruh Indonesia.
+#mainanbukuanak #promo #dirumahaja #belajardirumah #buku #membaca #booklover #bookstorm  
+SINOPSIS:Sebelum https://t.co/ZR3ubLHu2m</t>
+  </si>
+  <si>
+    <t>Sun Dec 27 16:13:05 +0000 2020</t>
   </si>
 </sst>
 </file>
@@ -6735,10 +7151,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D812"/>
+  <dimension ref="A1:D871"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A796" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="I813" sqref="I813"/>
+    <sheetView tabSelected="1" topLeftCell="A865" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="L809" sqref="L809"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -18111,6 +18527,832 @@
         <v>1364</v>
       </c>
     </row>
+    <row r="813" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A813">
+        <v>1.344247919365374E+18</v>
+      </c>
+      <c r="B813" t="s">
+        <v>1542</v>
+      </c>
+      <c r="C813" t="s">
+        <v>625</v>
+      </c>
+      <c r="D813" t="s">
+        <v>1543</v>
+      </c>
+    </row>
+    <row r="814" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A814">
+        <v>1.344233024808866E+18</v>
+      </c>
+      <c r="B814" t="s">
+        <v>1544</v>
+      </c>
+      <c r="C814" t="s">
+        <v>21</v>
+      </c>
+      <c r="D814" t="s">
+        <v>1545</v>
+      </c>
+    </row>
+    <row r="815" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A815">
+        <v>1.344232906152022E+18</v>
+      </c>
+      <c r="B815" t="s">
+        <v>1546</v>
+      </c>
+      <c r="C815" t="s">
+        <v>21</v>
+      </c>
+      <c r="D815" t="s">
+        <v>1547</v>
+      </c>
+    </row>
+    <row r="816" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A816">
+        <v>1.344210063511093E+18</v>
+      </c>
+      <c r="B816" t="s">
+        <v>1548</v>
+      </c>
+      <c r="C816" t="s">
+        <v>625</v>
+      </c>
+      <c r="D816" t="s">
+        <v>1549</v>
+      </c>
+    </row>
+    <row r="817" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A817">
+        <v>1.3441719662702961E+18</v>
+      </c>
+      <c r="B817" t="s">
+        <v>1550</v>
+      </c>
+      <c r="C817" t="s">
+        <v>625</v>
+      </c>
+      <c r="D817" t="s">
+        <v>1551</v>
+      </c>
+    </row>
+    <row r="818" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A818">
+        <v>1.3441486577260989E+18</v>
+      </c>
+      <c r="B818" t="s">
+        <v>1552</v>
+      </c>
+      <c r="C818" t="s">
+        <v>45</v>
+      </c>
+      <c r="D818" t="s">
+        <v>1553</v>
+      </c>
+    </row>
+    <row r="819" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A819">
+        <v>1.3441485272832451E+18</v>
+      </c>
+      <c r="B819" t="s">
+        <v>1554</v>
+      </c>
+      <c r="C819" t="s">
+        <v>45</v>
+      </c>
+      <c r="D819" t="s">
+        <v>1555</v>
+      </c>
+    </row>
+    <row r="820" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A820">
+        <v>1.3441485096756879E+18</v>
+      </c>
+      <c r="B820" t="s">
+        <v>1556</v>
+      </c>
+      <c r="C820" t="s">
+        <v>1557</v>
+      </c>
+      <c r="D820" t="s">
+        <v>1558</v>
+      </c>
+    </row>
+    <row r="821" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A821">
+        <v>1.3441481908749271E+18</v>
+      </c>
+      <c r="B821" t="s">
+        <v>1559</v>
+      </c>
+      <c r="C821" t="s">
+        <v>45</v>
+      </c>
+      <c r="D821" t="s">
+        <v>1560</v>
+      </c>
+    </row>
+    <row r="822" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A822">
+        <v>1.3441478754758001E+18</v>
+      </c>
+      <c r="B822" t="s">
+        <v>1561</v>
+      </c>
+      <c r="C822" t="s">
+        <v>45</v>
+      </c>
+      <c r="D822" t="s">
+        <v>1562</v>
+      </c>
+    </row>
+    <row r="823" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A823">
+        <v>1.3441344402854259E+18</v>
+      </c>
+      <c r="B823" t="s">
+        <v>1563</v>
+      </c>
+      <c r="C823" t="s">
+        <v>625</v>
+      </c>
+      <c r="D823" t="s">
+        <v>1564</v>
+      </c>
+    </row>
+    <row r="824" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A824">
+        <v>1.3441310977901811E+18</v>
+      </c>
+      <c r="B824" t="s">
+        <v>1502</v>
+      </c>
+      <c r="C824" t="s">
+        <v>18</v>
+      </c>
+      <c r="D824" t="s">
+        <v>1565</v>
+      </c>
+    </row>
+    <row r="825" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A825">
+        <v>1.344096360090366E+18</v>
+      </c>
+      <c r="B825" t="s">
+        <v>1566</v>
+      </c>
+      <c r="C825" t="s">
+        <v>625</v>
+      </c>
+      <c r="D825" t="s">
+        <v>1567</v>
+      </c>
+    </row>
+    <row r="826" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A826">
+        <v>1.3440586717523441E+18</v>
+      </c>
+      <c r="B826" t="s">
+        <v>1568</v>
+      </c>
+      <c r="C826" t="s">
+        <v>625</v>
+      </c>
+      <c r="D826" t="s">
+        <v>1569</v>
+      </c>
+    </row>
+    <row r="827" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A827">
+        <v>1.344020869299851E+18</v>
+      </c>
+      <c r="B827" t="s">
+        <v>1570</v>
+      </c>
+      <c r="C827" t="s">
+        <v>625</v>
+      </c>
+      <c r="D827" t="s">
+        <v>1571</v>
+      </c>
+    </row>
+    <row r="828" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A828">
+        <v>1.343983738602934E+18</v>
+      </c>
+      <c r="B828" t="s">
+        <v>1572</v>
+      </c>
+      <c r="C828" t="s">
+        <v>625</v>
+      </c>
+      <c r="D828" t="s">
+        <v>1573</v>
+      </c>
+    </row>
+    <row r="829" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A829">
+        <v>1.3439458307644291E+18</v>
+      </c>
+      <c r="B829" t="s">
+        <v>1574</v>
+      </c>
+      <c r="C829" t="s">
+        <v>625</v>
+      </c>
+      <c r="D829" t="s">
+        <v>1575</v>
+      </c>
+    </row>
+    <row r="830" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A830">
+        <v>1.3439076978091871E+18</v>
+      </c>
+      <c r="B830" t="s">
+        <v>1576</v>
+      </c>
+      <c r="C830" t="s">
+        <v>625</v>
+      </c>
+      <c r="D830" t="s">
+        <v>1577</v>
+      </c>
+    </row>
+    <row r="831" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A831">
+        <v>1.3439051387259489E+18</v>
+      </c>
+      <c r="B831" t="s">
+        <v>1578</v>
+      </c>
+      <c r="C831" t="s">
+        <v>1446</v>
+      </c>
+      <c r="D831" t="s">
+        <v>1579</v>
+      </c>
+    </row>
+    <row r="832" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A832">
+        <v>1.3438701328466209E+18</v>
+      </c>
+      <c r="B832" t="s">
+        <v>1580</v>
+      </c>
+      <c r="C832" t="s">
+        <v>625</v>
+      </c>
+      <c r="D832" t="s">
+        <v>1581</v>
+      </c>
+    </row>
+    <row r="833" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A833">
+        <v>1.3438686866170429E+18</v>
+      </c>
+      <c r="B833" t="s">
+        <v>1582</v>
+      </c>
+      <c r="C833" t="s">
+        <v>21</v>
+      </c>
+      <c r="D833" t="s">
+        <v>1583</v>
+      </c>
+    </row>
+    <row r="834" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A834">
+        <v>1.3438322315721651E+18</v>
+      </c>
+      <c r="B834" t="s">
+        <v>1584</v>
+      </c>
+      <c r="C834" t="s">
+        <v>625</v>
+      </c>
+      <c r="D834" t="s">
+        <v>1585</v>
+      </c>
+    </row>
+    <row r="835" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A835">
+        <v>1.3437948307537669E+18</v>
+      </c>
+      <c r="B835" t="s">
+        <v>1586</v>
+      </c>
+      <c r="C835" t="s">
+        <v>625</v>
+      </c>
+      <c r="D835" t="s">
+        <v>1587</v>
+      </c>
+    </row>
+    <row r="836" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A836">
+        <v>1.3437853066930711E+18</v>
+      </c>
+      <c r="B836" t="s">
+        <v>1588</v>
+      </c>
+      <c r="C836" t="s">
+        <v>45</v>
+      </c>
+      <c r="D836" t="s">
+        <v>1589</v>
+      </c>
+    </row>
+    <row r="837" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A837">
+        <v>1.3437840989180639E+18</v>
+      </c>
+      <c r="B837" t="s">
+        <v>1590</v>
+      </c>
+      <c r="C837" t="s">
+        <v>45</v>
+      </c>
+      <c r="D837" t="s">
+        <v>1591</v>
+      </c>
+    </row>
+    <row r="838" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A838">
+        <v>1.3437837069268831E+18</v>
+      </c>
+      <c r="B838" t="s">
+        <v>1592</v>
+      </c>
+      <c r="C838" t="s">
+        <v>45</v>
+      </c>
+      <c r="D838" t="s">
+        <v>1593</v>
+      </c>
+    </row>
+    <row r="839" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A839">
+        <v>1.343783356664693E+18</v>
+      </c>
+      <c r="B839" t="s">
+        <v>1594</v>
+      </c>
+      <c r="C839" t="s">
+        <v>45</v>
+      </c>
+      <c r="D839" t="s">
+        <v>1595</v>
+      </c>
+    </row>
+    <row r="840" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A840">
+        <v>1.343768708385108E+18</v>
+      </c>
+      <c r="B840" t="s">
+        <v>1530</v>
+      </c>
+      <c r="C840" t="s">
+        <v>18</v>
+      </c>
+      <c r="D840" t="s">
+        <v>1596</v>
+      </c>
+    </row>
+    <row r="841" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A841">
+        <v>1.343757003693289E+18</v>
+      </c>
+      <c r="B841" t="s">
+        <v>1597</v>
+      </c>
+      <c r="C841" t="s">
+        <v>625</v>
+      </c>
+      <c r="D841" t="s">
+        <v>1598</v>
+      </c>
+    </row>
+    <row r="842" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A842">
+        <v>1.3437453213864261E+18</v>
+      </c>
+      <c r="B842" t="s">
+        <v>1599</v>
+      </c>
+      <c r="C842" t="s">
+        <v>1600</v>
+      </c>
+      <c r="D842" t="s">
+        <v>1601</v>
+      </c>
+    </row>
+    <row r="843" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A843">
+        <v>1.3437189294499469E+18</v>
+      </c>
+      <c r="B843" t="s">
+        <v>1602</v>
+      </c>
+      <c r="C843" t="s">
+        <v>625</v>
+      </c>
+      <c r="D843" t="s">
+        <v>1603</v>
+      </c>
+    </row>
+    <row r="844" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A844">
+        <v>1.343681522008609E+18</v>
+      </c>
+      <c r="B844" t="s">
+        <v>1604</v>
+      </c>
+      <c r="C844" t="s">
+        <v>625</v>
+      </c>
+      <c r="D844" t="s">
+        <v>1605</v>
+      </c>
+    </row>
+    <row r="845" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A845">
+        <v>1.3436435875069709E+18</v>
+      </c>
+      <c r="B845" t="s">
+        <v>1606</v>
+      </c>
+      <c r="C845" t="s">
+        <v>625</v>
+      </c>
+      <c r="D845" t="s">
+        <v>1607</v>
+      </c>
+    </row>
+    <row r="846" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A846">
+        <v>1.343606051917214E+18</v>
+      </c>
+      <c r="B846" t="s">
+        <v>1608</v>
+      </c>
+      <c r="C846" t="s">
+        <v>625</v>
+      </c>
+      <c r="D846" t="s">
+        <v>1609</v>
+      </c>
+    </row>
+    <row r="847" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A847">
+        <v>1.343567978466431E+18</v>
+      </c>
+      <c r="B847" t="s">
+        <v>1610</v>
+      </c>
+      <c r="C847" t="s">
+        <v>625</v>
+      </c>
+      <c r="D847" t="s">
+        <v>1611</v>
+      </c>
+    </row>
+    <row r="848" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A848">
+        <v>1.3435578016716101E+18</v>
+      </c>
+      <c r="B848" t="s">
+        <v>1612</v>
+      </c>
+      <c r="C848" t="s">
+        <v>72</v>
+      </c>
+      <c r="D848" t="s">
+        <v>1613</v>
+      </c>
+    </row>
+    <row r="849" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A849">
+        <v>1.3435302079368031E+18</v>
+      </c>
+      <c r="B849" t="s">
+        <v>1614</v>
+      </c>
+      <c r="C849" t="s">
+        <v>625</v>
+      </c>
+      <c r="D849" t="s">
+        <v>1615</v>
+      </c>
+    </row>
+    <row r="850" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A850">
+        <v>1.3435073474197629E+18</v>
+      </c>
+      <c r="B850" t="s">
+        <v>1616</v>
+      </c>
+      <c r="C850" t="s">
+        <v>21</v>
+      </c>
+      <c r="D850" t="s">
+        <v>1617</v>
+      </c>
+    </row>
+    <row r="851" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A851">
+        <v>1.343507271221854E+18</v>
+      </c>
+      <c r="B851" t="s">
+        <v>1618</v>
+      </c>
+      <c r="C851" t="s">
+        <v>21</v>
+      </c>
+      <c r="D851" t="s">
+        <v>1619</v>
+      </c>
+    </row>
+    <row r="852" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A852">
+        <v>1.3434925338007181E+18</v>
+      </c>
+      <c r="B852" t="s">
+        <v>1620</v>
+      </c>
+      <c r="C852" t="s">
+        <v>625</v>
+      </c>
+      <c r="D852" t="s">
+        <v>1621</v>
+      </c>
+    </row>
+    <row r="853" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A853">
+        <v>1.343466716328673E+18</v>
+      </c>
+      <c r="B853" t="s">
+        <v>1622</v>
+      </c>
+      <c r="C853" t="s">
+        <v>420</v>
+      </c>
+      <c r="D853" t="s">
+        <v>1623</v>
+      </c>
+    </row>
+    <row r="854" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A854">
+        <v>1.3434554633801971E+18</v>
+      </c>
+      <c r="B854" t="s">
+        <v>1624</v>
+      </c>
+      <c r="C854" t="s">
+        <v>625</v>
+      </c>
+      <c r="D854" t="s">
+        <v>1625</v>
+      </c>
+    </row>
+    <row r="855" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A855">
+        <v>1.3434215437710751E+18</v>
+      </c>
+      <c r="B855" t="s">
+        <v>1626</v>
+      </c>
+      <c r="C855" t="s">
+        <v>45</v>
+      </c>
+      <c r="D855" t="s">
+        <v>1627</v>
+      </c>
+    </row>
+    <row r="856" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A856">
+        <v>1.3434174696674299E+18</v>
+      </c>
+      <c r="B856" t="s">
+        <v>1628</v>
+      </c>
+      <c r="C856" t="s">
+        <v>625</v>
+      </c>
+      <c r="D856" t="s">
+        <v>1629</v>
+      </c>
+    </row>
+    <row r="857" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A857">
+        <v>1.3434063182084869E+18</v>
+      </c>
+      <c r="B857" t="s">
+        <v>1530</v>
+      </c>
+      <c r="C857" t="s">
+        <v>18</v>
+      </c>
+      <c r="D857" t="s">
+        <v>1630</v>
+      </c>
+    </row>
+    <row r="858" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A858">
+        <v>1.3433794877281439E+18</v>
+      </c>
+      <c r="B858" t="s">
+        <v>1631</v>
+      </c>
+      <c r="C858" t="s">
+        <v>625</v>
+      </c>
+      <c r="D858" t="s">
+        <v>1632</v>
+      </c>
+    </row>
+    <row r="859" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A859">
+        <v>1.343342124767478E+18</v>
+      </c>
+      <c r="B859" t="s">
+        <v>1633</v>
+      </c>
+      <c r="C859" t="s">
+        <v>625</v>
+      </c>
+      <c r="D859" t="s">
+        <v>1634</v>
+      </c>
+    </row>
+    <row r="860" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A860">
+        <v>1.3433039077038531E+18</v>
+      </c>
+      <c r="B860" t="s">
+        <v>1635</v>
+      </c>
+      <c r="C860" t="s">
+        <v>625</v>
+      </c>
+      <c r="D860" t="s">
+        <v>1636</v>
+      </c>
+    </row>
+    <row r="861" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A861">
+        <v>1.3432663453123909E+18</v>
+      </c>
+      <c r="B861" t="s">
+        <v>1637</v>
+      </c>
+      <c r="C861" t="s">
+        <v>625</v>
+      </c>
+      <c r="D861" t="s">
+        <v>1638</v>
+      </c>
+    </row>
+    <row r="862" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A862">
+        <v>1.3432284197277161E+18</v>
+      </c>
+      <c r="B862" t="s">
+        <v>1639</v>
+      </c>
+      <c r="C862" t="s">
+        <v>625</v>
+      </c>
+      <c r="D862" t="s">
+        <v>1640</v>
+      </c>
+    </row>
+    <row r="863" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A863">
+        <v>1.3431923334082931E+18</v>
+      </c>
+      <c r="B863" t="s">
+        <v>1490</v>
+      </c>
+      <c r="C863" t="s">
+        <v>625</v>
+      </c>
+      <c r="D863" t="s">
+        <v>1491</v>
+      </c>
+    </row>
+    <row r="864" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A864">
+        <v>1.343152785303327E+18</v>
+      </c>
+      <c r="B864" t="s">
+        <v>1492</v>
+      </c>
+      <c r="C864" t="s">
+        <v>625</v>
+      </c>
+      <c r="D864" t="s">
+        <v>1493</v>
+      </c>
+    </row>
+    <row r="865" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A865">
+        <v>1.343145090261217E+18</v>
+      </c>
+      <c r="B865" t="s">
+        <v>1494</v>
+      </c>
+      <c r="C865" t="s">
+        <v>21</v>
+      </c>
+      <c r="D865" t="s">
+        <v>1495</v>
+      </c>
+    </row>
+    <row r="866" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A866">
+        <v>1.343115042749706E+18</v>
+      </c>
+      <c r="B866" t="s">
+        <v>1496</v>
+      </c>
+      <c r="C866" t="s">
+        <v>625</v>
+      </c>
+      <c r="D866" t="s">
+        <v>1497</v>
+      </c>
+    </row>
+    <row r="867" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A867">
+        <v>1.3430896049420411E+18</v>
+      </c>
+      <c r="B867" t="s">
+        <v>1498</v>
+      </c>
+      <c r="C867" t="s">
+        <v>72</v>
+      </c>
+      <c r="D867" t="s">
+        <v>1499</v>
+      </c>
+    </row>
+    <row r="868" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A868">
+        <v>1.343077346828407E+18</v>
+      </c>
+      <c r="B868" t="s">
+        <v>1500</v>
+      </c>
+      <c r="C868" t="s">
+        <v>625</v>
+      </c>
+      <c r="D868" t="s">
+        <v>1501</v>
+      </c>
+    </row>
+    <row r="869" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A869">
+        <v>1.343043933564244E+18</v>
+      </c>
+      <c r="B869" t="s">
+        <v>1502</v>
+      </c>
+      <c r="C869" t="s">
+        <v>18</v>
+      </c>
+      <c r="D869" t="s">
+        <v>1503</v>
+      </c>
+    </row>
+    <row r="870" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A870">
+        <v>1.343039613221237E+18</v>
+      </c>
+      <c r="B870" t="s">
+        <v>1504</v>
+      </c>
+      <c r="C870" t="s">
+        <v>625</v>
+      </c>
+      <c r="D870" t="s">
+        <v>1505</v>
+      </c>
+    </row>
+    <row r="871" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A871">
+        <v>1.3430016735563451E+18</v>
+      </c>
+      <c r="B871" t="s">
+        <v>1506</v>
+      </c>
+      <c r="C871" t="s">
+        <v>625</v>
+      </c>
+      <c r="D871" t="s">
+        <v>1507</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/application/static/excel_data/data_crawling -- 3. #belajardirumah.xlsx
+++ b/application/static/excel_data/data_crawling -- 3. #belajardirumah.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2614" uniqueCount="1641">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2797" uniqueCount="1738">
   <si>
     <t>id</t>
   </si>
@@ -6789,6 +6789,423 @@
   </si>
   <si>
     <t>Sun Dec 27 16:13:05 +0000 2020</t>
+  </si>
+  <si>
+    <t>Seri Shahabiyah 9 : Al - Khansa - Diskon 20% menjadi Rp.20000
+Gratis ongkos kirim hingga 40rb keseluruh Indonesia.
+#mainanbukuanak #promo #dirumahaja #belajardirumah #buku #membaca #booklover #bookstorm  
+SINOPSIS:“Hahaha…! Dasar Salwa cengeng. Baca cerita seperti https://t.co/34Kc8cTyis</t>
+  </si>
+  <si>
+    <t>Sat Jan 02 14:42:06 +0000 2021</t>
+  </si>
+  <si>
+    <t>Rahasia Princess ; Kisah 10 Putri Cantik,Pintar dan Baik Hati - Diskon 20% menjadi Rp.45600
+Gratis ongkos kirim hingga 40rb keseluruh Indonesia.
+#mainanbukuanak #promo #dirumahaja #belajardirumah #buku #membaca #booklover #bookstorm  
+SINOPSIS:Princess Khadijah ada https://t.co/XoSYymoYD8</t>
+  </si>
+  <si>
+    <t>Sat Jan 02 12:15:50 +0000 2021</t>
+  </si>
+  <si>
+    <t>Update Perkembangan Covid-19 di Kabupaten Luwu Timur per 2 Januari 2021.
+3 sembuh dan 12 kasus baru.
+Perbaharui terus informasi di https://t.co/D4pL3qgDlY
+#ayolawancorona #belajardirumah #beribadahdirumah #bermaindirumah #dirumahsaja #jagakebersihan #jagakesehatan #jagajarak https://t.co/Yz2wDGyh7C</t>
+  </si>
+  <si>
+    <t>Sat Jan 02 10:46:16 +0000 2021</t>
+  </si>
+  <si>
+    <t>Kamus Pintar Tiga  Bahasa - Diskon 20% menjadi Rp.46400
+Gratis ongkos kirim hingga 40rb keseluruh Indonesia.
+#mainanbukuanak #promo #dirumahaja #belajardirumah #buku #membaca #booklover #bookstorm  
+SINOPSIS:Yuk ikuti aku sambil belajar kosa kata dalam 3 bahasa! Apa saja https://t.co/ZSH3gtZGX1</t>
+  </si>
+  <si>
+    <t>Sat Jan 02 09:43:20 +0000 2021</t>
+  </si>
+  <si>
+    <t>Dengarkan dengan menggunakan headset agar lebih maksimal,pernahkah kamu merasa merenung untuk mencari jawaban?
+#audioexperience #puisiduarasa #duarasaofficial #belajardirumah #samasamabelajar #renungan https://t.co/nFJiDUPsL6</t>
+  </si>
+  <si>
+    <t>DuaRasaofficial</t>
+  </si>
+  <si>
+    <t>Sat Jan 02 09:34:32 +0000 2021</t>
+  </si>
+  <si>
+    <t>Seri Fabel Anak Muslim: MONI ; Mencari Penebang Misterius - Diskon 20% menjadi Rp.20000
+Gratis ongkos kirim hingga 40rb keseluruh Indonesia.
+#mainanbukuanak #promo #dirumahaja #belajardirumah #buku #membaca #booklover #bookstorm  
+SINOPSIS:“Auuwww!!” tiba-tiba Moni https://t.co/WAEKGnofNL</t>
+  </si>
+  <si>
+    <t>Sat Jan 02 07:14:11 +0000 2021</t>
+  </si>
+  <si>
+    <t>Seri Fabel Anak Muslim: RURU ; Si Rusa Bertanduk - Diskon 20% menjadi Rp.20000
+Gratis ongkos kirim hingga 40rb keseluruh Indonesia.
+#mainanbukuanak #promo #dirumahaja #belajardirumah #buku #membaca #booklover #bookstorm  
+SINOPSIS:Semua berawal dari pesta raja hutan. https://t.co/DjcttDC2IU</t>
+  </si>
+  <si>
+    <t>Sat Jan 02 04:44:44 +0000 2021</t>
+  </si>
+  <si>
+    <t>Pemerintah Provinsi DKI Jakarta tetap memberlakukan belajar dari rumah untuk seluruh sekolah di Ibu Kota pada semester genap Tahun Ajaran (TA) 2020/2021.
+#KAMUHARUSTAU
+#SekolahOnline
+#BelajarDiRumah
+https://t.co/cLXzmzTXdy</t>
+  </si>
+  <si>
+    <t>Sat Jan 02 04:43:51 +0000 2021</t>
+  </si>
+  <si>
+    <t>Seri Fabel Anak Muslim: KULANG ; Kucing yang Insaf - Diskon 20% menjadi Rp.20000
+Gratis ongkos kirim hingga 40rb keseluruh Indonesia.
+#mainanbukuanak #promo #dirumahaja #belajardirumah #buku #membaca #booklover #bookstorm  
+SINOPSIS:Di sebuah kota tinggal seekor kucing https://t.co/Dt70RacRzS</t>
+  </si>
+  <si>
+    <t>Sat Jan 02 02:19:31 +0000 2021</t>
+  </si>
+  <si>
+    <t>Seri Fabel Anak Muslim: NILO ; Kudanil Yang Kesepian - Diskon 20% menjadi Rp.20000
+Gratis ongkos kirim hingga 40rb keseluruh Indonesia.
+#mainanbukuanak #promo #dirumahaja #belajardirumah #buku #membaca #booklover #bookstorm  
+SINOPSIS:“Mereka pasti takut kalau https://t.co/sWsy3rjzKd</t>
+  </si>
+  <si>
+    <t>Fri Jan 01 23:43:49 +0000 2021</t>
+  </si>
+  <si>
+    <t>Seri Fabel Anak Muslim: GABA ; Mencari Yang Paling Hebat - Diskon 20% menjadi Rp.20000
+Gratis ongkos kirim hingga 40rb keseluruh Indonesia.
+#mainanbukuanak #promo #dirumahaja #belajardirumah #buku #membaca #booklover #bookstorm  
+SINOPSIS:Suatu malam Gaba si gajah https://t.co/ksZXCmjIiX</t>
+  </si>
+  <si>
+    <t>Fri Jan 01 21:15:59 +0000 2021</t>
+  </si>
+  <si>
+    <t>Seri Fabel Anak Muslim: KUNKUN ; Kalkun Yang Baik Hati - Diskon 20% menjadi Rp.20000
+Gratis ongkos kirim hingga 40rb keseluruh Indonesia.
+#mainanbukuanak #promo #dirumahaja #belajardirumah #buku #membaca #booklover #bookstorm  
+SINOPSIS:Malam harinya di dalam rumah ayam. https://t.co/ETRFIuO1Qh</t>
+  </si>
+  <si>
+    <t>Fri Jan 01 18:48:21 +0000 2021</t>
+  </si>
+  <si>
+    <t>Seri Fabel Anak Muslim: PUPUT ; Kupu-Kupu Yang Ikhlas - Diskon 20% menjadi Rp.20000
+Gratis ongkos kirim hingga 40rb keseluruh Indonesia.
+#mainanbukuanak #promo #dirumahaja #belajardirumah #buku #membaca #booklover #bookstorm  
+SINOPSIS:“Mereka pasti takut kalau https://t.co/4PpVN9mePS</t>
+  </si>
+  <si>
+    <t>Fri Jan 01 16:12:04 +0000 2021</t>
+  </si>
+  <si>
+    <t>Seri Fabel Anak Muslim: CIPUT ; Kelinci Jujur dan Amanah - Diskon 20% menjadi Rp.20000
+Gratis ongkos kirim hingga 40rb keseluruh Indonesia.
+#mainanbukuanak #promo #dirumahaja #belajardirumah #buku #membaca #booklover #bookstorm  
+SINOPSIS:“Pergilah ke hutan! Temukan https://t.co/6HWmCeTkuc</t>
+  </si>
+  <si>
+    <t>Fri Jan 01 13:49:42 +0000 2021</t>
+  </si>
+  <si>
+    <t>MENINGKAT DRASTIS, PASIEN SEMBUH BERTAMBAH 35 SEDANGKAN KASUS BARU 28
+INFORMASI LENGKAPNYA BACA DI 👉 https://t.co/HsPLoo5464
+#ayolawancorona #belajardirumah #bermaindirumah #dirumahsaja #jagakebersihan #jagakesehatan #jagajarak #pakemasker #tetapwaspada #coronabisasembuh https://t.co/cJ9Z5GHT6G</t>
+  </si>
+  <si>
+    <t>Fri Jan 01 13:33:25 +0000 2021</t>
+  </si>
+  <si>
+    <t>Update Perkembangan Covid-19 di Kabupaten Luwu Timur per 1 Januari 2021.
+35 sembuh dan 28 kasus baru.
+Perbaharui terus informasi di https://t.co/D4pL3qgDlY
+#ayolawancorona #belajardirumah #beribadahdirumah #bermaindirumah #dirumahsaja #jagakebersihan #jagakesehatan #jagajarak https://t.co/kEMFfAhxK1</t>
+  </si>
+  <si>
+    <t>Fri Jan 01 13:32:44 +0000 2021</t>
+  </si>
+  <si>
+    <t>Fiqh For Kids 1 : Thaharah - Jangan di tunda - Diskon 20% menjadi Rp.20000
+Gratis ongkos kirim hingga 40rb keseluruh Indonesia.
+#mainanbukuanak #promo #dirumahaja #belajardirumah #buku #membaca #booklover #bookstorm  
+SINOPSIS:Zahra Fatimah Nayla Alif dan Muhammad sedang https://t.co/i4h0d9Vtij</t>
+  </si>
+  <si>
+    <t>Fri Jan 01 11:13:30 +0000 2021</t>
+  </si>
+  <si>
+    <t>Seri Kepribadian Muslim 1 : Benar dan Salah - Diskon 20% menjadi Rp.20000
+Gratis ongkos kirim hingga 40rb keseluruh Indonesia.
+#mainanbukuanak #promo #dirumahaja #belajardirumah #buku #membaca #booklover #bookstorm  
+SINOPSIS:Anak Saleh….BENAR dan SALAH adalah dua kata https://t.co/GvlRM2SCtM</t>
+  </si>
+  <si>
+    <t>Fri Jan 01 08:47:53 +0000 2021</t>
+  </si>
+  <si>
+    <t>Nungguin ya?
+Langsung cek Instagram @kelaskitadotcom sekarang!
+#kelaskita #carabarubelajarseru #belajardirumah #elearning #belajaronline #dirumahaja #2020throwback #welcome2021 https://t.co/haf3xgmDVM</t>
+  </si>
+  <si>
+    <t>Fri Jan 01 08:09:58 +0000 2021</t>
+  </si>
+  <si>
+    <t>MALAM TAHUN BARU, WABUP IRWAN DAN FORKOPIMDA KELILING PANTAU POS PENGAMANAN
+BACA INFORMASI LENGKAPNYA DI 👉 https://t.co/Vntx9Aqn2G
+#ayolawancorona #belajardirumah #bermaindirumah #dirumahsaja #jagakebersihan #jagakesehatan #jagajarak #pakemasker #tetapwaspada #coronabisasembuh https://t.co/h7l5woKUxV</t>
+  </si>
+  <si>
+    <t>Fri Jan 01 06:58:17 +0000 2021</t>
+  </si>
+  <si>
+    <t>Seri Mengenal Allah 4 : Allah memberiku Panca Indra - Diskon 20% menjadi Rp.20000
+Gratis ongkos kirim hingga 40rb keseluruh Indonesia.
+#mainanbukuanak #promo #dirumahaja #belajardirumah #buku #membaca #booklover #bookstorm  
+SINOPSIS:Allah memberiku lima teman sejati https://t.co/ifxBHVzL5P</t>
+  </si>
+  <si>
+    <t>Fri Jan 01 06:13:34 +0000 2021</t>
+  </si>
+  <si>
+    <t>pak heru makan wafer
+met taun baru, survivor!
+Terima kasih sudah berjuang keras di tahun kemarin. Semoga kita tumbuh menjadi pribadi yang kuat, tangguh, dan kukuh di tahun ini.
+#kelaskita #carabarubelajarseru #belajardirumah #elearning #2020throwback #welcome2021 https://t.co/NFbQXtbHSw</t>
+  </si>
+  <si>
+    <t>Fri Jan 01 05:07:05 +0000 2021</t>
+  </si>
+  <si>
+    <t>Seri Kepribadian Muslim 2 :  Aku Sehari-hari - Diskon 20% menjadi Rp.20000
+Gratis ongkos kirim hingga 40rb keseluruh Indonesia.
+#mainanbukuanak #promo #dirumahaja #belajardirumah #buku #membaca #booklover #bookstorm  
+SINOPSIS:Anak Saleh dan Salehah….Bersyukurlah pada https://t.co/F73Fg9Z2he</t>
+  </si>
+  <si>
+    <t>Fri Jan 01 03:44:48 +0000 2021</t>
+  </si>
+  <si>
+    <t>Seri Kepribadian Muslim 4 : Cita-cita dan Profesi - Diskon 20% menjadi Rp.20000
+Gratis ongkos kirim hingga 40rb keseluruh Indonesia.
+#mainanbukuanak #promo #dirumahaja #belajardirumah #buku #membaca #booklover #bookstorm  
+SINOPSIS:Allah cintai anak-anak Islam yang punya https://t.co/ASCMgiE8hk</t>
+  </si>
+  <si>
+    <t>Fri Jan 01 01:13:06 +0000 2021</t>
+  </si>
+  <si>
+    <t>Seri Kepribadian Muslim 3 : Bersih dan Sehat - Diskon 20% menjadi Rp.20000
+Gratis ongkos kirim hingga 40rb keseluruh Indonesia.
+#mainanbukuanak #promo #dirumahaja #belajardirumah #buku #membaca #booklover #bookstorm  
+SINOPSIS:Aku suka bersih. Aku suka sehat. Wajahku https://t.co/YvhWhIrfm5</t>
+  </si>
+  <si>
+    <t>Thu Dec 31 22:43:34 +0000 2020</t>
+  </si>
+  <si>
+    <t>JELANG MALAM PERGANTIAN TAHUN, WABUP IRWAN RAPAT DENGAN FORKOPIMDA
+BACA INFORMASI LENGKAPNYA DI 👉 https://t.co/LIzYlAbWgf
+#ayolawancorona #belajardirumah #bermaindirumah #dirumahsaja #jagakebersihan #jagakesehatan #jagajarak #pakemasker #tetapwaspada #coronabisasembuh https://t.co/3kdyQP39Vv</t>
+  </si>
+  <si>
+    <t>Thu Dec 31 20:34:38 +0000 2020</t>
+  </si>
+  <si>
+    <t>Seri Asmaulhusna ; Pohon Yang paling Tinggi - Diskon 20% menjadi Rp.20000
+Gratis ongkos kirim hingga 40rb keseluruh Indonesia.
+#mainanbukuanak #promo #dirumahaja #belajardirumah #buku #membaca #booklover #bookstorm  
+SINOPSIS:Di sebuah bukit yang tinggi tumbuh sebatang https://t.co/T2715pd4ae</t>
+  </si>
+  <si>
+    <t>Thu Dec 31 20:15:42 +0000 2020</t>
+  </si>
+  <si>
+    <t>Pesan Cinta Lewat Cerita Untuk Buah Hati - Diskon 20% menjadi Rp.25600
+Gratis ongkos kirim hingga 40rb keseluruh Indonesia.
+#mainanbukuanak #promo #dirumahaja #belajardirumah #buku #membaca #booklover #bookstorm  
+SINOPSIS:“Belilah unta yang lebih bagus itu lalu https://t.co/xPdbkEM374</t>
+  </si>
+  <si>
+    <t>Thu Dec 31 17:44:07 +0000 2020</t>
+  </si>
+  <si>
+    <t>SELAMAT TAHUN BARU 🎉
+#liaonline #kelapagading #liakelapagading #lia #kursusbahasainggris #belajardirumah #dirumahaja #funlearning #englishcourse #english #flippedclassroom https://t.co/IVv1010GAi</t>
+  </si>
+  <si>
+    <t>Thu Dec 31 16:17:28 +0000 2020</t>
+  </si>
+  <si>
+    <t>Asyiknya Belajar  Shalat - Diskon 20% menjadi Rp.86400
+Gratis ongkos kirim hingga 40rb keseluruh Indonesia.
+#mainanbukuanak #promo #dirumahaja #belajardirumah #buku #membaca #booklover #bookstorm  
+SINOPSIS:Shalat adalah tiang agama. Anakku apa yang terjadi jika sebuah https://t.co/WS2iVqW5wm</t>
+  </si>
+  <si>
+    <t>Thu Dec 31 15:12:29 +0000 2020</t>
+  </si>
+  <si>
+    <t>Fiqh For Kids 2; Praktik Sholat Berjamaah - Mukena Nayla - Diskon 20% menjadi Rp.20000
+Gratis ongkos kirim hingga 40rb keseluruh Indonesia.
+#mainanbukuanak #promo #dirumahaja #belajardirumah #buku #membaca #booklover #bookstorm  
+SINOPSIS:“Allahu Akbar! Allahu</t>
+  </si>
+  <si>
+    <t>Thu Dec 31 12:52:21 +0000 2020</t>
+  </si>
+  <si>
+    <t>AKHIR TAHUN, PASIEN SEMBUH BERTAMBAH 18 ORANG DAN 27 KASUS BARU
+INFORMASI LENGKAPNYA DI👉 https://t.co/l5iPJ2HdCW
+#ayolawancorona #belajardirumah #beribadahdirumah #bermaindirumah #dirumahsaja #jagakebersihan #jagakesehatan #jagajarak #pakemasker #tetapwaspada #coronabisasembuh https://t.co/PU7kzJPrpt</t>
+  </si>
+  <si>
+    <t>Thu Dec 31 12:02:12 +0000 2020</t>
+  </si>
+  <si>
+    <t>Update Perkembangan Covid-19 di Kabupaten Luwu Timur per 31 Desember 2020.
+18 sembuh dan 27 kasus baru
+Perbaharui terus informasi di https://t.co/D4pL3qgDlY
+#ayolawancorona #belajardirumah #beribadahdirumah #bermaindirumah #dirumahsaja #jagakebersihan #jagakesehatan #jagajarak https://t.co/KXIZe2NkQ2</t>
+  </si>
+  <si>
+    <t>Thu Dec 31 12:01:36 +0000 2020</t>
+  </si>
+  <si>
+    <t>Seri Sirah Nabi 2 ; Seratus Unta untuk Abdullah - Diskon 20% menjadi Rp.57600
+Gratis ongkos kirim hingga 40rb keseluruh Indonesia.
+#mainanbukuanak #promo #dirumahaja #belajardirumah #buku #membaca #booklover #bookstorm  
+SINOPSIS:Setiap keluar nama Abdullah. Unta https://t.co/awnT0vfKij</t>
+  </si>
+  <si>
+    <t>Thu Dec 31 10:13:24 +0000 2020</t>
+  </si>
+  <si>
+    <t>Fiqh For Kids 3 : Azan &amp;amp; Iqamah - Sekarang Giliran Aku - Diskon 20% menjadi Rp.20000
+Gratis ongkos kirim hingga 40rb keseluruh Indonesia.
+#mainanbukuanak #promo #dirumahaja #belajardirumah #buku #membaca #booklover #bookstorm  
+SINOPSIS:“Tap.. tap.. tap…” para anak https://t.co/LXgdIxRmr5</t>
+  </si>
+  <si>
+    <t>Thu Dec 31 07:46:37 +0000 2020</t>
+  </si>
+  <si>
+    <t>TERAKHIR YANG PALING PENTING HARUS BAHAGIA TERUS LOP~
+#kelaskita #carabarubelajarseru #belajardirumah #elearning #belajaronline #dirumahaja #2020throwback #welcome2021 https://t.co/9G1d5P91Ac</t>
+  </si>
+  <si>
+    <t>Thu Dec 31 06:37:31 +0000 2020</t>
+  </si>
+  <si>
+    <t>harus fokus dan jangan lupa bikin timeline-nya!
+#kelaskita #carabarubelajarseru #belajardirumah #elearning #belajaronline #dirumahaja #2020throwback #Welcome2021 https://t.co/NVRYCdaiZy</t>
+  </si>
+  <si>
+    <t>Thu Dec 31 06:36:14 +0000 2020</t>
+  </si>
+  <si>
+    <t>evaluasi dulu, planning kemudian.
+#kelaskita #carabarubelajarseru #belajardirumah #elearning #belajaronline #dirumahaja #2020throwback #welcome2021 https://t.co/g1B0wB6jXv</t>
+  </si>
+  <si>
+    <t>Thu Dec 31 06:33:20 +0000 2020</t>
+  </si>
+  <si>
+    <t>Punya rencana nikah sama Siwon taun depan boleh, tapi coba simak dulu tips dari Kelaskita biar rencana kamu matang alias sadar chingu :')
+#kelaskita #carabarubelajarseru #belajardirumah #elearning #belajaronline #dirumahaja #2020throwback #welcome2021 https://t.co/x1K4iPJAw3</t>
+  </si>
+  <si>
+    <t>Thu Dec 31 06:28:55 +0000 2020</t>
+  </si>
+  <si>
+    <t>Fiqh For kids 4 ; Tayamum - Kemping Sekolah - Diskon 20% menjadi Rp.20000
+Gratis ongkos kirim hingga 40rb keseluruh Indonesia.
+#mainanbukuanak #promo #dirumahaja #belajardirumah #buku #membaca #booklover #bookstorm  
+SINOPSIS:Walaupun sudah menghemat air ternyata di hari https://t.co/EfiU0FpgJ4</t>
+  </si>
+  <si>
+    <t>Thu Dec 31 05:13:35 +0000 2020</t>
+  </si>
+  <si>
+    <t>Seri Simbiosis: Bo dan Jali - Diskon 20% menjadi Rp.66400
+Gratis ongkos kirim hingga 40rb keseluruh Indonesia.
+#mainanbukuanak #promo #dirumahaja #belajardirumah #buku #membaca #booklover #bookstorm  
+SINOPSIS:Teman-teman tahukah kamu bahwa hewan dan tumbuhan saling https://t.co/z90nlUlX5j</t>
+  </si>
+  <si>
+    <t>Thu Dec 31 05:12:04 +0000 2020</t>
+  </si>
+  <si>
+    <t>⏩PAKET DESIGN #ADOBE ILLUSTRATOR🤩 -Pembuatan Design Menggunakan Adobe Illustrator 18 Module https://t.co/V7y8EtrLeU
+#PaketDesign #adobeillustrator #pakaimasker #jagajarak #cucitangan #dirumahsaja #belajardirumah #IndonesiaSehat #jagakesehatan #HappyNewYear2021 #SelamatTahunBaru</t>
+  </si>
+  <si>
+    <t>Thu Dec 31 04:00:00 +0000 2020</t>
+  </si>
+  <si>
+    <t>Anakku Jangan Sekutukan Tuhanmu - Diskon 20% menjadi Rp.60800
+Gratis ongkos kirim hingga 40rb keseluruh Indonesia.
+#mainanbukuanak #promo #dirumahaja #belajardirumah #buku #membaca #booklover #bookstorm  
+SINOPSIS:Wahai Anakku! Janganlah engkau mempersekutukan Allah https://t.co/nUMJJ6UxqS</t>
+  </si>
+  <si>
+    <t>Thu Dec 31 02:42:04 +0000 2020</t>
+  </si>
+  <si>
+    <t>Fiqh For Kids 6 ; Zakat - Saatnya Berbagi - Diskon 20% menjadi Rp.20000
+Gratis ongkos kirim hingga 40rb keseluruh Indonesia.
+#mainanbukuanak #promo #dirumahaja #belajardirumah #buku #membaca #booklover #bookstorm  
+SINOPSIS:Nayla dan teman-teman senang bisa membantu https://t.co/uOznB4BEdJ</t>
+  </si>
+  <si>
+    <t>Thu Dec 31 00:13:05 +0000 2020</t>
+  </si>
+  <si>
+    <t>Fiqh For Kids 5 ; Puasa - Lelaki Misterius - Diskon 20% menjadi Rp.20000
+Gratis ongkos kirim hingga 40rb keseluruh Indonesia.
+#mainanbukuanak #promo #dirumahaja #belajardirumah #buku #membaca #booklover #bookstorm  
+SINOPSIS:Duh lapar. Alif mengusap-ngusap perut. Ini https://t.co/lgyb2xqxUD</t>
+  </si>
+  <si>
+    <t>Wed Dec 30 21:43:52 +0000 2020</t>
+  </si>
+  <si>
+    <t>Fiqh For Kids 7 : Haji - Asyiknya Bermanasik - Diskon 20% menjadi Rp.20000
+Gratis ongkos kirim hingga 40rb keseluruh Indonesia.
+#mainanbukuanak #promo #dirumahaja #belajardirumah #buku #membaca #booklover #bookstorm  
+SINOPSIS:Nayla dan teman-teman antusias mengikuti https://t.co/lHMSALBfqD</t>
+  </si>
+  <si>
+    <t>Wed Dec 30 19:16:25 +0000 2020</t>
+  </si>
+  <si>
+    <t>Fiqh For Kids 8 : Buku IPA Nayla - Adab Meminjam - Diskon 20% menjadi Rp.20000
+Gratis ongkos kirim hingga 40rb keseluruh Indonesia.
+#mainanbukuanak #promo #dirumahaja #belajardirumah #buku #membaca #booklover #bookstorm  
+SINOPSIS:Mana buku IPA-ku? Nayla ribut mencari https://t.co/UVGJVgRYBO</t>
+  </si>
+  <si>
+    <t>Wed Dec 30 16:42:17 +0000 2020</t>
+  </si>
+  <si>
+    <t>Fiqh For Kids 9 ; Khitan - Alif Si Pemberani - Diskon 20% menjadi Rp.20000
+Gratis ongkos kirim hingga 40rb keseluruh Indonesia.
+#mainanbukuanak #promo #dirumahaja #belajardirumah #buku #membaca #booklover #bookstorm  
+SINOPSIS:Bel istirahat berbunyi! Seperti biasa https://t.co/K6ZONbNkfj</t>
+  </si>
+  <si>
+    <t>Wed Dec 30 14:14:23 +0000 2020</t>
   </si>
 </sst>
 </file>
@@ -7151,10 +7568,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D871"/>
+  <dimension ref="A1:D932"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A865" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="L809" sqref="L809"/>
+    <sheetView tabSelected="1" topLeftCell="A913" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="G928" sqref="G928"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -19353,6 +19770,860 @@
         <v>1507</v>
       </c>
     </row>
+    <row r="872" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A872">
+        <v>1.345379847883743E+18</v>
+      </c>
+      <c r="B872" t="s">
+        <v>1641</v>
+      </c>
+      <c r="C872" t="s">
+        <v>625</v>
+      </c>
+      <c r="D872" t="s">
+        <v>1642</v>
+      </c>
+    </row>
+    <row r="873" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A873">
+        <v>1.34534303938911E+18</v>
+      </c>
+      <c r="B873" t="s">
+        <v>1643</v>
+      </c>
+      <c r="C873" t="s">
+        <v>625</v>
+      </c>
+      <c r="D873" t="s">
+        <v>1644</v>
+      </c>
+    </row>
+    <row r="874" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A874">
+        <v>1.3453204992497011E+18</v>
+      </c>
+      <c r="B874" t="s">
+        <v>1645</v>
+      </c>
+      <c r="C874" t="s">
+        <v>21</v>
+      </c>
+      <c r="D874" t="s">
+        <v>1646</v>
+      </c>
+    </row>
+    <row r="875" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A875">
+        <v>1.3453046617256261E+18</v>
+      </c>
+      <c r="B875" t="s">
+        <v>1647</v>
+      </c>
+      <c r="C875" t="s">
+        <v>625</v>
+      </c>
+      <c r="D875" t="s">
+        <v>1648</v>
+      </c>
+    </row>
+    <row r="876" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A876">
+        <v>1.3453024449311291E+18</v>
+      </c>
+      <c r="B876" t="s">
+        <v>1649</v>
+      </c>
+      <c r="C876" t="s">
+        <v>1650</v>
+      </c>
+      <c r="D876" t="s">
+        <v>1651</v>
+      </c>
+    </row>
+    <row r="877" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A877">
+        <v>1.3452671261650701E+18</v>
+      </c>
+      <c r="B877" t="s">
+        <v>1652</v>
+      </c>
+      <c r="C877" t="s">
+        <v>625</v>
+      </c>
+      <c r="D877" t="s">
+        <v>1653</v>
+      </c>
+    </row>
+    <row r="878" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A878">
+        <v>1.345229517091009E+18</v>
+      </c>
+      <c r="B878" t="s">
+        <v>1654</v>
+      </c>
+      <c r="C878" t="s">
+        <v>625</v>
+      </c>
+      <c r="D878" t="s">
+        <v>1655</v>
+      </c>
+    </row>
+    <row r="879" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A879">
+        <v>1.3452292939626051E+18</v>
+      </c>
+      <c r="B879" t="s">
+        <v>1656</v>
+      </c>
+      <c r="C879" t="s">
+        <v>181</v>
+      </c>
+      <c r="D879" t="s">
+        <v>1657</v>
+      </c>
+    </row>
+    <row r="880" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A880">
+        <v>1.345192970639745E+18</v>
+      </c>
+      <c r="B880" t="s">
+        <v>1658</v>
+      </c>
+      <c r="C880" t="s">
+        <v>625</v>
+      </c>
+      <c r="D880" t="s">
+        <v>1659</v>
+      </c>
+    </row>
+    <row r="881" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A881">
+        <v>1.345153789678944E+18</v>
+      </c>
+      <c r="B881" t="s">
+        <v>1660</v>
+      </c>
+      <c r="C881" t="s">
+        <v>625</v>
+      </c>
+      <c r="D881" t="s">
+        <v>1661</v>
+      </c>
+    </row>
+    <row r="882" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A882">
+        <v>1.3451165851496451E+18</v>
+      </c>
+      <c r="B882" t="s">
+        <v>1662</v>
+      </c>
+      <c r="C882" t="s">
+        <v>625</v>
+      </c>
+      <c r="D882" t="s">
+        <v>1663</v>
+      </c>
+    </row>
+    <row r="883" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A883">
+        <v>1.345079430142591E+18</v>
+      </c>
+      <c r="B883" t="s">
+        <v>1664</v>
+      </c>
+      <c r="C883" t="s">
+        <v>625</v>
+      </c>
+      <c r="D883" t="s">
+        <v>1665</v>
+      </c>
+    </row>
+    <row r="884" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A884">
+        <v>1.3450401012025139E+18</v>
+      </c>
+      <c r="B884" t="s">
+        <v>1666</v>
+      </c>
+      <c r="C884" t="s">
+        <v>625</v>
+      </c>
+      <c r="D884" t="s">
+        <v>1667</v>
+      </c>
+    </row>
+    <row r="885" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A885">
+        <v>1.3450042729083451E+18</v>
+      </c>
+      <c r="B885" t="s">
+        <v>1668</v>
+      </c>
+      <c r="C885" t="s">
+        <v>625</v>
+      </c>
+      <c r="D885" t="s">
+        <v>1669</v>
+      </c>
+    </row>
+    <row r="886" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A886">
+        <v>1.345000177464087E+18</v>
+      </c>
+      <c r="B886" t="s">
+        <v>1670</v>
+      </c>
+      <c r="C886" t="s">
+        <v>21</v>
+      </c>
+      <c r="D886" t="s">
+        <v>1671</v>
+      </c>
+    </row>
+    <row r="887" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A887">
+        <v>1.3450000041092301E+18</v>
+      </c>
+      <c r="B887" t="s">
+        <v>1672</v>
+      </c>
+      <c r="C887" t="s">
+        <v>21</v>
+      </c>
+      <c r="D887" t="s">
+        <v>1673</v>
+      </c>
+    </row>
+    <row r="888" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A888">
+        <v>1.3449649664413571E+18</v>
+      </c>
+      <c r="B888" t="s">
+        <v>1674</v>
+      </c>
+      <c r="C888" t="s">
+        <v>625</v>
+      </c>
+      <c r="D888" t="s">
+        <v>1675</v>
+      </c>
+    </row>
+    <row r="889" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A889">
+        <v>1.3449283206688561E+18</v>
+      </c>
+      <c r="B889" t="s">
+        <v>1676</v>
+      </c>
+      <c r="C889" t="s">
+        <v>625</v>
+      </c>
+      <c r="D889" t="s">
+        <v>1677</v>
+      </c>
+    </row>
+    <row r="890" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A890">
+        <v>1.344918775758348E+18</v>
+      </c>
+      <c r="B890" t="s">
+        <v>1678</v>
+      </c>
+      <c r="C890" t="s">
+        <v>45</v>
+      </c>
+      <c r="D890" t="s">
+        <v>1679</v>
+      </c>
+    </row>
+    <row r="891" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A891">
+        <v>1.3449007375752399E+18</v>
+      </c>
+      <c r="B891" t="s">
+        <v>1680</v>
+      </c>
+      <c r="C891" t="s">
+        <v>21</v>
+      </c>
+      <c r="D891" t="s">
+        <v>1681</v>
+      </c>
+    </row>
+    <row r="892" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A892">
+        <v>1.3448894831502541E+18</v>
+      </c>
+      <c r="B892" t="s">
+        <v>1682</v>
+      </c>
+      <c r="C892" t="s">
+        <v>625</v>
+      </c>
+      <c r="D892" t="s">
+        <v>1683</v>
+      </c>
+    </row>
+    <row r="893" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A893">
+        <v>1.344872750947529E+18</v>
+      </c>
+      <c r="B893" t="s">
+        <v>1684</v>
+      </c>
+      <c r="C893" t="s">
+        <v>45</v>
+      </c>
+      <c r="D893" t="s">
+        <v>1685</v>
+      </c>
+    </row>
+    <row r="894" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A894">
+        <v>1.344852044746658E+18</v>
+      </c>
+      <c r="B894" t="s">
+        <v>1686</v>
+      </c>
+      <c r="C894" t="s">
+        <v>625</v>
+      </c>
+      <c r="D894" t="s">
+        <v>1687</v>
+      </c>
+    </row>
+    <row r="895" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A895">
+        <v>1.3448138680029061E+18</v>
+      </c>
+      <c r="B895" t="s">
+        <v>1688</v>
+      </c>
+      <c r="C895" t="s">
+        <v>625</v>
+      </c>
+      <c r="D895" t="s">
+        <v>1689</v>
+      </c>
+    </row>
+    <row r="896" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A896">
+        <v>1.3447762373659359E+18</v>
+      </c>
+      <c r="B896" t="s">
+        <v>1690</v>
+      </c>
+      <c r="C896" t="s">
+        <v>625</v>
+      </c>
+      <c r="D896" t="s">
+        <v>1691</v>
+      </c>
+    </row>
+    <row r="897" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A897">
+        <v>1.3447437893158221E+18</v>
+      </c>
+      <c r="B897" t="s">
+        <v>1692</v>
+      </c>
+      <c r="C897" t="s">
+        <v>21</v>
+      </c>
+      <c r="D897" t="s">
+        <v>1693</v>
+      </c>
+    </row>
+    <row r="898" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A898">
+        <v>1.3447390270694559E+18</v>
+      </c>
+      <c r="B898" t="s">
+        <v>1694</v>
+      </c>
+      <c r="C898" t="s">
+        <v>625</v>
+      </c>
+      <c r="D898" t="s">
+        <v>1695</v>
+      </c>
+    </row>
+    <row r="899" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A899">
+        <v>1.3447008772238049E+18</v>
+      </c>
+      <c r="B899" t="s">
+        <v>1696</v>
+      </c>
+      <c r="C899" t="s">
+        <v>625</v>
+      </c>
+      <c r="D899" t="s">
+        <v>1697</v>
+      </c>
+    </row>
+    <row r="900" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A900">
+        <v>1.34467907360845E+18</v>
+      </c>
+      <c r="B900" t="s">
+        <v>1698</v>
+      </c>
+      <c r="C900" t="s">
+        <v>336</v>
+      </c>
+      <c r="D900" t="s">
+        <v>1699</v>
+      </c>
+    </row>
+    <row r="901" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A901">
+        <v>1.344662720163893E+18</v>
+      </c>
+      <c r="B901" t="s">
+        <v>1700</v>
+      </c>
+      <c r="C901" t="s">
+        <v>625</v>
+      </c>
+      <c r="D901" t="s">
+        <v>1701</v>
+      </c>
+    </row>
+    <row r="902" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A902">
+        <v>1.3446274521574651E+18</v>
+      </c>
+      <c r="B902" t="s">
+        <v>1702</v>
+      </c>
+      <c r="C902" t="s">
+        <v>625</v>
+      </c>
+      <c r="D902" t="s">
+        <v>1703</v>
+      </c>
+    </row>
+    <row r="903" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A903">
+        <v>1.3446148333673841E+18</v>
+      </c>
+      <c r="B903" t="s">
+        <v>1704</v>
+      </c>
+      <c r="C903" t="s">
+        <v>21</v>
+      </c>
+      <c r="D903" t="s">
+        <v>1705</v>
+      </c>
+    </row>
+    <row r="904" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A904">
+        <v>1.344614680317215E+18</v>
+      </c>
+      <c r="B904" t="s">
+        <v>1706</v>
+      </c>
+      <c r="C904" t="s">
+        <v>21</v>
+      </c>
+      <c r="D904" t="s">
+        <v>1707</v>
+      </c>
+    </row>
+    <row r="905" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A905">
+        <v>1.3445874519064131E+18</v>
+      </c>
+      <c r="B905" t="s">
+        <v>1708</v>
+      </c>
+      <c r="C905" t="s">
+        <v>625</v>
+      </c>
+      <c r="D905" t="s">
+        <v>1709</v>
+      </c>
+    </row>
+    <row r="906" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A906">
+        <v>1.3445505113038231E+18</v>
+      </c>
+      <c r="B906" t="s">
+        <v>1710</v>
+      </c>
+      <c r="C906" t="s">
+        <v>625</v>
+      </c>
+      <c r="D906" t="s">
+        <v>1711</v>
+      </c>
+    </row>
+    <row r="907" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A907">
+        <v>1.3445331215012859E+18</v>
+      </c>
+      <c r="B907" t="s">
+        <v>1712</v>
+      </c>
+      <c r="C907" t="s">
+        <v>45</v>
+      </c>
+      <c r="D907" t="s">
+        <v>1713</v>
+      </c>
+    </row>
+    <row r="908" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A908">
+        <v>1.3445328009390159E+18</v>
+      </c>
+      <c r="B908" t="s">
+        <v>1714</v>
+      </c>
+      <c r="C908" t="s">
+        <v>45</v>
+      </c>
+      <c r="D908" t="s">
+        <v>1715</v>
+      </c>
+    </row>
+    <row r="909" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A909">
+        <v>1.3445320715579149E+18</v>
+      </c>
+      <c r="B909" t="s">
+        <v>1716</v>
+      </c>
+      <c r="C909" t="s">
+        <v>45</v>
+      </c>
+      <c r="D909" t="s">
+        <v>1717</v>
+      </c>
+    </row>
+    <row r="910" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A910">
+        <v>1.3445309598577211E+18</v>
+      </c>
+      <c r="B910" t="s">
+        <v>1718</v>
+      </c>
+      <c r="C910" t="s">
+        <v>45</v>
+      </c>
+      <c r="D910" t="s">
+        <v>1719</v>
+      </c>
+    </row>
+    <row r="911" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A911">
+        <v>1.3445119998000131E+18</v>
+      </c>
+      <c r="B911" t="s">
+        <v>1720</v>
+      </c>
+      <c r="C911" t="s">
+        <v>625</v>
+      </c>
+      <c r="D911" t="s">
+        <v>1721</v>
+      </c>
+    </row>
+    <row r="912" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A912">
+        <v>1.3445116172753631E+18</v>
+      </c>
+      <c r="B912" t="s">
+        <v>1722</v>
+      </c>
+      <c r="C912" t="s">
+        <v>625</v>
+      </c>
+      <c r="D912" t="s">
+        <v>1723</v>
+      </c>
+    </row>
+    <row r="913" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A913">
+        <v>1.3444934818136599E+18</v>
+      </c>
+      <c r="B913" t="s">
+        <v>1724</v>
+      </c>
+      <c r="C913" t="s">
+        <v>18</v>
+      </c>
+      <c r="D913" t="s">
+        <v>1725</v>
+      </c>
+    </row>
+    <row r="914" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A914">
+        <v>1.3444738690133279E+18</v>
+      </c>
+      <c r="B914" t="s">
+        <v>1726</v>
+      </c>
+      <c r="C914" t="s">
+        <v>625</v>
+      </c>
+      <c r="D914" t="s">
+        <v>1727</v>
+      </c>
+    </row>
+    <row r="915" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A915">
+        <v>1.3444363768218749E+18</v>
+      </c>
+      <c r="B915" t="s">
+        <v>1728</v>
+      </c>
+      <c r="C915" t="s">
+        <v>625</v>
+      </c>
+      <c r="D915" t="s">
+        <v>1729</v>
+      </c>
+    </row>
+    <row r="916" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A916">
+        <v>1.3443988258767181E+18</v>
+      </c>
+      <c r="B916" t="s">
+        <v>1730</v>
+      </c>
+      <c r="C916" t="s">
+        <v>625</v>
+      </c>
+      <c r="D916" t="s">
+        <v>1731</v>
+      </c>
+    </row>
+    <row r="917" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A917">
+        <v>1.34436171981715E+18</v>
+      </c>
+      <c r="B917" t="s">
+        <v>1732</v>
+      </c>
+      <c r="C917" t="s">
+        <v>625</v>
+      </c>
+      <c r="D917" t="s">
+        <v>1733</v>
+      </c>
+    </row>
+    <row r="918" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A918">
+        <v>1.3443229309440079E+18</v>
+      </c>
+      <c r="B918" t="s">
+        <v>1734</v>
+      </c>
+      <c r="C918" t="s">
+        <v>625</v>
+      </c>
+      <c r="D918" t="s">
+        <v>1735</v>
+      </c>
+    </row>
+    <row r="919" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A919">
+        <v>1.344285710270882E+18</v>
+      </c>
+      <c r="B919" t="s">
+        <v>1736</v>
+      </c>
+      <c r="C919" t="s">
+        <v>625</v>
+      </c>
+      <c r="D919" t="s">
+        <v>1737</v>
+      </c>
+    </row>
+    <row r="920" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A920">
+        <v>1.344247919365374E+18</v>
+      </c>
+      <c r="B920" t="s">
+        <v>1542</v>
+      </c>
+      <c r="C920" t="s">
+        <v>625</v>
+      </c>
+      <c r="D920" t="s">
+        <v>1543</v>
+      </c>
+    </row>
+    <row r="921" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A921">
+        <v>1.344233024808866E+18</v>
+      </c>
+      <c r="B921" t="s">
+        <v>1544</v>
+      </c>
+      <c r="C921" t="s">
+        <v>21</v>
+      </c>
+      <c r="D921" t="s">
+        <v>1545</v>
+      </c>
+    </row>
+    <row r="922" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A922">
+        <v>1.344232906152022E+18</v>
+      </c>
+      <c r="B922" t="s">
+        <v>1546</v>
+      </c>
+      <c r="C922" t="s">
+        <v>21</v>
+      </c>
+      <c r="D922" t="s">
+        <v>1547</v>
+      </c>
+    </row>
+    <row r="923" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A923">
+        <v>1.344210063511093E+18</v>
+      </c>
+      <c r="B923" t="s">
+        <v>1548</v>
+      </c>
+      <c r="C923" t="s">
+        <v>625</v>
+      </c>
+      <c r="D923" t="s">
+        <v>1549</v>
+      </c>
+    </row>
+    <row r="924" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A924">
+        <v>1.3441719662702961E+18</v>
+      </c>
+      <c r="B924" t="s">
+        <v>1550</v>
+      </c>
+      <c r="C924" t="s">
+        <v>625</v>
+      </c>
+      <c r="D924" t="s">
+        <v>1551</v>
+      </c>
+    </row>
+    <row r="925" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A925">
+        <v>1.3441486577260989E+18</v>
+      </c>
+      <c r="B925" t="s">
+        <v>1552</v>
+      </c>
+      <c r="C925" t="s">
+        <v>45</v>
+      </c>
+      <c r="D925" t="s">
+        <v>1553</v>
+      </c>
+    </row>
+    <row r="926" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A926">
+        <v>1.3441485272832451E+18</v>
+      </c>
+      <c r="B926" t="s">
+        <v>1554</v>
+      </c>
+      <c r="C926" t="s">
+        <v>45</v>
+      </c>
+      <c r="D926" t="s">
+        <v>1555</v>
+      </c>
+    </row>
+    <row r="927" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A927">
+        <v>1.3441485096756879E+18</v>
+      </c>
+      <c r="B927" t="s">
+        <v>1556</v>
+      </c>
+      <c r="C927" t="s">
+        <v>1557</v>
+      </c>
+      <c r="D927" t="s">
+        <v>1558</v>
+      </c>
+    </row>
+    <row r="928" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A928">
+        <v>1.3441481908749271E+18</v>
+      </c>
+      <c r="B928" t="s">
+        <v>1559</v>
+      </c>
+      <c r="C928" t="s">
+        <v>45</v>
+      </c>
+      <c r="D928" t="s">
+        <v>1560</v>
+      </c>
+    </row>
+    <row r="929" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A929">
+        <v>1.3441478754758001E+18</v>
+      </c>
+      <c r="B929" t="s">
+        <v>1561</v>
+      </c>
+      <c r="C929" t="s">
+        <v>45</v>
+      </c>
+      <c r="D929" t="s">
+        <v>1562</v>
+      </c>
+    </row>
+    <row r="930" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A930">
+        <v>1.3441344402854259E+18</v>
+      </c>
+      <c r="B930" t="s">
+        <v>1563</v>
+      </c>
+      <c r="C930" t="s">
+        <v>625</v>
+      </c>
+      <c r="D930" t="s">
+        <v>1564</v>
+      </c>
+    </row>
+    <row r="931" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A931">
+        <v>1.3441310977901811E+18</v>
+      </c>
+      <c r="B931" t="s">
+        <v>1502</v>
+      </c>
+      <c r="C931" t="s">
+        <v>18</v>
+      </c>
+      <c r="D931" t="s">
+        <v>1565</v>
+      </c>
+    </row>
+    <row r="932" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A932">
+        <v>1.344096360090366E+18</v>
+      </c>
+      <c r="B932" t="s">
+        <v>1566</v>
+      </c>
+      <c r="C932" t="s">
+        <v>625</v>
+      </c>
+      <c r="D932" t="s">
+        <v>1567</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/application/static/excel_data/data_crawling -- 3. #belajardirumah.xlsx
+++ b/application/static/excel_data/data_crawling -- 3. #belajardirumah.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2797" uniqueCount="1738">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2983" uniqueCount="1847">
   <si>
     <t>id</t>
   </si>
@@ -7206,6 +7206,465 @@
   </si>
   <si>
     <t>Wed Dec 30 14:14:23 +0000 2020</t>
+  </si>
+  <si>
+    <t>Penyunyu Yang Ceroboh - Diskon 20% menjadi Rp.20000
+Gratis ongkos kirim hingga 40rb keseluruh Indonesia.
+#mainanbukuanak #promo #dirumahaja #belajardirumah #buku #membaca #booklover #bookstorm  
+SINOPSIS:
+PENULIS:Adjis https://t.co/kktsozSa5F</t>
+  </si>
+  <si>
+    <t>Tue Jan 05 15:13:19 +0000 2021</t>
+  </si>
+  <si>
+    <t>Ensiklopedia Anak Muslm 10 : Makanan - Diskon 20% menjadi Rp.88000
+Gratis ongkos kirim hingga 40rb keseluruh Indonesia.
+#mainanbukuanak #promo #dirumahaja #belajardirumah #buku #membaca #booklover #bookstorm  
+SINOPSIS:Karunia Allah akan senantiasa bertambah saat kita https://t.co/H35sXYHtcB</t>
+  </si>
+  <si>
+    <t>Tue Jan 05 12:44:41 +0000 2021</t>
+  </si>
+  <si>
+    <t>TOTAL PASIEN COVID19 YANG SEMBUH MENCAPAI 2.024 DARI 2.208 KASUS KONFIRMASI
+INFORMASI LENGKAPNYA BACA DI 👉 https://t.co/0ONupHX3cj
+#ayolawancorona #belajardirumah #bermaindirumah #dirumahsaja #jagakebersihan #jagakesehatan #jagajarak #pakemasker #tetapwaspada #coronabisasembuh https://t.co/HMkeX6PXSR</t>
+  </si>
+  <si>
+    <t>Tue Jan 05 11:32:01 +0000 2021</t>
+  </si>
+  <si>
+    <t>Update Perkembangan Covid-19 di Kabupaten Luwu Timur per 5 Januari 2021.
+11 sembuh dan 13 kasus baru.
+Perbaharui terus informasi di https://t.co/D4pL3qgDlY
+#ayolawancorona #belajardirumah #beribadahdirumah #bermaindirumah #dirumahsaja #jagakebersihan #jagakesehatan #jagajarak https://t.co/m7Sy9hKS78</t>
+  </si>
+  <si>
+    <t>Tue Jan 05 11:31:42 +0000 2021</t>
+  </si>
+  <si>
+    <t>Ensiklopedia Anak Muslm 11 : Islam - Diskon 20% menjadi Rp.88000
+Gratis ongkos kirim hingga 40rb keseluruh Indonesia.
+#mainanbukuanak #promo #dirumahaja #belajardirumah #buku #membaca #booklover #bookstorm  
+SINOPSIS:Putra Putri Islam yang berbahagia Ensiklopedia anak https://t.co/aajDPPjJoF</t>
+  </si>
+  <si>
+    <t>Tue Jan 05 10:13:15 +0000 2021</t>
+  </si>
+  <si>
+    <t>Seri Alfil 3 : Naik Kereta Api - Diskon 20% menjadi Rp.20000
+Gratis ongkos kirim hingga 40rb keseluruh Indonesia.
+#mainanbukuanak #promo #dirumahaja #belajardirumah #buku #membaca #booklover #bookstorm  
+SINOPSIS:
+PENULIS:Orin https://t.co/1iEfqUCZkH</t>
+  </si>
+  <si>
+    <t>Tue Jan 05 07:42:47 +0000 2021</t>
+  </si>
+  <si>
+    <t>HAB KE 75, 18 ASN KEMENAG LUTIM TERIMA SATYA LENCANA KARYA SATYA
+BACA INFORMASI LENGKAPNYA DI 👉 https://t.co/AwnjkndYYZ
+#ayolawancorona #belajardirumah #bermaindirumah #dirumahsaja #jagakebersihan #jagakesehatan #jagajarak #pakemasker #tetapwaspada #coronabisasembuh https://t.co/pkNLjMA8pT</t>
+  </si>
+  <si>
+    <t>Tue Jan 05 07:01:47 +0000 2021</t>
+  </si>
+  <si>
+    <t>TANYA ada di Android dan IOS loh! Kamu udah download Kelas Pintar belum?
+#bimbelonline #bimbelberkualitas #belajardirumah #pjjonline #kelaspintarindonesia https://t.co/pgBCn0citQ</t>
+  </si>
+  <si>
+    <t>Tue Jan 05 07:01:27 +0000 2021</t>
+  </si>
+  <si>
+    <t>Ensiklopedia Anak Muslm 12 : Kesehatan - Diskon 20% menjadi Rp.88000
+Gratis ongkos kirim hingga 40rb keseluruh Indonesia.
+#mainanbukuanak #promo #dirumahaja #belajardirumah #buku #membaca #booklover #bookstorm  
+SINOPSIS:Anakku anak muslim harus cerdas. Allah telah https://t.co/z3j1heDlPh</t>
+  </si>
+  <si>
+    <t>Tue Jan 05 05:16:07 +0000 2021</t>
+  </si>
+  <si>
+    <t>Last but not least, asik!
+Terus perluas jaringan dan kenal sama orang baru biar tau kisah-kisah keberhasilan mereka. Et, tapi tetap harus optimis juga sama diri sendiri.
+#kelaskita #carabarubelajarseru #belajardirumah #elearning #belajaronline #dirumahaja https://t.co/t9tDGJLoCe</t>
+  </si>
+  <si>
+    <t>Tue Jan 05 05:04:22 +0000 2021</t>
+  </si>
+  <si>
+    <t>Emang butuh pede yang besar buat ngubah sesuatu dan belajar hal baru, tapi ya harus pede! 
+#kelaskita #carabarubelajarseru #belajardirumah #elearning #belajaronline #dirumahaja https://t.co/55WbqzVRLF</t>
+  </si>
+  <si>
+    <t>Tue Jan 05 05:00:35 +0000 2021</t>
+  </si>
+  <si>
+    <t>Harus berani cari tantangan baru, ya namanya juga keluar zona nyaman~
+Evaluasi juga jangan ditinggalin.
+#kelaskita #carabarubelajarseru #belajardirumah #elearning #belajaronline #dirumahaja https://t.co/8O6hMK65QF</t>
+  </si>
+  <si>
+    <t>Tue Jan 05 04:59:13 +0000 2021</t>
+  </si>
+  <si>
+    <t>Mau ngumpulin orang-orang yang lagi bangun niat buat keluar dari zona nyaman, nih!
+Simak tipsnya yuk!
+#kelaskita #carabarubelajarseru #belajardirumah #elearning #belajaronline #dirumahaja https://t.co/FZfGa6PoVy</t>
+  </si>
+  <si>
+    <t>Tue Jan 05 04:58:11 +0000 2021</t>
+  </si>
+  <si>
+    <t>Kuliah..? BSI Aja!!
+#kuliahbsiaja #ubsi #universitasbinasaranainformatika #mahasiswaubsi #mahasiswahits #mahasiswakeren #infokuliah  #infokampus #uas #gayabelajar #gayabelajarvisual #gayabelajarkinestetik #gayabelajarauditori #belajardirumah</t>
+  </si>
+  <si>
+    <t>ubsi_cs10</t>
+  </si>
+  <si>
+    <t>Tue Jan 05 04:41:24 +0000 2021</t>
+  </si>
+  <si>
+    <t>Tubuhku Sehat : Mensyukuri Ciptaan Allah - Diskon 20% menjadi Rp.65600
+Gratis ongkos kirim hingga 40rb keseluruh Indonesia.
+#mainanbukuanak #promo #dirumahaja #belajardirumah #buku #membaca #booklover #bookstorm  
+SINOPSIS:Allah telah mengaruniakan tubuh yangsempurna https://t.co/G9kNtNq7y6</t>
+  </si>
+  <si>
+    <t>Tue Jan 05 02:42:10 +0000 2021</t>
+  </si>
+  <si>
+    <t>SOAL TVRI KELAS 1 SD, EPISODE 2: ATURAN DI RUMAH, BELAJAR DARI RUMAH HARI INI, SELASA 5 JANUARI 2021.
+#BelajardariRumah #BelajardariRumahTVRI #belajardirumah 
+https://t.co/XJrLzbzWdO</t>
+  </si>
+  <si>
+    <t>Tue Jan 05 02:17:00 +0000 2021</t>
+  </si>
+  <si>
+    <t>SOAL TVRI KELAS 1 SD, EPISODE 2: ATURAN DI RUMAH, BELAJAR DARI RUMAH HARI INI, SELASA 5 JANUARI 2021.
+#BelajardariRumah #BelajardariRumahTVRI #belajardirumah 
+https://t.co/XJrLzbRx5m</t>
+  </si>
+  <si>
+    <t>Tue Jan 05 02:01:36 +0000 2021</t>
+  </si>
+  <si>
+    <t>Soal dan Jawaban TVRI Kelas 4 SD, Episode2: Roda dan Gaya Gesek, Belajar dari Rumah Selasa 5 Januari
+#BelajaridariRumah #belajardarirumahtvri #belajardirumah #TVRI 
+https://t.co/rGL3pONwWg</t>
+  </si>
+  <si>
+    <t>Tue Jan 05 00:45:57 +0000 2021</t>
+  </si>
+  <si>
+    <t>Cerita Si Buaya - Diskon 20% menjadi Rp.20000
+Gratis ongkos kirim hingga 40rb keseluruh Indonesia.
+#mainanbukuanak #promo #dirumahaja #belajardirumah #buku #membaca #booklover #bookstorm  
+SINOPSIS:Assalamualaikum Teman-Teman. Aku adalah buaya. Tempat tinggalku di sungai https://t.co/ytMTbfVGt4</t>
+  </si>
+  <si>
+    <t>Tue Jan 05 00:13:34 +0000 2021</t>
+  </si>
+  <si>
+    <t>Cerita Si Kucing - Diskon 20% menjadi Rp.20000
+Gratis ongkos kirim hingga 40rb keseluruh Indonesia.
+#mainanbukuanak #promo #dirumahaja #belajardirumah #buku #membaca #booklover #bookstorm  
+SINOPSIS:Asalamualaikum Teman. Aku si Kucing. Aku mamalia kecil pemakan daging. https://t.co/6KZe0qvDL0</t>
+  </si>
+  <si>
+    <t>Mon Jan 04 21:44:32 +0000 2021</t>
+  </si>
+  <si>
+    <t>Tematik Kelas 1 SD | Tema 5 Subtema 1 | Pembelajaran 6 | Pengalaman Masa... https://t.co/rdQPQ9j0Qb via @YouTube #new #video #youtube #education #elementaryschool #bdr #belajardirumah</t>
+  </si>
+  <si>
+    <t>septisafa</t>
+  </si>
+  <si>
+    <t>Mon Jan 04 19:23:55 +0000 2021</t>
+  </si>
+  <si>
+    <t>40 Kisah Pengantar Anak Tidur Ed.FC - Diskon 20% menjadi Rp.60800
+Gratis ongkos kirim hingga 40rb keseluruh Indonesia.
+#mainanbukuanak #promo #dirumahaja #belajardirumah #buku #membaca #booklover #bookstorm  
+SINOPSIS:40 Kisah Pengantar Anak Tidur Berbagai cerita hikmah https://t.co/GFXes0Y0wH</t>
+  </si>
+  <si>
+    <t>Mon Jan 04 19:12:32 +0000 2021</t>
+  </si>
+  <si>
+    <t>Acil Si Kancil - Diskon 20% menjadi Rp.20000
+Gratis ongkos kirim hingga 40rb keseluruh Indonesia.
+#mainanbukuanak #promo #dirumahaja #belajardirumah #buku #membaca #booklover #bookstorm  
+SINOPSIS:Acil meminta izin kepada ibunya untuk mengerjakan PR di rumah Koro si https://t.co/uHNchUc8zA</t>
+  </si>
+  <si>
+    <t>Mon Jan 04 16:42:17 +0000 2021</t>
+  </si>
+  <si>
+    <t>50 Kisah Pengantar Anak Tidur Ed. FC - Diskon 20% menjadi Rp.115200
+Gratis ongkos kirim hingga 40rb keseluruh Indonesia.
+#mainanbukuanak #promo #dirumahaja #belajardirumah #buku #membaca #booklover #bookstorm  
+SINOPSIS:Malaikat maut berkata dengan lembut ”Pilihlah https://t.co/vEnhC2UUQQ</t>
+  </si>
+  <si>
+    <t>Mon Jan 04 14:13:16 +0000 2021</t>
+  </si>
+  <si>
+    <t>Kumpulan Fabel Untuk si Buah Hati - Diskon 20% menjadi Rp.32800
+Gratis ongkos kirim hingga 40rb keseluruh Indonesia.
+#mainanbukuanak #promo #dirumahaja #belajardirumah #buku #membaca #booklover #bookstorm  
+SINOPSIS:Adik – adik…Anak yang cerdas adalah anak yg dapat https://t.co/DtiMWrMDTs</t>
+  </si>
+  <si>
+    <t>Mon Jan 04 11:43:11 +0000 2021</t>
+  </si>
+  <si>
+    <t>Studi dari UNICEF: konten PJJ yang disiarkan televisi adalah yang memiliki potensi paling tinggi untuk menjangkau murid di seluruh dunia, menyisakan setidaknya 463 juta murid secara global tetap tidak tersentuh oleh kebijakan pembelajaran baru yang ada.
+#belajardirumah #pjj https://t.co/SWphd4Hxth</t>
+  </si>
+  <si>
+    <t>Mon Jan 04 11:26:09 +0000 2021</t>
+  </si>
+  <si>
+    <t>MENINGKAT LAGI, PASIEN SEMBUH BERTAMBAH 21 ORANG DAN 9 KASUS BARU
+INFORMASI LENGKAPNYA BACA DI 👉 https://t.co/hGeFmK15am
+#ayolawancorona #belajardirumah #bermaindirumah #dirumahsaja #jagakebersihan #jagakesehatan #jagajarak #pakemasker #tetapwaspada #coronabisasembuh https://t.co/Ua0LsreZ7x</t>
+  </si>
+  <si>
+    <t>Mon Jan 04 10:30:04 +0000 2021</t>
+  </si>
+  <si>
+    <t>Update Perkembangan Covid-19 di Kabupaten Luwu Timur per 4 Januari 2021.
+21 sembuh dan 9 kasus baru.
+Perbaharui terus informasi di https://t.co/D4pL3qgDlY
+#ayolawancorona #belajardirumah #beribadahdirumah #bermaindirumah #dirumahsaja #jagakebersihan #jagakesehatan #jagajarak https://t.co/GxJc5ITVtI</t>
+  </si>
+  <si>
+    <t>Mon Jan 04 10:29:45 +0000 2021</t>
+  </si>
+  <si>
+    <t>Tematik Kelas 1 SD | Tema 5 Subtema 1 | Pembelajaran 5 | Pengalaman Masa... https://t.co/lNS3JIYfz4 via @YouTube #NEW #VIDEO #YOUTUBE #VIDEOPEMBELAJARAN #PEMBELAJARANSD #BELAJARDIRUMAH</t>
+  </si>
+  <si>
+    <t>Mon Jan 04 10:18:38 +0000 2021</t>
+  </si>
+  <si>
+    <t>RAPAT AWAL TAHUN, WABUP IRWAN TEKANKAN EVALUASI PROGRAM
+BACA INFORMASI LENGKAPNYA DI 👉 https://t.co/bpqN7Tk8Qc
+#ayolawancorona #belajardirumah #beribadahdirumah #bermaindirumah #dirumahsaja #jagakebersihan #jagakesehatan #jagajarak #pakemasker #tetapwaspada #coronabisasembuh https://t.co/bbrxk8jwSV</t>
+  </si>
+  <si>
+    <t>Mon Jan 04 09:44:34 +0000 2021</t>
+  </si>
+  <si>
+    <t>Hadist Untuk anak Rasulullah Teladanku - Diskon 20% menjadi Rp.46400
+Gratis ongkos kirim hingga 40rb keseluruh Indonesia.
+#mainanbukuanak #promo #dirumahaja #belajardirumah #buku #membaca #booklover #bookstorm  
+SINOPSIS:Hadits adalah perkataan perbuatan ketetapan dan https://t.co/goyMHboJjn</t>
+  </si>
+  <si>
+    <t>Mon Jan 04 09:14:20 +0000 2021</t>
+  </si>
+  <si>
+    <t>Tematik Kelas 1 SD | Tema 5 Subtema 1 | Pembelajaran 5 | Pengalaman Masa... https://t.co/ZSVbUEn95X via @YouTube #NEW #Video #education #pendidikan #belajardirumah #pembelajaranSD</t>
+  </si>
+  <si>
+    <t>Mon Jan 04 08:04:17 +0000 2021</t>
+  </si>
+  <si>
+    <t>Makan sekuteng di rawa-rawa
+Kelaskita dateng bawa kabar gembira!
+Akhirnya pantun go Internasional, gais!
+#kelaskita #carabarubelajarseru #belajardirumah #elearning #belajaronline #dirumahaja #taugaksih https://t.co/cJ6ld6Yok4</t>
+  </si>
+  <si>
+    <t>Mon Jan 04 07:00:12 +0000 2021</t>
+  </si>
+  <si>
+    <t>Seri Shahabiyah 1 : Khadijah- pengusaha sukses - Diskon 20% menjadi Rp.20000
+Gratis ongkos kirim hingga 40rb keseluruh Indonesia.
+#mainanbukuanak #promo #dirumahaja #belajardirumah #buku #membaca #booklover #bookstorm  
+SINOPSIS:sarah akan belajar menjadi pengusaha di https://t.co/4NRFCkF0RB</t>
+  </si>
+  <si>
+    <t>Mon Jan 04 06:42:15 +0000 2021</t>
+  </si>
+  <si>
+    <t>Daftar ke LIA KG yuk 👩‍🎓
+#liaonline #kelapagading #liakelapagading #lia #kursusbahasainggris #belajardirumah #dirumahaja #funlearning #englishcourse #english #flippedclassroom https://t.co/nf3i6MG9yp</t>
+  </si>
+  <si>
+    <t>Mon Jan 04 05:04:12 +0000 2021</t>
+  </si>
+  <si>
+    <t>100 Kisah Orang Hebat - Diskon 20% menjadi Rp.132000
+Gratis ongkos kirim hingga 40rb keseluruh Indonesia.
+#mainanbukuanak #promo #dirumahaja #belajardirumah #buku #membaca #booklover #bookstorm  
+SINOPSIS:Buku ini hadir memudahkan Anda membacakan cerita tentang https://t.co/Kdp1ir6u2j</t>
+  </si>
+  <si>
+    <t>Mon Jan 04 04:13:44 +0000 2021</t>
+  </si>
+  <si>
+    <t>Run....run....; Sarah dan panggung Boneka - Diskon 20% menjadi Rp.23200
+Gratis ongkos kirim hingga 40rb keseluruh Indonesia.
+#mainanbukuanak #promo #dirumahaja #belajardirumah #buku #membaca #booklover #bookstorm  
+SINOPSIS:Ups… Sarah asyik main bersama https://t.co/Is9gtVqMR6</t>
+  </si>
+  <si>
+    <t>Mon Jan 04 01:45:23 +0000 2021</t>
+  </si>
+  <si>
+    <t>Bismillah...
+Hari ini memulai kegiatan pembelajaran semester genap di tahun 2021 secara online.
+Kegiatan pembelajaran tatap muka yang direncanakan dimulai bulan Januari harus dibatalkan karena situasi belum kondusif.
+Semoga Allah memberikan kelancaran untuk #BelajarDiRumah. Amin.</t>
+  </si>
+  <si>
+    <t>IlhamChabibi</t>
+  </si>
+  <si>
+    <t>Mon Jan 04 01:06:30 +0000 2021</t>
+  </si>
+  <si>
+    <t>Where Should I Put It ? - Diskon 20% menjadi Rp.30400
+Gratis ongkos kirim hingga 40rb keseluruh Indonesia.
+#mainanbukuanak #promo #dirumahaja #belajardirumah #buku #membaca #booklover #bookstorm  
+SINOPSIS:
+PENULIS:Meidya Derni https://t.co/u1FBVVTRut</t>
+  </si>
+  <si>
+    <t>Sun Jan 03 23:12:36 +0000 2021</t>
+  </si>
+  <si>
+    <t>Seri Shahabiyah 2 : Aisyah Penghafal Hadits - Diskon 20% menjadi Rp.20000
+Gratis ongkos kirim hingga 40rb keseluruh Indonesia.
+#mainanbukuanak #promo #dirumahaja #belajardirumah #buku #membaca #booklover #bookstorm  
+SINOPSIS:Ups…Salwa belum menghafal hadits!Padahal https://t.co/I8bxCwRwPr</t>
+  </si>
+  <si>
+    <t>Sun Jan 03 20:45:13 +0000 2021</t>
+  </si>
+  <si>
+    <t>Dongeng 365 Hari Untuk Anak - Diskon 20% menjadi Rp.174400
+Gratis ongkos kirim hingga 40rb keseluruh Indonesia.
+#mainanbukuanak #promo #dirumahaja #belajardirumah #buku #membaca #booklover #bookstorm  
+SINOPSIS:Beruang Cokelat memiliki toko kue yang sangat lezat. Semua https://t.co/W27SdW0DNn</t>
+  </si>
+  <si>
+    <t>Sun Jan 03 18:12:14 +0000 2021</t>
+  </si>
+  <si>
+    <t>Seri Mengenal Allah 1 : Perintah Allah - Diskon 20% menjadi Rp.20000
+Gratis ongkos kirim hingga 40rb keseluruh Indonesia.
+#mainanbukuanak #promo #dirumahaja #belajardirumah #buku #membaca #booklover #bookstorm  
+SINOPSIS:Anak Saleh…. Yuk mengenal Allah Subhanahu wa https://t.co/kSmRj3Kh6W</t>
+  </si>
+  <si>
+    <t>Sun Jan 03 15:42:14 +0000 2021</t>
+  </si>
+  <si>
+    <t>Kisah Kelinci &amp;amp; Tupai - Diskon 20% menjadi Rp.20000
+Gratis ongkos kirim hingga 40rb keseluruh Indonesia.
+#mainanbukuanak #promo #dirumahaja #belajardirumah #buku #membaca #booklover #bookstorm  
+SINOPSIS:Musim Dingin hampir datang! Kelinci bekerja keras mengumpulkan https://t.co/4SeUO6feLV</t>
+  </si>
+  <si>
+    <t>Sun Jan 03 13:12:07 +0000 2021</t>
+  </si>
+  <si>
+    <t>PASIEN SEMBUH BERTAMBAH 14, KASUS BARU 7 DAN 2 PASIEN COVID19 MENINGGAL
+INFORMASI LENGKAPNYA BACA DI 👉 https://t.co/RHvrxIHBNT
+#ayolawancorona #belajardirumah #bermaindirumah #dirumahsaja #jagakebersihan #jagakesehatan #jagajarak #pakemasker #tetapwaspada #coronabisasembuh https://t.co/AvtKAgFNwh</t>
+  </si>
+  <si>
+    <t>Sun Jan 03 11:38:45 +0000 2021</t>
+  </si>
+  <si>
+    <t>Update Perkembangan Covid-19 di Kabupaten Luwu Timur per 3 Januari 2021.
+14 sembuh, 7 kasus baru, 2 meninggal.
+Perbaharui terus informasi anda di https://t.co/D4pL3qgDlY
+#ayolawancorona #belajardirumah #dirumahsaja #jagakebersihan #jagakesehatan #jagajarak #pakemasker https://t.co/wnseunyHdG</t>
+  </si>
+  <si>
+    <t>Sun Jan 03 11:38:20 +0000 2021</t>
+  </si>
+  <si>
+    <t>Seri Shahabiyah 3 : Asma Muslimah teguh pendirian - Diskon 20% menjadi Rp.20000
+Gratis ongkos kirim hingga 40rb keseluruh Indonesia.
+#mainanbukuanak #promo #dirumahaja #belajardirumah #buku #membaca #booklover #bookstorm  
+SINOPSIS:Hilmi selalu mengantarkan makan siang https://t.co/IZ1BzNjUw6</t>
+  </si>
+  <si>
+    <t>Sun Jan 03 10:42:35 +0000 2021</t>
+  </si>
+  <si>
+    <t>Seri Mengenal Allah 2 : Karunia Allah - Diskon 20% menjadi Rp.20000
+Gratis ongkos kirim hingga 40rb keseluruh Indonesia.
+#mainanbukuanak #promo #dirumahaja #belajardirumah #buku #membaca #booklover #bookstorm  
+SINOPSIS:Anak Saleh…. Yuk syukuri ciptaan Allah mulai dari https://t.co/d9c5hdkjk7</t>
+  </si>
+  <si>
+    <t>Sun Jan 03 08:12:31 +0000 2021</t>
+  </si>
+  <si>
+    <t>Seri Shahabiyah 7 : Ummu Umarah - Diskon 20% menjadi Rp.20000
+Gratis ongkos kirim hingga 40rb keseluruh Indonesia.
+#mainanbukuanak #promo #dirumahaja #belajardirumah #buku #membaca #booklover #bookstorm  
+SINOPSIS:Eh… ada anak baru di sekolah namanya Yasmin. Ia jago https://t.co/Nz3DOuGqxD</t>
+  </si>
+  <si>
+    <t>Sun Jan 03 05:42:53 +0000 2021</t>
+  </si>
+  <si>
+    <t>Seri Shahabiyah 4 : Ummu Salamah - Diskon 20% menjadi Rp.20000
+Gratis ongkos kirim hingga 40rb keseluruh Indonesia.
+#mainanbukuanak #promo #dirumahaja #belajardirumah #buku #membaca #booklover #bookstorm  
+SINOPSIS:Harusnya semua murid mendapatkan tugas yang sama. https://t.co/De7XuJRl0S</t>
+  </si>
+  <si>
+    <t>Sun Jan 03 03:17:09 +0000 2021</t>
+  </si>
+  <si>
+    <t>Seri Shahabiyah 6 : Ummu Sulaim - Diskon 20% menjadi Rp.20000
+Gratis ongkos kirim hingga 40rb keseluruh Indonesia.
+#mainanbukuanak #promo #dirumahaja #belajardirumah #buku #membaca #booklover #bookstorm  
+SINOPSIS:Sarah dan teman-teman kagum atas kesabaran dan ketabahan https://t.co/JcshCJw0Rt</t>
+  </si>
+  <si>
+    <t>Sun Jan 03 00:42:16 +0000 2021</t>
+  </si>
+  <si>
+    <t>Seri Shahabiyah 5 : Fatimah binti Muhammad - Diskon 20% menjadi Rp.20000
+Gratis ongkos kirim hingga 40rb keseluruh Indonesia.
+#mainanbukuanak #promo #dirumahaja #belajardirumah #buku #membaca #booklover #bookstorm  
+SINOPSIS:Fitri ingin membantu ayahnya berjualan https://t.co/xCtP6IPlBY</t>
+  </si>
+  <si>
+    <t>Sat Jan 02 22:18:50 +0000 2021</t>
+  </si>
+  <si>
+    <t>Seri Shahabiyah 8 : Zainab binti Khuzaimah - Diskon 20% menjadi Rp.20000
+Gratis ongkos kirim hingga 40rb keseluruh Indonesia.
+#mainanbukuanak #promo #dirumahaja #belajardirumah #buku #membaca #booklover #bookstorm  
+SINOPSIS:Kali ini Syarifah mengundang Sarah  Salwa Budi https://t.co/DrSe7u0R9P</t>
+  </si>
+  <si>
+    <t>Sat Jan 02 19:42:09 +0000 2021</t>
+  </si>
+  <si>
+    <t>Seri Shahabiyah 10 : Sumayyah binti Khabath - Diskon 20% menjadi Rp.20000
+Gratis ongkos kirim hingga 40rb keseluruh Indonesia.
+#mainanbukuanak #promo #dirumahaja #belajardirumah #buku #membaca #booklover #bookstorm  
+SINOPSIS:Sarah Budi dan kawan-kawan terharu dengan https://t.co/vbZS2OZ0mf</t>
+  </si>
+  <si>
+    <t>Sat Jan 02 17:12:07 +0000 2021</t>
   </si>
 </sst>
 </file>
@@ -7568,10 +8027,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D932"/>
+  <dimension ref="A1:D994"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A913" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="G928" sqref="G928"/>
+    <sheetView tabSelected="1" topLeftCell="A967" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="J987" sqref="J987"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -20624,6 +21083,874 @@
         <v>1567</v>
       </c>
     </row>
+    <row r="933" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A933">
+        <v>1.3464748660026491E+18</v>
+      </c>
+      <c r="B933" t="s">
+        <v>1738</v>
+      </c>
+      <c r="C933" t="s">
+        <v>625</v>
+      </c>
+      <c r="D933" t="s">
+        <v>1739</v>
+      </c>
+    </row>
+    <row r="934" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A934">
+        <v>1.346437465037439E+18</v>
+      </c>
+      <c r="B934" t="s">
+        <v>1740</v>
+      </c>
+      <c r="C934" t="s">
+        <v>625</v>
+      </c>
+      <c r="D934" t="s">
+        <v>1741</v>
+      </c>
+    </row>
+    <row r="935" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A935">
+        <v>1.3464191754015091E+18</v>
+      </c>
+      <c r="B935" t="s">
+        <v>1742</v>
+      </c>
+      <c r="C935" t="s">
+        <v>21</v>
+      </c>
+      <c r="D935" t="s">
+        <v>1743</v>
+      </c>
+    </row>
+    <row r="936" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A936">
+        <v>1.3464190952609101E+18</v>
+      </c>
+      <c r="B936" t="s">
+        <v>1744</v>
+      </c>
+      <c r="C936" t="s">
+        <v>21</v>
+      </c>
+      <c r="D936" t="s">
+        <v>1745</v>
+      </c>
+    </row>
+    <row r="937" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A937">
+        <v>1.3463993524371011E+18</v>
+      </c>
+      <c r="B937" t="s">
+        <v>1746</v>
+      </c>
+      <c r="C937" t="s">
+        <v>625</v>
+      </c>
+      <c r="D937" t="s">
+        <v>1747</v>
+      </c>
+    </row>
+    <row r="938" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A938">
+        <v>1.346361487716041E+18</v>
+      </c>
+      <c r="B938" t="s">
+        <v>1748</v>
+      </c>
+      <c r="C938" t="s">
+        <v>625</v>
+      </c>
+      <c r="D938" t="s">
+        <v>1749</v>
+      </c>
+    </row>
+    <row r="939" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A939">
+        <v>1.346351170063745E+18</v>
+      </c>
+      <c r="B939" t="s">
+        <v>1750</v>
+      </c>
+      <c r="C939" t="s">
+        <v>21</v>
+      </c>
+      <c r="D939" t="s">
+        <v>1751</v>
+      </c>
+    </row>
+    <row r="940" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A940">
+        <v>1.3463510866476029E+18</v>
+      </c>
+      <c r="B940" t="s">
+        <v>1752</v>
+      </c>
+      <c r="C940" t="s">
+        <v>72</v>
+      </c>
+      <c r="D940" t="s">
+        <v>1753</v>
+      </c>
+    </row>
+    <row r="941" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A941">
+        <v>1.3463245774172201E+18</v>
+      </c>
+      <c r="B941" t="s">
+        <v>1754</v>
+      </c>
+      <c r="C941" t="s">
+        <v>625</v>
+      </c>
+      <c r="D941" t="s">
+        <v>1755</v>
+      </c>
+    </row>
+    <row r="942" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A942">
+        <v>1.3463216211418729E+18</v>
+      </c>
+      <c r="B942" t="s">
+        <v>1756</v>
+      </c>
+      <c r="C942" t="s">
+        <v>45</v>
+      </c>
+      <c r="D942" t="s">
+        <v>1757</v>
+      </c>
+    </row>
+    <row r="943" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A943">
+        <v>1.3463206669207959E+18</v>
+      </c>
+      <c r="B943" t="s">
+        <v>1758</v>
+      </c>
+      <c r="C943" t="s">
+        <v>45</v>
+      </c>
+      <c r="D943" t="s">
+        <v>1759</v>
+      </c>
+    </row>
+    <row r="944" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A944">
+        <v>1.3463203249172969E+18</v>
+      </c>
+      <c r="B944" t="s">
+        <v>1760</v>
+      </c>
+      <c r="C944" t="s">
+        <v>45</v>
+      </c>
+      <c r="D944" t="s">
+        <v>1761</v>
+      </c>
+    </row>
+    <row r="945" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A945">
+        <v>1.3463200637170161E+18</v>
+      </c>
+      <c r="B945" t="s">
+        <v>1762</v>
+      </c>
+      <c r="C945" t="s">
+        <v>45</v>
+      </c>
+      <c r="D945" t="s">
+        <v>1763</v>
+      </c>
+    </row>
+    <row r="946" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A946">
+        <v>1.3463158410426701E+18</v>
+      </c>
+      <c r="B946" t="s">
+        <v>1764</v>
+      </c>
+      <c r="C946" t="s">
+        <v>1765</v>
+      </c>
+      <c r="D946" t="s">
+        <v>1766</v>
+      </c>
+    </row>
+    <row r="947" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A947">
+        <v>1.3462858342453409E+18</v>
+      </c>
+      <c r="B947" t="s">
+        <v>1767</v>
+      </c>
+      <c r="C947" t="s">
+        <v>625</v>
+      </c>
+      <c r="D947" t="s">
+        <v>1768</v>
+      </c>
+    </row>
+    <row r="948" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A948">
+        <v>1.3462795004395599E+18</v>
+      </c>
+      <c r="B948" t="s">
+        <v>1769</v>
+      </c>
+      <c r="C948" t="s">
+        <v>53</v>
+      </c>
+      <c r="D948" t="s">
+        <v>1770</v>
+      </c>
+    </row>
+    <row r="949" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A949">
+        <v>1.3462756272387561E+18</v>
+      </c>
+      <c r="B949" t="s">
+        <v>1771</v>
+      </c>
+      <c r="C949" t="s">
+        <v>53</v>
+      </c>
+      <c r="D949" t="s">
+        <v>1772</v>
+      </c>
+    </row>
+    <row r="950" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A950">
+        <v>1.346256588269449E+18</v>
+      </c>
+      <c r="B950" t="s">
+        <v>1773</v>
+      </c>
+      <c r="C950" t="s">
+        <v>53</v>
+      </c>
+      <c r="D950" t="s">
+        <v>1774</v>
+      </c>
+    </row>
+    <row r="951" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A951">
+        <v>1.3462484382670889E+18</v>
+      </c>
+      <c r="B951" t="s">
+        <v>1775</v>
+      </c>
+      <c r="C951" t="s">
+        <v>625</v>
+      </c>
+      <c r="D951" t="s">
+        <v>1776</v>
+      </c>
+    </row>
+    <row r="952" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A952">
+        <v>1.346210934792962E+18</v>
+      </c>
+      <c r="B952" t="s">
+        <v>1777</v>
+      </c>
+      <c r="C952" t="s">
+        <v>625</v>
+      </c>
+      <c r="D952" t="s">
+        <v>1778</v>
+      </c>
+    </row>
+    <row r="953" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A953">
+        <v>1.34617554677903E+18</v>
+      </c>
+      <c r="B953" t="s">
+        <v>1779</v>
+      </c>
+      <c r="C953" t="s">
+        <v>1780</v>
+      </c>
+      <c r="D953" t="s">
+        <v>1781</v>
+      </c>
+    </row>
+    <row r="954" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A954">
+        <v>1.346172679854858E+18</v>
+      </c>
+      <c r="B954" t="s">
+        <v>1782</v>
+      </c>
+      <c r="C954" t="s">
+        <v>625</v>
+      </c>
+      <c r="D954" t="s">
+        <v>1783</v>
+      </c>
+    </row>
+    <row r="955" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A955">
+        <v>1.3461348714464909E+18</v>
+      </c>
+      <c r="B955" t="s">
+        <v>1784</v>
+      </c>
+      <c r="C955" t="s">
+        <v>625</v>
+      </c>
+      <c r="D955" t="s">
+        <v>1785</v>
+      </c>
+    </row>
+    <row r="956" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A956">
+        <v>1.34609736989757E+18</v>
+      </c>
+      <c r="B956" t="s">
+        <v>1786</v>
+      </c>
+      <c r="C956" t="s">
+        <v>625</v>
+      </c>
+      <c r="D956" t="s">
+        <v>1787</v>
+      </c>
+    </row>
+    <row r="957" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A957">
+        <v>1.346059597233046E+18</v>
+      </c>
+      <c r="B957" t="s">
+        <v>1788</v>
+      </c>
+      <c r="C957" t="s">
+        <v>625</v>
+      </c>
+      <c r="D957" t="s">
+        <v>1789</v>
+      </c>
+    </row>
+    <row r="958" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A958">
+        <v>1.346055310805492E+18</v>
+      </c>
+      <c r="B958" t="s">
+        <v>1790</v>
+      </c>
+      <c r="C958" t="s">
+        <v>358</v>
+      </c>
+      <c r="D958" t="s">
+        <v>1791</v>
+      </c>
+    </row>
+    <row r="959" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A959">
+        <v>1.3460411973792151E+18</v>
+      </c>
+      <c r="B959" t="s">
+        <v>1792</v>
+      </c>
+      <c r="C959" t="s">
+        <v>21</v>
+      </c>
+      <c r="D959" t="s">
+        <v>1793</v>
+      </c>
+    </row>
+    <row r="960" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A960">
+        <v>1.346041117179924E+18</v>
+      </c>
+      <c r="B960" t="s">
+        <v>1794</v>
+      </c>
+      <c r="C960" t="s">
+        <v>21</v>
+      </c>
+      <c r="D960" t="s">
+        <v>1795</v>
+      </c>
+    </row>
+    <row r="961" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A961">
+        <v>1.3460383190548969E+18</v>
+      </c>
+      <c r="B961" t="s">
+        <v>1796</v>
+      </c>
+      <c r="C961" t="s">
+        <v>1780</v>
+      </c>
+      <c r="D961" t="s">
+        <v>1797</v>
+      </c>
+    </row>
+    <row r="962" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A962">
+        <v>1.346029746270786E+18</v>
+      </c>
+      <c r="B962" t="s">
+        <v>1798</v>
+      </c>
+      <c r="C962" t="s">
+        <v>21</v>
+      </c>
+      <c r="D962" t="s">
+        <v>1799</v>
+      </c>
+    </row>
+    <row r="963" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A963">
+        <v>1.3460221391665641E+18</v>
+      </c>
+      <c r="B963" t="s">
+        <v>1800</v>
+      </c>
+      <c r="C963" t="s">
+        <v>625</v>
+      </c>
+      <c r="D963" t="s">
+        <v>1801</v>
+      </c>
+    </row>
+    <row r="964" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A964">
+        <v>1.346004509013598E+18</v>
+      </c>
+      <c r="B964" t="s">
+        <v>1802</v>
+      </c>
+      <c r="C964" t="s">
+        <v>1780</v>
+      </c>
+      <c r="D964" t="s">
+        <v>1803</v>
+      </c>
+    </row>
+    <row r="965" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A965">
+        <v>1.345988381856076E+18</v>
+      </c>
+      <c r="B965" t="s">
+        <v>1804</v>
+      </c>
+      <c r="C965" t="s">
+        <v>45</v>
+      </c>
+      <c r="D965" t="s">
+        <v>1805</v>
+      </c>
+    </row>
+    <row r="966" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A966">
+        <v>1.3459838657062751E+18</v>
+      </c>
+      <c r="B966" t="s">
+        <v>1806</v>
+      </c>
+      <c r="C966" t="s">
+        <v>625</v>
+      </c>
+      <c r="D966" t="s">
+        <v>1807</v>
+      </c>
+    </row>
+    <row r="967" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A967">
+        <v>1.3459591924697249E+18</v>
+      </c>
+      <c r="B967" t="s">
+        <v>1808</v>
+      </c>
+      <c r="C967" t="s">
+        <v>336</v>
+      </c>
+      <c r="D967" t="s">
+        <v>1809</v>
+      </c>
+    </row>
+    <row r="968" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A968">
+        <v>1.345946488564642E+18</v>
+      </c>
+      <c r="B968" t="s">
+        <v>1810</v>
+      </c>
+      <c r="C968" t="s">
+        <v>625</v>
+      </c>
+      <c r="D968" t="s">
+        <v>1811</v>
+      </c>
+    </row>
+    <row r="969" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A969">
+        <v>1.3459091579295009E+18</v>
+      </c>
+      <c r="B969" t="s">
+        <v>1812</v>
+      </c>
+      <c r="C969" t="s">
+        <v>625</v>
+      </c>
+      <c r="D969" t="s">
+        <v>1813</v>
+      </c>
+    </row>
+    <row r="970" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A970">
+        <v>1.3458993736668319E+18</v>
+      </c>
+      <c r="B970" t="s">
+        <v>1814</v>
+      </c>
+      <c r="C970" t="s">
+        <v>1815</v>
+      </c>
+      <c r="D970" t="s">
+        <v>1816</v>
+      </c>
+    </row>
+    <row r="971" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A971">
+        <v>1.345870706014188E+18</v>
+      </c>
+      <c r="B971" t="s">
+        <v>1817</v>
+      </c>
+      <c r="C971" t="s">
+        <v>625</v>
+      </c>
+      <c r="D971" t="s">
+        <v>1818</v>
+      </c>
+    </row>
+    <row r="972" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A972">
+        <v>1.3458336176755881E+18</v>
+      </c>
+      <c r="B972" t="s">
+        <v>1819</v>
+      </c>
+      <c r="C972" t="s">
+        <v>625</v>
+      </c>
+      <c r="D972" t="s">
+        <v>1820</v>
+      </c>
+    </row>
+    <row r="973" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A973">
+        <v>1.3457951194678269E+18</v>
+      </c>
+      <c r="B973" t="s">
+        <v>1821</v>
+      </c>
+      <c r="C973" t="s">
+        <v>625</v>
+      </c>
+      <c r="D973" t="s">
+        <v>1822</v>
+      </c>
+    </row>
+    <row r="974" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A974">
+        <v>1.345757368273932E+18</v>
+      </c>
+      <c r="B974" t="s">
+        <v>1823</v>
+      </c>
+      <c r="C974" t="s">
+        <v>625</v>
+      </c>
+      <c r="D974" t="s">
+        <v>1824</v>
+      </c>
+    </row>
+    <row r="975" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A975">
+        <v>1.3457195905972631E+18</v>
+      </c>
+      <c r="B975" t="s">
+        <v>1825</v>
+      </c>
+      <c r="C975" t="s">
+        <v>625</v>
+      </c>
+      <c r="D975" t="s">
+        <v>1826</v>
+      </c>
+    </row>
+    <row r="976" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A976">
+        <v>1.3456960946641019E+18</v>
+      </c>
+      <c r="B976" t="s">
+        <v>1827</v>
+      </c>
+      <c r="C976" t="s">
+        <v>21</v>
+      </c>
+      <c r="D976" t="s">
+        <v>1828</v>
+      </c>
+    </row>
+    <row r="977" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A977">
+        <v>1.345695990448181E+18</v>
+      </c>
+      <c r="B977" t="s">
+        <v>1829</v>
+      </c>
+      <c r="C977" t="s">
+        <v>21</v>
+      </c>
+      <c r="D977" t="s">
+        <v>1830</v>
+      </c>
+    </row>
+    <row r="978" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A978">
+        <v>1.3456819584376791E+18</v>
+      </c>
+      <c r="B978" t="s">
+        <v>1831</v>
+      </c>
+      <c r="C978" t="s">
+        <v>625</v>
+      </c>
+      <c r="D978" t="s">
+        <v>1832</v>
+      </c>
+    </row>
+    <row r="979" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A979">
+        <v>1.345644195357184E+18</v>
+      </c>
+      <c r="B979" t="s">
+        <v>1833</v>
+      </c>
+      <c r="C979" t="s">
+        <v>625</v>
+      </c>
+      <c r="D979" t="s">
+        <v>1834</v>
+      </c>
+    </row>
+    <row r="980" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A980">
+        <v>1.345606538145087E+18</v>
+      </c>
+      <c r="B980" t="s">
+        <v>1835</v>
+      </c>
+      <c r="C980" t="s">
+        <v>625</v>
+      </c>
+      <c r="D980" t="s">
+        <v>1836</v>
+      </c>
+    </row>
+    <row r="981" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A981">
+        <v>1.3455698647321641E+18</v>
+      </c>
+      <c r="B981" t="s">
+        <v>1837</v>
+      </c>
+      <c r="C981" t="s">
+        <v>625</v>
+      </c>
+      <c r="D981" t="s">
+        <v>1838</v>
+      </c>
+    </row>
+    <row r="982" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A982">
+        <v>1.3455308843010171E+18</v>
+      </c>
+      <c r="B982" t="s">
+        <v>1839</v>
+      </c>
+      <c r="C982" t="s">
+        <v>625</v>
+      </c>
+      <c r="D982" t="s">
+        <v>1840</v>
+      </c>
+    </row>
+    <row r="983" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A983">
+        <v>1.3454947902977149E+18</v>
+      </c>
+      <c r="B983" t="s">
+        <v>1841</v>
+      </c>
+      <c r="C983" t="s">
+        <v>625</v>
+      </c>
+      <c r="D983" t="s">
+        <v>1842</v>
+      </c>
+    </row>
+    <row r="984" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A984">
+        <v>1.3454553578800169E+18</v>
+      </c>
+      <c r="B984" t="s">
+        <v>1843</v>
+      </c>
+      <c r="C984" t="s">
+        <v>625</v>
+      </c>
+      <c r="D984" t="s">
+        <v>1844</v>
+      </c>
+    </row>
+    <row r="985" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A985">
+        <v>1.3454176011286651E+18</v>
+      </c>
+      <c r="B985" t="s">
+        <v>1845</v>
+      </c>
+      <c r="C985" t="s">
+        <v>625</v>
+      </c>
+      <c r="D985" t="s">
+        <v>1846</v>
+      </c>
+    </row>
+    <row r="986" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A986">
+        <v>1.345379847883743E+18</v>
+      </c>
+      <c r="B986" t="s">
+        <v>1641</v>
+      </c>
+      <c r="C986" t="s">
+        <v>625</v>
+      </c>
+      <c r="D986" t="s">
+        <v>1642</v>
+      </c>
+    </row>
+    <row r="987" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A987">
+        <v>1.34534303938911E+18</v>
+      </c>
+      <c r="B987" t="s">
+        <v>1643</v>
+      </c>
+      <c r="C987" t="s">
+        <v>625</v>
+      </c>
+      <c r="D987" t="s">
+        <v>1644</v>
+      </c>
+    </row>
+    <row r="988" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A988">
+        <v>1.3453204992497011E+18</v>
+      </c>
+      <c r="B988" t="s">
+        <v>1645</v>
+      </c>
+      <c r="C988" t="s">
+        <v>21</v>
+      </c>
+      <c r="D988" t="s">
+        <v>1646</v>
+      </c>
+    </row>
+    <row r="989" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A989">
+        <v>1.3453046617256261E+18</v>
+      </c>
+      <c r="B989" t="s">
+        <v>1647</v>
+      </c>
+      <c r="C989" t="s">
+        <v>625</v>
+      </c>
+      <c r="D989" t="s">
+        <v>1648</v>
+      </c>
+    </row>
+    <row r="990" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A990">
+        <v>1.3453024449311291E+18</v>
+      </c>
+      <c r="B990" t="s">
+        <v>1649</v>
+      </c>
+      <c r="C990" t="s">
+        <v>1650</v>
+      </c>
+      <c r="D990" t="s">
+        <v>1651</v>
+      </c>
+    </row>
+    <row r="991" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A991">
+        <v>1.3452671261650701E+18</v>
+      </c>
+      <c r="B991" t="s">
+        <v>1652</v>
+      </c>
+      <c r="C991" t="s">
+        <v>625</v>
+      </c>
+      <c r="D991" t="s">
+        <v>1653</v>
+      </c>
+    </row>
+    <row r="992" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A992">
+        <v>1.345229517091009E+18</v>
+      </c>
+      <c r="B992" t="s">
+        <v>1654</v>
+      </c>
+      <c r="C992" t="s">
+        <v>625</v>
+      </c>
+      <c r="D992" t="s">
+        <v>1655</v>
+      </c>
+    </row>
+    <row r="993" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A993">
+        <v>1.3452292939626051E+18</v>
+      </c>
+      <c r="B993" t="s">
+        <v>1656</v>
+      </c>
+      <c r="C993" t="s">
+        <v>181</v>
+      </c>
+      <c r="D993" t="s">
+        <v>1657</v>
+      </c>
+    </row>
+    <row r="994" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A994">
+        <v>1.345192970639745E+18</v>
+      </c>
+      <c r="B994" t="s">
+        <v>1658</v>
+      </c>
+      <c r="C994" t="s">
+        <v>625</v>
+      </c>
+      <c r="D994" t="s">
+        <v>1659</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/application/static/excel_data/data_crawling -- 3. #belajardirumah.xlsx
+++ b/application/static/excel_data/data_crawling -- 3. #belajardirumah.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2983" uniqueCount="1847">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3217" uniqueCount="1969">
   <si>
     <t>id</t>
   </si>
@@ -7665,6 +7665,534 @@
   </si>
   <si>
     <t>Sat Jan 02 17:12:07 +0000 2021</t>
+  </si>
+  <si>
+    <t>Cerita Si Sapi - Diskon 20% menjadi Rp.18750
+Gratis ongkos kirim hingga 40rb keseluruh Indonesia.
+#mainanbukuanak #promo #dirumahaja #belajardirumah #buku #membaca #booklover #bookstorm  
+SINOPSIS:Assalamualaikum teman-teman. Namaku Sapi. Aku memiliki empat kaki dan https://t.co/oa7sDbtTIZ</t>
+  </si>
+  <si>
+    <t>Fri Jan 08 13:13:03 +0000 2021</t>
+  </si>
+  <si>
+    <t>AKHIR PEKAN, JUMLAH PASIEN SEMBUH BERTAMBAH 17 ORANG DAN 67 KASUS BARU
+INFORMASI LENGKAPNYA BACA DI 👉 https://t.co/Lylp43vEif
+#ayolawancorona #belajardirumah #bermaindirumah #dirumahsaja #jagakebersihan #jagakesehatan #jagajarak #pakemasker #tetapwaspada #coronabisasembuh https://t.co/R9hUTA1vJ7</t>
+  </si>
+  <si>
+    <t>Fri Jan 08 11:38:46 +0000 2021</t>
+  </si>
+  <si>
+    <t>Update Perkembangan Covid-19 di Kabupaten Luwu Timur per 8 Januari 2021.
+17 sembuh dan 67 kasus baru.
+Perbaharui terus informasi di https://t.co/D4pL3qgDlY
+#ayolawancorona #belajardirumah #beribadahdirumah #bermaindirumah #dirumahsaja #jagakebersihan #jagakesehatan #jagajarak https://t.co/2VUWbSy2J7</t>
+  </si>
+  <si>
+    <t>Fri Jan 08 11:38:12 +0000 2021</t>
+  </si>
+  <si>
+    <t>Cerita Si Zebra - Diskon 20% menjadi Rp.20000
+Gratis ongkos kirim hingga 40rb keseluruh Indonesia.
+#mainanbukuanak #promo #dirumahaja #belajardirumah #buku #membaca #booklover #bookstorm  
+SINOPSIS:Assalamualaikum teman-teman….Namaku Zebra. Warna kulitku belang-belang https://t.co/9sT9hc0Tk4</t>
+  </si>
+  <si>
+    <t>Fri Jan 08 10:42:12 +0000 2021</t>
+  </si>
+  <si>
+    <t>Tahun baru saatnya menambah ilmu baru atau memperdalam ilmu yg ada. Yuk, #belajardirumah bersama Akademi Penulis Buku. Kepoin jadwal Kelas Digitalnya &amp;amp; daftar pakai kode KLARA180... biar dpt diskon 😄😍😇
+#tahunbaru2021 #belajaronline #kelasdigital #belajardarirumah #5M https://t.co/hN8qNSjXRL</t>
+  </si>
+  <si>
+    <t>dwiklarasari</t>
+  </si>
+  <si>
+    <t>Fri Jan 08 09:57:07 +0000 2021</t>
+  </si>
+  <si>
+    <t>Cerita Si Jerapah - Diskon 20% menjadi Rp.20000
+Gratis ongkos kirim hingga 40rb keseluruh Indonesia.
+#mainanbukuanak #promo #dirumahaja #belajardirumah #buku #membaca #booklover #bookstorm  
+SINOPSIS:
+PENULIS:
+PENERBIT:GEMA INSANI
+KATEGORI:Buku
+SEGMENTASI:Anak
+TEMA:Sains https://t.co/yXRLPbZOoo</t>
+  </si>
+  <si>
+    <t>Fri Jan 08 08:12:41 +0000 2021</t>
+  </si>
+  <si>
+    <t>Buat yang suka motret, silakan jual fotonya di situs penyedia bank images. Jangan lupa buat yang suka jualan, monggo mulai dirintis usaha online shop-nya.
+#kelaskita #carabarubelajarseru #belajardirumah #elearning #belajaronline #dirumahaja https://t.co/ceVBkn4D72</t>
+  </si>
+  <si>
+    <t>Fri Jan 08 07:13:44 +0000 2021</t>
+  </si>
+  <si>
+    <t>Nah, ini dia kesempatan emas buat yang suka nulis!
+#kelaskita #carabarubelajarseru #belajardirumah #elearning #belajaronline #dirumahaja https://t.co/8LufpHP8JK</t>
+  </si>
+  <si>
+    <t>Fri Jan 08 07:10:55 +0000 2021</t>
+  </si>
+  <si>
+    <t>Selain tren belajar online via Zoom, usaha kuliner rumahan juga patut dicoba nih!
+#kelaskita #carabarubelajarseru #belajardirumah #elearning #belajaronline #dirumahaja https://t.co/nOBKmf9jSP</t>
+  </si>
+  <si>
+    <t>Fri Jan 08 07:10:08 +0000 2021</t>
+  </si>
+  <si>
+    <t>Buat yang suka gambar, wajib banget dicoba nih!
+#kelaskita #carabarubelajarseru #belajardirumah #elearning #belajaronline #dirumahaja https://t.co/23LioLB4gi</t>
+  </si>
+  <si>
+    <t>Fri Jan 08 07:07:55 +0000 2021</t>
+  </si>
+  <si>
+    <t>-THREAD-
+Udahan yuk rebahannya, katanya mau kaya raya.
+Simak nih ide bisnis online yang udah @kelaskitadotcom rangkum buat kamu!
+#kelaskita #carabarubelajarseru #belajardirumah #elearning #belajaronline #dirumahaja https://t.co/dNePhWovS7</t>
+  </si>
+  <si>
+    <t>Fri Jan 08 07:04:49 +0000 2021</t>
+  </si>
+  <si>
+    <t>Kalian udah pada tahu fitur GURU belum nih?
+#belajaronline #bimbelonline #belajardirumah #pjj #kelaspintarindonesia https://t.co/cVvEOTCkr4</t>
+  </si>
+  <si>
+    <t>Fri Jan 08 07:01:44 +0000 2021</t>
+  </si>
+  <si>
+    <t>Cerita Si Singa - Diskon 20% menjadi Rp.20000
+Gratis ongkos kirim hingga 40rb keseluruh Indonesia.
+#mainanbukuanak #promo #dirumahaja #belajardirumah #buku #membaca #booklover #bookstorm  
+SINOPSIS:Assalamualaikum Teman. Namaku Singa. Aku memiliki empat kaki dan termasuk https://t.co/7ILWVC9N7M</t>
+  </si>
+  <si>
+    <t>Fri Jan 08 05:47:26 +0000 2021</t>
+  </si>
+  <si>
+    <t>Masih ingat sama fitur yg ini kan guys, naah langganan sekarang bisa dapeti banyak hadiah , yuuk yuukk buruan chat kkk yaa untuk info lebih lanjut 😉
+https://t.co/L90ZstgjO5
+#sekolah #pendidikan #dirumahaja  #belajardirumah #stayathome #bimbel #sbmptn #RuangguruBagiHadiah https://t.co/GzCBjkQRGD https://t.co/rsqO10jWwF</t>
+  </si>
+  <si>
+    <t>a_icaaak</t>
+  </si>
+  <si>
+    <t>Fri Jan 08 04:57:01 +0000 2021</t>
+  </si>
+  <si>
+    <t>Klik link di bawah untuk diskon spesialnya 😉
+https://t.co/jbFatD3Wox
+#sekolah #dirumahaja #belajar #RuangguruBagiHadiah #ruangguru #belajardirumah #stayathome #newnormal #bimbel https://t.co/Nlpkv4R6p3</t>
+  </si>
+  <si>
+    <t>Fri Jan 08 04:49:52 +0000 2021</t>
+  </si>
+  <si>
+    <t>Fitur #ruangguru yg satu ini uda pada tau belum nih 😊😊. Yuuk buruaann check videonya.
+Dan pastinya aku juga punya diskon menarik buat kalian beli koin nya. Klik link di bawah ini ⬇️
+https://t.co/jbFatD3Wox
+#sekolah #pendidikan #dirumahaja #belajardirumah #stayathome #bimbel https://t.co/WUv8cmmOjh</t>
+  </si>
+  <si>
+    <t>Fri Jan 08 04:38:16 +0000 2021</t>
+  </si>
+  <si>
+    <t>Tematik Kelas 1 SD | Tema 5 Subtema 2 | Pembelajaran 1 | Pengalaman Bers... https://t.co/Czc043uZbN via @YouTube #tematikkelas1SD #newvideo #belajardirumah #bdr</t>
+  </si>
+  <si>
+    <t>Fri Jan 08 03:17:30 +0000 2021</t>
+  </si>
+  <si>
+    <t>Cerita Si Kura-Kura - Diskon 20% menjadi Rp.20000
+Gratis ongkos kirim hingga 40rb keseluruh Indonesia.
+#mainanbukuanak #promo #dirumahaja #belajardirumah #buku #membaca #booklover #bookstorm  
+SINOPSIS:Assalamualaikum Teman-teman. Namaku Kura-Kura. Aku memiliki empat https://t.co/HCW2Hl6C8D</t>
+  </si>
+  <si>
+    <t>Fri Jan 08 03:16:28 +0000 2021</t>
+  </si>
+  <si>
+    <t>Tematik Kelas 1 SD | Tema 5 Subtema 1 | Pembelajaran 2 | Pengalaman Masa... https://t.co/3QzwBPldHU via @YouTube #new #video #tematikkelas1SD #tema5kelas1SD #belajardirumah #bdr</t>
+  </si>
+  <si>
+    <t>Fri Jan 08 03:10:37 +0000 2021</t>
+  </si>
+  <si>
+    <t>Cerita Si Burung Hantu - Diskon 20% menjadi Rp.20000
+Gratis ongkos kirim hingga 40rb keseluruh Indonesia.
+#mainanbukuanak #promo #dirumahaja #belajardirumah #buku #membaca #booklover #bookstorm  
+SINOPSIS:Assalamualaikum Teman! Namaku Burung Hantu. Aku termasuk kelompok https://t.co/B3jTm6KZCl</t>
+  </si>
+  <si>
+    <t>Fri Jan 08 00:46:08 +0000 2021</t>
+  </si>
+  <si>
+    <t>Ensiklopedia Anak Muslim 5 : Iman - Diskon 20% menjadi Rp.88000
+Gratis ongkos kirim hingga 40rb keseluruh Indonesia.
+#mainanbukuanak #promo #dirumahaja #belajardirumah #buku #membaca #booklover #bookstorm  
+SINOPSIS:
+PENULIS:Tartila Tartusi https://t.co/gAj3QabMiN</t>
+  </si>
+  <si>
+    <t>Thu Jan 07 22:13:36 +0000 2021</t>
+  </si>
+  <si>
+    <t>Cerita Si Kelinci (2011) - Diskon 20% menjadi Rp.20000
+Gratis ongkos kirim hingga 40rb keseluruh Indonesia.
+#mainanbukuanak #promo #dirumahaja #belajardirumah #buku #membaca #booklover #bookstorm  
+SINOPSIS:Aku hewan mamalia kecil yang berbulu halus dan cantik telingaku https://t.co/2lg6PiVCPh</t>
+  </si>
+  <si>
+    <t>Thu Jan 07 19:42:53 +0000 2021</t>
+  </si>
+  <si>
+    <t>Cerita Si Domba - Diskon 20% menjadi Rp.20000
+Gratis ongkos kirim hingga 40rb keseluruh Indonesia.
+#mainanbukuanak #promo #dirumahaja #belajardirumah #buku #membaca #booklover #bookstorm  
+SINOPSIS:Assalamualaikum…….Mbeeee…mbe…….Kenalkan namaku qibas si domba. https://t.co/XzXn2srmyQ</t>
+  </si>
+  <si>
+    <t>Thu Jan 07 17:12:29 +0000 2021</t>
+  </si>
+  <si>
+    <t>Cerita Si Kuda - Diskon 20% menjadi Rp.20000
+Gratis ongkos kirim hingga 40rb keseluruh Indonesia.
+#mainanbukuanak #promo #dirumahaja #belajardirumah #buku #membaca #booklover #bookstorm  
+SINOPSIS:Assalamualaikum Teman-Teman ….Apakah kalian tahu siapa aku? Ya! Aku https://t.co/kpTfVyNiEQ</t>
+  </si>
+  <si>
+    <t>Thu Jan 07 14:42:39 +0000 2021</t>
+  </si>
+  <si>
+    <t>Cika Si Kucing Kecil - Diskon 20% menjadi Rp.20000
+Gratis ongkos kirim hingga 40rb keseluruh Indonesia.
+#mainanbukuanak #promo #dirumahaja #belajardirumah #buku #membaca #booklover #bookstorm  
+SINOPSIS:
+PENULIS:Ninik Handrini https://t.co/Y7Iv5W9esV</t>
+  </si>
+  <si>
+    <t>Thu Jan 07 12:12:16 +0000 2021</t>
+  </si>
+  <si>
+    <t>Yuk, main tebak-tebakan! Siapa yang bisa jawab semuanya?! 😁
+#tekateki #bermainsambilbelajar #belajardirumah #pjj #kelaspintarindonesia https://t.co/CroIoyNDuL</t>
+  </si>
+  <si>
+    <t>Thu Jan 07 12:01:38 +0000 2021</t>
+  </si>
+  <si>
+    <t>UPDATE COVID19 HARI INI, PASIEN SEMBUH 17, 7 KASUS BARU DAN 2 MENINGGAL
+INFORMASI LENGKAPNYA BACA DI 👉 https://t.co/iJRaS3MECy
+#ayolawancorona #belajardirumah #bermaindirumah #dirumahsaja #jagakebersihan #jagakesehatan #jagajarak #pakemasker #tetapwaspada #coronabisasembuh https://t.co/pYkMIaksRo</t>
+  </si>
+  <si>
+    <t>Thu Jan 07 11:26:44 +0000 2021</t>
+  </si>
+  <si>
+    <t>Update Perkembangan Covid-19 di Kabupaten Luwu Timur per 7 Januari 2021.
+17 sembuh, 7 kasus baru dan 2 meninggal.
+Perbaharui terus informasi anda di https://t.co/D4pL3qgDlY
+#ayolawancorona #belajardirumah #bermaindirumah #dirumahsaja #jagakebersihan #jagakesehatan #jagajarak https://t.co/8SuzVsH3y2</t>
+  </si>
+  <si>
+    <t>Thu Jan 07 11:26:22 +0000 2021</t>
+  </si>
+  <si>
+    <t>Sahabat Sejati - Diskon 20% menjadi Rp.16000
+Gratis ongkos kirim hingga 40rb keseluruh Indonesia.
+#mainanbukuanak #promo #dirumahaja #belajardirumah #buku #membaca #booklover #bookstorm  
+SINOPSIS:
+PENULIS:Jumhan Azis Y. https://t.co/Y4kLkK6rnZ</t>
+  </si>
+  <si>
+    <t>Thu Jan 07 09:42:44 +0000 2021</t>
+  </si>
+  <si>
+    <t>ANTISIPASI PELAKSANAAN VAKSIN, WABUP IRWAN MINTA DINAS KESEHATAN BENTUK TIM TEKNIS
+BACA INFORMASI LENGKAPNYA DI 👉 https://t.co/1YvAkLKUfG
+#ayolawancorona #belajardirumah #dirumahsaja #jagakebersihan #jagakesehatan #jagajarak #pakemasker #tetapwaspada #coronabisasembuh https://t.co/xZ9yGz0c5k</t>
+  </si>
+  <si>
+    <t>Thu Jan 07 09:32:55 +0000 2021</t>
+  </si>
+  <si>
+    <t>RAPAT EVALUASI COVID-19, WABUP IRWAN MINTA CAMAT SIDAK MASKER SECARA BERKALA
+INFORMASI LENGKAPNYA DI 👉 https://t.co/hGCFFP48nA
+#ayolawancorona #belajardirumah #bermaindirumah #dirumahsaja #jagakebersihan #jagakesehatan #jagajarak #pakemasker #tetapwaspada #coronabisasembuh https://t.co/BjnTJ5iDaN</t>
+  </si>
+  <si>
+    <t>Thu Jan 07 09:06:12 +0000 2021</t>
+  </si>
+  <si>
+    <t>Allah Maha Kuasa - Diskon 20% menjadi Rp.20000
+Gratis ongkos kirim hingga 40rb keseluruh Indonesia.
+#mainanbukuanak #promo #dirumahaja #belajardirumah #buku #membaca #booklover #bookstorm  
+SINOPSIS:Teman-teman bersama empat sahabat akan diajak memahami arti kekuasaaan https://t.co/QTrNytbX0n</t>
+  </si>
+  <si>
+    <t>Thu Jan 07 07:12:09 +0000 2021</t>
+  </si>
+  <si>
+    <t>Simpan rumus induksi magnetik ini ya! Jadi, kalau sewaktu-waktu kamu butuh, bisa kamu pakai!
+#infosma #belajardirumah #pjj #pjjonline #kelaspintarindonesia https://t.co/dGWxbatg3L</t>
+  </si>
+  <si>
+    <t>Thu Jan 07 07:01:22 +0000 2021</t>
+  </si>
+  <si>
+    <t>I Love My Momy - Diskon 20% menjadi Rp.20000
+Gratis ongkos kirim hingga 40rb keseluruh Indonesia.
+#mainanbukuanak #promo #dirumahaja #belajardirumah #buku #membaca #booklover #bookstorm  
+SINOPSIS:
+PENULIS:Meidya Derni https://t.co/rPK5B08xNY</t>
+  </si>
+  <si>
+    <t>Thu Jan 07 04:42:30 +0000 2021</t>
+  </si>
+  <si>
+    <t>Cita-Cita Dobi - Diskon 20% menjadi Rp.20000
+Gratis ongkos kirim hingga 40rb keseluruh Indonesia.
+#mainanbukuanak #promo #dirumahaja #belajardirumah #buku #membaca #booklover #bookstorm  
+SINOPSIS:
+PENULIS:Erna M.S. https://t.co/vYDvMgkhNS</t>
+  </si>
+  <si>
+    <t>Thu Jan 07 02:12:39 +0000 2021</t>
+  </si>
+  <si>
+    <t>Ensiklopedia Anak Muslim 7 : Tumbuhan - Diskon 20% menjadi Rp.88000
+Gratis ongkos kirim hingga 40rb keseluruh Indonesia.
+#mainanbukuanak #promo #dirumahaja #belajardirumah #buku #membaca #booklover #bookstorm  
+SINOPSIS:Anakku apakah kamu sering membantu ibu menyiram https://t.co/KMejcsU1P8</t>
+  </si>
+  <si>
+    <t>Wed Jan 06 23:42:58 +0000 2021</t>
+  </si>
+  <si>
+    <t>Ensiklopedia Anak Muslim 6 : Hewan - Diskon 20% menjadi Rp.88000
+Gratis ongkos kirim hingga 40rb keseluruh Indonesia.
+#mainanbukuanak #promo #dirumahaja #belajardirumah #buku #membaca #booklover #bookstorm  
+SINOPSIS:
+PENULIS:Mantox Studio https://t.co/uo81amT3Jl</t>
+  </si>
+  <si>
+    <t>Wed Jan 06 21:19:40 +0000 2021</t>
+  </si>
+  <si>
+    <t>Cerita Si Unta - Diskon 20% menjadi Rp.20000
+Gratis ongkos kirim hingga 40rb keseluruh Indonesia.
+#mainanbukuanak #promo #dirumahaja #belajardirumah #buku #membaca #booklover #bookstorm  
+SINOPSIS:Assalamualaikum Kawan! Namaku Unta. Aku adalah hewan berpunuk. Aku dapat https://t.co/UsdfNXPwmi</t>
+  </si>
+  <si>
+    <t>Wed Jan 06 18:42:16 +0000 2021</t>
+  </si>
+  <si>
+    <t>Cerita Si Laba-Laba - Diskon 20% menjadi Rp.20000
+Gratis ongkos kirim hingga 40rb keseluruh Indonesia.
+#mainanbukuanak #promo #dirumahaja #belajardirumah #buku #membaca #booklover #bookstorm  
+SINOPSIS:Assalamualaikum Kawan! Namaku Laba-laba. Aku adalah hewan pembuat https://t.co/PZocXTRWWL</t>
+  </si>
+  <si>
+    <t>Wed Jan 06 16:20:00 +0000 2021</t>
+  </si>
+  <si>
+    <t>Guys kode diskon khusus dari aku.🤤🤤 Free konsul guys jgn takut, so kalo mau nanya info lebih lanjut langsung chat disini ya ⬇️
+https://t.co/L90ZstgjO5
+#sekolah #pendidikan #sma #dirumahaja #belajar #sekolahislam #pelajar  #belajardirumah #stayathome #newnormal #bimbel #sbmptn https://t.co/TOPzuKXyDe</t>
+  </si>
+  <si>
+    <t>Wed Jan 06 15:27:29 +0000 2021</t>
+  </si>
+  <si>
+    <t>Halo guys, aku mau kenalin ke kalian nih, solusi belajar lengkap yg gak bikin kantong bolong,dan pastinya kamu tetep dirumah aja 😉. Check this video 
+Cp : https://t.co/jbFatD3Wox
+#sekolah #pendidikan #dirumahaja #belajar #belajardirumah #stayathome #newnormal #bimbel #sbmptn https://t.co/gJV2ACC0Cj</t>
+  </si>
+  <si>
+    <t>Wed Jan 06 15:05:19 +0000 2021</t>
+  </si>
+  <si>
+    <t>Ensiklopedia Anak Muslim 9 : Transportasi dan Teknologi - Diskon 20% menjadi Rp.88000
+Gratis ongkos kirim hingga 40rb keseluruh Indonesia.
+#mainanbukuanak #promo #dirumahaja #belajardirumah #buku #membaca #booklover #bookstorm  
+SINOPSIS:
+PENULIS:Tim  GIP https://t.co/tyr7zyaowx</t>
+  </si>
+  <si>
+    <t>Wed Jan 06 13:43:42 +0000 2021</t>
+  </si>
+  <si>
+    <t>Ensiklopedia Anak Muslim 8 : Tubuhku, Anugerah Ciptaan Allah - Diskon 20% menjadi Rp.88000
+Gratis ongkos kirim hingga 40rb keseluruh Indonesia.
+#mainanbukuanak #promo #dirumahaja #belajardirumah #buku #membaca #booklover #bookstorm  
+SINOPSIS:Tahukah kamu bahwa setiap https://t.co/tEv752pMhf</t>
+  </si>
+  <si>
+    <t>Wed Jan 06 11:12:40 +0000 2021</t>
+  </si>
+  <si>
+    <t>TOTAL PASIEN SEMBUH MENCAPAI 2.028, KASUS BARU 2 DAN 1 PASIEN COVID19 MENINGGAL
+INFORMASI LENGKAPNYA DI 👉 https://t.co/WcyaLmASGM
+#ayolawancorona #belajardirumah #bermaindirumah #dirumahsaja #jagakebersihan #jagakesehatan #jagajarak #pakemasker #tetapwaspada #coronabisasembuh https://t.co/YpdkYEaQTc</t>
+  </si>
+  <si>
+    <t>Wed Jan 06 10:36:38 +0000 2021</t>
+  </si>
+  <si>
+    <t>Update Perkembangan Covid-19 di Kabupaten Luwu Timur per 6 Januari 2021.
+4 sembuh, 2 kasus baru dan 1 meninggal.
+Perbaharui terus informasi anda di https://t.co/D4pL3qgDlY
+#ayolawancorona #belajardirumah #bermaindirumah #dirumahsaja #jagakebersihan #jagakesehatan #jagajarak https://t.co/QIEoayeXgq</t>
+  </si>
+  <si>
+    <t>Wed Jan 06 10:36:11 +0000 2021</t>
+  </si>
+  <si>
+    <t>Buku Harian Geng Happy Girls - Diskon 20% menjadi Rp.19200
+Gratis ongkos kirim hingga 40rb keseluruh Indonesia.
+#mainanbukuanak #promo #dirumahaja #belajardirumah #buku #membaca #booklover #bookstorm  
+SINOPSIS:
+PENULIS:Qurratu Aini, dkk https://t.co/S3suwI69eg</t>
+  </si>
+  <si>
+    <t>Wed Jan 06 08:42:11 +0000 2021</t>
+  </si>
+  <si>
+    <t>Sering belajar kelompok? Simak tips ini yuk!
+#tipsbelajar #belajardirumah #pjjonline #pjj #kelaspintarindonesia https://t.co/SozqYLuCPT</t>
+  </si>
+  <si>
+    <t>Wed Jan 06 07:01:37 +0000 2021</t>
+  </si>
+  <si>
+    <t>Butir #Kebijakan Kuno bg Manusia Modern 
+nilai #karakter dlm ungkapan #jawa #bukuAnandKrishna 
+#pendidikan
+#budipekerti 
+#parenting
+#belajardirumah
+#pitutur
+#javanesewisdom
+#kemanusiaan
+#peribahasajawa
+#RameDiTwitter
+Info +62 852 9237 9943
+https://t.co/KUQA3DvETZ https://t.co/OEAGAZHvnm</t>
+  </si>
+  <si>
+    <t>Wed Jan 06 06:32:05 +0000 2021</t>
+  </si>
+  <si>
+    <t>Geng Blue : Kado Misterius - Diskon 20% menjadi Rp.36800
+Gratis ongkos kirim hingga 40rb keseluruh Indonesia.
+#mainanbukuanak #promo #dirumahaja #belajardirumah #buku #membaca #booklover #bookstorm  
+SINOPSIS:BLUE adalah empat anak ganteng kelas 6 sd satria nusantara https://t.co/KfHtjcSkwz</t>
+  </si>
+  <si>
+    <t>Wed Jan 06 06:15:59 +0000 2021</t>
+  </si>
+  <si>
+    <t>PARIPURNA DPRD USULKAN PENGANGKATAN IRWAN BACHRI SYAM SEBAGAI BUPATI LUWU TIMUR
+INFORMASI LENGKAPNYA DI 👉 https://t.co/Fm3S34ef90
+#ayolawancorona #belajardirumah #bermaindirumah #dirumahsaja #jagakebersihan #jagakesehatan #jagajarak #pakemasker #tetapwaspada #coronabisasembuh https://t.co/eQEGaZtV9K</t>
+  </si>
+  <si>
+    <t>Wed Jan 06 05:42:43 +0000 2021</t>
+  </si>
+  <si>
+    <t>Welcome Marshall Pandhiatama as Creative Director at @kelaskitadotcom
+Siap-siap, ya karena bakal ada sesuatu yang baru dan keren di @kelaskitadotcom.
+Stay tune!
+#kelaskita #carabarubelajarseru #belajardirumah #elearning #belajaronline #dirumahaja https://t.co/BmMJ6g8fzc</t>
+  </si>
+  <si>
+    <t>Wed Jan 06 05:13:58 +0000 2021</t>
+  </si>
+  <si>
+    <t>Pandemi masih berlanjut, dan belajar di rumah masih di lakukan. Cara apa yang Sahabat 'Aisyiyah lakukan dalam mendampingi si kecil #belajardirumah ? Metode M-I-K-I-R ini mungkin dapat dicoba.
+#BersatuPerangiCovid19 #Aisyiyah #Muhammadiyah #IslamBerkemajuan https://t.co/gzHMMoLyFV</t>
+  </si>
+  <si>
+    <t>PPAisyiyah</t>
+  </si>
+  <si>
+    <t>Wed Jan 06 05:00:18 +0000 2021</t>
+  </si>
+  <si>
+    <t>Menepati Janji - Diskon 20% menjadi Rp.20000
+Gratis ongkos kirim hingga 40rb keseluruh Indonesia.
+#mainanbukuanak #promo #dirumahaja #belajardirumah #buku #membaca #booklover #bookstorm  
+SINOPSIS:
+PENULIS:Ninik Handrini https://t.co/JRGg4o5Qee</t>
+  </si>
+  <si>
+    <t>Wed Jan 06 03:42:15 +0000 2021</t>
+  </si>
+  <si>
+    <t>Cerita Si Penyu - Diskon 20% menjadi Rp.20000
+Gratis ongkos kirim hingga 40rb keseluruh Indonesia.
+#mainanbukuanak #promo #dirumahaja #belajardirumah #buku #membaca #booklover #bookstorm  
+SINOPSIS:Assalamualaikum Teman-Teman. Seri Mengenal Hewan. Aku Penyu. Aku adalah https://t.co/O4IgnyVabV</t>
+  </si>
+  <si>
+    <t>Wed Jan 06 01:14:01 +0000 2021</t>
+  </si>
+  <si>
+    <t>WABUP IRWAN PIMPIN RAPAT EVALUASI PROGRAM PKPM
+BACA INFORMASI LENGKAPNYA DI 👉 https://t.co/g4uUer9Ou0
+#ayolawancorona #belajardirumah #beribadahdirumah #bermaindirumah #dirumahsaja #jagakebersihan #jagakesehatan #jagajarak #pakemasker #tetapwaspada #coronabisasembuh https://t.co/4viKB0rh92</t>
+  </si>
+  <si>
+    <t>Wed Jan 06 00:49:18 +0000 2021</t>
+  </si>
+  <si>
+    <t>Al Quran Braille Untuk Nadia - Diskon 20% menjadi Rp.32800
+Gratis ongkos kirim hingga 40rb keseluruh Indonesia.
+#mainanbukuanak #promo #dirumahaja #belajardirumah #buku #membaca #booklover #bookstorm  
+SINOPSIS:
+PENULIS:Joko Suliyono https://t.co/94lDyFzVCx</t>
+  </si>
+  <si>
+    <t>Tue Jan 05 22:42:15 +0000 2021</t>
+  </si>
+  <si>
+    <t>Seri Fabel Anak Muslim : Petualangan Muto - Diskon 20% menjadi Rp.20000
+Gratis ongkos kirim hingga 40rb keseluruh Indonesia.
+#mainanbukuanak #promo #dirumahaja #belajardirumah #buku #membaca #booklover #bookstorm  
+SINOPSIS:Ibunya Muto sakit ! Tabib menyuruh Muto. Untuk https://t.co/CglqK3hPmJ</t>
+  </si>
+  <si>
+    <t>Tue Jan 05 20:22:06 +0000 2021</t>
+  </si>
+  <si>
+    <t>Misteri Harta Karun di Pulau Hijau - Diskon 20% menjadi Rp.18400
+Gratis ongkos kirim hingga 40rb keseluruh Indonesia.
+#mainanbukuanak #promo #dirumahaja #belajardirumah #buku #membaca #booklover #bookstorm  
+SINOPSIS:
+PENULIS:Liswidyawati Rahayu, https://t.co/x074kJdObb https://t.co/wPiqMR6WLn</t>
+  </si>
+  <si>
+    <t>Tue Jan 05 17:43:40 +0000 2021</t>
+  </si>
+  <si>
+    <t>Follow Ig : zhangnenun #belajardirumah #ArtistOfIndonesia #CewekSMA #characterart #drawing #painting https://t.co/SsxjjB3zix</t>
+  </si>
+  <si>
+    <t>zhangneun</t>
+  </si>
+  <si>
+    <t>Tue Jan 05 15:21:43 +0000 2021</t>
   </si>
 </sst>
 </file>
@@ -8027,10 +8555,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D994"/>
+  <dimension ref="A1:D1072"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A967" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="J987" sqref="J987"/>
+    <sheetView tabSelected="1" topLeftCell="A1054" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="I1072" sqref="I1072"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -21951,6 +22479,1098 @@
         <v>1659</v>
       </c>
     </row>
+    <row r="995" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A995">
+        <v>1.3475317635228019E+18</v>
+      </c>
+      <c r="B995" t="s">
+        <v>1847</v>
+      </c>
+      <c r="C995" t="s">
+        <v>625</v>
+      </c>
+      <c r="D995" t="s">
+        <v>1848</v>
+      </c>
+    </row>
+    <row r="996" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A996">
+        <v>1.3475080372175181E+18</v>
+      </c>
+      <c r="B996" t="s">
+        <v>1849</v>
+      </c>
+      <c r="C996" t="s">
+        <v>21</v>
+      </c>
+      <c r="D996" t="s">
+        <v>1850</v>
+      </c>
+    </row>
+    <row r="997" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A997">
+        <v>1.3475078969390039E+18</v>
+      </c>
+      <c r="B997" t="s">
+        <v>1851</v>
+      </c>
+      <c r="C997" t="s">
+        <v>21</v>
+      </c>
+      <c r="D997" t="s">
+        <v>1852</v>
+      </c>
+    </row>
+    <row r="998" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A998">
+        <v>1.3474938032721961E+18</v>
+      </c>
+      <c r="B998" t="s">
+        <v>1853</v>
+      </c>
+      <c r="C998" t="s">
+        <v>625</v>
+      </c>
+      <c r="D998" t="s">
+        <v>1854</v>
+      </c>
+    </row>
+    <row r="999" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A999">
+        <v>1.347482458879627E+18</v>
+      </c>
+      <c r="B999" t="s">
+        <v>1855</v>
+      </c>
+      <c r="C999" t="s">
+        <v>1856</v>
+      </c>
+      <c r="D999" t="s">
+        <v>1857</v>
+      </c>
+    </row>
+    <row r="1000" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1000">
+        <v>1.347456176028479E+18</v>
+      </c>
+      <c r="B1000" t="s">
+        <v>1858</v>
+      </c>
+      <c r="C1000" t="s">
+        <v>625</v>
+      </c>
+      <c r="D1000" t="s">
+        <v>1859</v>
+      </c>
+    </row>
+    <row r="1001" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1001">
+        <v>1.3474413390261819E+18</v>
+      </c>
+      <c r="B1001" t="s">
+        <v>1860</v>
+      </c>
+      <c r="C1001" t="s">
+        <v>45</v>
+      </c>
+      <c r="D1001" t="s">
+        <v>1861</v>
+      </c>
+    </row>
+    <row r="1002" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1002">
+        <v>1.3474406306333609E+18</v>
+      </c>
+      <c r="B1002" t="s">
+        <v>1862</v>
+      </c>
+      <c r="C1002" t="s">
+        <v>45</v>
+      </c>
+      <c r="D1002" t="s">
+        <v>1863</v>
+      </c>
+    </row>
+    <row r="1003" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1003">
+        <v>1.347440433534624E+18</v>
+      </c>
+      <c r="B1003" t="s">
+        <v>1864</v>
+      </c>
+      <c r="C1003" t="s">
+        <v>45</v>
+      </c>
+      <c r="D1003" t="s">
+        <v>1865</v>
+      </c>
+    </row>
+    <row r="1004" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1004">
+        <v>1.347439878250762E+18</v>
+      </c>
+      <c r="B1004" t="s">
+        <v>1866</v>
+      </c>
+      <c r="C1004" t="s">
+        <v>45</v>
+      </c>
+      <c r="D1004" t="s">
+        <v>1867</v>
+      </c>
+    </row>
+    <row r="1005" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1005">
+        <v>1.3474390984164019E+18</v>
+      </c>
+      <c r="B1005" t="s">
+        <v>1868</v>
+      </c>
+      <c r="C1005" t="s">
+        <v>45</v>
+      </c>
+      <c r="D1005" t="s">
+        <v>1869</v>
+      </c>
+    </row>
+    <row r="1006" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1006">
+        <v>1.3474383200334111E+18</v>
+      </c>
+      <c r="B1006" t="s">
+        <v>1870</v>
+      </c>
+      <c r="C1006" t="s">
+        <v>72</v>
+      </c>
+      <c r="D1006" t="s">
+        <v>1871</v>
+      </c>
+    </row>
+    <row r="1007" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1007">
+        <v>1.3474196242881249E+18</v>
+      </c>
+      <c r="B1007" t="s">
+        <v>1872</v>
+      </c>
+      <c r="C1007" t="s">
+        <v>625</v>
+      </c>
+      <c r="D1007" t="s">
+        <v>1873</v>
+      </c>
+    </row>
+    <row r="1008" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1008">
+        <v>1.3474069363464891E+18</v>
+      </c>
+      <c r="B1008" t="s">
+        <v>1874</v>
+      </c>
+      <c r="C1008" t="s">
+        <v>1875</v>
+      </c>
+      <c r="D1008" t="s">
+        <v>1876</v>
+      </c>
+    </row>
+    <row r="1009" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1009">
+        <v>1.347405135115284E+18</v>
+      </c>
+      <c r="B1009" t="s">
+        <v>1877</v>
+      </c>
+      <c r="C1009" t="s">
+        <v>1875</v>
+      </c>
+      <c r="D1009" t="s">
+        <v>1878</v>
+      </c>
+    </row>
+    <row r="1010" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1010">
+        <v>1.3474022173141571E+18</v>
+      </c>
+      <c r="B1010" t="s">
+        <v>1879</v>
+      </c>
+      <c r="C1010" t="s">
+        <v>1875</v>
+      </c>
+      <c r="D1010" t="s">
+        <v>1880</v>
+      </c>
+    </row>
+    <row r="1011" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1011">
+        <v>1.347381890651542E+18</v>
+      </c>
+      <c r="B1011" t="s">
+        <v>1881</v>
+      </c>
+      <c r="C1011" t="s">
+        <v>1780</v>
+      </c>
+      <c r="D1011" t="s">
+        <v>1882</v>
+      </c>
+    </row>
+    <row r="1012" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1012">
+        <v>1.3473816296358579E+18</v>
+      </c>
+      <c r="B1012" t="s">
+        <v>1883</v>
+      </c>
+      <c r="C1012" t="s">
+        <v>625</v>
+      </c>
+      <c r="D1012" t="s">
+        <v>1884</v>
+      </c>
+    </row>
+    <row r="1013" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1013">
+        <v>1.3473801576490931E+18</v>
+      </c>
+      <c r="B1013" t="s">
+        <v>1885</v>
+      </c>
+      <c r="C1013" t="s">
+        <v>1780</v>
+      </c>
+      <c r="D1013" t="s">
+        <v>1886</v>
+      </c>
+    </row>
+    <row r="1014" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1014">
+        <v>1.347343797823263E+18</v>
+      </c>
+      <c r="B1014" t="s">
+        <v>1887</v>
+      </c>
+      <c r="C1014" t="s">
+        <v>625</v>
+      </c>
+      <c r="D1014" t="s">
+        <v>1888</v>
+      </c>
+    </row>
+    <row r="1015" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1015">
+        <v>1.3473054120522061E+18</v>
+      </c>
+      <c r="B1015" t="s">
+        <v>1889</v>
+      </c>
+      <c r="C1015" t="s">
+        <v>625</v>
+      </c>
+      <c r="D1015" t="s">
+        <v>1890</v>
+      </c>
+    </row>
+    <row r="1016" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1016">
+        <v>1.3472674820383869E+18</v>
+      </c>
+      <c r="B1016" t="s">
+        <v>1891</v>
+      </c>
+      <c r="C1016" t="s">
+        <v>625</v>
+      </c>
+      <c r="D1016" t="s">
+        <v>1892</v>
+      </c>
+    </row>
+    <row r="1017" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1017">
+        <v>1.347229631418561E+18</v>
+      </c>
+      <c r="B1017" t="s">
+        <v>1893</v>
+      </c>
+      <c r="C1017" t="s">
+        <v>625</v>
+      </c>
+      <c r="D1017" t="s">
+        <v>1894</v>
+      </c>
+    </row>
+    <row r="1018" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1018">
+        <v>1.3471919254476429E+18</v>
+      </c>
+      <c r="B1018" t="s">
+        <v>1895</v>
+      </c>
+      <c r="C1018" t="s">
+        <v>625</v>
+      </c>
+      <c r="D1018" t="s">
+        <v>1896</v>
+      </c>
+    </row>
+    <row r="1019" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1019">
+        <v>1.347154080683028E+18</v>
+      </c>
+      <c r="B1019" t="s">
+        <v>1897</v>
+      </c>
+      <c r="C1019" t="s">
+        <v>625</v>
+      </c>
+      <c r="D1019" t="s">
+        <v>1898</v>
+      </c>
+    </row>
+    <row r="1020" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1020">
+        <v>1.3471514061139389E+18</v>
+      </c>
+      <c r="B1020" t="s">
+        <v>1899</v>
+      </c>
+      <c r="C1020" t="s">
+        <v>72</v>
+      </c>
+      <c r="D1020" t="s">
+        <v>1900</v>
+      </c>
+    </row>
+    <row r="1021" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1021">
+        <v>1.3471426208756081E+18</v>
+      </c>
+      <c r="B1021" t="s">
+        <v>1901</v>
+      </c>
+      <c r="C1021" t="s">
+        <v>21</v>
+      </c>
+      <c r="D1021" t="s">
+        <v>1902</v>
+      </c>
+    </row>
+    <row r="1022" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1022">
+        <v>1.3471425280054029E+18</v>
+      </c>
+      <c r="B1022" t="s">
+        <v>1903</v>
+      </c>
+      <c r="C1022" t="s">
+        <v>21</v>
+      </c>
+      <c r="D1022" t="s">
+        <v>1904</v>
+      </c>
+    </row>
+    <row r="1023" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1023">
+        <v>1.3471164502642281E+18</v>
+      </c>
+      <c r="B1023" t="s">
+        <v>1905</v>
+      </c>
+      <c r="C1023" t="s">
+        <v>625</v>
+      </c>
+      <c r="D1023" t="s">
+        <v>1906</v>
+      </c>
+    </row>
+    <row r="1024" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1024">
+        <v>1.3471139785901591E+18</v>
+      </c>
+      <c r="B1024" t="s">
+        <v>1907</v>
+      </c>
+      <c r="C1024" t="s">
+        <v>21</v>
+      </c>
+      <c r="D1024" t="s">
+        <v>1908</v>
+      </c>
+    </row>
+    <row r="1025" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1025">
+        <v>1.3471072541772019E+18</v>
+      </c>
+      <c r="B1025" t="s">
+        <v>1909</v>
+      </c>
+      <c r="C1025" t="s">
+        <v>21</v>
+      </c>
+      <c r="D1025" t="s">
+        <v>1910</v>
+      </c>
+    </row>
+    <row r="1026" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1026">
+        <v>1.347078555583222E+18</v>
+      </c>
+      <c r="B1026" t="s">
+        <v>1911</v>
+      </c>
+      <c r="C1026" t="s">
+        <v>625</v>
+      </c>
+      <c r="D1026" t="s">
+        <v>1912</v>
+      </c>
+    </row>
+    <row r="1027" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1027">
+        <v>1.347075840241238E+18</v>
+      </c>
+      <c r="B1027" t="s">
+        <v>1913</v>
+      </c>
+      <c r="C1027" t="s">
+        <v>72</v>
+      </c>
+      <c r="D1027" t="s">
+        <v>1914</v>
+      </c>
+    </row>
+    <row r="1028" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1028">
+        <v>1.3470408953176561E+18</v>
+      </c>
+      <c r="B1028" t="s">
+        <v>1915</v>
+      </c>
+      <c r="C1028" t="s">
+        <v>625</v>
+      </c>
+      <c r="D1028" t="s">
+        <v>1916</v>
+      </c>
+    </row>
+    <row r="1029" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1029">
+        <v>1.3470031831475451E+18</v>
+      </c>
+      <c r="B1029" t="s">
+        <v>1917</v>
+      </c>
+      <c r="C1029" t="s">
+        <v>625</v>
+      </c>
+      <c r="D1029" t="s">
+        <v>1918</v>
+      </c>
+    </row>
+    <row r="1030" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1030">
+        <v>1.3469655118426319E+18</v>
+      </c>
+      <c r="B1030" t="s">
+        <v>1919</v>
+      </c>
+      <c r="C1030" t="s">
+        <v>625</v>
+      </c>
+      <c r="D1030" t="s">
+        <v>1920</v>
+      </c>
+    </row>
+    <row r="1031" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1031">
+        <v>1.346929450051531E+18</v>
+      </c>
+      <c r="B1031" t="s">
+        <v>1921</v>
+      </c>
+      <c r="C1031" t="s">
+        <v>625</v>
+      </c>
+      <c r="D1031" t="s">
+        <v>1922</v>
+      </c>
+    </row>
+    <row r="1032" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1032">
+        <v>1.346889841598816E+18</v>
+      </c>
+      <c r="B1032" t="s">
+        <v>1923</v>
+      </c>
+      <c r="C1032" t="s">
+        <v>625</v>
+      </c>
+      <c r="D1032" t="s">
+        <v>1924</v>
+      </c>
+    </row>
+    <row r="1033" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1033">
+        <v>1.3468540392211991E+18</v>
+      </c>
+      <c r="B1033" t="s">
+        <v>1925</v>
+      </c>
+      <c r="C1033" t="s">
+        <v>625</v>
+      </c>
+      <c r="D1033" t="s">
+        <v>1926</v>
+      </c>
+    </row>
+    <row r="1034" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1034">
+        <v>1.3468408229987121E+18</v>
+      </c>
+      <c r="B1034" t="s">
+        <v>1927</v>
+      </c>
+      <c r="C1034" t="s">
+        <v>1875</v>
+      </c>
+      <c r="D1034" t="s">
+        <v>1928</v>
+      </c>
+    </row>
+    <row r="1035" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1035">
+        <v>1.3468352411895319E+18</v>
+      </c>
+      <c r="B1035" t="s">
+        <v>1929</v>
+      </c>
+      <c r="C1035" t="s">
+        <v>1875</v>
+      </c>
+      <c r="D1035" t="s">
+        <v>1930</v>
+      </c>
+    </row>
+    <row r="1036" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1036">
+        <v>1.3468147012885791E+18</v>
+      </c>
+      <c r="B1036" t="s">
+        <v>1931</v>
+      </c>
+      <c r="C1036" t="s">
+        <v>625</v>
+      </c>
+      <c r="D1036" t="s">
+        <v>1932</v>
+      </c>
+    </row>
+    <row r="1037" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1037">
+        <v>1.346776694045118E+18</v>
+      </c>
+      <c r="B1037" t="s">
+        <v>1933</v>
+      </c>
+      <c r="C1037" t="s">
+        <v>625</v>
+      </c>
+      <c r="D1037" t="s">
+        <v>1934</v>
+      </c>
+    </row>
+    <row r="1038" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1038">
+        <v>1.3467676263750531E+18</v>
+      </c>
+      <c r="B1038" t="s">
+        <v>1935</v>
+      </c>
+      <c r="C1038" t="s">
+        <v>21</v>
+      </c>
+      <c r="D1038" t="s">
+        <v>1936</v>
+      </c>
+    </row>
+    <row r="1039" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1039">
+        <v>1.3467675148233439E+18</v>
+      </c>
+      <c r="B1039" t="s">
+        <v>1937</v>
+      </c>
+      <c r="C1039" t="s">
+        <v>21</v>
+      </c>
+      <c r="D1039" t="s">
+        <v>1938</v>
+      </c>
+    </row>
+    <row r="1040" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1040">
+        <v>1.3467388248612411E+18</v>
+      </c>
+      <c r="B1040" t="s">
+        <v>1939</v>
+      </c>
+      <c r="C1040" t="s">
+        <v>625</v>
+      </c>
+      <c r="D1040" t="s">
+        <v>1940</v>
+      </c>
+    </row>
+    <row r="1041" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1041">
+        <v>1.346713516397515E+18</v>
+      </c>
+      <c r="B1041" t="s">
+        <v>1941</v>
+      </c>
+      <c r="C1041" t="s">
+        <v>72</v>
+      </c>
+      <c r="D1041" t="s">
+        <v>1942</v>
+      </c>
+    </row>
+    <row r="1042" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1042">
+        <v>1.3467060827526961E+18</v>
+      </c>
+      <c r="B1042" t="s">
+        <v>1943</v>
+      </c>
+      <c r="C1042" t="s">
+        <v>1047</v>
+      </c>
+      <c r="D1042" t="s">
+        <v>1944</v>
+      </c>
+    </row>
+    <row r="1043" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1043">
+        <v>1.3467020307698319E+18</v>
+      </c>
+      <c r="B1043" t="s">
+        <v>1945</v>
+      </c>
+      <c r="C1043" t="s">
+        <v>625</v>
+      </c>
+      <c r="D1043" t="s">
+        <v>1946</v>
+      </c>
+    </row>
+    <row r="1044" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1044">
+        <v>1.346693660042121E+18</v>
+      </c>
+      <c r="B1044" t="s">
+        <v>1947</v>
+      </c>
+      <c r="C1044" t="s">
+        <v>21</v>
+      </c>
+      <c r="D1044" t="s">
+        <v>1948</v>
+      </c>
+    </row>
+    <row r="1045" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1045">
+        <v>1.3466864253123131E+18</v>
+      </c>
+      <c r="B1045" t="s">
+        <v>1949</v>
+      </c>
+      <c r="C1045" t="s">
+        <v>45</v>
+      </c>
+      <c r="D1045" t="s">
+        <v>1950</v>
+      </c>
+    </row>
+    <row r="1046" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1046">
+        <v>1.3466829841333251E+18</v>
+      </c>
+      <c r="B1046" t="s">
+        <v>1951</v>
+      </c>
+      <c r="C1046" t="s">
+        <v>1952</v>
+      </c>
+      <c r="D1046" t="s">
+        <v>1953</v>
+      </c>
+    </row>
+    <row r="1047" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1047">
+        <v>1.346663345001153E+18</v>
+      </c>
+      <c r="B1047" t="s">
+        <v>1954</v>
+      </c>
+      <c r="C1047" t="s">
+        <v>625</v>
+      </c>
+      <c r="D1047" t="s">
+        <v>1955</v>
+      </c>
+    </row>
+    <row r="1048" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1048">
+        <v>1.3466260375227351E+18</v>
+      </c>
+      <c r="B1048" t="s">
+        <v>1956</v>
+      </c>
+      <c r="C1048" t="s">
+        <v>625</v>
+      </c>
+      <c r="D1048" t="s">
+        <v>1957</v>
+      </c>
+    </row>
+    <row r="1049" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1049">
+        <v>1.346619818661749E+18</v>
+      </c>
+      <c r="B1049" t="s">
+        <v>1958</v>
+      </c>
+      <c r="C1049" t="s">
+        <v>21</v>
+      </c>
+      <c r="D1049" t="s">
+        <v>1959</v>
+      </c>
+    </row>
+    <row r="1050" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1050">
+        <v>1.346587844656042E+18</v>
+      </c>
+      <c r="B1050" t="s">
+        <v>1960</v>
+      </c>
+      <c r="C1050" t="s">
+        <v>625</v>
+      </c>
+      <c r="D1050" t="s">
+        <v>1961</v>
+      </c>
+    </row>
+    <row r="1051" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1051">
+        <v>1.346552575559049E+18</v>
+      </c>
+      <c r="B1051" t="s">
+        <v>1962</v>
+      </c>
+      <c r="C1051" t="s">
+        <v>625</v>
+      </c>
+      <c r="D1051" t="s">
+        <v>1963</v>
+      </c>
+    </row>
+    <row r="1052" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1052">
+        <v>1.3465127028064461E+18</v>
+      </c>
+      <c r="B1052" t="s">
+        <v>1964</v>
+      </c>
+      <c r="C1052" t="s">
+        <v>625</v>
+      </c>
+      <c r="D1052" t="s">
+        <v>1965</v>
+      </c>
+    </row>
+    <row r="1053" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1053">
+        <v>1.346476982842786E+18</v>
+      </c>
+      <c r="B1053" t="s">
+        <v>1966</v>
+      </c>
+      <c r="C1053" t="s">
+        <v>1967</v>
+      </c>
+      <c r="D1053" t="s">
+        <v>1968</v>
+      </c>
+    </row>
+    <row r="1054" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1054">
+        <v>1.3464748660026491E+18</v>
+      </c>
+      <c r="B1054" t="s">
+        <v>1738</v>
+      </c>
+      <c r="C1054" t="s">
+        <v>625</v>
+      </c>
+      <c r="D1054" t="s">
+        <v>1739</v>
+      </c>
+    </row>
+    <row r="1055" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1055">
+        <v>1.346437465037439E+18</v>
+      </c>
+      <c r="B1055" t="s">
+        <v>1740</v>
+      </c>
+      <c r="C1055" t="s">
+        <v>625</v>
+      </c>
+      <c r="D1055" t="s">
+        <v>1741</v>
+      </c>
+    </row>
+    <row r="1056" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1056">
+        <v>1.3464191754015091E+18</v>
+      </c>
+      <c r="B1056" t="s">
+        <v>1742</v>
+      </c>
+      <c r="C1056" t="s">
+        <v>21</v>
+      </c>
+      <c r="D1056" t="s">
+        <v>1743</v>
+      </c>
+    </row>
+    <row r="1057" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1057">
+        <v>1.3464190952609101E+18</v>
+      </c>
+      <c r="B1057" t="s">
+        <v>1744</v>
+      </c>
+      <c r="C1057" t="s">
+        <v>21</v>
+      </c>
+      <c r="D1057" t="s">
+        <v>1745</v>
+      </c>
+    </row>
+    <row r="1058" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1058">
+        <v>1.3463993524371011E+18</v>
+      </c>
+      <c r="B1058" t="s">
+        <v>1746</v>
+      </c>
+      <c r="C1058" t="s">
+        <v>625</v>
+      </c>
+      <c r="D1058" t="s">
+        <v>1747</v>
+      </c>
+    </row>
+    <row r="1059" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1059">
+        <v>1.346361487716041E+18</v>
+      </c>
+      <c r="B1059" t="s">
+        <v>1748</v>
+      </c>
+      <c r="C1059" t="s">
+        <v>625</v>
+      </c>
+      <c r="D1059" t="s">
+        <v>1749</v>
+      </c>
+    </row>
+    <row r="1060" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1060">
+        <v>1.346351170063745E+18</v>
+      </c>
+      <c r="B1060" t="s">
+        <v>1750</v>
+      </c>
+      <c r="C1060" t="s">
+        <v>21</v>
+      </c>
+      <c r="D1060" t="s">
+        <v>1751</v>
+      </c>
+    </row>
+    <row r="1061" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1061">
+        <v>1.3463510866476029E+18</v>
+      </c>
+      <c r="B1061" t="s">
+        <v>1752</v>
+      </c>
+      <c r="C1061" t="s">
+        <v>72</v>
+      </c>
+      <c r="D1061" t="s">
+        <v>1753</v>
+      </c>
+    </row>
+    <row r="1062" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1062">
+        <v>1.3463245774172201E+18</v>
+      </c>
+      <c r="B1062" t="s">
+        <v>1754</v>
+      </c>
+      <c r="C1062" t="s">
+        <v>625</v>
+      </c>
+      <c r="D1062" t="s">
+        <v>1755</v>
+      </c>
+    </row>
+    <row r="1063" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1063">
+        <v>1.3463216211418729E+18</v>
+      </c>
+      <c r="B1063" t="s">
+        <v>1756</v>
+      </c>
+      <c r="C1063" t="s">
+        <v>45</v>
+      </c>
+      <c r="D1063" t="s">
+        <v>1757</v>
+      </c>
+    </row>
+    <row r="1064" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1064">
+        <v>1.3463206669207959E+18</v>
+      </c>
+      <c r="B1064" t="s">
+        <v>1758</v>
+      </c>
+      <c r="C1064" t="s">
+        <v>45</v>
+      </c>
+      <c r="D1064" t="s">
+        <v>1759</v>
+      </c>
+    </row>
+    <row r="1065" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1065">
+        <v>1.3463203249172969E+18</v>
+      </c>
+      <c r="B1065" t="s">
+        <v>1760</v>
+      </c>
+      <c r="C1065" t="s">
+        <v>45</v>
+      </c>
+      <c r="D1065" t="s">
+        <v>1761</v>
+      </c>
+    </row>
+    <row r="1066" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1066">
+        <v>1.3463200637170161E+18</v>
+      </c>
+      <c r="B1066" t="s">
+        <v>1762</v>
+      </c>
+      <c r="C1066" t="s">
+        <v>45</v>
+      </c>
+      <c r="D1066" t="s">
+        <v>1763</v>
+      </c>
+    </row>
+    <row r="1067" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1067">
+        <v>1.3463158410426701E+18</v>
+      </c>
+      <c r="B1067" t="s">
+        <v>1764</v>
+      </c>
+      <c r="C1067" t="s">
+        <v>1765</v>
+      </c>
+      <c r="D1067" t="s">
+        <v>1766</v>
+      </c>
+    </row>
+    <row r="1068" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1068">
+        <v>1.3462858342453409E+18</v>
+      </c>
+      <c r="B1068" t="s">
+        <v>1767</v>
+      </c>
+      <c r="C1068" t="s">
+        <v>625</v>
+      </c>
+      <c r="D1068" t="s">
+        <v>1768</v>
+      </c>
+    </row>
+    <row r="1069" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1069">
+        <v>1.3462795004395599E+18</v>
+      </c>
+      <c r="B1069" t="s">
+        <v>1769</v>
+      </c>
+      <c r="C1069" t="s">
+        <v>53</v>
+      </c>
+      <c r="D1069" t="s">
+        <v>1770</v>
+      </c>
+    </row>
+    <row r="1070" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1070">
+        <v>1.3462756272387561E+18</v>
+      </c>
+      <c r="B1070" t="s">
+        <v>1771</v>
+      </c>
+      <c r="C1070" t="s">
+        <v>53</v>
+      </c>
+      <c r="D1070" t="s">
+        <v>1772</v>
+      </c>
+    </row>
+    <row r="1071" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1071">
+        <v>1.346256588269449E+18</v>
+      </c>
+      <c r="B1071" t="s">
+        <v>1773</v>
+      </c>
+      <c r="C1071" t="s">
+        <v>53</v>
+      </c>
+      <c r="D1071" t="s">
+        <v>1774</v>
+      </c>
+    </row>
+    <row r="1072" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1072">
+        <v>1.3462484382670889E+18</v>
+      </c>
+      <c r="B1072" t="s">
+        <v>1775</v>
+      </c>
+      <c r="C1072" t="s">
+        <v>625</v>
+      </c>
+      <c r="D1072" t="s">
+        <v>1776</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/application/static/excel_data/data_crawling -- 3. #belajardirumah.xlsx
+++ b/application/static/excel_data/data_crawling -- 3. #belajardirumah.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3217" uniqueCount="1969">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3433" uniqueCount="2076">
   <si>
     <t>id</t>
   </si>
@@ -8193,6 +8193,476 @@
   </si>
   <si>
     <t>Tue Jan 05 15:21:43 +0000 2021</t>
+  </si>
+  <si>
+    <t>Buku Aktivitas Rukun Islam; Aku Cinta Islam - Diskon 20% menjadi Rp.52000
+Gratis ongkos kirim hingga 40rb keseluruh Indonesia.
+#mainanbukuanak #promo #dirumahaja #belajardirumah #buku #membaca #booklover #bookstorm  
+SINOPSIS:Makanan dan minuman halal adalah makanan dan https://t.co/FpuCKiF1Wn</t>
+  </si>
+  <si>
+    <t>Mon Jan 11 13:43:29 +0000 2021</t>
+  </si>
+  <si>
+    <t>Mau jadi orang cerdas? Lakuin ini yuk!
+#tipsbelajar #belajardirumah #infosma #tipsbelajarkekinian #kelaspintarindonesia https://t.co/3ZWPsxtxJB</t>
+  </si>
+  <si>
+    <t>Mon Jan 11 13:01:47 +0000 2021</t>
+  </si>
+  <si>
+    <t>NA 08 : Blue Keren -1 - Diskon 20% menjadi Rp.23200
+Gratis ongkos kirim hingga 40rb keseluruh Indonesia.
+#mainanbukuanak #promo #dirumahaja #belajardirumah #buku #membaca #booklover #bookstorm  
+SINOPSIS:
+PENULIS:Ninik Handrini https://t.co/33kIEuCQ4U</t>
+  </si>
+  <si>
+    <t>Mon Jan 11 11:12:23 +0000 2021</t>
+  </si>
+  <si>
+    <t>Update Perkembangan Covid-19 di Kabupaten Luwu Timur per 11 Januari 2021.
+5 sembuh dan 5 kasus baru.
+Perbaharui terus informasi di https://t.co/D4pL3qgDlY
+#ayolawancorona #belajardirumah #beribadahdirumah #bermaindirumah #dirumahsaja #jagakebersihan #jagakesehatan #jagajarak https://t.co/YWcf6icULB</t>
+  </si>
+  <si>
+    <t>Mon Jan 11 10:04:27 +0000 2021</t>
+  </si>
+  <si>
+    <t>Halo squaadd yuukj dapetin kode diskon 85% di brain academy online nya ruangguru 😉😉
+Chat me for more information 
+https://t.co/jbFatD3Wox
+#brainacademyonline #sekolah #pendidikan #school #dirumahaja #belajar #sekolahan #pelajar  #belajardirumah #stayathome #bimbel https://t.co/6MiVKdIpPA</t>
+  </si>
+  <si>
+    <t>Mon Jan 11 09:50:10 +0000 2021</t>
+  </si>
+  <si>
+    <t>Kisah 25 Nabiku Jilid 1 - Diskon 20% menjadi Rp.105600
+Gratis ongkos kirim hingga 40rb keseluruh Indonesia.
+#mainanbukuanak #promo #dirumahaja #belajardirumah #buku #membaca #booklover #bookstorm  
+SINOPSIS:Anak-anak kita sangat membutuhkan kisah-kisah teladan dan penuh https://t.co/LcwxUmd4oR</t>
+  </si>
+  <si>
+    <t>Mon Jan 11 08:45:17 +0000 2021</t>
+  </si>
+  <si>
+    <t>BUat kamu para Gen-Z, simak ini!
+#tipsbelajar #belajardirumah #bimbelonline #bimbelberkualitas #kelaspintarindonesia https://t.co/t1Ft99xAfu</t>
+  </si>
+  <si>
+    <t>Mon Jan 11 07:02:10 +0000 2021</t>
+  </si>
+  <si>
+    <t>Kisah 25 Nabiku Jilid 2 - Diskon 20% menjadi Rp.105600
+Gratis ongkos kirim hingga 40rb keseluruh Indonesia.
+#mainanbukuanak #promo #dirumahaja #belajardirumah #buku #membaca #booklover #bookstorm  
+SINOPSIS:Anak-anak kita sangat membutuhkan kisah-kisah teladan dan penuh https://t.co/G4117Myiyl</t>
+  </si>
+  <si>
+    <t>Mon Jan 11 06:13:38 +0000 2021</t>
+  </si>
+  <si>
+    <t>Hyang hyung hyang hyung. Liat dulu nih siapa aja yg kudu dipanggil hyung.
+Lah kok galak awokawokawok
+#kelaskita #carabarubelajarseru #belajardirumah #elearning #belajaronline #dirumahaja https://t.co/qhnzLkY7Qk</t>
+  </si>
+  <si>
+    <t>Mon Jan 11 05:14:17 +0000 2021</t>
+  </si>
+  <si>
+    <t>Nah, kalau sudah lakukan hal ini, dijamin belajarmu jadi menyenangkan deh! 😉⁣⁣
+⁣⁣
+https://t.co/mzQJg8pbiY ⁣⁣
+#belajar #semangatbelajar #semangat #semangatbaru #semangatbaru2021 #ayobelajar #belajaronline #belajardirumah ⁣
+sumber: https://t.co/c9ceG0rL21</t>
+  </si>
+  <si>
+    <t>hum_initiative</t>
+  </si>
+  <si>
+    <t>Mon Jan 11 04:41:25 +0000 2021</t>
+  </si>
+  <si>
+    <t>CEK JAWABAN
+#sekolah #SchoolDays #School #school2021 #belajar #belajardirumah #berita #BeritaTerkini #beritanasional #beritaviral #viral #viralkan #news #NewsUpdate #Covid_19 #COVIDー19 #COVID #coronavirus #Corona  https://t.co/UyUYVBBSkw</t>
+  </si>
+  <si>
+    <t>Mon Jan 11 04:25:54 +0000 2021</t>
+  </si>
+  <si>
+    <t>CEK JAWABAN
+#sekolah #SchoolDays #School #school2021 #belajar #belajardirumah #berita #BeritaTerkini #beritanasional #beritaviral #viral #viralkan #news #NewsUpdate #Covid_19 #COVIDー19 #COVID #coronavirus #Corona  https://t.co/5hySqWJNxB</t>
+  </si>
+  <si>
+    <t>Mon Jan 11 04:25:42 +0000 2021</t>
+  </si>
+  <si>
+    <t>CEK JAWABAN
+#sekolah #SchoolDays #School #school2021 #belajar #belajardirumah #berita #BeritaTerkini #beritanasional #beritaviral #viral #viralkan #news #NewsUpdate #Covid_19 #COVIDー19 #COVID #coronavirus #Corona https://t.co/YqRQPkkus6</t>
+  </si>
+  <si>
+    <t>Mon Jan 11 04:25:29 +0000 2021</t>
+  </si>
+  <si>
+    <t>CEK JAWABAN
+#sekolah #SchoolDays #School #school2021 #belajar #belajardirumah #berita #BeritaTerkini #beritanasional #beritaviral #viral #viralkan #news #NewsUpdate #Covid_19 #COVIDー19 #COVID #coronavirus #Corona 
+https://t.co/seDT0WS6ml</t>
+  </si>
+  <si>
+    <t>Mon Jan 11 04:25:06 +0000 2021</t>
+  </si>
+  <si>
+    <t>Cerita Si Jerapah - Diskon 20% menjadi Rp.20000
+Gratis ongkos kirim hingga 40rb keseluruh Indonesia.
+#mainanbukuanak #promo #dirumahaja #belajardirumah #buku #membaca #booklover #bookstorm  
+SINOPSIS:Assalamualaikum Teman. Namaku Jerapah. Aku memiliki leher yang panjang. https://t.co/aaTvVZj8Yb</t>
+  </si>
+  <si>
+    <t>Mon Jan 11 03:42:20 +0000 2021</t>
+  </si>
+  <si>
+    <t>Buku Aktivitas Rukun Islam; Aku Cinta Islam - Diskon 20% menjadi Rp.52000
+Gratis ongkos kirim hingga 40rb keseluruh Indonesia.
+#mainanbukuanak #promo #dirumahaja #belajardirumah #buku #membaca #booklover #bookstorm  
+SINOPSIS:Makanan dan minuman halal adalah makanan dan https://t.co/mtmfVU7bP0</t>
+  </si>
+  <si>
+    <t>Mon Jan 11 01:12:45 +0000 2021</t>
+  </si>
+  <si>
+    <t>Semua Jadi Ok! - Diskon 20% menjadi Rp.20000
+Gratis ongkos kirim hingga 40rb keseluruh Indonesia.
+#mainanbukuanak #promo #dirumahaja #belajardirumah #buku #membaca #booklover #bookstorm  
+SINOPSIS:
+PENULIS:Ninik Handrini https://t.co/mOOyb6WEdg</t>
+  </si>
+  <si>
+    <t>Sun Jan 10 22:42:11 +0000 2021</t>
+  </si>
+  <si>
+    <t>SOAL TVRI DAN JADWAL BELAJAR DARI RUMAH HARI INI SENIN 11 JANUARI 2021, JALAN DI SEKITAR DAN TRANSPORTASI
+#Belajardarirumah #TribunKaltim #Belajardirumah 
+https://t.co/HIaj1qiRQ5</t>
+  </si>
+  <si>
+    <t>Sun Jan 10 22:39:14 +0000 2021</t>
+  </si>
+  <si>
+    <t>Cerita Si Lebah - Diskon 20% menjadi Rp.52800
+Gratis ongkos kirim hingga 40rb keseluruh Indonesia.
+#mainanbukuanak #promo #dirumahaja #belajardirumah #buku #membaca #booklover #bookstorm  
+SINOPSIS:
+PENULIS:Jumi Haryani https://t.co/HbmBZ9bcdt</t>
+  </si>
+  <si>
+    <t>Sun Jan 10 20:12:06 +0000 2021</t>
+  </si>
+  <si>
+    <t>Ayahku Pahlawanku - Diskon 20% menjadi Rp.33600
+Gratis ongkos kirim hingga 40rb keseluruh Indonesia.
+#mainanbukuanak #promo #dirumahaja #belajardirumah #buku #membaca #booklover #bookstorm  
+SINOPSIS:
+PENULIS:Ninik Handrini</t>
+  </si>
+  <si>
+    <t>Sun Jan 10 18:17:38 +0000 2021</t>
+  </si>
+  <si>
+    <t>Cerita Si Jerapah - Diskon 20% menjadi Rp.20000
+Gratis ongkos kirim hingga 40rb keseluruh Indonesia.
+#mainanbukuanak #promo #dirumahaja #belajardirumah #buku #membaca #booklover #bookstorm  
+SINOPSIS:Assalamualaikum Teman. Namaku Jerapah. Aku memiliki leher yang panjang. https://t.co/x1WeGISgPY</t>
+  </si>
+  <si>
+    <t>Sun Jan 10 15:15:57 +0000 2021</t>
+  </si>
+  <si>
+    <t>Yuk, beli produk ini sekarang!
+"Laptop Android 7 inci dengan keyboard WIFI Notebook online untuk anak-anak
+-----------------------
+Harga: Rp1,440,000
+Beli: https://t.co/PMtg6fqMdI
+Langsung klik link diatas sebelum kehabisan! #DijaminOri #BelajarDirumah</t>
+  </si>
+  <si>
+    <t>syakirasyakir</t>
+  </si>
+  <si>
+    <t>Sun Jan 10 14:05:13 +0000 2021</t>
+  </si>
+  <si>
+    <t>Buku Aktivitas Rukun Islam; Aku Cinta Islam - Diskon 20% menjadi Rp.52000
+Gratis ongkos kirim hingga 40rb keseluruh Indonesia.
+#mainanbukuanak #promo #dirumahaja #belajardirumah #buku #membaca #booklover #bookstorm  
+SINOPSIS:Makanan dan minuman halal adalah makanan dan https://t.co/nDNX009kLr</t>
+  </si>
+  <si>
+    <t>Sun Jan 10 12:43:14 +0000 2021</t>
+  </si>
+  <si>
+    <t>Udah tahu beda Iq dan EQ belum?
+#belajardirumah #infosma #pengetahuanumum #berfikir #kelaspintarindonesia https://t.co/6nCe68b4ju</t>
+  </si>
+  <si>
+    <t>Sun Jan 10 11:01:50 +0000 2021</t>
+  </si>
+  <si>
+    <t>HARI INI TOTAL PASIEN SEMBUH 2.083, KASUS BARU 21 DAN 2 MENINGGAL
+INFORMASI LENGKAPNYA BACA DI 👉 https://t.co/N52Gcs4XbY
+#ayolawancorona #belajardirumah #bermaindirumah #dirumahsaja #jagakebersihan #jagakesehatan #jagajarak #pakemasker #tetapwaspada #coronabisasembuh https://t.co/kIuU5PD4yZ</t>
+  </si>
+  <si>
+    <t>Sun Jan 10 10:25:54 +0000 2021</t>
+  </si>
+  <si>
+    <t>Update Perkembangan Covid-19 di Kabupaten Luwu Timur per 10 Januari 2021.
+6 sembuh, 21 kasus baru &amp;amp; 2 meninggal.
+Perbaharui terus informasi di https://t.co/D4pL3qgDlY
+#ayolawancorona #belajardirumah #beribadahdirumah #bermaindirumah #dirumahsaja #jagakebersihan #jagakesehatan https://t.co/V9e4d7KFot</t>
+  </si>
+  <si>
+    <t>Sun Jan 10 10:25:25 +0000 2021</t>
+  </si>
+  <si>
+    <t>Ensiklopedia Anak Muslim 1 : Air - Diskon 20% menjadi Rp.88000
+Gratis ongkos kirim hingga 40rb keseluruh Indonesia.
+#mainanbukuanak #promo #dirumahaja #belajardirumah #buku #membaca #booklover #bookstorm  
+SINOPSIS:Allah menciptakan air untuk makhlukNya. Air berperan https://t.co/mdGU2CqTki</t>
+  </si>
+  <si>
+    <t>Sun Jan 10 10:15:35 +0000 2021</t>
+  </si>
+  <si>
+    <t>Kamus Anak 3 Bahasa - Diskon 20% menjadi Rp.92800
+Gratis ongkos kirim hingga 40rb keseluruh Indonesia.
+#mainanbukuanak #promo #dirumahaja #belajardirumah #buku #membaca #booklover #bookstorm  
+SINOPSIS:apa saja ya  yang ada di dalam bandara rumah sakit kebun binatang. https://t.co/Ao7pXkMDu5</t>
+  </si>
+  <si>
+    <t>Sun Jan 10 07:45:18 +0000 2021</t>
+  </si>
+  <si>
+    <t>Gak usah khawatir waktu ada ulangan kalau ada SOAL! Belajar di Kelas Pintar yuk!
+#belajardirumah #bimbelonline #bimbelberkualitas #pjj #kelaspintarindonesia https://t.co/Pwq6nbe1i2</t>
+  </si>
+  <si>
+    <t>Sun Jan 10 06:01:15 +0000 2021</t>
+  </si>
+  <si>
+    <t>Cerita Si Jerapah - Diskon 20% menjadi Rp.20000
+Gratis ongkos kirim hingga 40rb keseluruh Indonesia.
+#mainanbukuanak #promo #dirumahaja #belajardirumah #buku #membaca #booklover #bookstorm  
+SINOPSIS:Assalamualaikum Teman. Namaku Jerapah. Aku memiliki leher yang panjang. https://t.co/fl5ChcRzRL</t>
+  </si>
+  <si>
+    <t>Sun Jan 10 05:12:59 +0000 2021</t>
+  </si>
+  <si>
+    <t>Cerita si Kelinci - Diskon 20% menjadi Rp.20000
+Gratis ongkos kirim hingga 40rb keseluruh Indonesia.
+#mainanbukuanak #promo #dirumahaja #belajardirumah #buku #membaca #booklover #bookstorm  
+SINOPSIS:Assalamualaikum Teman-Teman.
+Aku hewan mamalia kecil yang berbulu halus https://t.co/DfuFUUHiav</t>
+  </si>
+  <si>
+    <t>Sun Jan 10 02:42:26 +0000 2021</t>
+  </si>
+  <si>
+    <t>Buku Aktivitas Rukun Islam; Aku Cinta Islam - Diskon 20% menjadi Rp.52000
+Gratis ongkos kirim hingga 40rb keseluruh Indonesia.
+#mainanbukuanak #promo #dirumahaja #belajardirumah #buku #membaca #booklover #bookstorm  
+SINOPSIS:Makanan dan minuman halal adalah makanan dan https://t.co/nworwrSYBK</t>
+  </si>
+  <si>
+    <t>Sun Jan 10 00:12:17 +0000 2021</t>
+  </si>
+  <si>
+    <t>Watch Me Grow - Diskon 20% menjadi Rp.20000
+Gratis ongkos kirim hingga 40rb keseluruh Indonesia.
+#mainanbukuanak #promo #dirumahaja #belajardirumah #buku #membaca #booklover #bookstorm  
+SINOPSIS:
+PENULIS:Meidya Derni https://t.co/F78GLSJBQ8</t>
+  </si>
+  <si>
+    <t>Sat Jan 09 21:43:02 +0000 2021</t>
+  </si>
+  <si>
+    <t>Komik Anak Cerdas Keuangan, Menabung Yuk! - Diskon 20% menjadi Rp.26400
+Gratis ongkos kirim hingga 40rb keseluruh Indonesia.
+#mainanbukuanak #promo #dirumahaja #belajardirumah #buku #membaca #booklover #bookstorm  
+SINOPSIS:
+PENULIS:Ahmad Gozali,Ninik Handrini https://t.co/4snNo0n8U5</t>
+  </si>
+  <si>
+    <t>Sat Jan 09 19:13:19 +0000 2021</t>
+  </si>
+  <si>
+    <t>When I Get Sick - Diskon 20% menjadi Rp.20000
+Gratis ongkos kirim hingga 40rb keseluruh Indonesia.
+#mainanbukuanak #promo #dirumahaja #belajardirumah #buku #membaca #booklover #bookstorm  
+SINOPSIS:
+PENULIS:Meidya Derni https://t.co/7rwQVqcJ6Q</t>
+  </si>
+  <si>
+    <t>Sat Jan 09 16:45:07 +0000 2021</t>
+  </si>
+  <si>
+    <t>I Love to be Healthy - Diskon 20% menjadi Rp.20000
+Gratis ongkos kirim hingga 40rb keseluruh Indonesia.
+#mainanbukuanak #promo #dirumahaja #belajardirumah #buku #membaca #booklover #bookstorm  
+SINOPSIS:
+PENULIS:Meidya Derni https://t.co/Gfy4rtwjYy</t>
+  </si>
+  <si>
+    <t>Sat Jan 09 14:13:17 +0000 2021</t>
+  </si>
+  <si>
+    <t>ANGKA PASIEN SEMBUH BERTAMBAH 15, KASUS BARU 15 DAN 2 MENINGGAL LAGI
+INFORMASI LENGKAPNYA BACA DI 👉 https://t.co/JzUlVSOL39
+#ayolawancorona #belajardirumah #bermaindirumah #dirumahsaja #jagakebersihan #jagakesehatan #jagajarak #pakemasker #tetapwaspada #coronabisasembuh https://t.co/yfMYUMVOTd</t>
+  </si>
+  <si>
+    <t>Sat Jan 09 12:57:37 +0000 2021</t>
+  </si>
+  <si>
+    <t>Update Perkembangan Covid-19 di Kabupaten Luwu Timur per 9 Januari 2021.
+15 sembuh, 15 kasus baru dan 2 meninggal.
+Perbaharui terus informasi anda di https://t.co/D4pL3qgDlY
+#ayolawancorona #belajardirumah #bekerjadirumah #beribadahdirumah #bermaindirumah #dirumahsaja https://t.co/YszMoqdAcT</t>
+  </si>
+  <si>
+    <t>Sat Jan 09 12:55:30 +0000 2021</t>
+  </si>
+  <si>
+    <t>Cerita Si Semut - Diskon 20% menjadi Rp.18750
+Gratis ongkos kirim hingga 40rb keseluruh Indonesia.
+#mainanbukuanak #promo #dirumahaja #belajardirumah #buku #membaca #booklover #bookstorm  
+SINOPSIS:
+PENULIS:Adjis https://t.co/h6E1TiBA3k</t>
+  </si>
+  <si>
+    <t>Sat Jan 09 11:42:15 +0000 2021</t>
+  </si>
+  <si>
+    <t>Komik Tokoh Islam : Ibnu Jabir - Diskon 20% menjadi Rp.22400
+Gratis ongkos kirim hingga 40rb keseluruh Indonesia.
+#mainanbukuanak #promo #dirumahaja #belajardirumah #buku #membaca #booklover #bookstorm  
+SINOPSIS:
+PENULIS:Smooth Kreativ (Novrian) https://t.co/n0CWzOeh8Z</t>
+  </si>
+  <si>
+    <t>Sat Jan 09 09:12:18 +0000 2021</t>
+  </si>
+  <si>
+    <t>Gimana sih cara TANYA di Kelas Pintar? Gampang banget loh! Cek postingan kita kali ini!
+#bimbelonline #belajardirumah #bimbelberkualitas #pjj #kelaspintarindonesia https://t.co/kQrFFXzJ1g</t>
+  </si>
+  <si>
+    <t>Sat Jan 09 08:01:50 +0000 2021</t>
+  </si>
+  <si>
+    <t>Cerita Si Lebah (SC) - Diskon 20% menjadi Rp.20000
+Gratis ongkos kirim hingga 40rb keseluruh Indonesia.
+#mainanbukuanak #promo #dirumahaja #belajardirumah #buku #membaca #booklover #bookstorm  
+SINOPSIS:
+PENULIS:Jumi Haryani https://t.co/vm3WyK1Ink</t>
+  </si>
+  <si>
+    <t>Sat Jan 09 06:46:09 +0000 2021</t>
+  </si>
+  <si>
+    <t>Cerita si Kupu-Kupu - Diskon 20% menjadi Rp.20000
+Gratis ongkos kirim hingga 40rb keseluruh Indonesia.
+#mainanbukuanak #promo #dirumahaja #belajardirumah #buku #membaca #booklover #bookstorm  
+SINOPSIS:
+PENULIS:
+PENERBIT:GEMA INSANI
+KATEGORI:Buku
+SEGMENTASI:Anak
+TEMA:Sains https://t.co/1WmPgtMaIH</t>
+  </si>
+  <si>
+    <t>Sat Jan 09 04:12:08 +0000 2021</t>
+  </si>
+  <si>
+    <t>Panduan Lengkap PSBB Jawa Bali tanggal 11 s/d 25 Januari 2021
+#HMMinistry #GLMinistry #ArayMinistry #Araycommunity #PSBB #JagaJarak #AdaptasiKebiasaanBaru #Kitabisa #BersatuLawanCovid19 #CuciTanganPakaiSabun #ProtokolKesehatan #DirumahSaja #BekerjadiRumah #BelajardiRumah https://t.co/zwd7kQ3qWI</t>
+  </si>
+  <si>
+    <t>setyawanaray</t>
+  </si>
+  <si>
+    <t>Sat Jan 09 03:54:54 +0000 2021</t>
+  </si>
+  <si>
+    <t>Panduan Lengkap PSBB Jawa Bali tanggal 11 s/d 25 Januari 2021
+#HMMinistry #GLMinistry #ArayMinistry #Araycommunity #PSBB #JagaJarak #AdaptasiKebiasaanBaru #Kitabisa #BersatuLawanCovid19 #CuciTanganPakaiSabun #ProtokolKesehatan #DirumahSaja #BekerjadiRumah #BelajardiRumah https://t.co/R1wUd821nZ</t>
+  </si>
+  <si>
+    <t>Sat Jan 09 03:52:47 +0000 2021</t>
+  </si>
+  <si>
+    <t>WAKILI LUTIM LOMBA MMQ, RAHMI : MOHON DOA DAN DUKUNGAN TA'
+BACA INFORMASI LENGKAPNYA DI👉 https://t.co/WQBlS4WqMi
+#ayolawancorona #belajardirumah #beribadahdirumah #bermaindirumah #dirumahsaja #jagakebersihan #jagakesehatan #jagajarak #pakemasker #tetapwaspada #coronabisasembuh https://t.co/F5DSYyjPey</t>
+  </si>
+  <si>
+    <t>Sat Jan 09 03:37:57 +0000 2021</t>
+  </si>
+  <si>
+    <t>Tematik Kelas 1 SD | Tema 5 Subtema 2 | Pembelajaran 2 | Pengalaman Bers... https://t.co/QZG7APys1u via @YouTube #new #video #BDR #belajardirumah #trump</t>
+  </si>
+  <si>
+    <t>Sat Jan 09 03:31:07 +0000 2021</t>
+  </si>
+  <si>
+    <t>50 Kisah Pengantar Anak Tidur : Kisah Husnul dan Su ul Khatimah - Diskon 20% menjadi Rp.38400
+Gratis ongkos kirim hingga 40rb keseluruh Indonesia.
+#mainanbukuanak #promo #dirumahaja #belajardirumah #buku #membaca #booklover #bookstorm  
+SINOPSIS:Kumpulan kisah yang https://t.co/fhKht7iPlG</t>
+  </si>
+  <si>
+    <t>Sat Jan 09 01:43:11 +0000 2021</t>
+  </si>
+  <si>
+    <t>Ensiklopedia Anak Muslim 3 : Alam Semesta - Diskon 20% menjadi Rp.88000
+Gratis ongkos kirim hingga 40rb keseluruh Indonesia.
+#mainanbukuanak #promo #dirumahaja #belajardirumah #buku #membaca #booklover #bookstorm  
+SINOPSIS:
+PENULIS:Tartila Tartusi https://t.co/4EYi6azIVF</t>
+  </si>
+  <si>
+    <t>Fri Jan 08 23:12:53 +0000 2021</t>
+  </si>
+  <si>
+    <t>Ensiklopedia Anak Muslim 4 : Pahlawanku - Diskon 20% menjadi Rp.88000
+Gratis ongkos kirim hingga 40rb keseluruh Indonesia.
+#mainanbukuanak #promo #dirumahaja #belajardirumah #buku #membaca #booklover #bookstorm  
+SINOPSIS:Sifat keberanian dan semangat mereka patut di https://t.co/waBwDW6YDu</t>
+  </si>
+  <si>
+    <t>Fri Jan 08 20:43:38 +0000 2021</t>
+  </si>
+  <si>
+    <t>Sahabat Dobi - Diskon 20% menjadi Rp.16800
+Gratis ongkos kirim hingga 40rb keseluruh Indonesia.
+#mainanbukuanak #promo #dirumahaja #belajardirumah #buku #membaca #booklover #bookstorm  
+SINOPSIS:
+PENULIS:Erna M.S. https://t.co/scoJpbn0F6</t>
+  </si>
+  <si>
+    <t>Fri Jan 08 18:15:30 +0000 2021</t>
+  </si>
+  <si>
+    <t>Cerita Si Kuda Nil - Diskon 20% menjadi Rp.18750
+Gratis ongkos kirim hingga 40rb keseluruh Indonesia.
+#mainanbukuanak #promo #dirumahaja #belajardirumah #buku #membaca #booklover #bookstorm  
+SINOPSIS:Assalamualaikum teman-teman….Tahukah kamu siapa aku? Badanku besar. https://t.co/mwAjoCm02A</t>
+  </si>
+  <si>
+    <t>Fri Jan 08 15:49:38 +0000 2021</t>
   </si>
 </sst>
 </file>
@@ -8555,10 +9025,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D1072"/>
+  <dimension ref="A1:D1144"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A1054" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="I1072" sqref="I1072"/>
+    <sheetView tabSelected="1" topLeftCell="A1128" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="D1147" sqref="D1147"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -23571,6 +24041,1014 @@
         <v>1776</v>
       </c>
     </row>
+    <row r="1073" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1073">
+        <v>1.348626588519211E+18</v>
+      </c>
+      <c r="B1073" t="s">
+        <v>1969</v>
+      </c>
+      <c r="C1073" t="s">
+        <v>625</v>
+      </c>
+      <c r="D1073" t="s">
+        <v>1970</v>
+      </c>
+    </row>
+    <row r="1074" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1074">
+        <v>1.348616095498953E+18</v>
+      </c>
+      <c r="B1074" t="s">
+        <v>1971</v>
+      </c>
+      <c r="C1074" t="s">
+        <v>72</v>
+      </c>
+      <c r="D1074" t="s">
+        <v>1972</v>
+      </c>
+    </row>
+    <row r="1075" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1075">
+        <v>1.3485885616924669E+18</v>
+      </c>
+      <c r="B1075" t="s">
+        <v>1973</v>
+      </c>
+      <c r="C1075" t="s">
+        <v>625</v>
+      </c>
+      <c r="D1075" t="s">
+        <v>1974</v>
+      </c>
+    </row>
+    <row r="1076" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1076">
+        <v>1.3485714669257029E+18</v>
+      </c>
+      <c r="B1076" t="s">
+        <v>1975</v>
+      </c>
+      <c r="C1076" t="s">
+        <v>21</v>
+      </c>
+      <c r="D1076" t="s">
+        <v>1976</v>
+      </c>
+    </row>
+    <row r="1077" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1077">
+        <v>1.3485678702261079E+18</v>
+      </c>
+      <c r="B1077" t="s">
+        <v>1977</v>
+      </c>
+      <c r="C1077" t="s">
+        <v>1875</v>
+      </c>
+      <c r="D1077" t="s">
+        <v>1978</v>
+      </c>
+    </row>
+    <row r="1078" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1078">
+        <v>1.348551541662249E+18</v>
+      </c>
+      <c r="B1078" t="s">
+        <v>1979</v>
+      </c>
+      <c r="C1078" t="s">
+        <v>625</v>
+      </c>
+      <c r="D1078" t="s">
+        <v>1980</v>
+      </c>
+    </row>
+    <row r="1079" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1079">
+        <v>1.348525593286103E+18</v>
+      </c>
+      <c r="B1079" t="s">
+        <v>1981</v>
+      </c>
+      <c r="C1079" t="s">
+        <v>72</v>
+      </c>
+      <c r="D1079" t="s">
+        <v>1982</v>
+      </c>
+    </row>
+    <row r="1080" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1080">
+        <v>1.3485133814692091E+18</v>
+      </c>
+      <c r="B1080" t="s">
+        <v>1983</v>
+      </c>
+      <c r="C1080" t="s">
+        <v>625</v>
+      </c>
+      <c r="D1080" t="s">
+        <v>1984</v>
+      </c>
+    </row>
+    <row r="1081" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1081">
+        <v>1.3484984442272031E+18</v>
+      </c>
+      <c r="B1081" t="s">
+        <v>1985</v>
+      </c>
+      <c r="C1081" t="s">
+        <v>45</v>
+      </c>
+      <c r="D1081" t="s">
+        <v>1986</v>
+      </c>
+    </row>
+    <row r="1082" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1082">
+        <v>1.3484901732694789E+18</v>
+      </c>
+      <c r="B1082" t="s">
+        <v>1987</v>
+      </c>
+      <c r="C1082" t="s">
+        <v>1988</v>
+      </c>
+      <c r="D1082" t="s">
+        <v>1989</v>
+      </c>
+    </row>
+    <row r="1083" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1083">
+        <v>1.3484862692784499E+18</v>
+      </c>
+      <c r="B1083" t="s">
+        <v>1990</v>
+      </c>
+      <c r="C1083" t="s">
+        <v>80</v>
+      </c>
+      <c r="D1083" t="s">
+        <v>1991</v>
+      </c>
+    </row>
+    <row r="1084" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1084">
+        <v>1.3484862173949089E+18</v>
+      </c>
+      <c r="B1084" t="s">
+        <v>1992</v>
+      </c>
+      <c r="C1084" t="s">
+        <v>80</v>
+      </c>
+      <c r="D1084" t="s">
+        <v>1993</v>
+      </c>
+    </row>
+    <row r="1085" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1085">
+        <v>1.3484861615477599E+18</v>
+      </c>
+      <c r="B1085" t="s">
+        <v>1994</v>
+      </c>
+      <c r="C1085" t="s">
+        <v>80</v>
+      </c>
+      <c r="D1085" t="s">
+        <v>1995</v>
+      </c>
+    </row>
+    <row r="1086" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1086">
+        <v>1.3484860654436639E+18</v>
+      </c>
+      <c r="B1086" t="s">
+        <v>1996</v>
+      </c>
+      <c r="C1086" t="s">
+        <v>80</v>
+      </c>
+      <c r="D1086" t="s">
+        <v>1997</v>
+      </c>
+    </row>
+    <row r="1087" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1087">
+        <v>1.348475302553428E+18</v>
+      </c>
+      <c r="B1087" t="s">
+        <v>1998</v>
+      </c>
+      <c r="C1087" t="s">
+        <v>625</v>
+      </c>
+      <c r="D1087" t="s">
+        <v>1999</v>
+      </c>
+    </row>
+    <row r="1088" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1088">
+        <v>1.3484376610531159E+18</v>
+      </c>
+      <c r="B1088" t="s">
+        <v>2000</v>
+      </c>
+      <c r="C1088" t="s">
+        <v>625</v>
+      </c>
+      <c r="D1088" t="s">
+        <v>2001</v>
+      </c>
+    </row>
+    <row r="1089" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1089">
+        <v>1.3483997698492211E+18</v>
+      </c>
+      <c r="B1089" t="s">
+        <v>2002</v>
+      </c>
+      <c r="C1089" t="s">
+        <v>625</v>
+      </c>
+      <c r="D1089" t="s">
+        <v>2003</v>
+      </c>
+    </row>
+    <row r="1090" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1090">
+        <v>1.348399025452577E+18</v>
+      </c>
+      <c r="B1090" t="s">
+        <v>2004</v>
+      </c>
+      <c r="C1090" t="s">
+        <v>53</v>
+      </c>
+      <c r="D1090" t="s">
+        <v>2005</v>
+      </c>
+    </row>
+    <row r="1091" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1091">
+        <v>1.348362000628257E+18</v>
+      </c>
+      <c r="B1091" t="s">
+        <v>2006</v>
+      </c>
+      <c r="C1091" t="s">
+        <v>625</v>
+      </c>
+      <c r="D1091" t="s">
+        <v>2007</v>
+      </c>
+    </row>
+    <row r="1092" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1092">
+        <v>1.348333193796096E+18</v>
+      </c>
+      <c r="B1092" t="s">
+        <v>2008</v>
+      </c>
+      <c r="C1092" t="s">
+        <v>625</v>
+      </c>
+      <c r="D1092" t="s">
+        <v>2009</v>
+      </c>
+    </row>
+    <row r="1093" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1093">
+        <v>1.3482874686221481E+18</v>
+      </c>
+      <c r="B1093" t="s">
+        <v>2010</v>
+      </c>
+      <c r="C1093" t="s">
+        <v>625</v>
+      </c>
+      <c r="D1093" t="s">
+        <v>2011</v>
+      </c>
+    </row>
+    <row r="1094" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1094">
+        <v>1.348269668444766E+18</v>
+      </c>
+      <c r="B1094" t="s">
+        <v>2012</v>
+      </c>
+      <c r="C1094" t="s">
+        <v>2013</v>
+      </c>
+      <c r="D1094" t="s">
+        <v>2014</v>
+      </c>
+    </row>
+    <row r="1095" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1095">
+        <v>1.3482490361558879E+18</v>
+      </c>
+      <c r="B1095" t="s">
+        <v>2015</v>
+      </c>
+      <c r="C1095" t="s">
+        <v>625</v>
+      </c>
+      <c r="D1095" t="s">
+        <v>2016</v>
+      </c>
+    </row>
+    <row r="1096" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1096">
+        <v>1.3482235176539551E+18</v>
+      </c>
+      <c r="B1096" t="s">
+        <v>2017</v>
+      </c>
+      <c r="C1096" t="s">
+        <v>72</v>
+      </c>
+      <c r="D1096" t="s">
+        <v>2018</v>
+      </c>
+    </row>
+    <row r="1097" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1097">
+        <v>1.3482144769279549E+18</v>
+      </c>
+      <c r="B1097" t="s">
+        <v>2019</v>
+      </c>
+      <c r="C1097" t="s">
+        <v>21</v>
+      </c>
+      <c r="D1097" t="s">
+        <v>2020</v>
+      </c>
+    </row>
+    <row r="1098" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1098">
+        <v>1.348214355146334E+18</v>
+      </c>
+      <c r="B1098" t="s">
+        <v>2021</v>
+      </c>
+      <c r="C1098" t="s">
+        <v>21</v>
+      </c>
+      <c r="D1098" t="s">
+        <v>2022</v>
+      </c>
+    </row>
+    <row r="1099" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1099">
+        <v>1.3482118786783309E+18</v>
+      </c>
+      <c r="B1099" t="s">
+        <v>2023</v>
+      </c>
+      <c r="C1099" t="s">
+        <v>625</v>
+      </c>
+      <c r="D1099" t="s">
+        <v>2024</v>
+      </c>
+    </row>
+    <row r="1100" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1100">
+        <v>1.3481740616380129E+18</v>
+      </c>
+      <c r="B1100" t="s">
+        <v>2025</v>
+      </c>
+      <c r="C1100" t="s">
+        <v>625</v>
+      </c>
+      <c r="D1100" t="s">
+        <v>2026</v>
+      </c>
+    </row>
+    <row r="1101" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1101">
+        <v>1.348147874245321E+18</v>
+      </c>
+      <c r="B1101" t="s">
+        <v>2027</v>
+      </c>
+      <c r="C1101" t="s">
+        <v>72</v>
+      </c>
+      <c r="D1101" t="s">
+        <v>2028</v>
+      </c>
+    </row>
+    <row r="1102" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1102">
+        <v>1.348135729256255E+18</v>
+      </c>
+      <c r="B1102" t="s">
+        <v>2029</v>
+      </c>
+      <c r="C1102" t="s">
+        <v>625</v>
+      </c>
+      <c r="D1102" t="s">
+        <v>2030</v>
+      </c>
+    </row>
+    <row r="1103" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1103">
+        <v>1.348097840594121E+18</v>
+      </c>
+      <c r="B1103" t="s">
+        <v>2031</v>
+      </c>
+      <c r="C1103" t="s">
+        <v>625</v>
+      </c>
+      <c r="D1103" t="s">
+        <v>2032</v>
+      </c>
+    </row>
+    <row r="1104" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1104">
+        <v>1.3480600533837E+18</v>
+      </c>
+      <c r="B1104" t="s">
+        <v>2033</v>
+      </c>
+      <c r="C1104" t="s">
+        <v>625</v>
+      </c>
+      <c r="D1104" t="s">
+        <v>2034</v>
+      </c>
+    </row>
+    <row r="1105" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1105">
+        <v>1.348022493735358E+18</v>
+      </c>
+      <c r="B1105" t="s">
+        <v>2035</v>
+      </c>
+      <c r="C1105" t="s">
+        <v>625</v>
+      </c>
+      <c r="D1105" t="s">
+        <v>2036</v>
+      </c>
+    </row>
+    <row r="1106" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1106">
+        <v>1.3479848154678851E+18</v>
+      </c>
+      <c r="B1106" t="s">
+        <v>2037</v>
+      </c>
+      <c r="C1106" t="s">
+        <v>625</v>
+      </c>
+      <c r="D1106" t="s">
+        <v>2038</v>
+      </c>
+    </row>
+    <row r="1107" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1107">
+        <v>1.3479475218096051E+18</v>
+      </c>
+      <c r="B1107" t="s">
+        <v>2039</v>
+      </c>
+      <c r="C1107" t="s">
+        <v>625</v>
+      </c>
+      <c r="D1107" t="s">
+        <v>2040</v>
+      </c>
+    </row>
+    <row r="1108" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1108">
+        <v>1.3479093100015529E+18</v>
+      </c>
+      <c r="B1108" t="s">
+        <v>2041</v>
+      </c>
+      <c r="C1108" t="s">
+        <v>625</v>
+      </c>
+      <c r="D1108" t="s">
+        <v>2042</v>
+      </c>
+    </row>
+    <row r="1109" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1109">
+        <v>1.3478902714138911E+18</v>
+      </c>
+      <c r="B1109" t="s">
+        <v>2043</v>
+      </c>
+      <c r="C1109" t="s">
+        <v>21</v>
+      </c>
+      <c r="D1109" t="s">
+        <v>2044</v>
+      </c>
+    </row>
+    <row r="1110" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1110">
+        <v>1.3478897388086269E+18</v>
+      </c>
+      <c r="B1110" t="s">
+        <v>2045</v>
+      </c>
+      <c r="C1110" t="s">
+        <v>21</v>
+      </c>
+      <c r="D1110" t="s">
+        <v>2046</v>
+      </c>
+    </row>
+    <row r="1111" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1111">
+        <v>1.347871303756247E+18</v>
+      </c>
+      <c r="B1111" t="s">
+        <v>2047</v>
+      </c>
+      <c r="C1111" t="s">
+        <v>625</v>
+      </c>
+      <c r="D1111" t="s">
+        <v>2048</v>
+      </c>
+    </row>
+    <row r="1112" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1112">
+        <v>1.347833566000865E+18</v>
+      </c>
+      <c r="B1112" t="s">
+        <v>2049</v>
+      </c>
+      <c r="C1112" t="s">
+        <v>625</v>
+      </c>
+      <c r="D1112" t="s">
+        <v>2050</v>
+      </c>
+    </row>
+    <row r="1113" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1113">
+        <v>1.3478158350968051E+18</v>
+      </c>
+      <c r="B1113" t="s">
+        <v>2051</v>
+      </c>
+      <c r="C1113" t="s">
+        <v>72</v>
+      </c>
+      <c r="D1113" t="s">
+        <v>2052</v>
+      </c>
+    </row>
+    <row r="1114" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1114">
+        <v>1.3477967877513951E+18</v>
+      </c>
+      <c r="B1114" t="s">
+        <v>2053</v>
+      </c>
+      <c r="C1114" t="s">
+        <v>625</v>
+      </c>
+      <c r="D1114" t="s">
+        <v>2054</v>
+      </c>
+    </row>
+    <row r="1115" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1115">
+        <v>1.3477580252227049E+18</v>
+      </c>
+      <c r="B1115" t="s">
+        <v>2055</v>
+      </c>
+      <c r="C1115" t="s">
+        <v>625</v>
+      </c>
+      <c r="D1115" t="s">
+        <v>2056</v>
+      </c>
+    </row>
+    <row r="1116" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1116">
+        <v>1.347753691240042E+18</v>
+      </c>
+      <c r="B1116" t="s">
+        <v>2057</v>
+      </c>
+      <c r="C1116" t="s">
+        <v>2058</v>
+      </c>
+      <c r="D1116" t="s">
+        <v>2059</v>
+      </c>
+    </row>
+    <row r="1117" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1117">
+        <v>1.3477531570954079E+18</v>
+      </c>
+      <c r="B1117" t="s">
+        <v>2060</v>
+      </c>
+      <c r="C1117" t="s">
+        <v>2058</v>
+      </c>
+      <c r="D1117" t="s">
+        <v>2061</v>
+      </c>
+    </row>
+    <row r="1118" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1118">
+        <v>1.3477494247059251E+18</v>
+      </c>
+      <c r="B1118" t="s">
+        <v>2062</v>
+      </c>
+      <c r="C1118" t="s">
+        <v>21</v>
+      </c>
+      <c r="D1118" t="s">
+        <v>2063</v>
+      </c>
+    </row>
+    <row r="1119" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1119">
+        <v>1.3477477037116951E+18</v>
+      </c>
+      <c r="B1119" t="s">
+        <v>2064</v>
+      </c>
+      <c r="C1119" t="s">
+        <v>1780</v>
+      </c>
+      <c r="D1119" t="s">
+        <v>2065</v>
+      </c>
+    </row>
+    <row r="1120" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1120">
+        <v>1.3477205424349839E+18</v>
+      </c>
+      <c r="B1120" t="s">
+        <v>2066</v>
+      </c>
+      <c r="C1120" t="s">
+        <v>625</v>
+      </c>
+      <c r="D1120" t="s">
+        <v>2067</v>
+      </c>
+    </row>
+    <row r="1121" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1121">
+        <v>1.347682718646092E+18</v>
+      </c>
+      <c r="B1121" t="s">
+        <v>2068</v>
+      </c>
+      <c r="C1121" t="s">
+        <v>625</v>
+      </c>
+      <c r="D1121" t="s">
+        <v>2069</v>
+      </c>
+    </row>
+    <row r="1122" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1122">
+        <v>1.3476451571438469E+18</v>
+      </c>
+      <c r="B1122" t="s">
+        <v>2070</v>
+      </c>
+      <c r="C1122" t="s">
+        <v>625</v>
+      </c>
+      <c r="D1122" t="s">
+        <v>2071</v>
+      </c>
+    </row>
+    <row r="1123" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1123">
+        <v>1.3476078779768791E+18</v>
+      </c>
+      <c r="B1123" t="s">
+        <v>2072</v>
+      </c>
+      <c r="C1123" t="s">
+        <v>625</v>
+      </c>
+      <c r="D1123" t="s">
+        <v>2073</v>
+      </c>
+    </row>
+    <row r="1124" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1124">
+        <v>1.347571170871177E+18</v>
+      </c>
+      <c r="B1124" t="s">
+        <v>2074</v>
+      </c>
+      <c r="C1124" t="s">
+        <v>625</v>
+      </c>
+      <c r="D1124" t="s">
+        <v>2075</v>
+      </c>
+    </row>
+    <row r="1125" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1125">
+        <v>1.3475317635228019E+18</v>
+      </c>
+      <c r="B1125" t="s">
+        <v>1847</v>
+      </c>
+      <c r="C1125" t="s">
+        <v>625</v>
+      </c>
+      <c r="D1125" t="s">
+        <v>1848</v>
+      </c>
+    </row>
+    <row r="1126" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1126">
+        <v>1.3475080372175181E+18</v>
+      </c>
+      <c r="B1126" t="s">
+        <v>1849</v>
+      </c>
+      <c r="C1126" t="s">
+        <v>21</v>
+      </c>
+      <c r="D1126" t="s">
+        <v>1850</v>
+      </c>
+    </row>
+    <row r="1127" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1127">
+        <v>1.3475078969390039E+18</v>
+      </c>
+      <c r="B1127" t="s">
+        <v>1851</v>
+      </c>
+      <c r="C1127" t="s">
+        <v>21</v>
+      </c>
+      <c r="D1127" t="s">
+        <v>1852</v>
+      </c>
+    </row>
+    <row r="1128" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1128">
+        <v>1.3474938032721961E+18</v>
+      </c>
+      <c r="B1128" t="s">
+        <v>1853</v>
+      </c>
+      <c r="C1128" t="s">
+        <v>625</v>
+      </c>
+      <c r="D1128" t="s">
+        <v>1854</v>
+      </c>
+    </row>
+    <row r="1129" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1129">
+        <v>1.347482458879627E+18</v>
+      </c>
+      <c r="B1129" t="s">
+        <v>1855</v>
+      </c>
+      <c r="C1129" t="s">
+        <v>1856</v>
+      </c>
+      <c r="D1129" t="s">
+        <v>1857</v>
+      </c>
+    </row>
+    <row r="1130" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1130">
+        <v>1.347456176028479E+18</v>
+      </c>
+      <c r="B1130" t="s">
+        <v>1858</v>
+      </c>
+      <c r="C1130" t="s">
+        <v>625</v>
+      </c>
+      <c r="D1130" t="s">
+        <v>1859</v>
+      </c>
+    </row>
+    <row r="1131" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1131">
+        <v>1.3474413390261819E+18</v>
+      </c>
+      <c r="B1131" t="s">
+        <v>1860</v>
+      </c>
+      <c r="C1131" t="s">
+        <v>45</v>
+      </c>
+      <c r="D1131" t="s">
+        <v>1861</v>
+      </c>
+    </row>
+    <row r="1132" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1132">
+        <v>1.3474406306333609E+18</v>
+      </c>
+      <c r="B1132" t="s">
+        <v>1862</v>
+      </c>
+      <c r="C1132" t="s">
+        <v>45</v>
+      </c>
+      <c r="D1132" t="s">
+        <v>1863</v>
+      </c>
+    </row>
+    <row r="1133" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1133">
+        <v>1.347440433534624E+18</v>
+      </c>
+      <c r="B1133" t="s">
+        <v>1864</v>
+      </c>
+      <c r="C1133" t="s">
+        <v>45</v>
+      </c>
+      <c r="D1133" t="s">
+        <v>1865</v>
+      </c>
+    </row>
+    <row r="1134" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1134">
+        <v>1.347439878250762E+18</v>
+      </c>
+      <c r="B1134" t="s">
+        <v>1866</v>
+      </c>
+      <c r="C1134" t="s">
+        <v>45</v>
+      </c>
+      <c r="D1134" t="s">
+        <v>1867</v>
+      </c>
+    </row>
+    <row r="1135" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1135">
+        <v>1.3474390984164019E+18</v>
+      </c>
+      <c r="B1135" t="s">
+        <v>1868</v>
+      </c>
+      <c r="C1135" t="s">
+        <v>45</v>
+      </c>
+      <c r="D1135" t="s">
+        <v>1869</v>
+      </c>
+    </row>
+    <row r="1136" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1136">
+        <v>1.3474383200334111E+18</v>
+      </c>
+      <c r="B1136" t="s">
+        <v>1870</v>
+      </c>
+      <c r="C1136" t="s">
+        <v>72</v>
+      </c>
+      <c r="D1136" t="s">
+        <v>1871</v>
+      </c>
+    </row>
+    <row r="1137" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1137">
+        <v>1.3474196242881249E+18</v>
+      </c>
+      <c r="B1137" t="s">
+        <v>1872</v>
+      </c>
+      <c r="C1137" t="s">
+        <v>625</v>
+      </c>
+      <c r="D1137" t="s">
+        <v>1873</v>
+      </c>
+    </row>
+    <row r="1138" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1138">
+        <v>1.3474069363464891E+18</v>
+      </c>
+      <c r="B1138" t="s">
+        <v>1874</v>
+      </c>
+      <c r="C1138" t="s">
+        <v>1875</v>
+      </c>
+      <c r="D1138" t="s">
+        <v>1876</v>
+      </c>
+    </row>
+    <row r="1139" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1139">
+        <v>1.347405135115284E+18</v>
+      </c>
+      <c r="B1139" t="s">
+        <v>1877</v>
+      </c>
+      <c r="C1139" t="s">
+        <v>1875</v>
+      </c>
+      <c r="D1139" t="s">
+        <v>1878</v>
+      </c>
+    </row>
+    <row r="1140" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1140">
+        <v>1.3474022173141571E+18</v>
+      </c>
+      <c r="B1140" t="s">
+        <v>1879</v>
+      </c>
+      <c r="C1140" t="s">
+        <v>1875</v>
+      </c>
+      <c r="D1140" t="s">
+        <v>1880</v>
+      </c>
+    </row>
+    <row r="1141" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1141">
+        <v>1.347381890651542E+18</v>
+      </c>
+      <c r="B1141" t="s">
+        <v>1881</v>
+      </c>
+      <c r="C1141" t="s">
+        <v>1780</v>
+      </c>
+      <c r="D1141" t="s">
+        <v>1882</v>
+      </c>
+    </row>
+    <row r="1142" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1142">
+        <v>1.3473816296358579E+18</v>
+      </c>
+      <c r="B1142" t="s">
+        <v>1883</v>
+      </c>
+      <c r="C1142" t="s">
+        <v>625</v>
+      </c>
+      <c r="D1142" t="s">
+        <v>1884</v>
+      </c>
+    </row>
+    <row r="1143" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1143">
+        <v>1.3473801576490931E+18</v>
+      </c>
+      <c r="B1143" t="s">
+        <v>1885</v>
+      </c>
+      <c r="C1143" t="s">
+        <v>1780</v>
+      </c>
+      <c r="D1143" t="s">
+        <v>1886</v>
+      </c>
+    </row>
+    <row r="1144" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1144">
+        <v>1.347343797823263E+18</v>
+      </c>
+      <c r="B1144" t="s">
+        <v>1887</v>
+      </c>
+      <c r="C1144" t="s">
+        <v>625</v>
+      </c>
+      <c r="D1144" t="s">
+        <v>1888</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/application/static/excel_data/data_crawling -- 3. #belajardirumah.xlsx
+++ b/application/static/excel_data/data_crawling -- 3. #belajardirumah.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3433" uniqueCount="2076">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3820" uniqueCount="2305">
   <si>
     <t>id</t>
   </si>
@@ -8663,6 +8663,984 @@
   </si>
   <si>
     <t>Fri Jan 08 15:49:38 +0000 2021</t>
+  </si>
+  <si>
+    <t>Seri Adab Kepada Orang Tua - Diskon 20% menjadi Rp.20000
+Gratis ongkos kirim hingga 40rb keseluruh Indonesia.
+#mainanbukuanak #promo #dirumahaja #belajardirumah #buku #membaca #booklover #bookstorm  
+SINOPSIS:Abi merajuk saat keingin annya membeli mobil- mobilan tidak https://t.co/7IymZ8CKqu</t>
+  </si>
+  <si>
+    <t>Sun Jan 17 14:42:06 +0000 2021</t>
+  </si>
+  <si>
+    <t>Kalau ada soal sulit, tinggal TANYA aja di Kelas Pintar!
+Belajar susah fokus? Tapi, soal yang dikerjain sulit? TANYA Kelas Pintar aja yuk!
+#bimbelonline #pjj #pjjonlineclass #belajardirumah #kelaspintarindonesia https://t.co/WdDgqfQbkt</t>
+  </si>
+  <si>
+    <t>Sun Jan 17 14:15:26 +0000 2021</t>
+  </si>
+  <si>
+    <t>Buku Aktivitas Mengenal Hewan - Diskon 20% menjadi Rp.16000
+Gratis ongkos kirim hingga 40rb keseluruh Indonesia.
+#mainanbukuanak #promo #dirumahaja #belajardirumah #buku #membaca #booklover #bookstorm  
+SINOPSIS:Mewarnai Membaca Menulis dan Menghitung
+Di buku ini kita https://t.co/ir42dNiCvg</t>
+  </si>
+  <si>
+    <t>Sun Jan 17 12:12:18 +0000 2021</t>
+  </si>
+  <si>
+    <t>HARI INI PASIEN SEMBUH BERTAMBAH 18 SEDANGKAN KASUS BARU 56
+INFORMASI LENGKAPNYA BACA 👉 https://t.co/bLGJTBKUa4
+#ayolawancorona #belajardirumah #beribadahdirumah #bermaindirumah #dirumahsaja #jagakebersihan #jagakesehatan #jagajarak #pakemasker #tetapwaspada #coronabisasembuh https://t.co/Swv8vACKNW</t>
+  </si>
+  <si>
+    <t>Sun Jan 17 11:33:39 +0000 2021</t>
+  </si>
+  <si>
+    <t>Update Perkembangan Covid-19 di Kabupaten Luwu Timur per 17 Januari 2021.
+18 sembuh dan 56 kasus baru.
+Perbaharui terus informasi di https://t.co/D4pL3qgDlY
+#ayolawancorona #belajardirumah #bekerjadirumah #bermaindirumah #dirumahsaja #jagakebersihan #jagakesehatan #jagajarak https://t.co/WuiG4WpsMt</t>
+  </si>
+  <si>
+    <t>Sun Jan 17 11:33:17 +0000 2021</t>
+  </si>
+  <si>
+    <t>Seri Adab Berbicara - Diskon 20% menjadi Rp.20000
+Gratis ongkos kirim hingga 40rb keseluruh Indonesia.
+#mainanbukuanak #promo #dirumahaja #belajardirumah #buku #membaca #booklover #bookstorm  
+SINOPSIS:Saat berbicara Gema dan Gina tidak pernah berbohong Indahnya https://t.co/PCTMVg8LH4</t>
+  </si>
+  <si>
+    <t>Sun Jan 17 09:42:26 +0000 2021</t>
+  </si>
+  <si>
+    <t>Seri Adab Belajar - Diskon 20% menjadi Rp.20000
+Gratis ongkos kirim hingga 40rb keseluruh Indonesia.
+#mainanbukuanak #promo #dirumahaja #belajardirumah #buku #membaca #booklover #bookstorm  
+SINOPSIS:Nilai ulangan harianku tadi jelek Di. Aku hanya mendapat angka 5. Itu https://t.co/eDRntNfA42</t>
+  </si>
+  <si>
+    <t>Sun Jan 17 07:12:06 +0000 2021</t>
+  </si>
+  <si>
+    <t>Tes pengetahuan anak tentang mata pelajaran lewat SOAL yuk! Belajar di Kelas Pintar bikin anak jadi pintar.
+#bimbelonline #belajardirumah #bimbelberkualitas #pjjonlineclass #kelaspintarindonesia https://t.co/UZ7a4i7Gda</t>
+  </si>
+  <si>
+    <t>Sun Jan 17 06:11:59 +0000 2021</t>
+  </si>
+  <si>
+    <t>Buku Aktivitas Mengenal Hewan - Diskon 20% menjadi Rp.16000
+Gratis ongkos kirim hingga 40rb keseluruh Indonesia.
+#mainanbukuanak #promo #dirumahaja #belajardirumah #buku #membaca #booklover #bookstorm  
+SINOPSIS:Mewarnai Membaca Menulis dan Menghitung
+Di buku ini kita https://t.co/SqwOPK772C</t>
+  </si>
+  <si>
+    <t>Sun Jan 17 04:43:09 +0000 2021</t>
+  </si>
+  <si>
+    <t>Seri Adab Makan dan Minum - Diskon 20% menjadi Rp.20000
+Gratis ongkos kirim hingga 40rb keseluruh Indonesia.
+#mainanbukuanak #promo #dirumahaja #belajardirumah #buku #membaca #booklover #bookstorm  
+SINOPSIS:Mengapa bu Ihda menegur Abi saat Abi sedang makan? Seperti apa https://t.co/Xv2GIrMBxp</t>
+  </si>
+  <si>
+    <t>Sun Jan 17 02:12:12 +0000 2021</t>
+  </si>
+  <si>
+    <t>Seri Adab Berbicara - Diskon 20% menjadi Rp.20000
+Gratis ongkos kirim hingga 40rb keseluruh Indonesia.
+#mainanbukuanak #promo #dirumahaja #belajardirumah #buku #membaca #booklover #bookstorm  
+SINOPSIS:Saat berbicara Gema dan Gina tidak pernah berbohong Indahnya https://t.co/HEii6IWXCx</t>
+  </si>
+  <si>
+    <t>Sat Jan 16 23:42:00 +0000 2021</t>
+  </si>
+  <si>
+    <t>Seri Mengenal Allah 5 : Aku Ciptaan Allah - Diskon 20% menjadi Rp.20000
+Gratis ongkos kirim hingga 40rb keseluruh Indonesia.
+#mainanbukuanak #promo #dirumahaja #belajardirumah #buku #membaca #booklover #bookstorm  
+SINOPSIS:Allah ciptakan aku dalam rahim ibuku. Sukacita https://t.co/Ied5oOtoga</t>
+  </si>
+  <si>
+    <t>Sat Jan 16 21:12:09 +0000 2021</t>
+  </si>
+  <si>
+    <t>Simak vidio lengkapnya dengan klik
+⬇⬇⬇⬇⬇
+https://t.co/BKJe4dDoBE
+#tiktok
+#tiktokcooking
+#RotiGroup
+#rotikopi
+#whitekoffie
+#Indonesia
+#dirumahaja
+#StayAtHome 
+#YouTube 
+#Chanel 
+#indonesiasemogabaikbaik
+#coronaberlalu
+#belajardirumah https://t.co/hdt2JIbZG8</t>
+  </si>
+  <si>
+    <t>Atidamayanti6</t>
+  </si>
+  <si>
+    <t>Sat Jan 16 19:43:33 +0000 2021</t>
+  </si>
+  <si>
+    <t>Persahabatan Gajah Dan Semut ( SC ) - Diskon 20% menjadi Rp.31200
+Gratis ongkos kirim hingga 40rb keseluruh Indonesia.
+#mainanbukuanak #promo #dirumahaja #belajardirumah #buku #membaca #booklover #bookstorm  
+SINOPSIS:Persahabatan ini indah….Selamanya tak anak https://t.co/OULYMrKHef</t>
+  </si>
+  <si>
+    <t>Sat Jan 16 18:42:11 +0000 2021</t>
+  </si>
+  <si>
+    <t>Seri Adab Bepergian - Diskon 20% menjadi Rp.20000
+Gratis ongkos kirim hingga 40rb keseluruh Indonesia.
+#mainanbukuanak #promo #dirumahaja #belajardirumah #buku #membaca #booklover #bookstorm  
+SINOPSIS:Lila kesal karena lupa membawa mainan pasirnya saat ke pantai. https://t.co/QCC8twxy0U</t>
+  </si>
+  <si>
+    <t>Sat Jan 16 16:12:31 +0000 2021</t>
+  </si>
+  <si>
+    <t>Seri Adab Belajar - Diskon 20% menjadi Rp.20000
+Gratis ongkos kirim hingga 40rb keseluruh Indonesia.
+#mainanbukuanak #promo #dirumahaja #belajardirumah #buku #membaca #booklover #bookstorm  
+SINOPSIS:Nilai ulangan harianku tadi jelek Di. Aku hanya mendapat angka 5. Itu https://t.co/c7QsbBirv1</t>
+  </si>
+  <si>
+    <t>Sat Jan 16 13:42:04 +0000 2021</t>
+  </si>
+  <si>
+    <t>HARI INI PASIEN SEMBUH, KASUS BARU DAN PASIEN MENINGGAL BERTAMBAH LAGI
+INFORMASI LENGKAPNYA BACA DI 👉 https://t.co/oNB33wa1XT
+#ayolawancorona #belajardirumah #bermaindirumah #dirumahsaja #jagakebersihan #jagakesehatan #jagajarak #pakemasker #tetapwaspada #coronabisasembuh https://t.co/Ne7UCAQT8o</t>
+  </si>
+  <si>
+    <t>Sat Jan 16 11:28:01 +0000 2021</t>
+  </si>
+  <si>
+    <t>Update Perkembangan Covid-19 di Kabupaten Luwu Timur per 16 Januari 2021.
+8 sembuh, 6 kasus baru &amp;amp; 2 meninggal.
+Perbaharui terus informasi anda di https://t.co/D4pL3qgDlY
+#ayolawancorona #belajardirumah #beribadahdirumah #bermaindirumah #dirumahsaja #jagajarak #jagakesehatan https://t.co/W9cu5h4NQU</t>
+  </si>
+  <si>
+    <t>Sat Jan 16 11:27:42 +0000 2021</t>
+  </si>
+  <si>
+    <t>Buku Aktivitas Mengenal Hewan - Diskon 20% menjadi Rp.16000
+Gratis ongkos kirim hingga 40rb keseluruh Indonesia.
+#mainanbukuanak #promo #dirumahaja #belajardirumah #buku #membaca #booklover #bookstorm  
+SINOPSIS:Mewarnai Membaca Menulis dan Menghitung
+Di buku ini kita https://t.co/CxR93QKbDV</t>
+  </si>
+  <si>
+    <t>Sat Jan 16 11:12:13 +0000 2021</t>
+  </si>
+  <si>
+    <t>Hai sahabat Kelas Pintar! Usia remaja adalah usia emas yang bisa kamu manfaatkan untuk masa depanmu.
+Pandai-pandailah memanfaatkan waktu dan kesempatan yang kamu punya untuk investasi masa depanmu ya!
+#tipsbelajar #infosma #belajardirumah #generasimilenial #kelaspintarindonesia https://t.co/yW9cnw5JxX</t>
+  </si>
+  <si>
+    <t>Sat Jan 16 09:07:26 +0000 2021</t>
+  </si>
+  <si>
+    <t>Seri Adab Kepada Orang Tua - Diskon 20% menjadi Rp.20000
+Gratis ongkos kirim hingga 40rb keseluruh Indonesia.
+#mainanbukuanak #promo #dirumahaja #belajardirumah #buku #membaca #booklover #bookstorm  
+SINOPSIS:Abi merajuk saat keingin annya membeli mobil- mobilan tidak https://t.co/qO5v95s3Pb</t>
+  </si>
+  <si>
+    <t>Sat Jan 16 08:41:57 +0000 2021</t>
+  </si>
+  <si>
+    <t>Seri Mengenal Allah 5 : Aku Ciptaan Allah - Diskon 20% menjadi Rp.20000
+Gratis ongkos kirim hingga 40rb keseluruh Indonesia.
+#mainanbukuanak #promo #dirumahaja #belajardirumah #buku #membaca #booklover #bookstorm  
+SINOPSIS:Allah ciptakan aku dalam rahim ibuku. Sukacita https://t.co/4TsR5gLU3n</t>
+  </si>
+  <si>
+    <t>Sat Jan 16 06:12:02 +0000 2021</t>
+  </si>
+  <si>
+    <t>Persahabatan Gajah Dan Semut ( SC ) - Diskon 20% menjadi Rp.31200
+Gratis ongkos kirim hingga 40rb keseluruh Indonesia.
+#mainanbukuanak #promo #dirumahaja #belajardirumah #buku #membaca #booklover #bookstorm  
+SINOPSIS:Persahabatan ini indah….Selamanya tak anak https://t.co/UXv3ESuCld</t>
+  </si>
+  <si>
+    <t>Sat Jan 16 03:42:11 +0000 2021</t>
+  </si>
+  <si>
+    <t>Mau tau cara menyerap pelajaran dengan cepat? Simak postingan kita ini ya!
+#tipsbelajar #tipsmahasiswa #belajardirumah #bimbelberkualitas #kelaspintarindonesia https://t.co/Tw8B3iJtiv</t>
+  </si>
+  <si>
+    <t>Sat Jan 16 03:02:42 +0000 2021</t>
+  </si>
+  <si>
+    <t>PEDULI BENCANA, WABUP IRWAN LEPAS ROMBONGAN TIM KEMANUSIAAN MENUJU SULBAR
+BACA INFORMASI LENGKAPNYA DI 👉 https://t.co/n0iG446T7S
+#ayolawancorona #belajardirumah #bermaindirumah #dirumahsaja #jagakebersihan #jagakesehatan #jagajarak #pakemasker #tetapwaspada #coronabisasembuh https://t.co/4YbKuRUhQ8</t>
+  </si>
+  <si>
+    <t>Sat Jan 16 02:19:24 +0000 2021</t>
+  </si>
+  <si>
+    <t>WABUP IRWAN PERINTAHKAN REKANAN BENAHI SPAL PKM BONE PUTE
+BACA INFORMASI LENGKAPNYA DI 👉 https://t.co/XV33cfD1OI
+#ayolawancorona #belajardirumah #beribadahdirumah #bermaindirumah #dirumahsaja #jagakebersihan #jagakesehatan #jagajarak #pakemasker #tetapwaspada #coronabisasembuh https://t.co/5cgwko9Etu</t>
+  </si>
+  <si>
+    <t>Sat Jan 16 01:19:25 +0000 2021</t>
+  </si>
+  <si>
+    <t>Seri Adab Makan dan Minum - Diskon 20% menjadi Rp.20000
+Gratis ongkos kirim hingga 40rb keseluruh Indonesia.
+#mainanbukuanak #promo #dirumahaja #belajardirumah #buku #membaca #booklover #bookstorm  
+SINOPSIS:Mengapa bu Ihda menegur Abi saat Abi sedang makan? Seperti apa https://t.co/tzdqV0KLGC</t>
+  </si>
+  <si>
+    <t>Sat Jan 16 01:12:07 +0000 2021</t>
+  </si>
+  <si>
+    <t>SELAIN RS DARURAT ENGGANO CAMP, WABUP IRWAN JUGA PANTAU KESIAPAN PKM BONEPUTE
+INFORMASI LENGKAPNYA DI 👉 https://t.co/fb3vn5G7wX
+#ayolawancorona #belajardirumah #bermaindirumah #dirumahsaja #jagakebersihan #jagakesehatan #jagajarak #pakemasker #tetapwaspada #coronabisasembuh https://t.co/uvnfJMSdcU</t>
+  </si>
+  <si>
+    <t>Fri Jan 15 23:40:27 +0000 2021</t>
+  </si>
+  <si>
+    <t>Persahabatan Gajah Dan Semut ( SC ) - Diskon 20% menjadi Rp.31200
+Gratis ongkos kirim hingga 40rb keseluruh Indonesia.
+#mainanbukuanak #promo #dirumahaja #belajardirumah #buku #membaca #booklover #bookstorm  
+SINOPSIS:Persahabatan ini indah….Selamanya tak anak https://t.co/jERfShZlcf</t>
+  </si>
+  <si>
+    <t>Fri Jan 15 22:42:02 +0000 2021</t>
+  </si>
+  <si>
+    <t>Cerita Si Ayam - Diskon 20% menjadi Rp.20000
+Gratis ongkos kirim hingga 40rb keseluruh Indonesia.
+#mainanbukuanak #promo #dirumahaja #belajardirumah #buku #membaca #booklover #bookstorm  
+SINOPSIS:Ciap… ciap… ciap ….Assalamualaikum Teman-Teman ….Aku Taji si anak https://t.co/R5X2BhjmtX</t>
+  </si>
+  <si>
+    <t>Fri Jan 15 20:12:06 +0000 2021</t>
+  </si>
+  <si>
+    <t>Seri Mengenal Allah 5 : Aku Ciptaan Allah - Diskon 20% menjadi Rp.20000
+Gratis ongkos kirim hingga 40rb keseluruh Indonesia.
+#mainanbukuanak #promo #dirumahaja #belajardirumah #buku #membaca #booklover #bookstorm  
+SINOPSIS:Allah ciptakan aku dalam rahim ibuku. Sukacita https://t.co/44PRI7vZom</t>
+  </si>
+  <si>
+    <t>Fri Jan 15 17:44:36 +0000 2021</t>
+  </si>
+  <si>
+    <t>Seri Adab Berbicara - Diskon 20% menjadi Rp.20000
+Gratis ongkos kirim hingga 40rb keseluruh Indonesia.
+#mainanbukuanak #promo #dirumahaja #belajardirumah #buku #membaca #booklover #bookstorm  
+SINOPSIS:Saat berbicara Gema dan Gina tidak pernah berbohong Indahnya https://t.co/7wt0IdgtDU</t>
+  </si>
+  <si>
+    <t>Fri Jan 15 15:15:33 +0000 2021</t>
+  </si>
+  <si>
+    <t>Seri Adab Bepergian - Diskon 20% menjadi Rp.20000
+Gratis ongkos kirim hingga 40rb keseluruh Indonesia.
+#mainanbukuanak #promo #dirumahaja #belajardirumah #buku #membaca #booklover #bookstorm  
+SINOPSIS:Lila kesal karena lupa membawa mainan pasirnya saat ke pantai. https://t.co/RKgqCyBu8m</t>
+  </si>
+  <si>
+    <t>Fri Jan 15 12:41:59 +0000 2021</t>
+  </si>
+  <si>
+    <t>UPDATE CORONA LUTIM, 27 PASIEN SEMBUH, 7 KASUS BARU DAN 2 MENINGGAL LAGI
+INFORMASI LENGKAPNYA BACA DI 👉 https://t.co/OeYB8Qe1Dj
+#ayolawancorona #belajardirumah #bermaindirumah #dirumahsaja #jagakebersihan #jagakesehatan #jagajarak #pakemasker #tetapwaspada #coronabisasembuh https://t.co/kgOOmjcCar</t>
+  </si>
+  <si>
+    <t>Fri Jan 15 11:34:08 +0000 2021</t>
+  </si>
+  <si>
+    <t>Update Perkembangan Covid-19 di Kabupaten Luwu Timur per 15 Januari 2021.
+27 sembuh, 7 kasus baru &amp;amp; 2 meninggal.
+Perbaharui terus informasi anda di https://t.co/D4pL3qgDlY
+#ayolawancorona #belajardirumah #dirumahsaja #jagakebersihan #jagakesehatan #jagajarak #pakemasker https://t.co/ySI47o5gaw</t>
+  </si>
+  <si>
+    <t>Fri Jan 15 11:33:33 +0000 2021</t>
+  </si>
+  <si>
+    <t>Seri Adab Belajar - Diskon 20% menjadi Rp.20000
+Gratis ongkos kirim hingga 40rb keseluruh Indonesia.
+#mainanbukuanak #promo #dirumahaja #belajardirumah #buku #membaca #booklover #bookstorm  
+SINOPSIS:Nilai ulangan harianku tadi jelek Di. Aku hanya mendapat angka 5. Itu https://t.co/T3VgBuaGwI</t>
+  </si>
+  <si>
+    <t>Fri Jan 15 10:11:54 +0000 2021</t>
+  </si>
+  <si>
+    <t>IRWAN MINTA PT. WIKA PRIORITASKAN TENAGA KERJA LOKAL
+BACA INFORMASI LENGKAPNYA DI 👉 https://t.co/nFZiI1XXFS
+#ayolawancorona #belajardirumah #beribadahdirumah #bermaindirumah #dirumahsaja #jagakebersihan #jagakesehatan #jagajarak #pakemasker #tetapwaspada #coronabisasembuh https://t.co/xs6mfWZjeZ</t>
+  </si>
+  <si>
+    <t>Fri Jan 15 09:20:33 +0000 2021</t>
+  </si>
+  <si>
+    <t>Yuk bikin si kecil semakin semangat mengerjakan PR sambil ditemani #KimboReddi Sosis Ikan Rasa Otak-otak kesukannya  Dibuat dengan daging ikan pilihan yang nikmat dijamin si kecil nambah terus deh! 
+#BerbagiNikmat #BikinSemuaHappy #LebihPanjangLebihEnak #BelajarDiRumah https://t.co/mCCiZgM7GO</t>
+  </si>
+  <si>
+    <t>KimboIdn</t>
+  </si>
+  <si>
+    <t>Fri Jan 15 08:02:09 +0000 2021</t>
+  </si>
+  <si>
+    <t>Seri Adab Berpakaian - Diskon 20% menjadi Rp.20000
+Gratis ongkos kirim hingga 40rb keseluruh Indonesia.
+#mainanbukuanak #promo #dirumahaja #belajardirumah #buku #membaca #booklover #bookstorm  
+SINOPSIS:Abi ingin memiliki baju baru bergambar robot seperti teman – https://t.co/urgW0Wa7eP</t>
+  </si>
+  <si>
+    <t>Fri Jan 15 07:42:15 +0000 2021</t>
+  </si>
+  <si>
+    <t>Udah, ya khilaf belanja pas 12.12, sekarang waktunya nabung!
+Simak nih jenis investasi buat pemula biar tabungan kamu makin banyak.
+#kelaskita #carabarubelajarseru #belajardirumah #elearning #belajaronline #dirumahaja https://t.co/nkyQcsrTWX</t>
+  </si>
+  <si>
+    <t>Fri Jan 15 06:42:02 +0000 2021</t>
+  </si>
+  <si>
+    <t>Alasan ini lah kenapa kamu harus pakai Kelas Pintar!
+#belajardirumah #dirumahaja #bimbelonline #bimbelberkualitas #kelaspintarindonesia https://t.co/EdAXSL1N6a</t>
+  </si>
+  <si>
+    <t>Fri Jan 15 06:08:13 +0000 2021</t>
+  </si>
+  <si>
+    <t>Seri Adab Kepada Orang Tua - Diskon 20% menjadi Rp.20000
+Gratis ongkos kirim hingga 40rb keseluruh Indonesia.
+#mainanbukuanak #promo #dirumahaja #belajardirumah #buku #membaca #booklover #bookstorm  
+SINOPSIS:Abi merajuk saat keingin annya membeli mobil- mobilan tidak https://t.co/MkKYTcBAsZ</t>
+  </si>
+  <si>
+    <t>Fri Jan 15 05:12:29 +0000 2021</t>
+  </si>
+  <si>
+    <t>Seri Adab Makan dan Minum - Diskon 20% menjadi Rp.20000
+Gratis ongkos kirim hingga 40rb keseluruh Indonesia.
+#mainanbukuanak #promo #dirumahaja #belajardirumah #buku #membaca #booklover #bookstorm  
+SINOPSIS:Mengapa bu Ihda menegur Abi saat Abi sedang makan? Seperti apa https://t.co/hyfQvUuF8N</t>
+  </si>
+  <si>
+    <t>Fri Jan 15 02:43:01 +0000 2021</t>
+  </si>
+  <si>
+    <t>Seri Adab Berbicara - Diskon 20% menjadi Rp.20000
+Gratis ongkos kirim hingga 40rb keseluruh Indonesia.
+#mainanbukuanak #promo #dirumahaja #belajardirumah #buku #membaca #booklover #bookstorm  
+SINOPSIS:Saat berbicara Gema dan Gina tidak pernah berbohong Indahnya https://t.co/5GcOqPeU5K</t>
+  </si>
+  <si>
+    <t>Fri Jan 15 00:16:42 +0000 2021</t>
+  </si>
+  <si>
+    <t>PANTAU RS DARURAT COVID-19 DI ENGGANO, WABUP IRWAN : ALHAMDULILLAH SUDAH SIAP DIGUNAKAN
+BACA INFORMASI LENGKAPNYA DI 👉 https://t.co/T7IWE17XbV
+#ayolawancorona #belajardirumah #dirumahsaja #jagakebersihan #jagakesehatan #jagajarak #pakemasker #tetapwaspada #coronabisasembuh https://t.co/WMuI3vIHQG</t>
+  </si>
+  <si>
+    <t>Thu Jan 14 22:00:54 +0000 2021</t>
+  </si>
+  <si>
+    <t>Seri Mengenal Allah 5 : Aku Ciptaan Allah - Diskon 20% menjadi Rp.20000
+Gratis ongkos kirim hingga 40rb keseluruh Indonesia.
+#mainanbukuanak #promo #dirumahaja #belajardirumah #buku #membaca #booklover #bookstorm  
+SINOPSIS:Allah ciptakan aku dalam rahim ibuku. Sukacita https://t.co/T1Ti3nJMBh</t>
+  </si>
+  <si>
+    <t>Thu Jan 14 21:42:49 +0000 2021</t>
+  </si>
+  <si>
+    <t>Persahabatan Gajah Dan Semut ( SC ) - Diskon 20% menjadi Rp.31200
+Gratis ongkos kirim hingga 40rb keseluruh Indonesia.
+#mainanbukuanak #promo #dirumahaja #belajardirumah #buku #membaca #booklover #bookstorm  
+SINOPSIS:Persahabatan ini indah….Selamanya tak anak https://t.co/Y2VcTP8Apz</t>
+  </si>
+  <si>
+    <t>Thu Jan 14 19:12:05 +0000 2021</t>
+  </si>
+  <si>
+    <t>Seri Adab Bepergian - Diskon 20% menjadi Rp.20000
+Gratis ongkos kirim hingga 40rb keseluruh Indonesia.
+#mainanbukuanak #promo #dirumahaja #belajardirumah #buku #membaca #booklover #bookstorm  
+SINOPSIS:Lila kesal karena lupa membawa mainan pasirnya saat ke pantai. https://t.co/vinH0s6c3X</t>
+  </si>
+  <si>
+    <t>Thu Jan 14 16:42:40 +0000 2021</t>
+  </si>
+  <si>
+    <t>Seri Adab Belajar - Diskon 20% menjadi Rp.20000
+Gratis ongkos kirim hingga 40rb keseluruh Indonesia.
+#mainanbukuanak #promo #dirumahaja #belajardirumah #buku #membaca #booklover #bookstorm  
+SINOPSIS:Nilai ulangan harianku tadi jelek Di. Aku hanya mendapat angka 5. Itu https://t.co/XEhzpygSFY</t>
+  </si>
+  <si>
+    <t>Thu Jan 14 14:12:00 +0000 2021</t>
+  </si>
+  <si>
+    <t>Daftar ulang yuuuuuuuk!
+✴️❤️🧡💛💚💙💜🖤♨️
+#liaonline #kelapagading #liakelapagading #lia #kursusbahasainggris #belajardirumah #dirumahaja #funlearning #englishcourse #english #flippedclassroom https://t.co/VgVVLrajup</t>
+  </si>
+  <si>
+    <t>Thu Jan 14 13:50:45 +0000 2021</t>
+  </si>
+  <si>
+    <t>Temuin nama nama mata pelajaran di sekolah yuk!
+#bermainsambilbelajar #belajardirumah #tekateki #infosma #kelaspintarindonesia https://t.co/nvGPF5hBGK</t>
+  </si>
+  <si>
+    <t>Thu Jan 14 13:24:36 +0000 2021</t>
+  </si>
+  <si>
+    <t>TOTAL PASIEN COVID19 YANG SEMBUH MENCAPAI 2.117 DARI 2.401 KASUS KONFIRMASI
+INFORMASI LENGKAPNYA BACA DI 👉 https://t.co/j58BLfrxYD
+#ayolawancorona #belajardirumah #bermaindirumah #dirumahsaja #jagakebersihan #jagakesehatan #jagajarak #pakemasker #tetapwaspada #coronabisasembuh https://t.co/9MuF3BRR1I</t>
+  </si>
+  <si>
+    <t>Thu Jan 14 12:53:07 +0000 2021</t>
+  </si>
+  <si>
+    <t>Update Perkembangan Covid-19 di Kabupaten Luwu Timur per 14 Januari 2021.
+9 sembuh dan 35 kasus baru.
+Perbaharui terus informasi di https://t.co/D4pL3qgDlY
+#ayolawancorona #belajardirumah #beribadahdirumah #bermaindirumah #dirumahsaja #jagakebersihan #jagakesehatan #jagajarak https://t.co/n4b0tvL9TL</t>
+  </si>
+  <si>
+    <t>Thu Jan 14 12:52:41 +0000 2021</t>
+  </si>
+  <si>
+    <t>Buku Aktivitas Mengenal Hewan - Diskon 20% menjadi Rp.16000
+Gratis ongkos kirim hingga 40rb keseluruh Indonesia.
+#mainanbukuanak #promo #dirumahaja #belajardirumah #buku #membaca #booklover #bookstorm  
+SINOPSIS:Mewarnai Membaca Menulis dan Menghitung
+Di buku ini kita https://t.co/IDXFojWnhM</t>
+  </si>
+  <si>
+    <t>Thu Jan 14 11:42:25 +0000 2021</t>
+  </si>
+  <si>
+    <t>Seri Adab Berbicara - Diskon 20% menjadi Rp.20000
+Gratis ongkos kirim hingga 40rb keseluruh Indonesia.
+#mainanbukuanak #promo #dirumahaja #belajardirumah #buku #membaca #booklover #bookstorm  
+SINOPSIS:Saat berbicara Gema dan Gina tidak pernah berbohong Indahnya https://t.co/OqN3FpCibY</t>
+  </si>
+  <si>
+    <t>Thu Jan 14 09:11:56 +0000 2021</t>
+  </si>
+  <si>
+    <t>WABUP IRWAN SIAP MENJADI ORANG PERTAMA DISUNTIK VAKSIN COVID19
+BACA INFORMASI LENGKAPNYA DI 👉 https://t.co/JF41w3BDJA
+#ayolawancorona #belajardirumah #bermaindirumah #dirumahsaja #jagakebersihan #jagakesehatan #jagajarak #pakemasker #tetapwaspada #coronabisasembuh https://t.co/wvBWSjPDLY</t>
+  </si>
+  <si>
+    <t>Thu Jan 14 08:54:41 +0000 2021</t>
+  </si>
+  <si>
+    <t>Seri Adab Belajar - Diskon 20% menjadi Rp.20000
+Gratis ongkos kirim hingga 40rb keseluruh Indonesia.
+#mainanbukuanak #promo #dirumahaja #belajardirumah #buku #membaca #booklover #bookstorm  
+SINOPSIS:Nilai ulangan harianku tadi jelek Di. Aku hanya mendapat angka 5. Itu https://t.co/HyWAEN13nd</t>
+  </si>
+  <si>
+    <t>Thu Jan 14 06:42:18 +0000 2021</t>
+  </si>
+  <si>
+    <t>Cerita Si Ayam - Diskon 20% menjadi Rp.20000
+Gratis ongkos kirim hingga 40rb keseluruh Indonesia.
+#mainanbukuanak #promo #dirumahaja #belajardirumah #buku #membaca #booklover #bookstorm  
+SINOPSIS:Ciap… ciap… ciap ….Assalamualaikum Teman-Teman ….Aku Taji si anak https://t.co/fm9ngcityU</t>
+  </si>
+  <si>
+    <t>Thu Jan 14 04:12:36 +0000 2021</t>
+  </si>
+  <si>
+    <t>WABUP IRWAN APRESIASI VISI PARIWISATA SULSEL WUJUDKAN GEOPARK DANAU MATANO
+BACA INFORMASI LENGKAPNYA DI 👉 https://t.co/9s5PiOExv6
+#ayolawancorona #belajardirumah #bermaindirumah #dirumahsaja #jagakebersihan #jagakesehatan #jagajarak #pakemasker #tetapwaspada #coronabisasembuh https://t.co/blhlMTaOeB</t>
+  </si>
+  <si>
+    <t>Thu Jan 14 03:55:22 +0000 2021</t>
+  </si>
+  <si>
+    <t>KUNCI JAWABAN SOAL TVRI KELAS 3 SD HARI INI 14 JANUARI 2021, TUGAS TVRI: RUTE BARU MENUJU RUMAH
+#TVRI #belajardirumah #TribunKaltim
+https://t.co/SDCbFGdUPY</t>
+  </si>
+  <si>
+    <t>Thu Jan 14 02:29:19 +0000 2021</t>
+  </si>
+  <si>
+    <t>Kunci Jawaban Tema 5 Kelas 3 Halaman 63 67 68, Cuaca dan Kehidupan Manusia, Cuaca dapat Berubah-ubah
+#BukuTematik #belajardirumah #belajardirumahaja
+https://t.co/MruN2URWKs</t>
+  </si>
+  <si>
+    <t>Thu Jan 14 02:07:00 +0000 2021</t>
+  </si>
+  <si>
+    <t>Buku Aktivitas Mengenal Hewan - Diskon 20% menjadi Rp.16000
+Gratis ongkos kirim hingga 40rb keseluruh Indonesia.
+#mainanbukuanak #promo #dirumahaja #belajardirumah #buku #membaca #booklover #bookstorm  
+SINOPSIS:Mewarnai Membaca Menulis dan Menghitung
+Di buku ini kita https://t.co/eQvtgGesJi</t>
+  </si>
+  <si>
+    <t>Thu Jan 14 01:42:26 +0000 2021</t>
+  </si>
+  <si>
+    <t>Seri Adab Berteman - Diskon 20% menjadi Rp.20000
+Gratis ongkos kirim hingga 40rb keseluruh Indonesia.
+#mainanbukuanak #promo #dirumahaja #belajardirumah #buku #membaca #booklover #bookstorm  
+SINOPSIS:Ima heran mengapa Puti tampak meminta uang kepada teman – temanya. https://t.co/KNUUxktVba</t>
+  </si>
+  <si>
+    <t>Wed Jan 13 23:12:37 +0000 2021</t>
+  </si>
+  <si>
+    <t>Seri Adab di Masjid - Diskon 20% menjadi Rp.20000
+Gratis ongkos kirim hingga 40rb keseluruh Indonesia.
+#mainanbukuanak #promo #dirumahaja #belajardirumah #buku #membaca #booklover #bookstorm  
+SINOPSIS:Abi bawa apa itu? tanya Ibu. Tidak biasanya Abi berangkat shalat https://t.co/lRviA9UcJD</t>
+  </si>
+  <si>
+    <t>Wed Jan 13 20:42:51 +0000 2021</t>
+  </si>
+  <si>
+    <t>Seri Adab Bersuci - Diskon 20% menjadi Rp.20000
+Gratis ongkos kirim hingga 40rb keseluruh Indonesia.
+#mainanbukuanak #promo #dirumahaja #belajardirumah #buku #membaca #booklover #bookstorm  
+SINOPSIS:Sena kesal sekali. Ia tak sengaja sengaja menginjak kotoran ayam saat https://t.co/gJF4ZNcKiz</t>
+  </si>
+  <si>
+    <t>Wed Jan 13 18:16:52 +0000 2021</t>
+  </si>
+  <si>
+    <t>Seri Adab Berpakaian - Diskon 20% menjadi Rp.20000
+Gratis ongkos kirim hingga 40rb keseluruh Indonesia.
+#mainanbukuanak #promo #dirumahaja #belajardirumah #buku #membaca #booklover #bookstorm  
+SINOPSIS:Abi ingin memiliki baju baru bergambar robot seperti teman – https://t.co/iD795XlD97</t>
+  </si>
+  <si>
+    <t>Wed Jan 13 15:48:13 +0000 2021</t>
+  </si>
+  <si>
+    <t>Kebiasaan baik untuk otakmu. Yang mana yang udah kamu lakuin nih?
+#tipsbelajar #belajardirumah #kesehatan #infosma #kelaspintarindonesia https://t.co/Y9i9KId6L8</t>
+  </si>
+  <si>
+    <t>Wed Jan 13 13:22:14 +0000 2021</t>
+  </si>
+  <si>
+    <t>Seri Adab Kepada Orang Tua - Diskon 20% menjadi Rp.20000
+Gratis ongkos kirim hingga 40rb keseluruh Indonesia.
+#mainanbukuanak #promo #dirumahaja #belajardirumah #buku #membaca #booklover #bookstorm  
+SINOPSIS:Abi merajuk saat keingin annya membeli mobil- mobilan tidak https://t.co/29Wshs8yuS</t>
+  </si>
+  <si>
+    <t>Wed Jan 13 13:12:24 +0000 2021</t>
+  </si>
+  <si>
+    <t>HARI INI, PASIEN SEMBUH BERTAMBAH 8, 17 KASUS BARU DAN 2 MENINGGAL LAGI
+INFORMASI LENGKAPNYA BACA DI 👉 https://t.co/dyFxjTzEsa
+#ayolawancorona #belajardirumah #bermaindirumah #dirumahsaja #jagakebersihan #jagakesehatan #jagajarak #pakemasker #tetapwaspada #coronabisasembuh https://t.co/tm11nnNm6g</t>
+  </si>
+  <si>
+    <t>Wed Jan 13 11:01:22 +0000 2021</t>
+  </si>
+  <si>
+    <t>Update Perkembangan Covid-19 di Kabupaten Luwu Timur per 13 Januari 2021.
+8 sembuh, 17 kasus baru &amp;amp; 2 meninggal.
+Perbaharui terus informasi anda di https://t.co/D4pL3qgDlY
+#ayolawancorona #belajardirumah #beribadahdirumah #bermaindirumah #dirumahsaja #jagajarak #jagakesehatan https://t.co/lvcvWdaEhJ</t>
+  </si>
+  <si>
+    <t>Wed Jan 13 10:55:55 +0000 2021</t>
+  </si>
+  <si>
+    <t>Ratusan guru telah mengajar di LIA sejak 1959, masih ingatkah nama guru bhs Inggris kamu waktu kamu masih belajar di LIA?
+#liaonline #kelapagading #liakelapagading #lia #kursusbahasainggris #belajardirumah #dirumahaja #funlearning #englishcourse #english #FlippedClassroom https://t.co/fSlePmcowJ</t>
+  </si>
+  <si>
+    <t>Wed Jan 13 10:48:51 +0000 2021</t>
+  </si>
+  <si>
+    <t>Seri Adab Makan dan Minum - Diskon 20% menjadi Rp.20000
+Gratis ongkos kirim hingga 40rb keseluruh Indonesia.
+#mainanbukuanak #promo #dirumahaja #belajardirumah #buku #membaca #booklover #bookstorm  
+SINOPSIS:Mengapa bu Ihda menegur Abi saat Abi sedang makan? Seperti apa https://t.co/Tzx4J1Bx79</t>
+  </si>
+  <si>
+    <t>Wed Jan 13 10:42:09 +0000 2021</t>
+  </si>
+  <si>
+    <t>Menghormati Tahun Buah dan Sayuran Internasional PBB, mengapa tidak memulai pembelajaran di tahun 2021 ini dengan mengajak murid-murid kita untuk berkebun? 
+#PJJ #belajardirumah #ideberkebun #PBB https://t.co/HCundn58je</t>
+  </si>
+  <si>
+    <t>Wed Jan 13 10:18:56 +0000 2021</t>
+  </si>
+  <si>
+    <t>Seri Adab Berbicara - Diskon 20% menjadi Rp.20000
+Gratis ongkos kirim hingga 40rb keseluruh Indonesia.
+#mainanbukuanak #promo #dirumahaja #belajardirumah #buku #membaca #booklover #bookstorm  
+SINOPSIS:Saat berbicara Gema dan Gina tidak pernah berbohong Indahnya</t>
+  </si>
+  <si>
+    <t>Wed Jan 13 08:23:15 +0000 2021</t>
+  </si>
+  <si>
+    <t>Anak kreatif, orang tua solutif dengan Kelas Pintar!
+#bimbelonline #bimbelberkualitas #belajardirumah #pjj #kelaspintarindonesia https://t.co/uAPsbmMvEC</t>
+  </si>
+  <si>
+    <t>Wed Jan 13 08:07:30 +0000 2021</t>
+  </si>
+  <si>
+    <t>Jawab yuk...
+#utbk
+#belajardirumah
+#ltmpt
+#sbmptn2021 https://t.co/CurKARGfPt</t>
+  </si>
+  <si>
+    <t>TanyaSoal1</t>
+  </si>
+  <si>
+    <t>Wed Jan 13 06:43:11 +0000 2021</t>
+  </si>
+  <si>
+    <t>Seri Adab Bepergian - Diskon 20% menjadi Rp.20000
+Gratis ongkos kirim hingga 40rb keseluruh Indonesia.
+#mainanbukuanak #promo #dirumahaja #belajardirumah #buku #membaca #booklover #bookstorm  
+SINOPSIS:Lila kesal karena lupa membawa mainan pasirnya saat ke pantai. https://t.co/YLHJKpSToY</t>
+  </si>
+  <si>
+    <t>Wed Jan 13 05:42:30 +0000 2021</t>
+  </si>
+  <si>
+    <t>Wed Jan 13 04:03:30 +0000 2021</t>
+  </si>
+  <si>
+    <t>Seri Adab Belajar - Diskon 20% menjadi Rp.20000
+Gratis ongkos kirim hingga 40rb keseluruh Indonesia.
+#mainanbukuanak #promo #dirumahaja #belajardirumah #buku #membaca #booklover #bookstorm  
+SINOPSIS:Nilai ulangan harianku tadi jelek Di. Aku hanya mendapat angka 5. Itu https://t.co/iGA1yDsXxi</t>
+  </si>
+  <si>
+    <t>Wed Jan 13 03:12:03 +0000 2021</t>
+  </si>
+  <si>
+    <t>Cerita si Kelinci - Diskon 20% menjadi Rp.20000
+Gratis ongkos kirim hingga 40rb keseluruh Indonesia.
+#mainanbukuanak #promo #dirumahaja #belajardirumah #buku #membaca #booklover #bookstorm  
+SINOPSIS:Assalamualaikum Teman-Teman.
+Aku hewan mamalia kecil yang berbulu halus</t>
+  </si>
+  <si>
+    <t>Wed Jan 13 00:42:17 +0000 2021</t>
+  </si>
+  <si>
+    <t>Seri Metamorphosis:Nyam..Nyam Ulat lapar - Diskon 20% menjadi Rp.24000
+Gratis ongkos kirim hingga 40rb keseluruh Indonesia.
+#mainanbukuanak #promo #dirumahaja #belajardirumah #buku #membaca #booklover #bookstorm  
+SINOPSIS:Ada lho hewan yang berbeda ketika baru lahir dan https://t.co/3EGqjDjgFu</t>
+  </si>
+  <si>
+    <t>Tue Jan 12 22:12:13 +0000 2021</t>
+  </si>
+  <si>
+    <t>Seri Metamorphosis:Ngiing...Ngiing...Nyamuk Terbang - Diskon 20% menjadi Rp.24000
+Gratis ongkos kirim hingga 40rb keseluruh Indonesia.
+#mainanbukuanak #promo #dirumahaja #belajardirumah #buku #membaca #booklover #bookstorm  
+SINOPSIS:Ada lho hewan yang
+bentuk nama dan https://t.co/SlPOLrutIs</t>
+  </si>
+  <si>
+    <t>Tue Jan 12 19:45:14 +0000 2021</t>
+  </si>
+  <si>
+    <t>Ada Konten video dan stok foto baru dari aku. masa gak mau order?
+langsung DM aja buat tarifnya. mohon ikuti rules ya
+tarif DM
+ #bojogjaarea #bojogja #AvailJogja #AngelJogja #bbwjogja #RecomendedBO #includeJogja #jogjaopenBO #jogjanakal #jogjacrot #BelajarDirumah #vcstrusted</t>
+  </si>
+  <si>
+    <t>yana_availjogja</t>
+  </si>
+  <si>
+    <t>Tue Jan 12 19:12:33 +0000 2021</t>
+  </si>
+  <si>
+    <t>Tue Jan 12 18:55:52 +0000 2021</t>
+  </si>
+  <si>
+    <t>Tue Jan 12 18:45:49 +0000 2021</t>
+  </si>
+  <si>
+    <t>Seri Metamorphosis:Kecipak..Kecipuk...Katak Berenang - Diskon 20% menjadi Rp.24000
+Gratis ongkos kirim hingga 40rb keseluruh Indonesia.
+#mainanbukuanak #promo #dirumahaja #belajardirumah #buku #membaca #booklover #bookstorm  
+SINOPSIS:Ada lho hewan yang bentuk nama
+dan https://t.co/mLrGTcd5cF</t>
+  </si>
+  <si>
+    <t>Tue Jan 12 17:13:08 +0000 2021</t>
+  </si>
+  <si>
+    <t>Buku Aktivitas Rukun Islam; Aku Cinta Islam - Diskon 20% menjadi Rp.52000
+Gratis ongkos kirim hingga 40rb keseluruh Indonesia.
+#mainanbukuanak #promo #dirumahaja #belajardirumah #buku #membaca #booklover #bookstorm  
+SINOPSIS:Makanan dan minuman halal adalah makanan dan https://t.co/iHD8lT3iNU</t>
+  </si>
+  <si>
+    <t>Tue Jan 12 14:42:25 +0000 2021</t>
+  </si>
+  <si>
+    <t>Seri Pancaindra; Alhamdulillah, Aku Bisa Melihat - Diskon 20% menjadi Rp.28000
+Gratis ongkos kirim hingga 40rb keseluruh Indonesia.
+#mainanbukuanak #promo #dirumahaja #belajardirumah #buku #membaca #booklover #bookstorm  
+SINOPSIS:Gema sangat suka teropong pemberian https://t.co/KURUmhIv3f</t>
+  </si>
+  <si>
+    <t>Tue Jan 12 12:15:48 +0000 2021</t>
+  </si>
+  <si>
+    <t>Susah menghafal? Simak yuk tips kita ini!
+#tipsbelajar #belajardirumah #pjjonline #pjj #kelaspintarindonesia https://t.co/ijKWqrn7Sa</t>
+  </si>
+  <si>
+    <t>Tue Jan 12 12:01:57 +0000 2021</t>
+  </si>
+  <si>
+    <t>UPDATE CORONA LUTIM, TOTAL 2.100 SEMBUH DARI 2.349 KASUS DAN 24 MENINGGAL
+INFORMASI LENGKAPNYA BACA DI 👉 https://t.co/OVpHeeU4gZ
+#ayolawancorona #belajardirumah #bermaindirumah #dirumahsaja #jagakebersihan #jagakesehatan #jagajarak #pakemasker #tetapwaspada #coronabisasembuh https://t.co/yyTOUmOluZ</t>
+  </si>
+  <si>
+    <t>Tue Jan 12 11:19:56 +0000 2021</t>
+  </si>
+  <si>
+    <t>Update Perkembangan Covid-19 di Kabupaten Luwu Timur per 12 Januari 2021.
+12 sembuh, 24 kasus baru dan 1 meninggal
+Perbaharui terus informasi anda di https://t.co/D4pL3qgDlY
+#ayolawancorona #belajardirumah #bekerjadirumah #beribadahdirumah #bermaindirumah #dirumahsaja https://t.co/qcsaEH5f2g</t>
+  </si>
+  <si>
+    <t>Tue Jan 12 11:19:31 +0000 2021</t>
+  </si>
+  <si>
+    <t>Cerita Si Siput - Diskon 20% menjadi Rp.20000
+Gratis ongkos kirim hingga 40rb keseluruh Indonesia.
+#mainanbukuanak #promo #dirumahaja #belajardirumah #buku #membaca #booklover #bookstorm  
+SINOPSIS:Assalamualaikum. Teman-Teman
+Namaku Siput. Aku termasuk hewan https://t.co/p2Yj0VggXt</t>
+  </si>
+  <si>
+    <t>Tue Jan 12 09:42:23 +0000 2021</t>
+  </si>
+  <si>
+    <t>KADISKES : VAKSIN SINOVAC UNTUK LUTIM DIDISTRIBUSI FEBRUARI 2021
+BACA INFORMASI LENGKAPNYA DI 👉 https://t.co/mHqj0aCcrn
+#ayolawancorona #belajardirumah #bermaindirumah #dirumahsaja #jagakebersihan #jagakesehatan #jagajarak #pakemasker #tetapwaspada #coronabisasembuh https://t.co/0pCYMB9dEf</t>
+  </si>
+  <si>
+    <t>Tue Jan 12 09:28:33 +0000 2021</t>
+  </si>
+  <si>
+    <t>Yang gue katakan: Gue capek nugas terus🤧
+Yang gue lakukan: 😴🥛🍽
+#kagaksemangatbelajar #belajardirumah #tapi #malas</t>
+  </si>
+  <si>
+    <t>BedaLope</t>
+  </si>
+  <si>
+    <t>Tue Jan 12 08:27:51 +0000 2021</t>
+  </si>
+  <si>
+    <t>Cerita si Kelinci - Diskon 20% menjadi Rp.20000
+Gratis ongkos kirim hingga 40rb keseluruh Indonesia.
+#mainanbukuanak #promo #dirumahaja #belajardirumah #buku #membaca #booklover #bookstorm  
+SINOPSIS:Assalamualaikum Teman-Teman.
+Aku hewan mamalia kecil yang berbulu halus https://t.co/72tFI4c4rO</t>
+  </si>
+  <si>
+    <t>Tue Jan 12 07:12:25 +0000 2021</t>
+  </si>
+  <si>
+    <t>GIVEAWAY MULU GAK ADA CAPEKNYA!
+Hadiahnya makin asik, nih. Yakin mau dilewatin gitu aja? Cussss, cek Instagram @kelaskitadotcom sekarang juga!
+#kelaskita #carabarubelajarseru #belajardirumah #elearning #belajaronline #dirumahaja #giveaway https://t.co/gUVK9ayx5B</t>
+  </si>
+  <si>
+    <t>Tue Jan 12 06:56:29 +0000 2021</t>
+  </si>
+  <si>
+    <t>Simak yuk apa kata mereka yang sudah pakai TANYA! Giliranmu kapan nih? 
+#tipsbelajar #belajardirumah #pjjonline #bimbelonline #kelaspintarindonesia https://t.co/1lwkFzrlBG</t>
+  </si>
+  <si>
+    <t>Tue Jan 12 06:01:32 +0000 2021</t>
+  </si>
+  <si>
+    <t>UNDUH APLIKASI DAPODIK 2021C DISINI
+#belajardirumah #BelajarDariRumah #SchoolDays #school #schools #belajar #viral #viralkan #berita #beritaterkini #beritaviral #news #NewsUpdate #COVID19 #Covid_19 #COVIDー19 #COVID #Selasa #dapodik #kemdikbud #kemendikbud https://t.co/xCBIzApHls</t>
+  </si>
+  <si>
+    <t>Tue Jan 12 05:11:56 +0000 2021</t>
+  </si>
+  <si>
+    <t>DOWNLOAD DAPODIK 2021 C DI LINK INI
+#belajardirumah #BelajarDariRumah #SchoolDays #school #schools #belajar #viral #viralkan #berita #beritaterkini #beritaviral #news #NewsUpdate #COVID19 #Covid_19 #COVIDー19 #COVID #Selasa #dapodik #kemdikbud #kemendikbud https://t.co/M24IDJMdcM</t>
+  </si>
+  <si>
+    <t>Tue Jan 12 05:11:25 +0000 2021</t>
+  </si>
+  <si>
+    <t>INI CARA INSTAL DAPODIK 2021 C
+#belajardirumah #BelajarDariRumah #SchoolDays #school #schools #belajar #viral #viralkan #berita #beritaterkini #beritaviral #news #NewsUpdate #COVID19 #Covid_19 #COVIDー19 #COVID #Selasa #dapodik #kemdikbud #kemendikbud
+https://t.co/ivRZKh5slS</t>
+  </si>
+  <si>
+    <t>Tue Jan 12 05:11:01 +0000 2021</t>
+  </si>
+  <si>
+    <t>CEK JAWABANNYA
+#belajardirumah #BelajarDariRumah #SchoolDays #school #schools #belajar #viral #viralkan #berita #beritaterkini #beritaviral #news #NewsUpdate #COVID19 #Covid_19 #COVIDー19 #COVID #Selasa #coronavirus #Corona #virus #viruscorona https://t.co/NLAU7A3S3Q</t>
+  </si>
+  <si>
+    <t>Tue Jan 12 05:10:09 +0000 2021</t>
+  </si>
+  <si>
+    <t>CEK JAWABANNYA
+#belajardirumah #BelajarDariRumah #SchoolDays #school #schools #belajar #viral #viralkan #berita #beritaterkini #beritaviral #news #NewsUpdate #COVID19 #Covid_19 #COVIDー19 #COVID #Selasa #coronavirus #Corona #virus #viruscorona https://t.co/BFGayVPtLJ</t>
+  </si>
+  <si>
+    <t>Tue Jan 12 05:09:59 +0000 2021</t>
+  </si>
+  <si>
+    <t>CEK JAWABANNYA
+#belajardirumah #BelajarDariRumah #SchoolDays #school #schools #belajar #viral #viralkan #berita #beritaterkini #beritaviral #news #NewsUpdate #COVID19 #Covid_19 #COVIDー19 #COVID #Selasa #coronavirus #Corona #virus #viruscorona https://t.co/oytLzTageP</t>
+  </si>
+  <si>
+    <t>Tue Jan 12 05:09:37 +0000 2021</t>
+  </si>
+  <si>
+    <t>CEK JAWABANNYA
+#belajardirumah #BelajarDariRumah #SchoolDays #school #schools #belajar #viral #viralkan #berita #beritaterkini #beritaviral #news #NewsUpdate #COVID19 #Covid_19 #COVIDー19 #COVID #Selasa #coronavirus #Corona #virus #viruscorona https://t.co/5U9j2HOIDb</t>
+  </si>
+  <si>
+    <t>Tue Jan 12 05:09:22 +0000 2021</t>
+  </si>
+  <si>
+    <t>CEK JAWABANNYA
+#belajardirumah #BelajarDariRumah #SchoolDays #school #schools #belajar #viral #viralkan #berita #beritaterkini #beritaviral #news #NewsUpdate #COVID19 #Covid_19 #COVIDー19 #COVID #Selasa #coronavirus #Corona #virus #viruscorona
+https://t.co/rPkNxdRD6a</t>
+  </si>
+  <si>
+    <t>Tue Jan 12 05:09:09 +0000 2021</t>
+  </si>
+  <si>
+    <t>Buku Aktivitas Rukun Islam; Aku Cinta Islam - Diskon 20% menjadi Rp.52000
+Gratis ongkos kirim hingga 40rb keseluruh Indonesia.
+#mainanbukuanak #promo #dirumahaja #belajardirumah #buku #membaca #booklover #bookstorm  
+SINOPSIS:Makanan dan minuman halal adalah makanan dan https://t.co/4iMt3vy0YD</t>
+  </si>
+  <si>
+    <t>Tue Jan 12 04:42:19 +0000 2021</t>
+  </si>
+  <si>
+    <t>PENGALAMAN AKU BELAJAR TATAP MUKA DENGAN BU GURU DAN TEMAN2 SEKELAS DI S... https://t.co/XQYmRTzcYR via @YouTube #belajaronline #belajardirumah #belajardarirumah #sdnmandiri1cimahi #sdncibabatmandiri1cimahi</t>
+  </si>
+  <si>
+    <t>upwayyy</t>
+  </si>
+  <si>
+    <t>Tue Jan 12 03:05:45 +0000 2021</t>
+  </si>
+  <si>
+    <t>Cerita Si Jerapah - Diskon 20% menjadi Rp.20000
+Gratis ongkos kirim hingga 40rb keseluruh Indonesia.
+#mainanbukuanak #promo #dirumahaja #belajardirumah #buku #membaca #booklover #bookstorm  
+SINOPSIS:Assalamualaikum Teman. Namaku Jerapah. Aku memiliki leher yang panjang. https://t.co/7NHeeplsZe</t>
+  </si>
+  <si>
+    <t>Tue Jan 12 02:12:27 +0000 2021</t>
+  </si>
+  <si>
+    <t>Buku Aktivitas Rukun Islam; Aku Cinta Islam - Diskon 20% menjadi Rp.52000
+Gratis ongkos kirim hingga 40rb keseluruh Indonesia.
+#mainanbukuanak #promo #dirumahaja #belajardirumah #buku #membaca #booklover #bookstorm  
+SINOPSIS:Makanan dan minuman halal adalah makanan dan https://t.co/8q5i8Gjtt4</t>
+  </si>
+  <si>
+    <t>Mon Jan 11 23:42:58 +0000 2021</t>
+  </si>
+  <si>
+    <t>Cerita Si Bebek (2007) - Diskon 20% menjadi Rp.20000
+Gratis ongkos kirim hingga 40rb keseluruh Indonesia.
+#mainanbukuanak #promo #dirumahaja #belajardirumah #buku #membaca #booklover #bookstorm  
+SINOPSIS:
+PENULIS:Budi Sulistiorini https://t.co/4k8DROE96j</t>
+  </si>
+  <si>
+    <t>Mon Jan 11 21:12:39 +0000 2021</t>
+  </si>
+  <si>
+    <t>Aku Pintar Membaca dan Menulis 1 - Diskon 20% menjadi Rp.20800
+Gratis ongkos kirim hingga 40rb keseluruh Indonesia.
+#mainanbukuanak #promo #dirumahaja #belajardirumah #buku #membaca #booklover #bookstorm  
+SINOPSIS:Teman-teman kita belajar membaca dan menulis yuk! Dengan https://t.co/TN3sUVXk8E</t>
+  </si>
+  <si>
+    <t>Mon Jan 11 18:44:02 +0000 2021</t>
+  </si>
+  <si>
+    <t>Soon di youtube chanel dua rasa official. #titikbalikduarasa episode 1, inspiring story dari salah satu pemilik Jeda wellnest dan annicca indonesia. Seorang pengacara yang banting stir jadi guru yoga,saksikan segera !
+#belajardirumah #Wellbeing #wellness #duarasa https://t.co/HhHyeEW5ag</t>
+  </si>
+  <si>
+    <t>Mon Jan 11 18:36:21 +0000 2021</t>
+  </si>
+  <si>
+    <t>Cerita Si Jerapah - Diskon 20% menjadi Rp.20000
+Gratis ongkos kirim hingga 40rb keseluruh Indonesia.
+#mainanbukuanak #promo #dirumahaja #belajardirumah #buku #membaca #booklover #bookstorm  
+SINOPSIS:Assalamualaikum Teman. Namaku Jerapah. Aku memiliki leher yang panjang. https://t.co/7jcxBcEeFH</t>
+  </si>
+  <si>
+    <t>Mon Jan 11 16:16:03 +0000 2021</t>
   </si>
 </sst>
 </file>
@@ -9025,10 +10003,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D1144"/>
+  <dimension ref="A1:D1273"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A1128" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="D1147" sqref="D1147"/>
+    <sheetView tabSelected="1" topLeftCell="A1264" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="B1279" sqref="B1279"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -25049,6 +26027,1812 @@
         <v>1888</v>
       </c>
     </row>
+    <row r="1145" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1145">
+        <v>1.3508156667863411E+18</v>
+      </c>
+      <c r="B1145" t="s">
+        <v>2076</v>
+      </c>
+      <c r="C1145" t="s">
+        <v>625</v>
+      </c>
+      <c r="D1145" t="s">
+        <v>2077</v>
+      </c>
+    </row>
+    <row r="1146" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1146">
+        <v>1.35080895501917E+18</v>
+      </c>
+      <c r="B1146" t="s">
+        <v>2078</v>
+      </c>
+      <c r="C1146" t="s">
+        <v>72</v>
+      </c>
+      <c r="D1146" t="s">
+        <v>2079</v>
+      </c>
+    </row>
+    <row r="1147" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1147">
+        <v>1.350777969698955E+18</v>
+      </c>
+      <c r="B1147" t="s">
+        <v>2080</v>
+      </c>
+      <c r="C1147" t="s">
+        <v>625</v>
+      </c>
+      <c r="D1147" t="s">
+        <v>2081</v>
+      </c>
+    </row>
+    <row r="1148" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1148">
+        <v>1.3507682434016261E+18</v>
+      </c>
+      <c r="B1148" t="s">
+        <v>2082</v>
+      </c>
+      <c r="C1148" t="s">
+        <v>21</v>
+      </c>
+      <c r="D1148" t="s">
+        <v>2083</v>
+      </c>
+    </row>
+    <row r="1149" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1149">
+        <v>1.350768147322741E+18</v>
+      </c>
+      <c r="B1149" t="s">
+        <v>2084</v>
+      </c>
+      <c r="C1149" t="s">
+        <v>21</v>
+      </c>
+      <c r="D1149" t="s">
+        <v>2085</v>
+      </c>
+    </row>
+    <row r="1150" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1150">
+        <v>1.3507402520344169E+18</v>
+      </c>
+      <c r="B1150" t="s">
+        <v>2086</v>
+      </c>
+      <c r="C1150" t="s">
+        <v>625</v>
+      </c>
+      <c r="D1150" t="s">
+        <v>2087</v>
+      </c>
+    </row>
+    <row r="1151" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1151">
+        <v>1.35070242025121E+18</v>
+      </c>
+      <c r="B1151" t="s">
+        <v>2088</v>
+      </c>
+      <c r="C1151" t="s">
+        <v>625</v>
+      </c>
+      <c r="D1151" t="s">
+        <v>2089</v>
+      </c>
+    </row>
+    <row r="1152" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1152">
+        <v>1.3506872908891259E+18</v>
+      </c>
+      <c r="B1152" t="s">
+        <v>2090</v>
+      </c>
+      <c r="C1152" t="s">
+        <v>72</v>
+      </c>
+      <c r="D1152" t="s">
+        <v>2091</v>
+      </c>
+    </row>
+    <row r="1153" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1153">
+        <v>1.3506649348797599E+18</v>
+      </c>
+      <c r="B1153" t="s">
+        <v>2092</v>
+      </c>
+      <c r="C1153" t="s">
+        <v>625</v>
+      </c>
+      <c r="D1153" t="s">
+        <v>2093</v>
+      </c>
+    </row>
+    <row r="1154" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1154">
+        <v>1.3506269494969139E+18</v>
+      </c>
+      <c r="B1154" t="s">
+        <v>2094</v>
+      </c>
+      <c r="C1154" t="s">
+        <v>625</v>
+      </c>
+      <c r="D1154" t="s">
+        <v>2095</v>
+      </c>
+    </row>
+    <row r="1155" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1155">
+        <v>1.3505891508780559E+18</v>
+      </c>
+      <c r="B1155" t="s">
+        <v>2096</v>
+      </c>
+      <c r="C1155" t="s">
+        <v>625</v>
+      </c>
+      <c r="D1155" t="s">
+        <v>2097</v>
+      </c>
+    </row>
+    <row r="1156" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1156">
+        <v>1.350551440004055E+18</v>
+      </c>
+      <c r="B1156" t="s">
+        <v>2098</v>
+      </c>
+      <c r="C1156" t="s">
+        <v>625</v>
+      </c>
+      <c r="D1156" t="s">
+        <v>2099</v>
+      </c>
+    </row>
+    <row r="1157" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1157">
+        <v>1.35052914128894E+18</v>
+      </c>
+      <c r="B1157" t="s">
+        <v>2100</v>
+      </c>
+      <c r="C1157" t="s">
+        <v>2101</v>
+      </c>
+      <c r="D1157" t="s">
+        <v>2102</v>
+      </c>
+    </row>
+    <row r="1158" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1158">
+        <v>1.3505136979034519E+18</v>
+      </c>
+      <c r="B1158" t="s">
+        <v>2103</v>
+      </c>
+      <c r="C1158" t="s">
+        <v>625</v>
+      </c>
+      <c r="D1158" t="s">
+        <v>2104</v>
+      </c>
+    </row>
+    <row r="1159" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1159">
+        <v>1.3504760313590331E+18</v>
+      </c>
+      <c r="B1159" t="s">
+        <v>2105</v>
+      </c>
+      <c r="C1159" t="s">
+        <v>625</v>
+      </c>
+      <c r="D1159" t="s">
+        <v>2106</v>
+      </c>
+    </row>
+    <row r="1160" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1160">
+        <v>1.35043817183887E+18</v>
+      </c>
+      <c r="B1160" t="s">
+        <v>2107</v>
+      </c>
+      <c r="C1160" t="s">
+        <v>625</v>
+      </c>
+      <c r="D1160" t="s">
+        <v>2108</v>
+      </c>
+    </row>
+    <row r="1161" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1161">
+        <v>1.350404434451284E+18</v>
+      </c>
+      <c r="B1161" t="s">
+        <v>2109</v>
+      </c>
+      <c r="C1161" t="s">
+        <v>21</v>
+      </c>
+      <c r="D1161" t="s">
+        <v>2110</v>
+      </c>
+    </row>
+    <row r="1162" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1162">
+        <v>1.350404357192258E+18</v>
+      </c>
+      <c r="B1162" t="s">
+        <v>2111</v>
+      </c>
+      <c r="C1162" t="s">
+        <v>21</v>
+      </c>
+      <c r="D1162" t="s">
+        <v>2112</v>
+      </c>
+    </row>
+    <row r="1163" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1163">
+        <v>1.3504004617617001E+18</v>
+      </c>
+      <c r="B1163" t="s">
+        <v>2113</v>
+      </c>
+      <c r="C1163" t="s">
+        <v>625</v>
+      </c>
+      <c r="D1163" t="s">
+        <v>2114</v>
+      </c>
+    </row>
+    <row r="1164" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1164">
+        <v>1.350369056126239E+18</v>
+      </c>
+      <c r="B1164" t="s">
+        <v>2115</v>
+      </c>
+      <c r="C1164" t="s">
+        <v>72</v>
+      </c>
+      <c r="D1164" t="s">
+        <v>2116</v>
+      </c>
+    </row>
+    <row r="1165" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1165">
+        <v>1.350362644499243E+18</v>
+      </c>
+      <c r="B1165" t="s">
+        <v>2117</v>
+      </c>
+      <c r="C1165" t="s">
+        <v>625</v>
+      </c>
+      <c r="D1165" t="s">
+        <v>2118</v>
+      </c>
+    </row>
+    <row r="1166" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1166">
+        <v>1.350324914960609E+18</v>
+      </c>
+      <c r="B1166" t="s">
+        <v>2119</v>
+      </c>
+      <c r="C1166" t="s">
+        <v>625</v>
+      </c>
+      <c r="D1166" t="s">
+        <v>2120</v>
+      </c>
+    </row>
+    <row r="1167" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1167">
+        <v>1.3502872036922821E+18</v>
+      </c>
+      <c r="B1167" t="s">
+        <v>2121</v>
+      </c>
+      <c r="C1167" t="s">
+        <v>625</v>
+      </c>
+      <c r="D1167" t="s">
+        <v>2122</v>
+      </c>
+    </row>
+    <row r="1168" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1168">
+        <v>1.3502772701879009E+18</v>
+      </c>
+      <c r="B1168" t="s">
+        <v>2123</v>
+      </c>
+      <c r="C1168" t="s">
+        <v>72</v>
+      </c>
+      <c r="D1168" t="s">
+        <v>2124</v>
+      </c>
+    </row>
+    <row r="1169" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1169">
+        <v>1.350266374157865E+18</v>
+      </c>
+      <c r="B1169" t="s">
+        <v>2125</v>
+      </c>
+      <c r="C1169" t="s">
+        <v>21</v>
+      </c>
+      <c r="D1169" t="s">
+        <v>2126</v>
+      </c>
+    </row>
+    <row r="1170" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1170">
+        <v>1.3502512748353989E+18</v>
+      </c>
+      <c r="B1170" t="s">
+        <v>2127</v>
+      </c>
+      <c r="C1170" t="s">
+        <v>21</v>
+      </c>
+      <c r="D1170" t="s">
+        <v>2128</v>
+      </c>
+    </row>
+    <row r="1171" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1171">
+        <v>1.3502494386739899E+18</v>
+      </c>
+      <c r="B1171" t="s">
+        <v>2129</v>
+      </c>
+      <c r="C1171" t="s">
+        <v>625</v>
+      </c>
+      <c r="D1171" t="s">
+        <v>2130</v>
+      </c>
+    </row>
+    <row r="1172" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1172">
+        <v>1.3502263709960269E+18</v>
+      </c>
+      <c r="B1172" t="s">
+        <v>2131</v>
+      </c>
+      <c r="C1172" t="s">
+        <v>21</v>
+      </c>
+      <c r="D1172" t="s">
+        <v>2132</v>
+      </c>
+    </row>
+    <row r="1173" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1173">
+        <v>1.350211669834699E+18</v>
+      </c>
+      <c r="B1173" t="s">
+        <v>2133</v>
+      </c>
+      <c r="C1173" t="s">
+        <v>625</v>
+      </c>
+      <c r="D1173" t="s">
+        <v>2134</v>
+      </c>
+    </row>
+    <row r="1174" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1174">
+        <v>1.3501739363113861E+18</v>
+      </c>
+      <c r="B1174" t="s">
+        <v>2135</v>
+      </c>
+      <c r="C1174" t="s">
+        <v>625</v>
+      </c>
+      <c r="D1174" t="s">
+        <v>2136</v>
+      </c>
+    </row>
+    <row r="1175" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1175">
+        <v>1.350136817136255E+18</v>
+      </c>
+      <c r="B1175" t="s">
+        <v>2137</v>
+      </c>
+      <c r="C1175" t="s">
+        <v>625</v>
+      </c>
+      <c r="D1175" t="s">
+        <v>2138</v>
+      </c>
+    </row>
+    <row r="1176" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1176">
+        <v>1.3500993072574789E+18</v>
+      </c>
+      <c r="B1176" t="s">
+        <v>2139</v>
+      </c>
+      <c r="C1176" t="s">
+        <v>625</v>
+      </c>
+      <c r="D1176" t="s">
+        <v>2140</v>
+      </c>
+    </row>
+    <row r="1177" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1177">
+        <v>1.3500606643797199E+18</v>
+      </c>
+      <c r="B1177" t="s">
+        <v>2141</v>
+      </c>
+      <c r="C1177" t="s">
+        <v>625</v>
+      </c>
+      <c r="D1177" t="s">
+        <v>2142</v>
+      </c>
+    </row>
+    <row r="1178" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1178">
+        <v>1.350043586176319E+18</v>
+      </c>
+      <c r="B1178" t="s">
+        <v>2143</v>
+      </c>
+      <c r="C1178" t="s">
+        <v>21</v>
+      </c>
+      <c r="D1178" t="s">
+        <v>2144</v>
+      </c>
+    </row>
+    <row r="1179" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1179">
+        <v>1.350043439019094E+18</v>
+      </c>
+      <c r="B1179" t="s">
+        <v>2145</v>
+      </c>
+      <c r="C1179" t="s">
+        <v>21</v>
+      </c>
+      <c r="D1179" t="s">
+        <v>2146</v>
+      </c>
+    </row>
+    <row r="1180" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1180">
+        <v>1.3500228917445801E+18</v>
+      </c>
+      <c r="B1180" t="s">
+        <v>2147</v>
+      </c>
+      <c r="C1180" t="s">
+        <v>625</v>
+      </c>
+      <c r="D1180" t="s">
+        <v>2148</v>
+      </c>
+    </row>
+    <row r="1181" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1181">
+        <v>1.350009968288694E+18</v>
+      </c>
+      <c r="B1181" t="s">
+        <v>2149</v>
+      </c>
+      <c r="C1181" t="s">
+        <v>21</v>
+      </c>
+      <c r="D1181" t="s">
+        <v>2150</v>
+      </c>
+    </row>
+    <row r="1182" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1182">
+        <v>1.3499902395870579E+18</v>
+      </c>
+      <c r="B1182" t="s">
+        <v>2151</v>
+      </c>
+      <c r="C1182" t="s">
+        <v>2152</v>
+      </c>
+      <c r="D1182" t="s">
+        <v>2153</v>
+      </c>
+    </row>
+    <row r="1183" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1183">
+        <v>1.3499852327793211E+18</v>
+      </c>
+      <c r="B1183" t="s">
+        <v>2154</v>
+      </c>
+      <c r="C1183" t="s">
+        <v>625</v>
+      </c>
+      <c r="D1183" t="s">
+        <v>2155</v>
+      </c>
+    </row>
+    <row r="1184" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1184">
+        <v>1.349970076582089E+18</v>
+      </c>
+      <c r="B1184" t="s">
+        <v>2156</v>
+      </c>
+      <c r="C1184" t="s">
+        <v>45</v>
+      </c>
+      <c r="D1184" t="s">
+        <v>2157</v>
+      </c>
+    </row>
+    <row r="1185" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1185">
+        <v>1.3499615664651021E+18</v>
+      </c>
+      <c r="B1185" t="s">
+        <v>2158</v>
+      </c>
+      <c r="C1185" t="s">
+        <v>72</v>
+      </c>
+      <c r="D1185" t="s">
+        <v>2159</v>
+      </c>
+    </row>
+    <row r="1186" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1186">
+        <v>1.349947544005079E+18</v>
+      </c>
+      <c r="B1186" t="s">
+        <v>2160</v>
+      </c>
+      <c r="C1186" t="s">
+        <v>625</v>
+      </c>
+      <c r="D1186" t="s">
+        <v>2161</v>
+      </c>
+    </row>
+    <row r="1187" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1187">
+        <v>1.3499099290840881E+18</v>
+      </c>
+      <c r="B1187" t="s">
+        <v>2162</v>
+      </c>
+      <c r="C1187" t="s">
+        <v>625</v>
+      </c>
+      <c r="D1187" t="s">
+        <v>2163</v>
+      </c>
+    </row>
+    <row r="1188" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1188">
+        <v>1.3498731055780659E+18</v>
+      </c>
+      <c r="B1188" t="s">
+        <v>2164</v>
+      </c>
+      <c r="C1188" t="s">
+        <v>625</v>
+      </c>
+      <c r="D1188" t="s">
+        <v>2165</v>
+      </c>
+    </row>
+    <row r="1189" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1189">
+        <v>1.349838931513131E+18</v>
+      </c>
+      <c r="B1189" t="s">
+        <v>2166</v>
+      </c>
+      <c r="C1189" t="s">
+        <v>21</v>
+      </c>
+      <c r="D1189" t="s">
+        <v>2167</v>
+      </c>
+    </row>
+    <row r="1190" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1190">
+        <v>1.3498343817838349E+18</v>
+      </c>
+      <c r="B1190" t="s">
+        <v>2168</v>
+      </c>
+      <c r="C1190" t="s">
+        <v>625</v>
+      </c>
+      <c r="D1190" t="s">
+        <v>2169</v>
+      </c>
+    </row>
+    <row r="1191" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1191">
+        <v>1.3497964459482399E+18</v>
+      </c>
+      <c r="B1191" t="s">
+        <v>2170</v>
+      </c>
+      <c r="C1191" t="s">
+        <v>625</v>
+      </c>
+      <c r="D1191" t="s">
+        <v>2171</v>
+      </c>
+    </row>
+    <row r="1192" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1192">
+        <v>1.3497588429223649E+18</v>
+      </c>
+      <c r="B1192" t="s">
+        <v>2172</v>
+      </c>
+      <c r="C1192" t="s">
+        <v>625</v>
+      </c>
+      <c r="D1192" t="s">
+        <v>2173</v>
+      </c>
+    </row>
+    <row r="1193" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1193">
+        <v>1.3497209283059141E+18</v>
+      </c>
+      <c r="B1193" t="s">
+        <v>2174</v>
+      </c>
+      <c r="C1193" t="s">
+        <v>625</v>
+      </c>
+      <c r="D1193" t="s">
+        <v>2175</v>
+      </c>
+    </row>
+    <row r="1194" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1194">
+        <v>1.3497155811722399E+18</v>
+      </c>
+      <c r="B1194" t="s">
+        <v>2176</v>
+      </c>
+      <c r="C1194" t="s">
+        <v>336</v>
+      </c>
+      <c r="D1194" t="s">
+        <v>2177</v>
+      </c>
+    </row>
+    <row r="1195" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1195">
+        <v>1.3497090002379781E+18</v>
+      </c>
+      <c r="B1195" t="s">
+        <v>2178</v>
+      </c>
+      <c r="C1195" t="s">
+        <v>72</v>
+      </c>
+      <c r="D1195" t="s">
+        <v>2179</v>
+      </c>
+    </row>
+    <row r="1196" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1196">
+        <v>1.3497010765686131E+18</v>
+      </c>
+      <c r="B1196" t="s">
+        <v>2180</v>
+      </c>
+      <c r="C1196" t="s">
+        <v>21</v>
+      </c>
+      <c r="D1196" t="s">
+        <v>2181</v>
+      </c>
+    </row>
+    <row r="1197" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1197">
+        <v>1.3497009681499909E+18</v>
+      </c>
+      <c r="B1197" t="s">
+        <v>2182</v>
+      </c>
+      <c r="C1197" t="s">
+        <v>21</v>
+      </c>
+      <c r="D1197" t="s">
+        <v>2183</v>
+      </c>
+    </row>
+    <row r="1198" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1198">
+        <v>1.349683285685801E+18</v>
+      </c>
+      <c r="B1198" t="s">
+        <v>2184</v>
+      </c>
+      <c r="C1198" t="s">
+        <v>625</v>
+      </c>
+      <c r="D1198" t="s">
+        <v>2185</v>
+      </c>
+    </row>
+    <row r="1199" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1199">
+        <v>1.3496454119259379E+18</v>
+      </c>
+      <c r="B1199" t="s">
+        <v>2186</v>
+      </c>
+      <c r="C1199" t="s">
+        <v>625</v>
+      </c>
+      <c r="D1199" t="s">
+        <v>2187</v>
+      </c>
+    </row>
+    <row r="1200" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1200">
+        <v>1.349641073509822E+18</v>
+      </c>
+      <c r="B1200" t="s">
+        <v>2188</v>
+      </c>
+      <c r="C1200" t="s">
+        <v>21</v>
+      </c>
+      <c r="D1200" t="s">
+        <v>2189</v>
+      </c>
+    </row>
+    <row r="1201" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1201">
+        <v>1.3496077592478879E+18</v>
+      </c>
+      <c r="B1201" t="s">
+        <v>2190</v>
+      </c>
+      <c r="C1201" t="s">
+        <v>625</v>
+      </c>
+      <c r="D1201" t="s">
+        <v>2191</v>
+      </c>
+    </row>
+    <row r="1202" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1202">
+        <v>1.349570084889481E+18</v>
+      </c>
+      <c r="B1202" t="s">
+        <v>2192</v>
+      </c>
+      <c r="C1202" t="s">
+        <v>625</v>
+      </c>
+      <c r="D1202" t="s">
+        <v>2193</v>
+      </c>
+    </row>
+    <row r="1203" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1203">
+        <v>1.3495657473332721E+18</v>
+      </c>
+      <c r="B1203" t="s">
+        <v>2194</v>
+      </c>
+      <c r="C1203" t="s">
+        <v>21</v>
+      </c>
+      <c r="D1203" t="s">
+        <v>2195</v>
+      </c>
+    </row>
+    <row r="1204" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1204">
+        <v>1.3495440901368379E+18</v>
+      </c>
+      <c r="B1204" t="s">
+        <v>2196</v>
+      </c>
+      <c r="C1204" t="s">
+        <v>53</v>
+      </c>
+      <c r="D1204" t="s">
+        <v>2197</v>
+      </c>
+    </row>
+    <row r="1205" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1205">
+        <v>1.3495384749619981E+18</v>
+      </c>
+      <c r="B1205" t="s">
+        <v>2198</v>
+      </c>
+      <c r="C1205" t="s">
+        <v>53</v>
+      </c>
+      <c r="D1205" t="s">
+        <v>2199</v>
+      </c>
+    </row>
+    <row r="1206" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1206">
+        <v>1.349532292469801E+18</v>
+      </c>
+      <c r="B1206" t="s">
+        <v>2200</v>
+      </c>
+      <c r="C1206" t="s">
+        <v>625</v>
+      </c>
+      <c r="D1206" t="s">
+        <v>2201</v>
+      </c>
+    </row>
+    <row r="1207" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1207">
+        <v>1.3494945898586071E+18</v>
+      </c>
+      <c r="B1207" t="s">
+        <v>2202</v>
+      </c>
+      <c r="C1207" t="s">
+        <v>625</v>
+      </c>
+      <c r="D1207" t="s">
+        <v>2203</v>
+      </c>
+    </row>
+    <row r="1208" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1208">
+        <v>1.3494568989913779E+18</v>
+      </c>
+      <c r="B1208" t="s">
+        <v>2204</v>
+      </c>
+      <c r="C1208" t="s">
+        <v>625</v>
+      </c>
+      <c r="D1208" t="s">
+        <v>2205</v>
+      </c>
+    </row>
+    <row r="1209" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1209">
+        <v>1.3494201649455639E+18</v>
+      </c>
+      <c r="B1209" t="s">
+        <v>2206</v>
+      </c>
+      <c r="C1209" t="s">
+        <v>625</v>
+      </c>
+      <c r="D1209" t="s">
+        <v>2207</v>
+      </c>
+    </row>
+    <row r="1210" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1210">
+        <v>1.3493827541572941E+18</v>
+      </c>
+      <c r="B1210" t="s">
+        <v>2208</v>
+      </c>
+      <c r="C1210" t="s">
+        <v>625</v>
+      </c>
+      <c r="D1210" t="s">
+        <v>2209</v>
+      </c>
+    </row>
+    <row r="1211" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1211">
+        <v>1.3493460140549491E+18</v>
+      </c>
+      <c r="B1211" t="s">
+        <v>2210</v>
+      </c>
+      <c r="C1211" t="s">
+        <v>72</v>
+      </c>
+      <c r="D1211" t="s">
+        <v>2211</v>
+      </c>
+    </row>
+    <row r="1212" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1212">
+        <v>1.349343542884225E+18</v>
+      </c>
+      <c r="B1212" t="s">
+        <v>2212</v>
+      </c>
+      <c r="C1212" t="s">
+        <v>625</v>
+      </c>
+      <c r="D1212" t="s">
+        <v>2213</v>
+      </c>
+    </row>
+    <row r="1213" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1213">
+        <v>1.3493105653787809E+18</v>
+      </c>
+      <c r="B1213" t="s">
+        <v>2214</v>
+      </c>
+      <c r="C1213" t="s">
+        <v>21</v>
+      </c>
+      <c r="D1213" t="s">
+        <v>2215</v>
+      </c>
+    </row>
+    <row r="1214" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1214">
+        <v>1.349309194936074E+18</v>
+      </c>
+      <c r="B1214" t="s">
+        <v>2216</v>
+      </c>
+      <c r="C1214" t="s">
+        <v>21</v>
+      </c>
+      <c r="D1214" t="s">
+        <v>2217</v>
+      </c>
+    </row>
+    <row r="1215" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1215">
+        <v>1.3493074152048269E+18</v>
+      </c>
+      <c r="B1215" t="s">
+        <v>2218</v>
+      </c>
+      <c r="C1215" t="s">
+        <v>336</v>
+      </c>
+      <c r="D1215" t="s">
+        <v>2219</v>
+      </c>
+    </row>
+    <row r="1216" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1216">
+        <v>1.349305731606987E+18</v>
+      </c>
+      <c r="B1216" t="s">
+        <v>2220</v>
+      </c>
+      <c r="C1216" t="s">
+        <v>625</v>
+      </c>
+      <c r="D1216" t="s">
+        <v>2221</v>
+      </c>
+    </row>
+    <row r="1217" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1217">
+        <v>1.34929988894577E+18</v>
+      </c>
+      <c r="B1217" t="s">
+        <v>2222</v>
+      </c>
+      <c r="C1217" t="s">
+        <v>358</v>
+      </c>
+      <c r="D1217" t="s">
+        <v>2223</v>
+      </c>
+    </row>
+    <row r="1218" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1218">
+        <v>1.3492707732030459E+18</v>
+      </c>
+      <c r="B1218" t="s">
+        <v>2224</v>
+      </c>
+      <c r="C1218" t="s">
+        <v>625</v>
+      </c>
+      <c r="D1218" t="s">
+        <v>2225</v>
+      </c>
+    </row>
+    <row r="1219" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1219">
+        <v>1.3492668103826061E+18</v>
+      </c>
+      <c r="B1219" t="s">
+        <v>2226</v>
+      </c>
+      <c r="C1219" t="s">
+        <v>72</v>
+      </c>
+      <c r="D1219" t="s">
+        <v>2227</v>
+      </c>
+    </row>
+    <row r="1220" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1220">
+        <v>1.3492455911303171E+18</v>
+      </c>
+      <c r="B1220" t="s">
+        <v>2228</v>
+      </c>
+      <c r="C1220" t="s">
+        <v>2229</v>
+      </c>
+      <c r="D1220" t="s">
+        <v>2230</v>
+      </c>
+    </row>
+    <row r="1221" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1221">
+        <v>1.3492303185494879E+18</v>
+      </c>
+      <c r="B1221" t="s">
+        <v>2231</v>
+      </c>
+      <c r="C1221" t="s">
+        <v>625</v>
+      </c>
+      <c r="D1221" t="s">
+        <v>2232</v>
+      </c>
+    </row>
+    <row r="1222" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1222">
+        <v>1.3492054048242109E+18</v>
+      </c>
+      <c r="B1222" t="s">
+        <v>2198</v>
+      </c>
+      <c r="C1222" t="s">
+        <v>53</v>
+      </c>
+      <c r="D1222" t="s">
+        <v>2233</v>
+      </c>
+    </row>
+    <row r="1223" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1223">
+        <v>1.3491924585890079E+18</v>
+      </c>
+      <c r="B1223" t="s">
+        <v>2234</v>
+      </c>
+      <c r="C1223" t="s">
+        <v>625</v>
+      </c>
+      <c r="D1223" t="s">
+        <v>2235</v>
+      </c>
+    </row>
+    <row r="1224" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1224">
+        <v>1.3491547689800461E+18</v>
+      </c>
+      <c r="B1224" t="s">
+        <v>2236</v>
+      </c>
+      <c r="C1224" t="s">
+        <v>625</v>
+      </c>
+      <c r="D1224" t="s">
+        <v>2237</v>
+      </c>
+    </row>
+    <row r="1225" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1225">
+        <v>1.3491170022337449E+18</v>
+      </c>
+      <c r="B1225" t="s">
+        <v>2238</v>
+      </c>
+      <c r="C1225" t="s">
+        <v>625</v>
+      </c>
+      <c r="D1225" t="s">
+        <v>2239</v>
+      </c>
+    </row>
+    <row r="1226" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1226">
+        <v>1.349080013031625E+18</v>
+      </c>
+      <c r="B1226" t="s">
+        <v>2240</v>
+      </c>
+      <c r="C1226" t="s">
+        <v>625</v>
+      </c>
+      <c r="D1226" t="s">
+        <v>2241</v>
+      </c>
+    </row>
+    <row r="1227" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1227">
+        <v>1.3490717895953651E+18</v>
+      </c>
+      <c r="B1227" t="s">
+        <v>2242</v>
+      </c>
+      <c r="C1227" t="s">
+        <v>2243</v>
+      </c>
+      <c r="D1227" t="s">
+        <v>2244</v>
+      </c>
+    </row>
+    <row r="1228" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1228">
+        <v>1.34906758920958E+18</v>
+      </c>
+      <c r="B1228" t="s">
+        <v>2242</v>
+      </c>
+      <c r="C1228" t="s">
+        <v>155</v>
+      </c>
+      <c r="D1228" t="s">
+        <v>2245</v>
+      </c>
+    </row>
+    <row r="1229" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1229">
+        <v>1.349065061055177E+18</v>
+      </c>
+      <c r="B1229" t="s">
+        <v>154</v>
+      </c>
+      <c r="C1229" t="s">
+        <v>155</v>
+      </c>
+      <c r="D1229" t="s">
+        <v>2246</v>
+      </c>
+    </row>
+    <row r="1230" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1230">
+        <v>1.3490417354693919E+18</v>
+      </c>
+      <c r="B1230" t="s">
+        <v>2247</v>
+      </c>
+      <c r="C1230" t="s">
+        <v>625</v>
+      </c>
+      <c r="D1230" t="s">
+        <v>2248</v>
+      </c>
+    </row>
+    <row r="1231" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1231">
+        <v>1.3490038053802601E+18</v>
+      </c>
+      <c r="B1231" t="s">
+        <v>2249</v>
+      </c>
+      <c r="C1231" t="s">
+        <v>625</v>
+      </c>
+      <c r="D1231" t="s">
+        <v>2250</v>
+      </c>
+    </row>
+    <row r="1232" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1232">
+        <v>1.348966909857866E+18</v>
+      </c>
+      <c r="B1232" t="s">
+        <v>2251</v>
+      </c>
+      <c r="C1232" t="s">
+        <v>625</v>
+      </c>
+      <c r="D1232" t="s">
+        <v>2252</v>
+      </c>
+    </row>
+    <row r="1233" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1233">
+        <v>1.348963423552418E+18</v>
+      </c>
+      <c r="B1233" t="s">
+        <v>2253</v>
+      </c>
+      <c r="C1233" t="s">
+        <v>72</v>
+      </c>
+      <c r="D1233" t="s">
+        <v>2254</v>
+      </c>
+    </row>
+    <row r="1234" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1234">
+        <v>1.348952852132098E+18</v>
+      </c>
+      <c r="B1234" t="s">
+        <v>2255</v>
+      </c>
+      <c r="C1234" t="s">
+        <v>21</v>
+      </c>
+      <c r="D1234" t="s">
+        <v>2256</v>
+      </c>
+    </row>
+    <row r="1235" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1235">
+        <v>1.3489527456513019E+18</v>
+      </c>
+      <c r="B1235" t="s">
+        <v>2257</v>
+      </c>
+      <c r="C1235" t="s">
+        <v>21</v>
+      </c>
+      <c r="D1235" t="s">
+        <v>2258</v>
+      </c>
+    </row>
+    <row r="1236" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1236">
+        <v>1.3489283022374541E+18</v>
+      </c>
+      <c r="B1236" t="s">
+        <v>2259</v>
+      </c>
+      <c r="C1236" t="s">
+        <v>625</v>
+      </c>
+      <c r="D1236" t="s">
+        <v>2260</v>
+      </c>
+    </row>
+    <row r="1237" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1237">
+        <v>1.348924821132898E+18</v>
+      </c>
+      <c r="B1237" t="s">
+        <v>2261</v>
+      </c>
+      <c r="C1237" t="s">
+        <v>21</v>
+      </c>
+      <c r="D1237" t="s">
+        <v>2262</v>
+      </c>
+    </row>
+    <row r="1238" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1238">
+        <v>1.3489095423571561E+18</v>
+      </c>
+      <c r="B1238" t="s">
+        <v>2263</v>
+      </c>
+      <c r="C1238" t="s">
+        <v>2264</v>
+      </c>
+      <c r="D1238" t="s">
+        <v>2265</v>
+      </c>
+    </row>
+    <row r="1239" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1239">
+        <v>1.3488905601536159E+18</v>
+      </c>
+      <c r="B1239" t="s">
+        <v>2266</v>
+      </c>
+      <c r="C1239" t="s">
+        <v>625</v>
+      </c>
+      <c r="D1239" t="s">
+        <v>2267</v>
+      </c>
+    </row>
+    <row r="1240" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1240">
+        <v>1.348886550394806E+18</v>
+      </c>
+      <c r="B1240" t="s">
+        <v>2268</v>
+      </c>
+      <c r="C1240" t="s">
+        <v>45</v>
+      </c>
+      <c r="D1240" t="s">
+        <v>2269</v>
+      </c>
+    </row>
+    <row r="1241" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1241">
+        <v>1.34887272060015E+18</v>
+      </c>
+      <c r="B1241" t="s">
+        <v>2270</v>
+      </c>
+      <c r="C1241" t="s">
+        <v>72</v>
+      </c>
+      <c r="D1241" t="s">
+        <v>2271</v>
+      </c>
+    </row>
+    <row r="1242" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1242">
+        <v>1.348860241581023E+18</v>
+      </c>
+      <c r="B1242" t="s">
+        <v>2272</v>
+      </c>
+      <c r="C1242" t="s">
+        <v>80</v>
+      </c>
+      <c r="D1242" t="s">
+        <v>2273</v>
+      </c>
+    </row>
+    <row r="1243" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1243">
+        <v>1.3488601093093701E+18</v>
+      </c>
+      <c r="B1243" t="s">
+        <v>2274</v>
+      </c>
+      <c r="C1243" t="s">
+        <v>80</v>
+      </c>
+      <c r="D1243" t="s">
+        <v>2275</v>
+      </c>
+    </row>
+    <row r="1244" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1244">
+        <v>1.348860010856542E+18</v>
+      </c>
+      <c r="B1244" t="s">
+        <v>2276</v>
+      </c>
+      <c r="C1244" t="s">
+        <v>80</v>
+      </c>
+      <c r="D1244" t="s">
+        <v>2277</v>
+      </c>
+    </row>
+    <row r="1245" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1245">
+        <v>1.3488597908610911E+18</v>
+      </c>
+      <c r="B1245" t="s">
+        <v>2278</v>
+      </c>
+      <c r="C1245" t="s">
+        <v>80</v>
+      </c>
+      <c r="D1245" t="s">
+        <v>2279</v>
+      </c>
+    </row>
+    <row r="1246" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1246">
+        <v>1.34885974817987E+18</v>
+      </c>
+      <c r="B1246" t="s">
+        <v>2280</v>
+      </c>
+      <c r="C1246" t="s">
+        <v>80</v>
+      </c>
+      <c r="D1246" t="s">
+        <v>2281</v>
+      </c>
+    </row>
+    <row r="1247" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1247">
+        <v>1.348859658140746E+18</v>
+      </c>
+      <c r="B1247" t="s">
+        <v>2282</v>
+      </c>
+      <c r="C1247" t="s">
+        <v>80</v>
+      </c>
+      <c r="D1247" t="s">
+        <v>2283</v>
+      </c>
+    </row>
+    <row r="1248" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1248">
+        <v>1.3488595953351639E+18</v>
+      </c>
+      <c r="B1248" t="s">
+        <v>2284</v>
+      </c>
+      <c r="C1248" t="s">
+        <v>80</v>
+      </c>
+      <c r="D1248" t="s">
+        <v>2285</v>
+      </c>
+    </row>
+    <row r="1249" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1249">
+        <v>1.3488595401130271E+18</v>
+      </c>
+      <c r="B1249" t="s">
+        <v>2286</v>
+      </c>
+      <c r="C1249" t="s">
+        <v>80</v>
+      </c>
+      <c r="D1249" t="s">
+        <v>2287</v>
+      </c>
+    </row>
+    <row r="1250" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1250">
+        <v>1.3488527866544499E+18</v>
+      </c>
+      <c r="B1250" t="s">
+        <v>2288</v>
+      </c>
+      <c r="C1250" t="s">
+        <v>625</v>
+      </c>
+      <c r="D1250" t="s">
+        <v>2289</v>
+      </c>
+    </row>
+    <row r="1251" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1251">
+        <v>1.3488284845885891E+18</v>
+      </c>
+      <c r="B1251" t="s">
+        <v>2290</v>
+      </c>
+      <c r="C1251" t="s">
+        <v>2291</v>
+      </c>
+      <c r="D1251" t="s">
+        <v>2292</v>
+      </c>
+    </row>
+    <row r="1252" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1252">
+        <v>1.348815070021579E+18</v>
+      </c>
+      <c r="B1252" t="s">
+        <v>2293</v>
+      </c>
+      <c r="C1252" t="s">
+        <v>625</v>
+      </c>
+      <c r="D1252" t="s">
+        <v>2294</v>
+      </c>
+    </row>
+    <row r="1253" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1253">
+        <v>1.348777453116822E+18</v>
+      </c>
+      <c r="B1253" t="s">
+        <v>2295</v>
+      </c>
+      <c r="C1253" t="s">
+        <v>625</v>
+      </c>
+      <c r="D1253" t="s">
+        <v>2296</v>
+      </c>
+    </row>
+    <row r="1254" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1254">
+        <v>1.3487396246135519E+18</v>
+      </c>
+      <c r="B1254" t="s">
+        <v>2297</v>
+      </c>
+      <c r="C1254" t="s">
+        <v>625</v>
+      </c>
+      <c r="D1254" t="s">
+        <v>2298</v>
+      </c>
+    </row>
+    <row r="1255" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1255">
+        <v>1.348702225745408E+18</v>
+      </c>
+      <c r="B1255" t="s">
+        <v>2299</v>
+      </c>
+      <c r="C1255" t="s">
+        <v>625</v>
+      </c>
+      <c r="D1255" t="s">
+        <v>2300</v>
+      </c>
+    </row>
+    <row r="1256" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1256">
+        <v>1.3487002890632891E+18</v>
+      </c>
+      <c r="B1256" t="s">
+        <v>2301</v>
+      </c>
+      <c r="C1256" t="s">
+        <v>1650</v>
+      </c>
+      <c r="D1256" t="s">
+        <v>2302</v>
+      </c>
+    </row>
+    <row r="1257" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1257">
+        <v>1.3486649811983109E+18</v>
+      </c>
+      <c r="B1257" t="s">
+        <v>2303</v>
+      </c>
+      <c r="C1257" t="s">
+        <v>625</v>
+      </c>
+      <c r="D1257" t="s">
+        <v>2304</v>
+      </c>
+    </row>
+    <row r="1258" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1258">
+        <v>1.348626588519211E+18</v>
+      </c>
+      <c r="B1258" t="s">
+        <v>1969</v>
+      </c>
+      <c r="C1258" t="s">
+        <v>625</v>
+      </c>
+      <c r="D1258" t="s">
+        <v>1970</v>
+      </c>
+    </row>
+    <row r="1259" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1259">
+        <v>1.348616095498953E+18</v>
+      </c>
+      <c r="B1259" t="s">
+        <v>1971</v>
+      </c>
+      <c r="C1259" t="s">
+        <v>72</v>
+      </c>
+      <c r="D1259" t="s">
+        <v>1972</v>
+      </c>
+    </row>
+    <row r="1260" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1260">
+        <v>1.3485885616924669E+18</v>
+      </c>
+      <c r="B1260" t="s">
+        <v>1973</v>
+      </c>
+      <c r="C1260" t="s">
+        <v>625</v>
+      </c>
+      <c r="D1260" t="s">
+        <v>1974</v>
+      </c>
+    </row>
+    <row r="1261" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1261">
+        <v>1.3485714669257029E+18</v>
+      </c>
+      <c r="B1261" t="s">
+        <v>1975</v>
+      </c>
+      <c r="C1261" t="s">
+        <v>21</v>
+      </c>
+      <c r="D1261" t="s">
+        <v>1976</v>
+      </c>
+    </row>
+    <row r="1262" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1262">
+        <v>1.3485678702261079E+18</v>
+      </c>
+      <c r="B1262" t="s">
+        <v>1977</v>
+      </c>
+      <c r="C1262" t="s">
+        <v>1875</v>
+      </c>
+      <c r="D1262" t="s">
+        <v>1978</v>
+      </c>
+    </row>
+    <row r="1263" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1263">
+        <v>1.348551541662249E+18</v>
+      </c>
+      <c r="B1263" t="s">
+        <v>1979</v>
+      </c>
+      <c r="C1263" t="s">
+        <v>625</v>
+      </c>
+      <c r="D1263" t="s">
+        <v>1980</v>
+      </c>
+    </row>
+    <row r="1264" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1264">
+        <v>1.348525593286103E+18</v>
+      </c>
+      <c r="B1264" t="s">
+        <v>1981</v>
+      </c>
+      <c r="C1264" t="s">
+        <v>72</v>
+      </c>
+      <c r="D1264" t="s">
+        <v>1982</v>
+      </c>
+    </row>
+    <row r="1265" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1265">
+        <v>1.3485133814692091E+18</v>
+      </c>
+      <c r="B1265" t="s">
+        <v>1983</v>
+      </c>
+      <c r="C1265" t="s">
+        <v>625</v>
+      </c>
+      <c r="D1265" t="s">
+        <v>1984</v>
+      </c>
+    </row>
+    <row r="1266" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1266">
+        <v>1.3484984442272031E+18</v>
+      </c>
+      <c r="B1266" t="s">
+        <v>1985</v>
+      </c>
+      <c r="C1266" t="s">
+        <v>45</v>
+      </c>
+      <c r="D1266" t="s">
+        <v>1986</v>
+      </c>
+    </row>
+    <row r="1267" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1267">
+        <v>1.3484901732694789E+18</v>
+      </c>
+      <c r="B1267" t="s">
+        <v>1987</v>
+      </c>
+      <c r="C1267" t="s">
+        <v>1988</v>
+      </c>
+      <c r="D1267" t="s">
+        <v>1989</v>
+      </c>
+    </row>
+    <row r="1268" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1268">
+        <v>1.3484862692784499E+18</v>
+      </c>
+      <c r="B1268" t="s">
+        <v>1990</v>
+      </c>
+      <c r="C1268" t="s">
+        <v>80</v>
+      </c>
+      <c r="D1268" t="s">
+        <v>1991</v>
+      </c>
+    </row>
+    <row r="1269" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1269">
+        <v>1.3484862173949089E+18</v>
+      </c>
+      <c r="B1269" t="s">
+        <v>1992</v>
+      </c>
+      <c r="C1269" t="s">
+        <v>80</v>
+      </c>
+      <c r="D1269" t="s">
+        <v>1993</v>
+      </c>
+    </row>
+    <row r="1270" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1270">
+        <v>1.3484861615477599E+18</v>
+      </c>
+      <c r="B1270" t="s">
+        <v>1994</v>
+      </c>
+      <c r="C1270" t="s">
+        <v>80</v>
+      </c>
+      <c r="D1270" t="s">
+        <v>1995</v>
+      </c>
+    </row>
+    <row r="1271" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1271">
+        <v>1.3484860654436639E+18</v>
+      </c>
+      <c r="B1271" t="s">
+        <v>1996</v>
+      </c>
+      <c r="C1271" t="s">
+        <v>80</v>
+      </c>
+      <c r="D1271" t="s">
+        <v>1997</v>
+      </c>
+    </row>
+    <row r="1272" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1272">
+        <v>1.348475302553428E+18</v>
+      </c>
+      <c r="B1272" t="s">
+        <v>1998</v>
+      </c>
+      <c r="C1272" t="s">
+        <v>625</v>
+      </c>
+      <c r="D1272" t="s">
+        <v>1999</v>
+      </c>
+    </row>
+    <row r="1273" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1273">
+        <v>1.3484376610531159E+18</v>
+      </c>
+      <c r="B1273" t="s">
+        <v>2000</v>
+      </c>
+      <c r="C1273" t="s">
+        <v>625</v>
+      </c>
+      <c r="D1273" t="s">
+        <v>2001</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/application/static/excel_data/data_crawling -- 3. #belajardirumah.xlsx
+++ b/application/static/excel_data/data_crawling -- 3. #belajardirumah.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3820" uniqueCount="2305">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4075" uniqueCount="2460">
   <si>
     <t>id</t>
   </si>
@@ -9641,6 +9641,686 @@
   </si>
   <si>
     <t>Mon Jan 11 16:16:03 +0000 2021</t>
+  </si>
+  <si>
+    <t>Buku Aktivitas Mengenal Hewan - Diskon 20% menjadi Rp.16000
+Gratis ongkos kirim hingga 40rb keseluruh Indonesia.
+#mainanbukuanak #promo #dirumahaja #belajardirumah #buku #membaca #booklover #bookstorm  
+SINOPSIS:Mewarnai Membaca Menulis dan Menghitung
+Di buku ini kita https://t.co/dHYqLsu5fO</t>
+  </si>
+  <si>
+    <t>Fri Jan 22 12:12:22 +0000 2021</t>
+  </si>
+  <si>
+    <t>Update Perkembangan Covid-19 di Kabupaten Luwu Timur per 22 Januari 2021.
+11 sembuh, 12 kasus baru &amp;amp; 1 meninggal.
+Perbaharui terus informasi anda di https://t.co/D4pL3qgDlY
+#ayolawancorona #belajardirumah #dirumahsaja #jagakebersihan #jagakesehatan #jagajarak #pakemasker https://t.co/iSyAkxQNV2</t>
+  </si>
+  <si>
+    <t>Fri Jan 22 10:57:58 +0000 2021</t>
+  </si>
+  <si>
+    <t>Seri Akhlak Anak Hebat;Bangganya Berlaku Jujur - Diskon 20% menjadi Rp.28000
+Gratis ongkos kirim hingga 40rb keseluruh Indonesia.
+#mainanbukuanak #promo #dirumahaja #belajardirumah #buku #membaca #booklover #bookstorm  
+SINOPSIS:Saat Gina ingin mangga
+ada buah mangga https://t.co/oF2Oz1dtna</t>
+  </si>
+  <si>
+    <t>Fri Jan 22 09:42:03 +0000 2021</t>
+  </si>
+  <si>
+    <t>TINDAK LANJUT EDARAN MENDAGRI, SEKDA INGATKAN OPD TERKAIT PERCEPATAN PELAKSANAAN APBD 2021
+BACA INFORMASI LENGKAPNYA DI 👉 https://t.co/PmBKvD7DWB
+#ayolawancorona #belajardirumah #dirumahsaja #jagakebersihan #jagakesehatan #jagajarak #pakemasker #tetapwaspada #coronabisasembuh https://t.co/2cB3pXFghj</t>
+  </si>
+  <si>
+    <t>Fri Jan 22 08:41:32 +0000 2021</t>
+  </si>
+  <si>
+    <t>Seri Akhlak Anak Hebat;Bangganya Berlaku Jujur - Diskon 20% menjadi Rp.28000
+Gratis ongkos kirim hingga 40rb keseluruh Indonesia.
+#mainanbukuanak #promo #dirumahaja #belajardirumah #buku #membaca #booklover #bookstorm  
+SINOPSIS:Saat Gina ingin mangga
+ada buah mangga https://t.co/AseoBGtll5</t>
+  </si>
+  <si>
+    <t>Fri Jan 22 07:12:36 +0000 2021</t>
+  </si>
+  <si>
+    <t>WAKTUNYA TRIVIA!
+Bukan dari warkop, ternyata teh berasal dari negeri seberang. Coba tebak, negara mana yang pertama kali menemukan teh?
+#kelaskita #carabarubelajarseru #belajardirumah #elearning #belajaronline #dirumahaja #trivia https://t.co/p77MWjCLqc</t>
+  </si>
+  <si>
+    <t>Fri Jan 22 06:11:44 +0000 2021</t>
+  </si>
+  <si>
+    <t>Kunci Jawaban Tema 6 Kelas 5 Halaman 94 95 98 99 102 103 Festival Manee Tradisi Nelayan Pantai Malo
+#BukuTematik #kuncijawabanBukuTematik #belajardirumah
+https://t.co/O4XM3lzEwO</t>
+  </si>
+  <si>
+    <t>Fri Jan 22 06:09:06 +0000 2021</t>
+  </si>
+  <si>
+    <t>Begimana nih manusia kalah sama ular udah masuk sekolah 😗 @Kemdikbud_RI #belajardirumah https://t.co/05AK48GRio</t>
+  </si>
+  <si>
+    <t>riskarew18</t>
+  </si>
+  <si>
+    <t>Fri Jan 22 05:29:16 +0000 2021</t>
+  </si>
+  <si>
+    <t>Persahabatan Gajah Dan Semut ( SC ) - Diskon 20% menjadi Rp.31200
+Gratis ongkos kirim hingga 40rb keseluruh Indonesia.
+#mainanbukuanak #promo #dirumahaja #belajardirumah #buku #membaca #booklover #bookstorm  
+SINOPSIS:Persahabatan ini indah….Selamanya tak anak https://t.co/YzHE0RD07j</t>
+  </si>
+  <si>
+    <t>Fri Jan 22 04:42:09 +0000 2021</t>
+  </si>
+  <si>
+    <t>TATA NAMA ETER (ALKOKSI ALKANA) oleh irma safitri https://t.co/OhfvyAfilY lewat @YouTube 
+#belajardirumah #kimiaitumudah #belajarkimia #kimiasma #gugusfungsi</t>
+  </si>
+  <si>
+    <t>irmasafi3</t>
+  </si>
+  <si>
+    <t>Fri Jan 22 03:03:16 +0000 2021</t>
+  </si>
+  <si>
+    <t>info penerimaan siswa baru dan pindahan SD CITRA BANGSA SCHOOL PRINGSEWU chat wa 082179337792 atau klik https://t.co/AG9cqpu7EU
+Jalan Pelita 2 arah kantor pemda kab Pringsewu sebelah kursus setir gajah mada 
+#belajardirumah
+#pringsewu
+#inspirasipagicbs
+#sdcitrabangsaschool https://t.co/qvhDpTiEQu</t>
+  </si>
+  <si>
+    <t>citrabangsapsw</t>
+  </si>
+  <si>
+    <t>Fri Jan 22 01:29:26 +0000 2021</t>
+  </si>
+  <si>
+    <t>Persahabatan Gajah Dan Semut ( SC ) - Diskon 20% menjadi Rp.31200
+Gratis ongkos kirim hingga 40rb keseluruh Indonesia.
+#mainanbukuanak #promo #dirumahaja #belajardirumah #buku #membaca #booklover #bookstorm  
+SINOPSIS:Persahabatan ini indah….Selamanya tak anak https://t.co/odMJvcM4qY</t>
+  </si>
+  <si>
+    <t>Thu Jan 21 18:42:11 +0000 2021</t>
+  </si>
+  <si>
+    <t>Seri Akhlak Anak Hebat;Bangganya Berlaku Jujur - Diskon 20% menjadi Rp.28000
+Gratis ongkos kirim hingga 40rb keseluruh Indonesia.
+#mainanbukuanak #promo #dirumahaja #belajardirumah #buku #membaca #booklover #bookstorm  
+SINOPSIS:Saat Gina ingin mangga
+ada buah mangga https://t.co/cb0CsIOkXn</t>
+  </si>
+  <si>
+    <t>Thu Jan 21 16:12:07 +0000 2021</t>
+  </si>
+  <si>
+    <t>Seri Akhlak Anak Hebat;Bangganya Berlaku Jujur - Diskon 20% menjadi Rp.28000
+Gratis ongkos kirim hingga 40rb keseluruh Indonesia.
+#mainanbukuanak #promo #dirumahaja #belajardirumah #buku #membaca #booklover #bookstorm  
+SINOPSIS:Saat Gina ingin mangga
+ada buah mangga https://t.co/e1YPujXl0M</t>
+  </si>
+  <si>
+    <t>Thu Jan 21 13:43:18 +0000 2021</t>
+  </si>
+  <si>
+    <t>SEKDA LUWU TIMUR LEPAS BANTUAN SEMBAKO UNTUK KORBAN BENCANA SULBAR
+BACA INFORMASI LENGKAPNYA DI 👉 https://t.co/u3FqFSeTJe
+#ayolawancorona #belajardirumah #bermaindirumah #dirumahsaja #jagakebersihan #jagakesehatan #jagajarak #pakemasker #tetapwaspada #coronabisasembuh https://t.co/ncDsZJu2At</t>
+  </si>
+  <si>
+    <t>Thu Jan 21 13:36:05 +0000 2021</t>
+  </si>
+  <si>
+    <t>DI LUTIM PASIEN SEMBUH BERTAMBAH 51, KASUS BARU 65 DAN 1 MENINGGAL LAGI
+INFORMASI LENGKAPNYA BACA DI 👉 https://t.co/2oYm5BLUWC
+#ayolawancorona #belajardirumah #bermaindirumah #dirumahsaja #jagakebersihan #jagakesehatan #jagajarak #pakemasker #tetapwaspada #coronabisasembuh https://t.co/NKzxmUqouf</t>
+  </si>
+  <si>
+    <t>Thu Jan 21 11:46:59 +0000 2021</t>
+  </si>
+  <si>
+    <t>Update Perkembangan Covid-19 di Kabupaten Luwu Timur per 21 Januari 2021.
+51 sembuh, 65 kasus baru &amp;amp; 1 meninggal.
+Perbaharui terus informasi anda di https://t.co/D4pL3qgDlY
+#ayolawancorona #belajardirumah #bermaindirumah #dirumahsaja #jagakebersihan #jagajarak #pakemasker https://t.co/WKw5LeCi4c</t>
+  </si>
+  <si>
+    <t>Thu Jan 21 11:46:35 +0000 2021</t>
+  </si>
+  <si>
+    <t>Buku Aktivitas Mengenal Hewan - Diskon 20% menjadi Rp.16000
+Gratis ongkos kirim hingga 40rb keseluruh Indonesia.
+#mainanbukuanak #promo #dirumahaja #belajardirumah #buku #membaca #booklover #bookstorm  
+SINOPSIS:Mewarnai Membaca Menulis dan Menghitung
+Di buku ini kita https://t.co/nffTNeKu8d</t>
+  </si>
+  <si>
+    <t>Thu Jan 21 11:12:24 +0000 2021</t>
+  </si>
+  <si>
+    <t>Dengan pembelajaran online dimasa pandemi saat ini, Timur Tengah menggunakan teknologi biometrik untuk memverifikasi identitas untuk pengawasan jarak jauh.
+#identifikasi #studyfromhome #belajardirumah #covid19 #coronavirus #pandemi #verifikasi #biometrik #teknologi https://t.co/UAuzTXSIeb</t>
+  </si>
+  <si>
+    <t>asliriid</t>
+  </si>
+  <si>
+    <t>Thu Jan 21 11:01:43 +0000 2021</t>
+  </si>
+  <si>
+    <t>Seri Akhlak Anak Hebat;Bangganya Berlaku Jujur - Diskon 20% menjadi Rp.28000
+Gratis ongkos kirim hingga 40rb keseluruh Indonesia.
+#mainanbukuanak #promo #dirumahaja #belajardirumah #buku #membaca #booklover #bookstorm  
+SINOPSIS:Saat Gina ingin mangga
+ada buah mangga https://t.co/4u2FJ9yq4b</t>
+  </si>
+  <si>
+    <t>Thu Jan 21 08:42:07 +0000 2021</t>
+  </si>
+  <si>
+    <t>Setan ? Siapa Takut ! - Diskon 20% menjadi Rp.52000
+Gratis ongkos kirim hingga 40rb keseluruh Indonesia.
+#mainanbukuanak #promo #dirumahaja #belajardirumah #buku #membaca #booklover #bookstorm  
+SINOPSIS:Raihan akhir-akhir ini susah sekali bangun pagi. Beberapa kali https://t.co/FBmRyNZ6ns</t>
+  </si>
+  <si>
+    <t>Thu Jan 21 06:16:11 +0000 2021</t>
+  </si>
+  <si>
+    <t>Buat kalian yang duduk di kelas 10, simak dan save postingan ini untuk jadwal GURU setiap harinya!
+.
+Buat kamu yang belum pakai Kelas Pintar, segera pakai Kelas Pintar sekarang ya!
+#bimbelberkualitas #bimbelberkualitasjakarta  #bimbelonline #belajardirumah #kelaspintarindonesia https://t.co/lqSJUzTpg7</t>
+  </si>
+  <si>
+    <t>Thu Jan 21 06:05:35 +0000 2021</t>
+  </si>
+  <si>
+    <t>MULAI 1 FEBRUARI, PENCETAKAN KTP-EL TIDAK DAPAT DIWAKILI
+INFORMASI LENGKAPNYA BACA DI 👉 https://t.co/WAlrHFNbOA
+#ayolawancorona #belajardirumah #beribadahdirumah #bermaindirumah #dirumahsaja #jagakebersihan #jagakesehatan #jagajarak #pakemasker #tetapwaspada #coronabisasembuh https://t.co/sSd2hRhxFD</t>
+  </si>
+  <si>
+    <t>Thu Jan 21 05:49:14 +0000 2021</t>
+  </si>
+  <si>
+    <t>Cerita Si Ayam - Diskon 20% menjadi Rp.20000
+Gratis ongkos kirim hingga 40rb keseluruh Indonesia.
+#mainanbukuanak #promo #dirumahaja #belajardirumah #buku #membaca #booklover #bookstorm  
+SINOPSIS:Ciap… ciap… ciap ….Assalamualaikum Teman-Teman ….Aku Taji si anak https://t.co/Mdo9t5fG68</t>
+  </si>
+  <si>
+    <t>Thu Jan 21 03:42:08 +0000 2021</t>
+  </si>
+  <si>
+    <t>Seri Adab Berteman - Diskon 20% menjadi Rp.20000
+Gratis ongkos kirim hingga 40rb keseluruh Indonesia.
+#mainanbukuanak #promo #dirumahaja #belajardirumah #buku #membaca #booklover #bookstorm  
+SINOPSIS:Ima heran mengapa Puti tampak meminta uang kepada teman – temanya. https://t.co/iPvV921dMM</t>
+  </si>
+  <si>
+    <t>Thu Jan 21 01:12:30 +0000 2021</t>
+  </si>
+  <si>
+    <t>Persahabatan Gajah Dan Semut ( SC ) - Diskon 20% menjadi Rp.31200
+Gratis ongkos kirim hingga 40rb keseluruh Indonesia.
+#mainanbukuanak #promo #dirumahaja #belajardirumah #buku #membaca #booklover #bookstorm  
+SINOPSIS:Persahabatan ini indah….Selamanya tak anak https://t.co/tnqhxTx75y</t>
+  </si>
+  <si>
+    <t>Wed Jan 20 22:42:01 +0000 2021</t>
+  </si>
+  <si>
+    <t>Cerita Si Ayam - Diskon 20% menjadi Rp.20000
+Gratis ongkos kirim hingga 40rb keseluruh Indonesia.
+#mainanbukuanak #promo #dirumahaja #belajardirumah #buku #membaca #booklover #bookstorm  
+SINOPSIS:Ciap… ciap… ciap ….Assalamualaikum Teman-Teman ….Aku Taji si anak https://t.co/iZHwlo2KKi</t>
+  </si>
+  <si>
+    <t>Wed Jan 20 20:12:43 +0000 2021</t>
+  </si>
+  <si>
+    <t>Seri Mengenal Allah 5 : Aku Ciptaan Allah - Diskon 20% menjadi Rp.20000
+Gratis ongkos kirim hingga 40rb keseluruh Indonesia.
+#mainanbukuanak #promo #dirumahaja #belajardirumah #buku #membaca #booklover #bookstorm  
+SINOPSIS:Allah ciptakan aku dalam rahim ibuku. Sukacita https://t.co/fkL60jz5RC</t>
+  </si>
+  <si>
+    <t>Wed Jan 20 17:42:09 +0000 2021</t>
+  </si>
+  <si>
+    <t>Seri Adab di Masjid - Diskon 20% menjadi Rp.20000
+Gratis ongkos kirim hingga 40rb keseluruh Indonesia.
+#mainanbukuanak #promo #dirumahaja #belajardirumah #buku #membaca #booklover #bookstorm  
+SINOPSIS:Abi bawa apa itu? tanya Ibu. Tidak biasanya Abi berangkat shalat https://t.co/LVGDqoZLiB</t>
+  </si>
+  <si>
+    <t>Wed Jan 20 15:12:09 +0000 2021</t>
+  </si>
+  <si>
+    <t>Buku Aktivitas Mengenal Hewan - Diskon 20% menjadi Rp.16000
+Gratis ongkos kirim hingga 40rb keseluruh Indonesia.
+#mainanbukuanak #promo #dirumahaja #belajardirumah #buku #membaca #booklover #bookstorm  
+SINOPSIS:Mewarnai Membaca Menulis dan Menghitung
+Di buku ini kita https://t.co/1Jji6wJeja</t>
+  </si>
+  <si>
+    <t>Wed Jan 20 12:42:09 +0000 2021</t>
+  </si>
+  <si>
+    <t>Sahabat Kelas Pintar masuk tipikal yang mana ni?⁣
+⁣.
+Sudah dilakukan belum tindakan mendorong kamu untuk semakin dekat dengan mimpi kamu?⁣
+⁣.
+Apa yang sudah kamu lakuin?⁣ Share yuk!
+#pendidikankarakter #pendidikananak #belajardirumah #tipsbelajar #KelasPintarIndonesia https://t.co/UmNw9LC8sx</t>
+  </si>
+  <si>
+    <t>Wed Jan 20 11:02:37 +0000 2021</t>
+  </si>
+  <si>
+    <t>HARI INI PASIEN SEMBUH 24, KASUS BARU 11 DAN 4 MENINGGAL
+INFORMASI LENGKAPNYA BACA DI 👉 https://t.co/1tvf0ROm6B
+#ayolawancorona #belajardirumah #beribadahdirumah #bermaindirumah #dirumahsaja #jagakebersihan #jagakesehatan #jagajarak #pakemasker #tetapwaspada #coronabisasembuh https://t.co/0rpBmCGEXC</t>
+  </si>
+  <si>
+    <t>Wed Jan 20 10:56:09 +0000 2021</t>
+  </si>
+  <si>
+    <t>Update Perkembangan Covid-19 di Kabupaten Luwu Timur per 20 Januari 2021.
+24 sembuh, 11 kasus baru &amp;amp; 4 meninggal.
+Perbaharui terus informasi anda di https://t.co/D4pL3qgDlY
+#ayolawancorona #belajardirumah #dirumahsaja #jagakebersihan #jagakesehatan #jagajarak #pakemasker https://t.co/pfbYfMcWna</t>
+  </si>
+  <si>
+    <t>Wed Jan 20 10:55:37 +0000 2021</t>
+  </si>
+  <si>
+    <t>Seri Adab Bersuci - Diskon 20% menjadi Rp.20000
+Gratis ongkos kirim hingga 40rb keseluruh Indonesia.
+#mainanbukuanak #promo #dirumahaja #belajardirumah #buku #membaca #booklover #bookstorm  
+SINOPSIS:Sena kesal sekali. Ia tak sengaja sengaja menginjak kotoran ayam saat https://t.co/boGGsIzgDh</t>
+  </si>
+  <si>
+    <t>Wed Jan 20 10:12:08 +0000 2021</t>
+  </si>
+  <si>
+    <t>Seri Adab Berpakaian - Diskon 20% menjadi Rp.20000
+Gratis ongkos kirim hingga 40rb keseluruh Indonesia.
+#mainanbukuanak #promo #dirumahaja #belajardirumah #buku #membaca #booklover #bookstorm  
+SINOPSIS:Abi ingin memiliki baju baru bergambar robot seperti teman – https://t.co/4fWmYYM5jB</t>
+  </si>
+  <si>
+    <t>Wed Jan 20 07:42:05 +0000 2021</t>
+  </si>
+  <si>
+    <t>GIVEAWAY MULU GAK ADA CAPEKNYA!
+Hadiahnya makin asik, nih. Yakin mau dilewatin gitu aja? Cussss, cek Instagram @kelaskitadotcom sekarang juga!
+#kelaskita #carabarubelajarseru #belajardirumah #elearning #belajaronline #dirumahaja #giveaway https://t.co/bkLpSj3D03</t>
+  </si>
+  <si>
+    <t>Wed Jan 20 05:24:27 +0000 2021</t>
+  </si>
+  <si>
+    <t>Seri Adab Kepada Orang Tua - Diskon 20% menjadi Rp.20000
+Gratis ongkos kirim hingga 40rb keseluruh Indonesia.
+#mainanbukuanak #promo #dirumahaja #belajardirumah #buku #membaca #booklover #bookstorm  
+SINOPSIS:Abi merajuk saat keingin annya membeli mobil- mobilan tidak https://t.co/t17cbvHBds</t>
+  </si>
+  <si>
+    <t>Wed Jan 20 05:14:31 +0000 2021</t>
+  </si>
+  <si>
+    <t>Sahabat Kelas Pintar! Kali ini Kelas pintar akan membagikan tips-tips buat kalian yang merasa kurang produktif dirumah. Jangan lupa tag temen-temen kalian yang gabut dirumah ya!
+#belajardirumah #tipsbelajar #infosma #tipsproduktif #kelaspintarindonesia https://t.co/QBQ8uWUKlo</t>
+  </si>
+  <si>
+    <t>Wed Jan 20 04:02:27 +0000 2021</t>
+  </si>
+  <si>
+    <t>Seri Adab Makan dan Minum - Diskon 20% menjadi Rp.20000
+Gratis ongkos kirim hingga 40rb keseluruh Indonesia.
+#mainanbukuanak #promo #dirumahaja #belajardirumah #buku #membaca #booklover #bookstorm  
+SINOPSIS:Mengapa bu Ihda menegur Abi saat Abi sedang makan? Seperti apa https://t.co/AQkvcs2Jv3</t>
+  </si>
+  <si>
+    <t>Wed Jan 20 02:41:52 +0000 2021</t>
+  </si>
+  <si>
+    <t>Daftar kuy... Promonya manteb neh... ♨️⏭️
+#liaonline #kelapagading #liakelapagading #lia #kursusbahasainggris #belajardirumah #dirumahaja #funlearning #englishcourse #english #flippedclassroom https://t.co/DGheYiA6bN</t>
+  </si>
+  <si>
+    <t>Wed Jan 20 01:46:18 +0000 2021</t>
+  </si>
+  <si>
+    <t>Seri Adab Berbicara - Diskon 20% menjadi Rp.20000
+Gratis ongkos kirim hingga 40rb keseluruh Indonesia.
+#mainanbukuanak #promo #dirumahaja #belajardirumah #buku #membaca #booklover #bookstorm  
+SINOPSIS:Saat berbicara Gema dan Gina tidak pernah berbohong Indahnya https://t.co/aOeh64YS9d</t>
+  </si>
+  <si>
+    <t>Wed Jan 20 00:12:00 +0000 2021</t>
+  </si>
+  <si>
+    <t>Seri Adab Bepergian - Diskon 20% menjadi Rp.20000
+Gratis ongkos kirim hingga 40rb keseluruh Indonesia.
+#mainanbukuanak #promo #dirumahaja #belajardirumah #buku #membaca #booklover #bookstorm  
+SINOPSIS:Lila kesal karena lupa membawa mainan pasirnya saat ke pantai. https://t.co/iONb5WIUBh</t>
+  </si>
+  <si>
+    <t>Tue Jan 19 21:42:10 +0000 2021</t>
+  </si>
+  <si>
+    <t>Persahabatan Gajah Dan Semut ( SC ) - Diskon 20% menjadi Rp.31200
+Gratis ongkos kirim hingga 40rb keseluruh Indonesia.
+#mainanbukuanak #promo #dirumahaja #belajardirumah #buku #membaca #booklover #bookstorm  
+SINOPSIS:Persahabatan ini indah….Selamanya tak anak https://t.co/AUk0vA2PTH</t>
+  </si>
+  <si>
+    <t>Tue Jan 19 19:12:15 +0000 2021</t>
+  </si>
+  <si>
+    <t>Ada Konten video dan stok foto baru dari aku. masa gk muk order?
+langsung DM aja buat tarifnya. mohon ikuti rules ya
+tarif DM
+ #bojogjaarea #bojogja #AvailJogja #AngelJogja #bbwjogja #RecomendedBO #includeJogja #jogjaopenBO #jogjanakal #jogjacrot #BelajarDirumah #vcstrusted</t>
+  </si>
+  <si>
+    <t>Tue Jan 19 17:20:14 +0000 2021</t>
+  </si>
+  <si>
+    <t>Seri Adab Bepergian - Diskon 20% menjadi Rp.20000
+Gratis ongkos kirim hingga 40rb keseluruh Indonesia.
+#mainanbukuanak #promo #dirumahaja #belajardirumah #buku #membaca #booklover #bookstorm  
+SINOPSIS:Lila kesal karena lupa membawa mainan pasirnya saat ke pantai. https://t.co/4F541CRtim</t>
+  </si>
+  <si>
+    <t>Tue Jan 19 16:43:05 +0000 2021</t>
+  </si>
+  <si>
+    <t>Seri Adab Belajar - Diskon 20% menjadi Rp.20000
+Gratis ongkos kirim hingga 40rb keseluruh Indonesia.
+#mainanbukuanak #promo #dirumahaja #belajardirumah #buku #membaca #booklover #bookstorm  
+SINOPSIS:Nilai ulangan harianku tadi jelek Di. Aku hanya mendapat angka 5. Itu https://t.co/6HZvZ0tftm</t>
+  </si>
+  <si>
+    <t>Tue Jan 19 14:11:55 +0000 2021</t>
+  </si>
+  <si>
+    <t>Kenali jenis-jenis possessive pronouns dalam bahasa inggris dan latihan pake SOAL yang tersedia di Kelas Pintar supaya kamu bisa benar-benar faham penggunaannya ya!
+#belajardirumah #bimbelonline
+#pjj #pjjonlineclass #kelaspintarindonesia https://t.co/79Q2ZFv7KN</t>
+  </si>
+  <si>
+    <t>Tue Jan 19 13:01:42 +0000 2021</t>
+  </si>
+  <si>
+    <t>Buku Aktivitas Mengenal Hewan - Diskon 20% menjadi Rp.16000
+Gratis ongkos kirim hingga 40rb keseluruh Indonesia.
+#mainanbukuanak #promo #dirumahaja #belajardirumah #buku #membaca #booklover #bookstorm  
+SINOPSIS:Mewarnai Membaca Menulis dan Menghitung
+Di buku ini kita https://t.co/ho4wCAOMRI</t>
+  </si>
+  <si>
+    <t>Tue Jan 19 11:53:49 +0000 2021</t>
+  </si>
+  <si>
+    <t>UPDATE COVID19, 16 SEMBUH, 45 KASUS BARU DAN 1 MENINGGAL
+INFORMASI LENGKAPNYA BACA DI 👉 https://t.co/H5cHgn7ECp
+#ayolawancorona #belajardirumah #beribadahdirumah #bermaindirumah #dirumahsaja #jagakebersihan #jagakesehatan #jagajarak #pakemasker #tetapwaspada #coronabisasembuh https://t.co/RSm8dZ4Ul6</t>
+  </si>
+  <si>
+    <t>Tue Jan 19 11:38:17 +0000 2021</t>
+  </si>
+  <si>
+    <t>Update Perkembangan Covid-19 di Kabupaten Luwu Timur per 19 Januari 2021.
+16 sembuh, 45 kasus baru &amp;amp; 1 meninggal.
+Perbaharui terus informasi anda di https://t.co/D4pL3qgDlY
+#ayolawancorona #belajardirumah #dirumahsaja #jagakebersihan #jagakesehatan #jagajarak #pakemasker https://t.co/f3ipOFAG7o</t>
+  </si>
+  <si>
+    <t>Tue Jan 19 11:37:52 +0000 2021</t>
+  </si>
+  <si>
+    <t>Seri Adab Makan dan Minum - Diskon 20% menjadi Rp.20000
+Gratis ongkos kirim hingga 40rb keseluruh Indonesia.
+#mainanbukuanak #promo #dirumahaja #belajardirumah #buku #membaca #booklover #bookstorm  
+SINOPSIS:Mengapa bu Ihda menegur Abi saat Abi sedang makan? Seperti apa https://t.co/5JppIJALhc</t>
+  </si>
+  <si>
+    <t>Tue Jan 19 09:12:23 +0000 2021</t>
+  </si>
+  <si>
+    <t>Mama dan Papa jangan sedih lagi! Gak perlu khawatir kalo belum bisa ngajarin anak di rumah. Karena sekarang ada Kelas Pintar!
+.
+Sudah pakai Kelas Pintar belum?
+#pjj #pjjonlineclass #pjjonline #belajardirumah #kelaspintarindonesia https://t.co/yRFcy3mMSU</t>
+  </si>
+  <si>
+    <t>Tue Jan 19 07:04:26 +0000 2021</t>
+  </si>
+  <si>
+    <t>Seri Adab Berbicara - Diskon 20% menjadi Rp.20000
+Gratis ongkos kirim hingga 40rb keseluruh Indonesia.
+#mainanbukuanak #promo #dirumahaja #belajardirumah #buku #membaca #booklover #bookstorm  
+SINOPSIS:Saat berbicara Gema dan Gina tidak pernah berbohong Indahnya https://t.co/Hh7aCP5zXQ</t>
+  </si>
+  <si>
+    <t>Tue Jan 19 06:42:18 +0000 2021</t>
+  </si>
+  <si>
+    <t>Dapet salam dari Amerika nih, hehe.
+Mba Oprah aku padamuuuu…
+#kelaskita #carabarubelajarseru #belajardirumah #elearning #belajaronline #dirumahaja #quotes https://t.co/3UJLTn6MDm</t>
+  </si>
+  <si>
+    <t>Tue Jan 19 06:34:50 +0000 2021</t>
+  </si>
+  <si>
+    <t>Seri Adab Bepergian - Diskon 20% menjadi Rp.20000
+Gratis ongkos kirim hingga 40rb keseluruh Indonesia.
+#mainanbukuanak #promo #dirumahaja #belajardirumah #buku #membaca #booklover #bookstorm  
+SINOPSIS:Lila kesal karena lupa membawa mainan pasirnya saat ke pantai. https://t.co/khoXOnOQeS</t>
+  </si>
+  <si>
+    <t>Tue Jan 19 04:14:50 +0000 2021</t>
+  </si>
+  <si>
+    <t>Seri Adab Belajar - Diskon 20% menjadi Rp.20000
+Gratis ongkos kirim hingga 40rb keseluruh Indonesia.
+#mainanbukuanak #promo #dirumahaja #belajardirumah #buku #membaca #booklover #bookstorm  
+SINOPSIS:Nilai ulangan harianku tadi jelek Di. Aku hanya mendapat angka 5. Itu https://t.co/xdKQNGYwTO</t>
+  </si>
+  <si>
+    <t>Tue Jan 19 04:11:56 +0000 2021</t>
+  </si>
+  <si>
+    <t>Seri Adab Makan dan Minum - Diskon 20% menjadi Rp.20000
+Gratis ongkos kirim hingga 40rb keseluruh Indonesia.
+#mainanbukuanak #promo #dirumahaja #belajardirumah #buku #membaca #booklover #bookstorm  
+SINOPSIS:Mengapa bu Ihda menegur Abi saat Abi sedang makan? Seperti apa https://t.co/cDF7nsnfQB</t>
+  </si>
+  <si>
+    <t>Tue Jan 19 01:42:00 +0000 2021</t>
+  </si>
+  <si>
+    <t>Seri Adab Berbicara - Diskon 20% menjadi Rp.20000
+Gratis ongkos kirim hingga 40rb keseluruh Indonesia.
+#mainanbukuanak #promo #dirumahaja #belajardirumah #buku #membaca #booklover #bookstorm  
+SINOPSIS:Saat berbicara Gema dan Gina tidak pernah berbohong Indahnya https://t.co/2lclttzi4C</t>
+  </si>
+  <si>
+    <t>Mon Jan 18 23:12:01 +0000 2021</t>
+  </si>
+  <si>
+    <t>Cerita Si Ayam - Diskon 20% menjadi Rp.20000
+Gratis ongkos kirim hingga 40rb keseluruh Indonesia.
+#mainanbukuanak #promo #dirumahaja #belajardirumah #buku #membaca #booklover #bookstorm  
+SINOPSIS:Ciap… ciap… ciap ….Assalamualaikum Teman-Teman ….Aku Taji si anak https://t.co/fPmzVeIzye</t>
+  </si>
+  <si>
+    <t>Mon Jan 18 20:42:48 +0000 2021</t>
+  </si>
+  <si>
+    <t>Seri Mengenal Allah 5 : Aku Ciptaan Allah - Diskon 20% menjadi Rp.20000
+Gratis ongkos kirim hingga 40rb keseluruh Indonesia.
+#mainanbukuanak #promo #dirumahaja #belajardirumah #buku #membaca #booklover #bookstorm  
+SINOPSIS:Allah ciptakan aku dalam rahim ibuku. Sukacita https://t.co/qrxuG9VDF8</t>
+  </si>
+  <si>
+    <t>Mon Jan 18 18:12:15 +0000 2021</t>
+  </si>
+  <si>
+    <t>Seri Adab Bepergian - Diskon 20% menjadi Rp.20000
+Gratis ongkos kirim hingga 40rb keseluruh Indonesia.
+#mainanbukuanak #promo #dirumahaja #belajardirumah #buku #membaca #booklover #bookstorm  
+SINOPSIS:Lila kesal karena lupa membawa mainan pasirnya saat ke pantai. https://t.co/PdGUwBs4F7</t>
+  </si>
+  <si>
+    <t>Mon Jan 18 15:42:08 +0000 2021</t>
+  </si>
+  <si>
+    <t>Gak lengkap rasanya kalau belum berbagi pengalaman dari orang tua yang sudah pernah pakai Kelas Pintar untuk putra putri kesayangan mereka. 
+.
+Mama dan papa sudah coba pakai Kelas Pintar? 
+#bimbelberkualitas #belajardirumah #pjj #pjjonlineclass #kelaspintarindonesia https://t.co/0fVQMwZt4U</t>
+  </si>
+  <si>
+    <t>Mon Jan 18 14:24:58 +0000 2021</t>
+  </si>
+  <si>
+    <t>Buku Aktivitas Mengenal Hewan - Diskon 20% menjadi Rp.16000
+Gratis ongkos kirim hingga 40rb keseluruh Indonesia.
+#mainanbukuanak #promo #dirumahaja #belajardirumah #buku #membaca #booklover #bookstorm  
+SINOPSIS:Mewarnai Membaca Menulis dan Menghitung
+Di buku ini kita https://t.co/65fjaisJ6p</t>
+  </si>
+  <si>
+    <t>Mon Jan 18 13:12:03 +0000 2021</t>
+  </si>
+  <si>
+    <t>PASIEN SEMBUH BERTAMBAH 23, KASUS BARU 9 DAN 1 PASIEN COVID19 MENINGGAL
+INFORMASI LENGKAPNYA BACA DI 👉 https://t.co/hxeL0bPVLv
+#ayolawancorona #belajardirumah #bermaindirumah #dirumahsaja #jagakebersihan #jagakesehatan #jagajarak #pakemasker #tetapwaspada #coronabisasembuh https://t.co/miwam99fl1</t>
+  </si>
+  <si>
+    <t>Mon Jan 18 11:36:37 +0000 2021</t>
+  </si>
+  <si>
+    <t>Update Perkembangan Covid-19 di Kabupaten Luwu Timur per 18 Januari 2021.
+23 sembuh, kasus baru 9 &amp;amp; meninggal 1.
+Perbaharui terus informasi anda di https://t.co/D4pL3qyeKy
+#ayolawancorona #belajardirumah #bermaindirumah #dirumahsaja #jagakebersihan #jagakesehatan #jagajarak https://t.co/rM35DTTrtt</t>
+  </si>
+  <si>
+    <t>Mon Jan 18 11:36:04 +0000 2021</t>
+  </si>
+  <si>
+    <t>Seri Adab Belajar - Diskon 20% menjadi Rp.20000
+Gratis ongkos kirim hingga 40rb keseluruh Indonesia.
+#mainanbukuanak #promo #dirumahaja #belajardirumah #buku #membaca #booklover #bookstorm  
+SINOPSIS:Nilai ulangan harianku tadi jelek Di. Aku hanya mendapat angka 5. Itu https://t.co/ncGPZ4Z1WE</t>
+  </si>
+  <si>
+    <t>Mon Jan 18 10:42:03 +0000 2021</t>
+  </si>
+  <si>
+    <t>Aduh, siapa di sini yang sedang dihinggapi sindrom malas belajar? Kenali yuk sebab-sebab seseorang malas belajar.
+.
+Kalau kamu belum menemukan gaya belajar yang tepat, cobain Kelas Pintar aja! 
+#tipsbelajar #belajardirumah #tipsanak #pjjonlineclass #kelaspintarindonesia https://t.co/Sc41q8W3df</t>
+  </si>
+  <si>
+    <t>Mon Jan 18 10:09:15 +0000 2021</t>
+  </si>
+  <si>
+    <t>Seri Adab Makan dan Minum - Diskon 20% menjadi Rp.20000
+Gratis ongkos kirim hingga 40rb keseluruh Indonesia.
+#mainanbukuanak #promo #dirumahaja #belajardirumah #buku #membaca #booklover #bookstorm  
+SINOPSIS:Mengapa bu Ihda menegur Abi saat Abi sedang makan? Seperti apa https://t.co/EhSc0szyrc</t>
+  </si>
+  <si>
+    <t>Mon Jan 18 08:12:07 +0000 2021</t>
+  </si>
+  <si>
+    <t>Seri Adab Berbicara - Diskon 20% menjadi Rp.20000
+Gratis ongkos kirim hingga 40rb keseluruh Indonesia.
+#mainanbukuanak #promo #dirumahaja #belajardirumah #buku #membaca #booklover #bookstorm  
+SINOPSIS:Saat berbicara Gema dan Gina tidak pernah berbohong Indahnya https://t.co/BnrP7X4aFn</t>
+  </si>
+  <si>
+    <t>Mon Jan 18 05:42:12 +0000 2021</t>
+  </si>
+  <si>
+    <t>Seri Adab Belajar - Diskon 20% menjadi Rp.20000
+Gratis ongkos kirim hingga 40rb keseluruh Indonesia.
+#mainanbukuanak #promo #dirumahaja #belajardirumah #buku #membaca #booklover #bookstorm  
+SINOPSIS:Nilai ulangan harianku tadi jelek Di. Aku hanya mendapat angka 5. Itu https://t.co/uxtntCKIJh</t>
+  </si>
+  <si>
+    <t>Mon Jan 18 03:12:06 +0000 2021</t>
+  </si>
+  <si>
+    <t>Kelas zoom. Hari ini agak lega bisa belajar di ruang tamu karna papa lagi cuti. Biasanya di kamar, dempet2an sama kasur dan lemari. 
+Baju makin sempit 😂😂
+#zoomclass #dirumahaja #belajardirumah #sekolahonline https://t.co/GF9dPW1FVB</t>
+  </si>
+  <si>
+    <t>amsalfoje</t>
+  </si>
+  <si>
+    <t>Mon Jan 18 02:24:35 +0000 2021</t>
+  </si>
+  <si>
+    <t>Seri Adab Berpakaian - Diskon 20% menjadi Rp.20000
+Gratis ongkos kirim hingga 40rb keseluruh Indonesia.
+#mainanbukuanak #promo #dirumahaja #belajardirumah #buku #membaca #booklover #bookstorm  
+SINOPSIS:Abi ingin memiliki baju baru bergambar robot seperti teman – https://t.co/dKYbjtcX37</t>
+  </si>
+  <si>
+    <t>Mon Jan 18 00:41:59 +0000 2021</t>
+  </si>
+  <si>
+    <t>Persahabatan Gajah Dan Semut ( SC ) - Diskon 20% menjadi Rp.31200
+Gratis ongkos kirim hingga 40rb keseluruh Indonesia.
+#mainanbukuanak #promo #dirumahaja #belajardirumah #buku #membaca #booklover #bookstorm  
+SINOPSIS:Persahabatan ini indah….Selamanya tak anak https://t.co/RnevnA23b3</t>
+  </si>
+  <si>
+    <t>Sun Jan 17 22:12:05 +0000 2021</t>
+  </si>
+  <si>
+    <t>Cerita Si Ayam - Diskon 20% menjadi Rp.20000
+Gratis ongkos kirim hingga 40rb keseluruh Indonesia.
+#mainanbukuanak #promo #dirumahaja #belajardirumah #buku #membaca #booklover #bookstorm  
+SINOPSIS:Ciap… ciap… ciap ….Assalamualaikum Teman-Teman ….Aku Taji si anak https://t.co/BTLt87TqbG</t>
+  </si>
+  <si>
+    <t>Sun Jan 17 19:42:06 +0000 2021</t>
+  </si>
+  <si>
+    <t>Seri Mengenal Allah 5 : Aku Ciptaan Allah - Diskon 20% menjadi Rp.20000
+Gratis ongkos kirim hingga 40rb keseluruh Indonesia.
+#mainanbukuanak #promo #dirumahaja #belajardirumah #buku #membaca #booklover #bookstorm  
+SINOPSIS:Allah ciptakan aku dalam rahim ibuku. Sukacita https://t.co/7MdFutY3uo</t>
+  </si>
+  <si>
+    <t>Sun Jan 17 17:12:14 +0000 2021</t>
   </si>
 </sst>
 </file>
@@ -10003,10 +10683,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D1273"/>
+  <dimension ref="A1:D1358"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A1264" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B1279" sqref="B1279"/>
+    <sheetView tabSelected="1" topLeftCell="A1350" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="E1361" sqref="E1361"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -27833,6 +28513,1196 @@
         <v>2001</v>
       </c>
     </row>
+    <row r="1274" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1274">
+        <v>1.352589922687881E+18</v>
+      </c>
+      <c r="B1274" t="s">
+        <v>2305</v>
+      </c>
+      <c r="C1274" t="s">
+        <v>625</v>
+      </c>
+      <c r="D1274" t="s">
+        <v>2306</v>
+      </c>
+    </row>
+    <row r="1275" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1275">
+        <v>1.352571201059582E+18</v>
+      </c>
+      <c r="B1275" t="s">
+        <v>2307</v>
+      </c>
+      <c r="C1275" t="s">
+        <v>21</v>
+      </c>
+      <c r="D1275" t="s">
+        <v>2308</v>
+      </c>
+    </row>
+    <row r="1276" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1276">
+        <v>1.352552095048585E+18</v>
+      </c>
+      <c r="B1276" t="s">
+        <v>2309</v>
+      </c>
+      <c r="C1276" t="s">
+        <v>625</v>
+      </c>
+      <c r="D1276" t="s">
+        <v>2310</v>
+      </c>
+    </row>
+    <row r="1277" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1277">
+        <v>1.3525368673846111E+18</v>
+      </c>
+      <c r="B1277" t="s">
+        <v>2311</v>
+      </c>
+      <c r="C1277" t="s">
+        <v>21</v>
+      </c>
+      <c r="D1277" t="s">
+        <v>2312</v>
+      </c>
+    </row>
+    <row r="1278" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1278">
+        <v>1.352514484418486E+18</v>
+      </c>
+      <c r="B1278" t="s">
+        <v>2313</v>
+      </c>
+      <c r="C1278" t="s">
+        <v>625</v>
+      </c>
+      <c r="D1278" t="s">
+        <v>2314</v>
+      </c>
+    </row>
+    <row r="1279" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1279">
+        <v>1.3524991696010491E+18</v>
+      </c>
+      <c r="B1279" t="s">
+        <v>2315</v>
+      </c>
+      <c r="C1279" t="s">
+        <v>45</v>
+      </c>
+      <c r="D1279" t="s">
+        <v>2316</v>
+      </c>
+    </row>
+    <row r="1280" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1280">
+        <v>1.3524985054875891E+18</v>
+      </c>
+      <c r="B1280" t="s">
+        <v>2317</v>
+      </c>
+      <c r="C1280" t="s">
+        <v>53</v>
+      </c>
+      <c r="D1280" t="s">
+        <v>2318</v>
+      </c>
+    </row>
+    <row r="1281" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1281">
+        <v>1.3524884791422359E+18</v>
+      </c>
+      <c r="B1281" t="s">
+        <v>2319</v>
+      </c>
+      <c r="C1281" t="s">
+        <v>2320</v>
+      </c>
+      <c r="D1281" t="s">
+        <v>2321</v>
+      </c>
+    </row>
+    <row r="1282" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1282">
+        <v>1.352476625053524E+18</v>
+      </c>
+      <c r="B1282" t="s">
+        <v>2322</v>
+      </c>
+      <c r="C1282" t="s">
+        <v>625</v>
+      </c>
+      <c r="D1282" t="s">
+        <v>2323</v>
+      </c>
+    </row>
+    <row r="1283" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1283">
+        <v>1.352451740361089E+18</v>
+      </c>
+      <c r="B1283" t="s">
+        <v>2324</v>
+      </c>
+      <c r="C1283" t="s">
+        <v>2325</v>
+      </c>
+      <c r="D1283" t="s">
+        <v>2326</v>
+      </c>
+    </row>
+    <row r="1284" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1284">
+        <v>1.3524281233887439E+18</v>
+      </c>
+      <c r="B1284" t="s">
+        <v>2327</v>
+      </c>
+      <c r="C1284" t="s">
+        <v>2328</v>
+      </c>
+      <c r="D1284" t="s">
+        <v>2329</v>
+      </c>
+    </row>
+    <row r="1285" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1285">
+        <v>1.3523256349749171E+18</v>
+      </c>
+      <c r="B1285" t="s">
+        <v>2330</v>
+      </c>
+      <c r="C1285" t="s">
+        <v>625</v>
+      </c>
+      <c r="D1285" t="s">
+        <v>2331</v>
+      </c>
+    </row>
+    <row r="1286" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1286">
+        <v>1.3522878709590551E+18</v>
+      </c>
+      <c r="B1286" t="s">
+        <v>2332</v>
+      </c>
+      <c r="C1286" t="s">
+        <v>625</v>
+      </c>
+      <c r="D1286" t="s">
+        <v>2333</v>
+      </c>
+    </row>
+    <row r="1287" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1287">
+        <v>1.3522504207441841E+18</v>
+      </c>
+      <c r="B1287" t="s">
+        <v>2334</v>
+      </c>
+      <c r="C1287" t="s">
+        <v>625</v>
+      </c>
+      <c r="D1287" t="s">
+        <v>2335</v>
+      </c>
+    </row>
+    <row r="1288" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1288">
+        <v>1.3522486024169999E+18</v>
+      </c>
+      <c r="B1288" t="s">
+        <v>2336</v>
+      </c>
+      <c r="C1288" t="s">
+        <v>21</v>
+      </c>
+      <c r="D1288" t="s">
+        <v>2337</v>
+      </c>
+    </row>
+    <row r="1289" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1289">
+        <v>1.352221146507211E+18</v>
+      </c>
+      <c r="B1289" t="s">
+        <v>2338</v>
+      </c>
+      <c r="C1289" t="s">
+        <v>21</v>
+      </c>
+      <c r="D1289" t="s">
+        <v>2339</v>
+      </c>
+    </row>
+    <row r="1290" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1290">
+        <v>1.3522210483101251E+18</v>
+      </c>
+      <c r="B1290" t="s">
+        <v>2340</v>
+      </c>
+      <c r="C1290" t="s">
+        <v>21</v>
+      </c>
+      <c r="D1290" t="s">
+        <v>2341</v>
+      </c>
+    </row>
+    <row r="1291" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1291">
+        <v>1.352212447097098E+18</v>
+      </c>
+      <c r="B1291" t="s">
+        <v>2342</v>
+      </c>
+      <c r="C1291" t="s">
+        <v>625</v>
+      </c>
+      <c r="D1291" t="s">
+        <v>2343</v>
+      </c>
+    </row>
+    <row r="1292" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1292">
+        <v>1.352209755113218E+18</v>
+      </c>
+      <c r="B1292" t="s">
+        <v>2344</v>
+      </c>
+      <c r="C1292" t="s">
+        <v>2345</v>
+      </c>
+      <c r="D1292" t="s">
+        <v>2346</v>
+      </c>
+    </row>
+    <row r="1293" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1293">
+        <v>1.352174625791201E+18</v>
+      </c>
+      <c r="B1293" t="s">
+        <v>2347</v>
+      </c>
+      <c r="C1293" t="s">
+        <v>625</v>
+      </c>
+      <c r="D1293" t="s">
+        <v>2348</v>
+      </c>
+    </row>
+    <row r="1294" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1294">
+        <v>1.352137900427682E+18</v>
+      </c>
+      <c r="B1294" t="s">
+        <v>2349</v>
+      </c>
+      <c r="C1294" t="s">
+        <v>625</v>
+      </c>
+      <c r="D1294" t="s">
+        <v>2350</v>
+      </c>
+    </row>
+    <row r="1295" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1295">
+        <v>1.352135232921633E+18</v>
+      </c>
+      <c r="B1295" t="s">
+        <v>2351</v>
+      </c>
+      <c r="C1295" t="s">
+        <v>72</v>
+      </c>
+      <c r="D1295" t="s">
+        <v>2352</v>
+      </c>
+    </row>
+    <row r="1296" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1296">
+        <v>1.3521311183345751E+18</v>
+      </c>
+      <c r="B1296" t="s">
+        <v>2353</v>
+      </c>
+      <c r="C1296" t="s">
+        <v>21</v>
+      </c>
+      <c r="D1296" t="s">
+        <v>2354</v>
+      </c>
+    </row>
+    <row r="1297" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1297">
+        <v>1.3520991304372959E+18</v>
+      </c>
+      <c r="B1297" t="s">
+        <v>2355</v>
+      </c>
+      <c r="C1297" t="s">
+        <v>625</v>
+      </c>
+      <c r="D1297" t="s">
+        <v>2356</v>
+      </c>
+    </row>
+    <row r="1298" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1298">
+        <v>1.3520614752258911E+18</v>
+      </c>
+      <c r="B1298" t="s">
+        <v>2357</v>
+      </c>
+      <c r="C1298" t="s">
+        <v>625</v>
+      </c>
+      <c r="D1298" t="s">
+        <v>2358</v>
+      </c>
+    </row>
+    <row r="1299" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1299">
+        <v>1.352023603580002E+18</v>
+      </c>
+      <c r="B1299" t="s">
+        <v>2359</v>
+      </c>
+      <c r="C1299" t="s">
+        <v>625</v>
+      </c>
+      <c r="D1299" t="s">
+        <v>2360</v>
+      </c>
+    </row>
+    <row r="1300" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1300">
+        <v>1.3519860340583009E+18</v>
+      </c>
+      <c r="B1300" t="s">
+        <v>2361</v>
+      </c>
+      <c r="C1300" t="s">
+        <v>625</v>
+      </c>
+      <c r="D1300" t="s">
+        <v>2362</v>
+      </c>
+    </row>
+    <row r="1301" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1301">
+        <v>1.351948140664898E+18</v>
+      </c>
+      <c r="B1301" t="s">
+        <v>2363</v>
+      </c>
+      <c r="C1301" t="s">
+        <v>625</v>
+      </c>
+      <c r="D1301" t="s">
+        <v>2364</v>
+      </c>
+    </row>
+    <row r="1302" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1302">
+        <v>1.3519103910817011E+18</v>
+      </c>
+      <c r="B1302" t="s">
+        <v>2365</v>
+      </c>
+      <c r="C1302" t="s">
+        <v>625</v>
+      </c>
+      <c r="D1302" t="s">
+        <v>2366</v>
+      </c>
+    </row>
+    <row r="1303" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1303">
+        <v>1.351872644010836E+18</v>
+      </c>
+      <c r="B1303" t="s">
+        <v>2367</v>
+      </c>
+      <c r="C1303" t="s">
+        <v>625</v>
+      </c>
+      <c r="D1303" t="s">
+        <v>2368</v>
+      </c>
+    </row>
+    <row r="1304" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1304">
+        <v>1.3518475950191739E+18</v>
+      </c>
+      <c r="B1304" t="s">
+        <v>2369</v>
+      </c>
+      <c r="C1304" t="s">
+        <v>72</v>
+      </c>
+      <c r="D1304" t="s">
+        <v>2370</v>
+      </c>
+    </row>
+    <row r="1305" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1305">
+        <v>1.3518459667441541E+18</v>
+      </c>
+      <c r="B1305" t="s">
+        <v>2371</v>
+      </c>
+      <c r="C1305" t="s">
+        <v>21</v>
+      </c>
+      <c r="D1305" t="s">
+        <v>2372</v>
+      </c>
+    </row>
+    <row r="1306" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1306">
+        <v>1.351845834359402E+18</v>
+      </c>
+      <c r="B1306" t="s">
+        <v>2373</v>
+      </c>
+      <c r="C1306" t="s">
+        <v>21</v>
+      </c>
+      <c r="D1306" t="s">
+        <v>2374</v>
+      </c>
+    </row>
+    <row r="1307" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1307">
+        <v>1.3518348890672169E+18</v>
+      </c>
+      <c r="B1307" t="s">
+        <v>2375</v>
+      </c>
+      <c r="C1307" t="s">
+        <v>625</v>
+      </c>
+      <c r="D1307" t="s">
+        <v>2376</v>
+      </c>
+    </row>
+    <row r="1308" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1308">
+        <v>1.351797129098871E+18</v>
+      </c>
+      <c r="B1308" t="s">
+        <v>2377</v>
+      </c>
+      <c r="C1308" t="s">
+        <v>625</v>
+      </c>
+      <c r="D1308" t="s">
+        <v>2378</v>
+      </c>
+    </row>
+    <row r="1309" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1309">
+        <v>1.351762491747959E+18</v>
+      </c>
+      <c r="B1309" t="s">
+        <v>2379</v>
+      </c>
+      <c r="C1309" t="s">
+        <v>45</v>
+      </c>
+      <c r="D1309" t="s">
+        <v>2380</v>
+      </c>
+    </row>
+    <row r="1310" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1310">
+        <v>1.351759992659956E+18</v>
+      </c>
+      <c r="B1310" t="s">
+        <v>2381</v>
+      </c>
+      <c r="C1310" t="s">
+        <v>625</v>
+      </c>
+      <c r="D1310" t="s">
+        <v>2382</v>
+      </c>
+    </row>
+    <row r="1311" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1311">
+        <v>1.3517418560029491E+18</v>
+      </c>
+      <c r="B1311" t="s">
+        <v>2383</v>
+      </c>
+      <c r="C1311" t="s">
+        <v>72</v>
+      </c>
+      <c r="D1311" t="s">
+        <v>2384</v>
+      </c>
+    </row>
+    <row r="1312" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1312">
+        <v>1.3517215794539809E+18</v>
+      </c>
+      <c r="B1312" t="s">
+        <v>2385</v>
+      </c>
+      <c r="C1312" t="s">
+        <v>625</v>
+      </c>
+      <c r="D1312" t="s">
+        <v>2386</v>
+      </c>
+    </row>
+    <row r="1313" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1313">
+        <v>1.351707591764713E+18</v>
+      </c>
+      <c r="B1313" t="s">
+        <v>2387</v>
+      </c>
+      <c r="C1313" t="s">
+        <v>336</v>
+      </c>
+      <c r="D1313" t="s">
+        <v>2388</v>
+      </c>
+    </row>
+    <row r="1314" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1314">
+        <v>1.3516838612818371E+18</v>
+      </c>
+      <c r="B1314" t="s">
+        <v>2389</v>
+      </c>
+      <c r="C1314" t="s">
+        <v>625</v>
+      </c>
+      <c r="D1314" t="s">
+        <v>2390</v>
+      </c>
+    </row>
+    <row r="1315" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1315">
+        <v>1.3516461545056379E+18</v>
+      </c>
+      <c r="B1315" t="s">
+        <v>2391</v>
+      </c>
+      <c r="C1315" t="s">
+        <v>625</v>
+      </c>
+      <c r="D1315" t="s">
+        <v>2392</v>
+      </c>
+    </row>
+    <row r="1316" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1316">
+        <v>1.351608429647852E+18</v>
+      </c>
+      <c r="B1316" t="s">
+        <v>2393</v>
+      </c>
+      <c r="C1316" t="s">
+        <v>625</v>
+      </c>
+      <c r="D1316" t="s">
+        <v>2394</v>
+      </c>
+    </row>
+    <row r="1317" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1317">
+        <v>1.351580235947414E+18</v>
+      </c>
+      <c r="B1317" t="s">
+        <v>2395</v>
+      </c>
+      <c r="C1317" t="s">
+        <v>2243</v>
+      </c>
+      <c r="D1317" t="s">
+        <v>2396</v>
+      </c>
+    </row>
+    <row r="1318" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1318">
+        <v>1.3515708884334431E+18</v>
+      </c>
+      <c r="B1318" t="s">
+        <v>2397</v>
+      </c>
+      <c r="C1318" t="s">
+        <v>625</v>
+      </c>
+      <c r="D1318" t="s">
+        <v>2398</v>
+      </c>
+    </row>
+    <row r="1319" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1319">
+        <v>1.351532844523262E+18</v>
+      </c>
+      <c r="B1319" t="s">
+        <v>2399</v>
+      </c>
+      <c r="C1319" t="s">
+        <v>625</v>
+      </c>
+      <c r="D1319" t="s">
+        <v>2400</v>
+      </c>
+    </row>
+    <row r="1320" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1320">
+        <v>1.3515151754934111E+18</v>
+      </c>
+      <c r="B1320" t="s">
+        <v>2401</v>
+      </c>
+      <c r="C1320" t="s">
+        <v>72</v>
+      </c>
+      <c r="D1320" t="s">
+        <v>2402</v>
+      </c>
+    </row>
+    <row r="1321" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1321">
+        <v>1.351498093527646E+18</v>
+      </c>
+      <c r="B1321" t="s">
+        <v>2403</v>
+      </c>
+      <c r="C1321" t="s">
+        <v>625</v>
+      </c>
+      <c r="D1321" t="s">
+        <v>2404</v>
+      </c>
+    </row>
+    <row r="1322" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1322">
+        <v>1.3514941836477891E+18</v>
+      </c>
+      <c r="B1322" t="s">
+        <v>2405</v>
+      </c>
+      <c r="C1322" t="s">
+        <v>21</v>
+      </c>
+      <c r="D1322" t="s">
+        <v>2406</v>
+      </c>
+    </row>
+    <row r="1323" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1323">
+        <v>1.3514940778590211E+18</v>
+      </c>
+      <c r="B1323" t="s">
+        <v>2407</v>
+      </c>
+      <c r="C1323" t="s">
+        <v>21</v>
+      </c>
+      <c r="D1323" t="s">
+        <v>2408</v>
+      </c>
+    </row>
+    <row r="1324" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1324">
+        <v>1.3514574683128179E+18</v>
+      </c>
+      <c r="B1324" t="s">
+        <v>2409</v>
+      </c>
+      <c r="C1324" t="s">
+        <v>625</v>
+      </c>
+      <c r="D1324" t="s">
+        <v>2410</v>
+      </c>
+    </row>
+    <row r="1325" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1325">
+        <v>1.3514252674875021E+18</v>
+      </c>
+      <c r="B1325" t="s">
+        <v>2411</v>
+      </c>
+      <c r="C1325" t="s">
+        <v>72</v>
+      </c>
+      <c r="D1325" t="s">
+        <v>2412</v>
+      </c>
+    </row>
+    <row r="1326" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1326">
+        <v>1.3514196981774579E+18</v>
+      </c>
+      <c r="B1326" t="s">
+        <v>2413</v>
+      </c>
+      <c r="C1326" t="s">
+        <v>625</v>
+      </c>
+      <c r="D1326" t="s">
+        <v>2414</v>
+      </c>
+    </row>
+    <row r="1327" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1327">
+        <v>1.3514178180974551E+18</v>
+      </c>
+      <c r="B1327" t="s">
+        <v>2415</v>
+      </c>
+      <c r="C1327" t="s">
+        <v>45</v>
+      </c>
+      <c r="D1327" t="s">
+        <v>2416</v>
+      </c>
+    </row>
+    <row r="1328" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1328">
+        <v>1.351382586984055E+18</v>
+      </c>
+      <c r="B1328" t="s">
+        <v>2417</v>
+      </c>
+      <c r="C1328" t="s">
+        <v>625</v>
+      </c>
+      <c r="D1328" t="s">
+        <v>2418</v>
+      </c>
+    </row>
+    <row r="1329" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1329">
+        <v>1.351381857561047E+18</v>
+      </c>
+      <c r="B1329" t="s">
+        <v>2419</v>
+      </c>
+      <c r="C1329" t="s">
+        <v>625</v>
+      </c>
+      <c r="D1329" t="s">
+        <v>2420</v>
+      </c>
+    </row>
+    <row r="1330" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1330">
+        <v>1.3513441243523149E+18</v>
+      </c>
+      <c r="B1330" t="s">
+        <v>2421</v>
+      </c>
+      <c r="C1330" t="s">
+        <v>625</v>
+      </c>
+      <c r="D1330" t="s">
+        <v>2422</v>
+      </c>
+    </row>
+    <row r="1331" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1331">
+        <v>1.3513063785733E+18</v>
+      </c>
+      <c r="B1331" t="s">
+        <v>2423</v>
+      </c>
+      <c r="C1331" t="s">
+        <v>625</v>
+      </c>
+      <c r="D1331" t="s">
+        <v>2424</v>
+      </c>
+    </row>
+    <row r="1332" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1332">
+        <v>1.3512688292177879E+18</v>
+      </c>
+      <c r="B1332" t="s">
+        <v>2425</v>
+      </c>
+      <c r="C1332" t="s">
+        <v>625</v>
+      </c>
+      <c r="D1332" t="s">
+        <v>2426</v>
+      </c>
+    </row>
+    <row r="1333" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1333">
+        <v>1.3512309397755699E+18</v>
+      </c>
+      <c r="B1333" t="s">
+        <v>2427</v>
+      </c>
+      <c r="C1333" t="s">
+        <v>625</v>
+      </c>
+      <c r="D1333" t="s">
+        <v>2428</v>
+      </c>
+    </row>
+    <row r="1334" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1334">
+        <v>1.3511931627531259E+18</v>
+      </c>
+      <c r="B1334" t="s">
+        <v>2429</v>
+      </c>
+      <c r="C1334" t="s">
+        <v>625</v>
+      </c>
+      <c r="D1334" t="s">
+        <v>2430</v>
+      </c>
+    </row>
+    <row r="1335" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1335">
+        <v>1.351173744245559E+18</v>
+      </c>
+      <c r="B1335" t="s">
+        <v>2431</v>
+      </c>
+      <c r="C1335" t="s">
+        <v>72</v>
+      </c>
+      <c r="D1335" t="s">
+        <v>2432</v>
+      </c>
+    </row>
+    <row r="1336" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1336">
+        <v>1.3511553934315441E+18</v>
+      </c>
+      <c r="B1336" t="s">
+        <v>2433</v>
+      </c>
+      <c r="C1336" t="s">
+        <v>625</v>
+      </c>
+      <c r="D1336" t="s">
+        <v>2434</v>
+      </c>
+    </row>
+    <row r="1337" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1337">
+        <v>1.3511313771404291E+18</v>
+      </c>
+      <c r="B1337" t="s">
+        <v>2435</v>
+      </c>
+      <c r="C1337" t="s">
+        <v>21</v>
+      </c>
+      <c r="D1337" t="s">
+        <v>2436</v>
+      </c>
+    </row>
+    <row r="1338" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1338">
+        <v>1.351131238980055E+18</v>
+      </c>
+      <c r="B1338" t="s">
+        <v>2437</v>
+      </c>
+      <c r="C1338" t="s">
+        <v>21</v>
+      </c>
+      <c r="D1338" t="s">
+        <v>2438</v>
+      </c>
+    </row>
+    <row r="1339" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1339">
+        <v>1.351117645903499E+18</v>
+      </c>
+      <c r="B1339" t="s">
+        <v>2439</v>
+      </c>
+      <c r="C1339" t="s">
+        <v>625</v>
+      </c>
+      <c r="D1339" t="s">
+        <v>2440</v>
+      </c>
+    </row>
+    <row r="1340" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1340">
+        <v>1.3511093890469929E+18</v>
+      </c>
+      <c r="B1340" t="s">
+        <v>2441</v>
+      </c>
+      <c r="C1340" t="s">
+        <v>72</v>
+      </c>
+      <c r="D1340" t="s">
+        <v>2442</v>
+      </c>
+    </row>
+    <row r="1341" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1341">
+        <v>1.351079913927934E+18</v>
+      </c>
+      <c r="B1341" t="s">
+        <v>2443</v>
+      </c>
+      <c r="C1341" t="s">
+        <v>625</v>
+      </c>
+      <c r="D1341" t="s">
+        <v>2444</v>
+      </c>
+    </row>
+    <row r="1342" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1342">
+        <v>1.3510421858698611E+18</v>
+      </c>
+      <c r="B1342" t="s">
+        <v>2445</v>
+      </c>
+      <c r="C1342" t="s">
+        <v>625</v>
+      </c>
+      <c r="D1342" t="s">
+        <v>2446</v>
+      </c>
+    </row>
+    <row r="1343" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1343">
+        <v>1.3510044105965199E+18</v>
+      </c>
+      <c r="B1343" t="s">
+        <v>2447</v>
+      </c>
+      <c r="C1343" t="s">
+        <v>625</v>
+      </c>
+      <c r="D1343" t="s">
+        <v>2448</v>
+      </c>
+    </row>
+    <row r="1344" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1344">
+        <v>1.3509924529754729E+18</v>
+      </c>
+      <c r="B1344" t="s">
+        <v>2449</v>
+      </c>
+      <c r="C1344" t="s">
+        <v>2450</v>
+      </c>
+      <c r="D1344" t="s">
+        <v>2451</v>
+      </c>
+    </row>
+    <row r="1345" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1345">
+        <v>1.3509666318754079E+18</v>
+      </c>
+      <c r="B1345" t="s">
+        <v>2452</v>
+      </c>
+      <c r="C1345" t="s">
+        <v>625</v>
+      </c>
+      <c r="D1345" t="s">
+        <v>2453</v>
+      </c>
+    </row>
+    <row r="1346" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1346">
+        <v>1.350928910268162E+18</v>
+      </c>
+      <c r="B1346" t="s">
+        <v>2454</v>
+      </c>
+      <c r="C1346" t="s">
+        <v>625</v>
+      </c>
+      <c r="D1346" t="s">
+        <v>2455</v>
+      </c>
+    </row>
+    <row r="1347" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1347">
+        <v>1.350891164702921E+18</v>
+      </c>
+      <c r="B1347" t="s">
+        <v>2456</v>
+      </c>
+      <c r="C1347" t="s">
+        <v>625</v>
+      </c>
+      <c r="D1347" t="s">
+        <v>2457</v>
+      </c>
+    </row>
+    <row r="1348" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1348">
+        <v>1.350853447822676E+18</v>
+      </c>
+      <c r="B1348" t="s">
+        <v>2458</v>
+      </c>
+      <c r="C1348" t="s">
+        <v>625</v>
+      </c>
+      <c r="D1348" t="s">
+        <v>2459</v>
+      </c>
+    </row>
+    <row r="1349" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1349">
+        <v>1.3508156667863411E+18</v>
+      </c>
+      <c r="B1349" t="s">
+        <v>2076</v>
+      </c>
+      <c r="C1349" t="s">
+        <v>625</v>
+      </c>
+      <c r="D1349" t="s">
+        <v>2077</v>
+      </c>
+    </row>
+    <row r="1350" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1350">
+        <v>1.35080895501917E+18</v>
+      </c>
+      <c r="B1350" t="s">
+        <v>2078</v>
+      </c>
+      <c r="C1350" t="s">
+        <v>72</v>
+      </c>
+      <c r="D1350" t="s">
+        <v>2079</v>
+      </c>
+    </row>
+    <row r="1351" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1351">
+        <v>1.350777969698955E+18</v>
+      </c>
+      <c r="B1351" t="s">
+        <v>2080</v>
+      </c>
+      <c r="C1351" t="s">
+        <v>625</v>
+      </c>
+      <c r="D1351" t="s">
+        <v>2081</v>
+      </c>
+    </row>
+    <row r="1352" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1352">
+        <v>1.3507682434016261E+18</v>
+      </c>
+      <c r="B1352" t="s">
+        <v>2082</v>
+      </c>
+      <c r="C1352" t="s">
+        <v>21</v>
+      </c>
+      <c r="D1352" t="s">
+        <v>2083</v>
+      </c>
+    </row>
+    <row r="1353" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1353">
+        <v>1.350768147322741E+18</v>
+      </c>
+      <c r="B1353" t="s">
+        <v>2084</v>
+      </c>
+      <c r="C1353" t="s">
+        <v>21</v>
+      </c>
+      <c r="D1353" t="s">
+        <v>2085</v>
+      </c>
+    </row>
+    <row r="1354" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1354">
+        <v>1.3507402520344169E+18</v>
+      </c>
+      <c r="B1354" t="s">
+        <v>2086</v>
+      </c>
+      <c r="C1354" t="s">
+        <v>625</v>
+      </c>
+      <c r="D1354" t="s">
+        <v>2087</v>
+      </c>
+    </row>
+    <row r="1355" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1355">
+        <v>1.35070242025121E+18</v>
+      </c>
+      <c r="B1355" t="s">
+        <v>2088</v>
+      </c>
+      <c r="C1355" t="s">
+        <v>625</v>
+      </c>
+      <c r="D1355" t="s">
+        <v>2089</v>
+      </c>
+    </row>
+    <row r="1356" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1356">
+        <v>1.3506872908891259E+18</v>
+      </c>
+      <c r="B1356" t="s">
+        <v>2090</v>
+      </c>
+      <c r="C1356" t="s">
+        <v>72</v>
+      </c>
+      <c r="D1356" t="s">
+        <v>2091</v>
+      </c>
+    </row>
+    <row r="1357" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1357">
+        <v>1.3506649348797599E+18</v>
+      </c>
+      <c r="B1357" t="s">
+        <v>2092</v>
+      </c>
+      <c r="C1357" t="s">
+        <v>625</v>
+      </c>
+      <c r="D1357" t="s">
+        <v>2093</v>
+      </c>
+    </row>
+    <row r="1358" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1358">
+        <v>1.3506269494969139E+18</v>
+      </c>
+      <c r="B1358" t="s">
+        <v>2094</v>
+      </c>
+      <c r="C1358" t="s">
+        <v>625</v>
+      </c>
+      <c r="D1358" t="s">
+        <v>2095</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/application/static/excel_data/data_crawling -- 3. #belajardirumah.xlsx
+++ b/application/static/excel_data/data_crawling -- 3. #belajardirumah.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4075" uniqueCount="2460">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4453" uniqueCount="2698">
   <si>
     <t>id</t>
   </si>
@@ -10321,6 +10321,1017 @@
   </si>
   <si>
     <t>Sun Jan 17 17:12:14 +0000 2021</t>
+  </si>
+  <si>
+    <t>Hah, #TimNara masih belajar ejaan? Iya, dong! Kan, ilmu perlu diulang agar tidak lupa.
+Bagaimana dengan Kerabat Nara? Sedang belajar tentang apa, nih?
+#dibaliklayarNara #belajardirumah #hidupdinarabahasa</t>
+  </si>
+  <si>
+    <t>narabahasa</t>
+  </si>
+  <si>
+    <t>Thu Jan 28 13:18:09 +0000 2021</t>
+  </si>
+  <si>
+    <t>Selamat malam, Kerabat Nara! 
+Belajar di Rumah sebagai salah satu program rutin Nara setiap Jumat pagi selalu dinantikan oleh semua pramubahasa. Nah, besok saatnya Nara dan tim belajar tentang ejaan bersama Dessy Irawan.
+#dibaliklayarNara #belajardirumah #hidupdinarabahasa https://t.co/yvCCraWOof</t>
+  </si>
+  <si>
+    <t>Thu Jan 28 13:17:08 +0000 2021</t>
+  </si>
+  <si>
+    <t>Seri Akhlak Anak Hebat;Nikmatnya Besabar - Diskon 20% menjadi Rp.28000
+Gratis ongkos kirim hingga 40rb keseluruh Indonesia.
+#mainanbukuanak #promo #dirumahaja #belajardirumah #buku #membaca #booklover #bookstorm  
+SINOPSIS: Hujan turun saat Gema dan Gina
+sedang bermain https://t.co/u0780RhraN</t>
+  </si>
+  <si>
+    <t>Thu Jan 28 13:12:23 +0000 2021</t>
+  </si>
+  <si>
+    <t>Kelas Pintar di desain sedemikian rupa supaya proses belajar lebih mudah. Kali ini kita akan bahas menu tugas yang tersedia di dashboard Kelas Pintar kamu. Simak ya!
+#belajardirumah #belajaronline #pjj #pjjonlineclass #kelaspintarindonesia https://t.co/RnAjL170X4</t>
+  </si>
+  <si>
+    <t>Thu Jan 28 13:11:43 +0000 2021</t>
+  </si>
+  <si>
+    <t>ANGKA PASIEN SEMBUH KEMBALI BERTAMBAH SEBANYAK 66, 33 KASUS BARU DAN 2 MENINGGAL
+INFORMASI LENGKAPNYA DI 👉 https://t.co/BTxZ5vNeO0
+#ayolawancorona #belajardirumah #bermaindirumah #dirumahsaja #jagakebersihan #jagakesehatan #jagajarak #pakemasker #tetapwaspada #coronabisasembuh https://t.co/7xwP0NokNs</t>
+  </si>
+  <si>
+    <t>Thu Jan 28 11:56:28 +0000 2021</t>
+  </si>
+  <si>
+    <t>Update Perkembangan Covid-19 di Kabupaten Luwu Timur per 28 Januari 2021.
+66 sembuh, 33 kasus baru dan 2 meninggal.
+Perbaharui terus informasi anda di https://t.co/D4pL3qgDlY
+#ayolawancorona #belajardirumah #dirumahsaja #jagakebersihan #jagakesehatan #jagajarak #pakemasker https://t.co/tKKXBg8lMw</t>
+  </si>
+  <si>
+    <t>Thu Jan 28 11:56:02 +0000 2021</t>
+  </si>
+  <si>
+    <t>Seri Akhlak Anak Hebat;Bangganya Berlaku Jujur - Diskon 20% menjadi Rp.28000
+Gratis ongkos kirim hingga 40rb keseluruh Indonesia.
+#mainanbukuanak #promo #dirumahaja #belajardirumah #buku #membaca #booklover #bookstorm  
+SINOPSIS:Saat Gina ingin mangga
+ada buah mangga https://t.co/W0pBPmryEc</t>
+  </si>
+  <si>
+    <t>Thu Jan 28 10:42:44 +0000 2021</t>
+  </si>
+  <si>
+    <t>Seri Metamorphosis:Nyam..Nyam Ulat lapar - Diskon 20% menjadi Rp.24000
+Gratis ongkos kirim hingga 40rb keseluruh Indonesia.
+#mainanbukuanak #promo #dirumahaja #belajardirumah #buku #membaca #booklover #bookstorm  
+SINOPSIS:Ada lho hewan yang berbeda ketika baru lahir dan</t>
+  </si>
+  <si>
+    <t>Thu Jan 28 08:12:07 +0000 2021</t>
+  </si>
+  <si>
+    <t>APA ITU LBJR JASA RAHARJA ?
+#lbjr #jasaraharja #lowongankerja #lowonganpekerjaan #infoloker #news #newsupdate #viral #viralkan #belajardirumah #berita #beritaviral #beritaterkini #KamisBisnis #Kamis #kamismanis #viralindonesia #viral2021 #viralTiktok https://t.co/6GybizNCcM</t>
+  </si>
+  <si>
+    <t>Thu Jan 28 07:15:14 +0000 2021</t>
+  </si>
+  <si>
+    <t>SYARAT MAGANG JASA RAHARJA
+#lbjr #jasaraharja #lowongankerja #lowonganpekerjaan #infoloker #news #newsupdate #viral #viralkan #belajardirumah #berita #beritaviral #beritaterkini #KamisBisnis #Kamis #kamismanis #viralindonesia #viral2021 #viralTiktok https://t.co/dkm79Mo0wA</t>
+  </si>
+  <si>
+    <t>Thu Jan 28 07:14:53 +0000 2021</t>
+  </si>
+  <si>
+    <t>SEGERA DAFTAR &amp;amp; COBA
+#lbjr #jasaraharja #lowongankerja #lowonganpekerjaan #infoloker #news #newsupdate #viral #viralkan #belajardirumah #berita #beritaviral #beritaterkini #KamisBisnis #Kamis #kamismanis #viralindonesia #viral2021 #viralTiktok #viralvideo
+https://t.co/j9Tg7jbDTF</t>
+  </si>
+  <si>
+    <t>Thu Jan 28 07:14:25 +0000 2021</t>
+  </si>
+  <si>
+    <t>VIRAL ISTRI KEJAR SUAMI SELINGKUH !
+#news #newsupdate #viral #viralkan #belajardirumah #berita #beritaviral #beritaterkini #KamisBisnis #Kamis #kamismanis #Sulut #jamesarthur #dprd #Michaela #viralindonesia #viral2021 #viralTiktok #viralvideo 
+https://t.co/Z1cLnaJITT</t>
+  </si>
+  <si>
+    <t>Thu Jan 28 07:13:12 +0000 2021</t>
+  </si>
+  <si>
+    <t>TIPS TANPA REWEL
+#news #newsupdate #viral #viralkan #belajardirumah #berita #beritaviral #beritaterkini #KamisBisnis #Kamis #kamismanis #Corona #coronavirus #VirusCorona #virus #Tips #TIPSTAR #TipsNutricion #lifestyle #Health #baby #Covid_19 #COVID19
+https://t.co/3Q9xeCc7Ty</t>
+  </si>
+  <si>
+    <t>Thu Jan 28 07:11:45 +0000 2021</t>
+  </si>
+  <si>
+    <t>PERNAH MENGALAMI?
+#news #newsupdate #viral #viralkan #belajardirumah #berita #beritaviral #beritaterkini #KamisBisnis #Kamis #kamismanis #Corona #coronavirus #VirusCorona #virus #Tips #TIPSTAR #TipsNutricion #lifestyle #Health #baby #Covid_19 #COVID19 
+https://t.co/5vPcEvarsC</t>
+  </si>
+  <si>
+    <t>Thu Jan 28 07:11:21 +0000 2021</t>
+  </si>
+  <si>
+    <t>LAKUKAN TIPS INI
+#news #newsupdate #viral #viralkan #belajardirumah #berita #beritaviral #beritaterkini #COVID19 #Covid_19 #COVIDー19 #KamisBisnis #Kamis #kamismanis #Corona #coronavirus #VirusCorona #virus #Tips #TIPSTAR #TipsNutricion #lifestyle #Health https://t.co/oLrQPnwCxI</t>
+  </si>
+  <si>
+    <t>Thu Jan 28 07:10:22 +0000 2021</t>
+  </si>
+  <si>
+    <t>CEK JAWABANNYA
+#schools #school #schooldays #belajardarirumah #news #newsupdate #viral #viralkan #belajardirumah #berita #beritaviral #beritaterkini #COVID19 #Covid_19 #COVIDー19 #KamisBisnis #Kamis #kamismanis #Corona #coronavirus #VirusCorona #virus  https://t.co/yrcEQUiA8R</t>
+  </si>
+  <si>
+    <t>Thu Jan 28 07:09:20 +0000 2021</t>
+  </si>
+  <si>
+    <t>CEK JAWABANNYA
+#schools #school #schooldays #belajardarirumah #news #newsupdate #viral #viralkan #belajardirumah #berita #beritaviral #beritaterkini #COVID19 #Covid_19 #COVIDー19 #KamisBisnis #Kamis #kamismanis #Corona #coronavirus #VirusCorona #virus  https://t.co/U35qAmF36K</t>
+  </si>
+  <si>
+    <t>Thu Jan 28 07:09:06 +0000 2021</t>
+  </si>
+  <si>
+    <t>CEK JAWABANNYA
+#schools #school #schooldays #belajardarirumah #news #newsupdate #viral #viralkan #belajardirumah #berita #beritaviral #beritaterkini #COVID19 #Covid_19 #COVIDー19 #KamisBisnis #Kamis #kamismanis #Corona #coronavirus #VirusCorona #virus https://t.co/He5JCBCxsN</t>
+  </si>
+  <si>
+    <t>Thu Jan 28 07:08:49 +0000 2021</t>
+  </si>
+  <si>
+    <t>CEK JAWABANNYA
+#schools #school #schooldays #belajardarirumah #news #newsupdate #viral #viralkan #belajardirumah #berita #beritaviral #beritaterkini #COVID19 #Covid_19 #COVIDー19 #KamisBisnis #Kamis #kamismanis #Corona #coronavirus #VirusCorona #virus https://t.co/27zFQfhys3</t>
+  </si>
+  <si>
+    <t>Thu Jan 28 07:08:37 +0000 2021</t>
+  </si>
+  <si>
+    <t>CEK JAWABANNYA
+#schools #school #schooldays #belajardarirumah #news #newsupdate #viral #viralkan #belajardirumah #berita #beritaviral #beritaterkini #COVID19 #Covid_19 #COVIDー19 #KamisBisnis #Kamis #kamismanis #Corona #coronavirus #VirusCorona #virus https://t.co/0ZKYOz8AwY</t>
+  </si>
+  <si>
+    <t>Thu Jan 28 07:08:22 +0000 2021</t>
+  </si>
+  <si>
+    <t>CEK JAWABANNYA
+#schools #school #schooldays #belajardarirumah #news #newsupdate #viral #viralkan #belajardirumah #berita #beritaviral #beritaterkini #COVID19 #Covid_19 #COVIDー19 #KamisBisnis #Kamis #kamismanis #Corona #coronavirus #VirusCorona #virus 
+https://t.co/bYeuptReYT</t>
+  </si>
+  <si>
+    <t>Thu Jan 28 07:08:10 +0000 2021</t>
+  </si>
+  <si>
+    <t>Seri Metamorphosis:Ngiing...Ngiing...Nyamuk Terbang - Diskon 20% menjadi Rp.24000
+Gratis ongkos kirim hingga 40rb keseluruh Indonesia.
+#mainanbukuanak #promo #dirumahaja #belajardirumah #buku #membaca #booklover #bookstorm  
+SINOPSIS:Ada lho hewan yang
+bentuk nama dan https://t.co/CYDlyUgXLA</t>
+  </si>
+  <si>
+    <t>Thu Jan 28 05:42:22 +0000 2021</t>
+  </si>
+  <si>
+    <t>Seri Metamorphosis:Kecipak..Kecipuk...Katak Berenang - Diskon 20% menjadi Rp.24000
+Gratis ongkos kirim hingga 40rb keseluruh Indonesia.
+#mainanbukuanak #promo #dirumahaja #belajardirumah #buku #membaca #booklover #bookstorm  
+SINOPSIS:Ada lho hewan yang bentuk nama
+dan https://t.co/f1J9NaCiOM</t>
+  </si>
+  <si>
+    <t>Thu Jan 28 03:12:28 +0000 2021</t>
+  </si>
+  <si>
+    <t>Mengenal Allah Mencintai Islam A to Z - Diskon 20% menjadi Rp.64000
+Gratis ongkos kirim hingga 40rb keseluruh Indonesia.
+#mainanbukuanak #promo #dirumahaja #belajardirumah #buku #membaca #booklover #bookstorm  
+SINOPSIS:Assalamu`alaikum Teman-Teman ….
+Mengenal https://t.co/ovWdk0nFQH</t>
+  </si>
+  <si>
+    <t>Thu Jan 28 00:42:08 +0000 2021</t>
+  </si>
+  <si>
+    <t>Setan ? Siapa Takut ! - Diskon 20% menjadi Rp.52000
+Gratis ongkos kirim hingga 40rb keseluruh Indonesia.
+#mainanbukuanak #promo #dirumahaja #belajardirumah #buku #membaca #booklover #bookstorm  
+SINOPSIS:Raihan akhir-akhir ini susah sekali bangun pagi. Beberapa kali https://t.co/OD9uOkt9Rd</t>
+  </si>
+  <si>
+    <t>Wed Jan 27 22:11:57 +0000 2021</t>
+  </si>
+  <si>
+    <t>Cerita Si Ayam - Diskon 20% menjadi Rp.20000
+Gratis ongkos kirim hingga 40rb keseluruh Indonesia.
+#mainanbukuanak #promo #dirumahaja #belajardirumah #buku #membaca #booklover #bookstorm  
+SINOPSIS:Ciap… ciap… ciap ….Assalamualaikum Teman-Teman ….Aku Taji si anak https://t.co/n5usMc0htf</t>
+  </si>
+  <si>
+    <t>Wed Jan 27 19:42:17 +0000 2021</t>
+  </si>
+  <si>
+    <t>Seri Mengenal Allah 5 : Aku Ciptaan Allah - Diskon 20% menjadi Rp.20000
+Gratis ongkos kirim hingga 40rb keseluruh Indonesia.
+#mainanbukuanak #promo #dirumahaja #belajardirumah #buku #membaca #booklover #bookstorm  
+SINOPSIS:Allah ciptakan aku dalam rahim ibuku. Sukacita https://t.co/1FoQkZNfVT</t>
+  </si>
+  <si>
+    <t>Wed Jan 27 17:12:12 +0000 2021</t>
+  </si>
+  <si>
+    <t>Seri Akhlak Anak Hebat;Nikmatnya Besabar - Diskon 20% menjadi Rp.28000
+Gratis ongkos kirim hingga 40rb keseluruh Indonesia.
+#mainanbukuanak #promo #dirumahaja #belajardirumah #buku #membaca #booklover #bookstorm  
+SINOPSIS: Hujan turun saat Gema dan Gina
+sedang bermain https://t.co/rn2B05r4TW</t>
+  </si>
+  <si>
+    <t>Wed Jan 27 14:42:20 +0000 2021</t>
+  </si>
+  <si>
+    <t>Teruntuk para GURU di luaran sana, Kelas Pintar dirancang untuk memudahkan proses belajar mengajar. Gunakan Kelas Pintar untuk mengajar para siswa dan nikmati pengalaman belajar yang menyenangkan.
+#pjjonlineclass #pjj #bimbelonline #belajardirumah #kelaspintarindonesia https://t.co/oFmSNQGsgu</t>
+  </si>
+  <si>
+    <t>Wed Jan 27 13:03:58 +0000 2021</t>
+  </si>
+  <si>
+    <t>Nabi Muhammad SAW Idolaku - Diskon 20% menjadi Rp.42400
+Gratis ongkos kirim hingga 40rb keseluruh Indonesia.
+#mainanbukuanak #promo #dirumahaja #belajardirumah #buku #membaca #booklover #bookstorm  
+SINOPSIS:Assalamualaikum  Teman-Teman apakah kalian ingin masuk Surga https://t.co/1LqbTXyZY3</t>
+  </si>
+  <si>
+    <t>Wed Jan 27 12:12:00 +0000 2021</t>
+  </si>
+  <si>
+    <t>UPDATE SEBARAN COVID19, PASIEN SEMBUH BERTAMBAH 28, KASUS BARU 77
+INFORMASI LENGKAPNYA BACA DI 👉 https://t.co/t0mCrIf7VJ
+#ayolawancorona #belajardirumah 
+ #bermaindirumah #dirumahsaja #jagakebersihan #jagakesehatan #jagajarak #pakemasker #tetapwaspada #coronabisasembuh https://t.co/FT3YkGWkt3</t>
+  </si>
+  <si>
+    <t>Wed Jan 27 11:49:09 +0000 2021</t>
+  </si>
+  <si>
+    <t>Update Perkembangan Covid-19 di Kabupaten Luwu Timur per 27 Januari 2021.
+28 sembuh dan 77 kasus baru.
+Perbaharui terus informasi di https://t.co/D4pL3qgDlY
+#ayolawancorona #belajardirumah #beribadahdirumah #bermaindirumah #dirumahsaja #jagakebersihan #jagakesehatan #jagajarak https://t.co/UXegwm5r3W</t>
+  </si>
+  <si>
+    <t>Wed Jan 27 11:48:44 +0000 2021</t>
+  </si>
+  <si>
+    <t>ENTRY MEETING BPK, PEMKAB LUWU TIMUR KOMITMEN PERTAHANKAN OPINI WTP
+BACA INFORMASI LENGKAPNYA DI 👉 https://t.co/vTmqCjWYtg
+#ayolawancorona #belajardirumah #bermaindirumah #dirumahsaja #jagakebersihan #jagakesehatan #jagajarak #pakemasker #tetapwaspada #coronabisasembuh https://t.co/Q3bdkQqSyq</t>
+  </si>
+  <si>
+    <t>Wed Jan 27 11:15:36 +0000 2021</t>
+  </si>
+  <si>
+    <t>Seri Akhlak Anak Hebat;Bangganya Berlaku Jujur - Diskon 20% menjadi Rp.28000
+Gratis ongkos kirim hingga 40rb keseluruh Indonesia.
+#mainanbukuanak #promo #dirumahaja #belajardirumah #buku #membaca #booklover #bookstorm  
+SINOPSIS:Saat Gina ingin mangga
+ada buah mangga https://t.co/u1Rg0jHZsb</t>
+  </si>
+  <si>
+    <t>Wed Jan 27 09:41:59 +0000 2021</t>
+  </si>
+  <si>
+    <t>Seri Akhlak Anak Hebat;Indahnya Berkata Baik - Diskon 20% menjadi Rp.28000
+Gratis ongkos kirim hingga 40rb keseluruh Indonesia.
+#mainanbukuanak #promo #dirumahaja #belajardirumah #buku #membaca #booklover #bookstorm  
+SINOPSIS:Setelah Gema dan Gina bermain bulu https://t.co/twu0sSTk9M</t>
+  </si>
+  <si>
+    <t>Wed Jan 27 07:12:21 +0000 2021</t>
+  </si>
+  <si>
+    <t>Seri Akhlak Anak Hebat;Bahagianya Saling Menyayangi - Diskon 20% menjadi Rp.28000
+Gratis ongkos kirim hingga 40rb keseluruh Indonesia.
+#mainanbukuanak #promo #dirumahaja #belajardirumah #buku #membaca #booklover #bookstorm  
+SINOPSIS:Bahagianya kalau kakak dan adik https://t.co/7BauO5BkgR</t>
+  </si>
+  <si>
+    <t>Wed Jan 27 04:43:05 +0000 2021</t>
+  </si>
+  <si>
+    <t>Saya Siska Rahmawati Permana mengucapkan terima kasih semoga yang saya bahas tadi bisa bermanfaat bagi kalian semua. 
+Pembahasan dicukupkan sampai sini. Wasalamualaikum wr.wb
+#StaySafe #StayAtHome #belajardirumah https://t.co/rKZZLmPL7w</t>
+  </si>
+  <si>
+    <t>sisrpm</t>
+  </si>
+  <si>
+    <t>Wed Jan 27 03:45:03 +0000 2021</t>
+  </si>
+  <si>
+    <t>Seri Akhlak Anak Hebat;Nikmatnya Besabar - Diskon 20% menjadi Rp.28000
+Gratis ongkos kirim hingga 40rb keseluruh Indonesia.
+#mainanbukuanak #promo #dirumahaja #belajardirumah #buku #membaca #booklover #bookstorm  
+SINOPSIS: Hujan turun saat Gema dan Gina
+sedang bermain https://t.co/EnIKIr3Kl3</t>
+  </si>
+  <si>
+    <t>Wed Jan 27 02:12:22 +0000 2021</t>
+  </si>
+  <si>
+    <t>Buku Aktivitas Rukun Islam; Aku Cinta Islam - Diskon 20% menjadi Rp.52000
+Gratis ongkos kirim hingga 40rb keseluruh Indonesia.
+#mainanbukuanak #promo #dirumahaja #belajardirumah #buku #membaca #booklover #bookstorm  
+SINOPSIS:Makanan dan minuman halal adalah makanan dan https://t.co/SYBPHPt8r7</t>
+  </si>
+  <si>
+    <t>Tue Jan 26 23:42:29 +0000 2021</t>
+  </si>
+  <si>
+    <t>Seri Akhlak Anak Hebat;Bangganya Berlaku Jujur - Diskon 20% menjadi Rp.28000
+Gratis ongkos kirim hingga 40rb keseluruh Indonesia.
+#mainanbukuanak #promo #dirumahaja #belajardirumah #buku #membaca #booklover #bookstorm  
+SINOPSIS:Saat Gina ingin mangga
+ada buah mangga</t>
+  </si>
+  <si>
+    <t>Tue Jan 26 21:12:31 +0000 2021</t>
+  </si>
+  <si>
+    <t>Cerita Si Ayam - Diskon 20% menjadi Rp.20000
+Gratis ongkos kirim hingga 40rb keseluruh Indonesia.
+#mainanbukuanak #promo #dirumahaja #belajardirumah #buku #membaca #booklover #bookstorm  
+SINOPSIS:Ciap… ciap… ciap ….Assalamualaikum Teman-Teman ….Aku Taji si anak https://t.co/TWcTpQFbRa</t>
+  </si>
+  <si>
+    <t>Tue Jan 26 18:42:08 +0000 2021</t>
+  </si>
+  <si>
+    <t>Seri Metamorphosis:Nyam..Nyam Ulat lapar - Diskon 20% menjadi Rp.24000
+Gratis ongkos kirim hingga 40rb keseluruh Indonesia.
+#mainanbukuanak #promo #dirumahaja #belajardirumah #buku #membaca #booklover #bookstorm  
+SINOPSIS:Ada lho hewan yang berbeda ketika baru lahir dan https://t.co/e5HVaywY99</t>
+  </si>
+  <si>
+    <t>Tue Jan 26 16:12:14 +0000 2021</t>
+  </si>
+  <si>
+    <t>Seri Metamorphosis:Ngiing...Ngiing...Nyamuk Terbang - Diskon 20% menjadi Rp.24000
+Gratis ongkos kirim hingga 40rb keseluruh Indonesia.
+#mainanbukuanak #promo #dirumahaja #belajardirumah #buku #membaca #booklover #bookstorm  
+SINOPSIS:Ada lho hewan yang
+bentuk nama dan https://t.co/ZZUerTnosW</t>
+  </si>
+  <si>
+    <t>Tue Jan 26 13:45:02 +0000 2021</t>
+  </si>
+  <si>
+    <t>HARI INI JUMLAH PASIEN SEMBUH BERTAMBAH 13 ORANG DAN 37 KASUS BARU
+INFORMASI LENGKAPNYA BACA DI 👉 https://t.co/1rVCqNZvuX
+#ayolawancorona #belajardirumah #bermaindirumah #dirumahsaja #jagakebersihan #jagakesehatan #jagajarak #pakemasker #tetapwaspada #coronabisasembuh https://t.co/7rVwHs8a9I</t>
+  </si>
+  <si>
+    <t>Tue Jan 26 11:18:43 +0000 2021</t>
+  </si>
+  <si>
+    <t>Update Perkembangan Covid-19 di Kabupaten Luwu Timur per 26 Januari 2021.
+13 sembuh dan 37 kasus baru.
+Perbaharui terus informasi anda di https://t.co/D4pL3qgDlY
+#ayolawancorona #belajardirumah #bermaindirumah #dirumahsaja #jagakebersihan #jagakesehatan #jagajarak #pakemasker https://t.co/1ceIO1gNC1</t>
+  </si>
+  <si>
+    <t>Tue Jan 26 11:18:19 +0000 2021</t>
+  </si>
+  <si>
+    <t>Nabi Muhammad SAW Idolaku - Diskon 20% menjadi Rp.42400
+Gratis ongkos kirim hingga 40rb keseluruh Indonesia.
+#mainanbukuanak #promo #dirumahaja #belajardirumah #buku #membaca #booklover #bookstorm  
+SINOPSIS:Assalamualaikum  Teman-Teman apakah kalian ingin masuk Surga https://t.co/ejaPETJceE</t>
+  </si>
+  <si>
+    <t>Tue Jan 26 11:12:40 +0000 2021</t>
+  </si>
+  <si>
+    <t>Daripada bingung dan pusing sendiri saat belajar dan mengerjakan soal, mending TANYA aja di Kelas Pintar. Dengan didampingi mentor ahli, maka dijamin kamu gak akan salah saat menjawab.
+.
+Yuk,TANYA sekarang!
+#belajardirumah #pjj #pjjonline #pjjonlineclass #kelaspintarindonesia https://t.co/THaCpdk3Ut</t>
+  </si>
+  <si>
+    <t>Tue Jan 26 11:04:48 +0000 2021</t>
+  </si>
+  <si>
+    <t>Seri Metamorphosis:Kecipak..Kecipuk...Katak Berenang - Diskon 20% menjadi Rp.24000
+Gratis ongkos kirim hingga 40rb keseluruh Indonesia.
+#mainanbukuanak #promo #dirumahaja #belajardirumah #buku #membaca #booklover #bookstorm  
+SINOPSIS:Ada lho hewan yang bentuk nama
+dan https://t.co/glEtlhMARZ</t>
+  </si>
+  <si>
+    <t>Tue Jan 26 08:48:39 +0000 2021</t>
+  </si>
+  <si>
+    <t>KUNCI Jawaban Tema 6 Kelas 5 SD Halaman 64 Hingga 66 Pembelajaran 6, Tanggung Jawab Warga Negara #belajar #BelajardariRumah #BelajardiRumah
+Download aplikasi Tribunnews untuk update berita terbaru di: https://t.co/vVWLpleQXU
+https://t.co/JGrqdeEdf0</t>
+  </si>
+  <si>
+    <t>Tue Jan 26 08:43:56 +0000 2021</t>
+  </si>
+  <si>
+    <t>KUNCI Jawaban Tema 6 Kelas 3 SD Halaman 162 - 168, Contoh Kegiatan yang Termasuk Pemborosan Energi #belajar #BelajardariRumah #BelajardiRumah #BelajarOnline #BelajarDaring
+Download aplikasi Tribunnews update berita terbaru di: https://t.co/vVWLpleQXU
+https://t.co/BsFlF4vpNr</t>
+  </si>
+  <si>
+    <t>Tue Jan 26 08:13:06 +0000 2021</t>
+  </si>
+  <si>
+    <t>Kalian harus tau kalo coklat bisa buang patah hati. Harus banget tau beneran deh!
+Cek Instagram @kelaskitadotcom buat tau selengkapnya!
+#kelaskita #carabarubelajarseru #belajardirumah #elearning #belajaronline #dirumahaja #taugaksih https://t.co/D3NBfnSbNE</t>
+  </si>
+  <si>
+    <t>Tue Jan 26 08:06:54 +0000 2021</t>
+  </si>
+  <si>
+    <t>Kira-kira apa aja, sih keseruan yang udah disiapin Mikha Tambayong buat Teman Kelaskita?  Penasaran kan? Gak sabar, dong? Nungguin, ya? 
+Stay tune terus di @kelaskitadotcom!
+#kelaskita #carabarubelajarseru #belajardirumah #elearning #belajaronline #dirumahaja https://t.co/s0mhSZLtlW</t>
+  </si>
+  <si>
+    <t>Tue Jan 26 07:18:21 +0000 2021</t>
+  </si>
+  <si>
+    <t>Nabi Muhammad SAW Idolaku - Diskon 20% menjadi Rp.42400
+Gratis ongkos kirim hingga 40rb keseluruh Indonesia.
+#mainanbukuanak #promo #dirumahaja #belajardirumah #buku #membaca #booklover #bookstorm  
+SINOPSIS:Assalamualaikum  Teman-Teman apakah kalian ingin masuk Surga</t>
+  </si>
+  <si>
+    <t>Tue Jan 26 06:44:56 +0000 2021</t>
+  </si>
+  <si>
+    <t>CEK JAWABANNYA
+#viral #viralkan #news #newsupdate #berita #beritaviral #beritaterkini #beritanasional #COVID19 #Covid_19 #COVIDー19 #COVID #selasa #sekolah #belajar #belajardirumah #schooldays #school #schools  https://t.co/7Wkn8U77PU</t>
+  </si>
+  <si>
+    <t>Tue Jan 26 05:34:56 +0000 2021</t>
+  </si>
+  <si>
+    <t>CEK JAWABANNYA
+#viral #viralkan #news #newsupdate #berita #beritaviral #beritaterkini #beritanasional #COVID19 #Covid_19 #COVIDー19 #COVID #selasa #sekolah #belajar #belajardirumah #schooldays #school #schools https://t.co/7SO7zSDby9</t>
+  </si>
+  <si>
+    <t>Tue Jan 26 05:34:44 +0000 2021</t>
+  </si>
+  <si>
+    <t>CEK JAWABANNYA
+#viral #viralkan #news #newsupdate #berita #beritaviral #beritaterkini #beritanasional #COVID19 #Covid_19 #COVIDー19 #COVID #selasa #sekolah #belajar #belajardirumah #schooldays #school #schools https://t.co/hvzJNQVSAB</t>
+  </si>
+  <si>
+    <t>Tue Jan 26 05:34:28 +0000 2021</t>
+  </si>
+  <si>
+    <t>CEK JAWABANNYA
+#viral #viralkan #news #newsupdate #berita #beritaviral #beritaterkini #beritanasional #COVID19 #Covid_19 #COVIDー19 #COVID #selasa #sekolah #belajar #belajardirumah #schooldays #school #schools https://t.co/VIUch8Qq7c</t>
+  </si>
+  <si>
+    <t>Tue Jan 26 05:34:13 +0000 2021</t>
+  </si>
+  <si>
+    <t>CEK JAWABANNYA
+#viral #viralkan #news #newsupdate #berita #beritaviral #beritaterkini #beritanasional #COVID19 #Covid_19 #COVIDー19 #COVID #selasa #sekolah #belajar #belajardirumah #schooldays #school #schools https://t.co/cq6AdCgn1I</t>
+  </si>
+  <si>
+    <t>Tue Jan 26 05:33:31 +0000 2021</t>
+  </si>
+  <si>
+    <t>CEK JAWABANNYA
+#viral #viralkan #news #newsupdate #berita #beritaviral #beritaterkini #beritanasional #COVID19 #Covid_19 #COVIDー19 #COVID #selasa #sekolah #belajar #belajardirumah #schooldays #school #schools 
+https://t.co/V2ZnlNx6YW</t>
+  </si>
+  <si>
+    <t>Tue Jan 26 05:32:52 +0000 2021</t>
+  </si>
+  <si>
+    <t>Hai #SahabatBahasa dan #sahabatDikbud, kali ini kita akan membahas padanan istilah “hard disk”.
+#padananistilah 
+#padanankata 
+#belajarbahasa
+#belajardirumah https://t.co/CN7NGng7pY</t>
+  </si>
+  <si>
+    <t>BalaiSulteng</t>
+  </si>
+  <si>
+    <t>Tue Jan 26 04:07:22 +0000 2021</t>
+  </si>
+  <si>
+    <t>Mengenal Allah Mencintai Islam A to Z - Diskon 20% menjadi Rp.64000
+Gratis ongkos kirim hingga 40rb keseluruh Indonesia.
+#mainanbukuanak #promo #dirumahaja #belajardirumah #buku #membaca #booklover #bookstorm  
+SINOPSIS:Assalamu`alaikum Teman-Teman ….
+Mengenal</t>
+  </si>
+  <si>
+    <t>Tue Jan 26 03:44:57 +0000 2021</t>
+  </si>
+  <si>
+    <t>Yang ingin tahu tentang bagian bagian kompas. Yuk kepoin channel Kak Eliz https://t.co/JJ89BdzYDz
+#belajardirumah #belajar #BelajarKompas #Kompas #KompasBidik #KompasPrisma #MengenalKompas #KakEliz #KakElizabeth #BuEliz #NavigasiDarat #Pramuka #GerakanPramuka #MateriKompas</t>
+  </si>
+  <si>
+    <t>168Ndeso</t>
+  </si>
+  <si>
+    <t>Tue Jan 26 03:13:44 +0000 2021</t>
+  </si>
+  <si>
+    <t>Passive Voice SMK Kelas 11
+#passive #passivevoice #active #activevoice #voice #belajar #belajardirumah #onlineeducation #Online #OnlineClasses #Onlineclass #follobackforfolloback #FolloMe #FolloForFolloBack #follow #like #likeforlike #like4likes 
+https://t.co/SCBcq5AVu1</t>
+  </si>
+  <si>
+    <t>jurnalartefakc1</t>
+  </si>
+  <si>
+    <t>Tue Jan 26 02:25:26 +0000 2021</t>
+  </si>
+  <si>
+    <t>Perasaan belajar udah maksimal tapi kok susah fokus ya? Gimana ya caranya biar kita bisa belajar dengan efektif?
+Yuk, simak tips kita di atas! 
+#tipsbelajar #bimbelberkualitas #bimbelonline #belajardirumah #kelaspintarindonesia https://t.co/6FALGWsVLn</t>
+  </si>
+  <si>
+    <t>Tue Jan 26 02:11:49 +0000 2021</t>
+  </si>
+  <si>
+    <t>The struggle is real okeh. Google translate pun brapa mau ngam tp xpa, yg penting mak faham sikit² 😅😅😅
+#pkp2021 #belajardirumah https://t.co/7yXhr00399</t>
+  </si>
+  <si>
+    <t>Oe_Ambrs</t>
+  </si>
+  <si>
+    <t>Tue Jan 26 01:52:29 +0000 2021</t>
+  </si>
+  <si>
+    <t>Setan ? Siapa Takut ! - Diskon 20% menjadi Rp.52000
+Gratis ongkos kirim hingga 40rb keseluruh Indonesia.
+#mainanbukuanak #promo #dirumahaja #belajardirumah #buku #membaca #booklover #bookstorm  
+SINOPSIS:Raihan akhir-akhir ini susah sekali bangun pagi. Beberapa kali https://t.co/bTAtXyLFBG</t>
+  </si>
+  <si>
+    <t>Tue Jan 26 01:12:58 +0000 2021</t>
+  </si>
+  <si>
+    <t>Bilik guru jadi 'call centre'
+Berita penuh di https://t.co/WsqsBfni0E
+Untuk lebih banyak bahan menarik, jangan lupa klik di Bio link kami di https://t.co/Ov8Nomzbvz
+#SinarHarian #VideoSinar #Belajar #BelajarDiRumah #PdPR #PdP #Sekolah #Internet #KPM #JPN #PPD #Guru #Komuniti https://t.co/Ds6UhEBQlh</t>
+  </si>
+  <si>
+    <t>SinarOnline</t>
+  </si>
+  <si>
+    <t>Mon Jan 25 23:30:00 +0000 2021</t>
+  </si>
+  <si>
+    <t>Seri Adab Berteman - Diskon 20% menjadi Rp.20000
+Gratis ongkos kirim hingga 40rb keseluruh Indonesia.
+#mainanbukuanak #promo #dirumahaja #belajardirumah #buku #membaca #booklover #bookstorm  
+SINOPSIS:Ima heran mengapa Puti tampak meminta uang kepada teman – temanya.</t>
+  </si>
+  <si>
+    <t>Mon Jan 25 22:42:53 +0000 2021</t>
+  </si>
+  <si>
+    <t>Cerita Si Ayam - Diskon 20% menjadi Rp.20000
+Gratis ongkos kirim hingga 40rb keseluruh Indonesia.
+#mainanbukuanak #promo #dirumahaja #belajardirumah #buku #membaca #booklover #bookstorm  
+SINOPSIS:Ciap… ciap… ciap ….Assalamualaikum Teman-Teman ….Aku Taji si anak https://t.co/yUR7BJIMcB</t>
+  </si>
+  <si>
+    <t>Mon Jan 25 20:12:38 +0000 2021</t>
+  </si>
+  <si>
+    <t>Seri Mengenal Allah 5 : Aku Ciptaan Allah - Diskon 20% menjadi Rp.20000
+Gratis ongkos kirim hingga 40rb keseluruh Indonesia.
+#mainanbukuanak #promo #dirumahaja #belajardirumah #buku #membaca #booklover #bookstorm  
+SINOPSIS:Allah ciptakan aku dalam rahim ibuku. Sukacita</t>
+  </si>
+  <si>
+    <t>Mon Jan 25 17:47:43 +0000 2021</t>
+  </si>
+  <si>
+    <t>Seri Adab di Masjid - Diskon 20% menjadi Rp.20000
+Gratis ongkos kirim hingga 40rb keseluruh Indonesia.
+#mainanbukuanak #promo #dirumahaja #belajardirumah #buku #membaca #booklover #bookstorm  
+SINOPSIS:Abi bawa apa itu? tanya Ibu. Tidak biasanya Abi berangkat shalat https://t.co/rMnWWpu1Lu</t>
+  </si>
+  <si>
+    <t>Mon Jan 25 15:12:24 +0000 2021</t>
+  </si>
+  <si>
+    <t>Psikologi Pernikahan; Menyelami Rahasia Pernikahan - Diskon 20% menjadi Rp.48000
+Gratis ongkos kirim hingga 40rb keseluruh Indonesia.
+#mainanbukuanak #promo #dirumahaja #belajardirumah #buku #membaca #booklover #bookstorm  
+SINOPSIS:Buku ini wajib dimiliki oleh setiap https://t.co/GFrUQt1vgb</t>
+  </si>
+  <si>
+    <t>Mon Jan 25 12:42:03 +0000 2021</t>
+  </si>
+  <si>
+    <t>KASUS BARU, PASIEN SEMBUH &amp;amp; MENINGGAL BERTAMBAH LAGI, INI UPDATE LENGKAP COVID19
+INFORMASI LENGKAPNYA DI👉 https://t.co/6yetFbbFkU
+#ayolawancorona #belajardirumah #bermaindirumah #dirumahsaja #jagakebersihan #jagakesehatan #jagajarak #pakemasker #tetapwaspada #coronabisasembuh https://t.co/nw1onoWD75</t>
+  </si>
+  <si>
+    <t>Mon Jan 25 11:18:24 +0000 2021</t>
+  </si>
+  <si>
+    <t>Update Perkembangan Covid-19 di Kabupaten Luwu Timur per 25 Januari 2021.
+18 sembuh, 7 kasus baru &amp;amp; 3 meninggal.
+Perbaharui terus informasi anda di https://t.co/D4pL3qgDlY
+#ayolawancorona #belajardirumah #bermaindirumah #dirumahsaja #jagakebersihan #jagakesehatan #jagajarak https://t.co/fwEoWscEpb</t>
+  </si>
+  <si>
+    <t>Mon Jan 25 11:17:33 +0000 2021</t>
+  </si>
+  <si>
+    <t>Buku Aktivitas Mengenal Hewan - Diskon 20% menjadi Rp.16000
+Gratis ongkos kirim hingga 40rb keseluruh Indonesia.
+#mainanbukuanak #promo #dirumahaja #belajardirumah #buku #membaca #booklover #bookstorm  
+SINOPSIS:Mewarnai Membaca Menulis dan Menghitung
+Di buku ini kita https://t.co/vkuqAObbyk</t>
+  </si>
+  <si>
+    <t>Mon Jan 25 10:12:40 +0000 2021</t>
+  </si>
+  <si>
+    <t>Seri Adab Bersuci - Diskon 20% menjadi Rp.20000
+Gratis ongkos kirim hingga 40rb keseluruh Indonesia.
+#mainanbukuanak #promo #dirumahaja #belajardirumah #buku #membaca #booklover #bookstorm  
+SINOPSIS:Sena kesal sekali. Ia tak sengaja sengaja menginjak kotoran ayam saat</t>
+  </si>
+  <si>
+    <t>Mon Jan 25 07:44:14 +0000 2021</t>
+  </si>
+  <si>
+    <t>Kalau udah jalanin prosesnya, tinggal nikmati hasilnya. Jangan lupa bersyukur!
+#kelaskita #carabarubelajarseru #belajardirumah #elearning #belajaronline #dirumahaja #PixarSoul https://t.co/1r70KFSCYF</t>
+  </si>
+  <si>
+    <t>Mon Jan 25 06:33:03 +0000 2021</t>
+  </si>
+  <si>
+    <t>Dua hal yang prosesnya emang gak gampang, tapi WAJIB banget lop~
+#kelaskita #carabarubelajarseru #belajardirumah #elearning #belajaronline #dirumahaja #PixarSoul https://t.co/eFpUSGfoCP</t>
+  </si>
+  <si>
+    <t>Mon Jan 25 06:31:45 +0000 2021</t>
+  </si>
+  <si>
+    <t>Anaknya hobi banget emang si Joe ini. Mantap Joe!
+#kelaskita #carabarubelajarseru #belajardirumah #elearning #belajaronline #dirumahaja #PixarSoul https://t.co/0JKpF6K5aD</t>
+  </si>
+  <si>
+    <t>Mon Jan 25 06:28:41 +0000 2021</t>
+  </si>
+  <si>
+    <t>Bun, hidup berjalan seperti bahahahahaaha… canda.
+Udah, dari pada ngeluhin hidup mulu mending simak, nih tips menikmati hidup ala film Soul dari Dinsey Pixar!
+#kelaskita #carabarubelajarseru #belajardirumah #elearning #belajaronline #dirumahaja #pixarsoul https://t.co/TVU3EABLSN</t>
+  </si>
+  <si>
+    <t>Mon Jan 25 06:26:51 +0000 2021</t>
+  </si>
+  <si>
+    <t>Seri Adab Berpakaian - Diskon 20% menjadi Rp.20000
+Gratis ongkos kirim hingga 40rb keseluruh Indonesia.
+#mainanbukuanak #promo #dirumahaja #belajardirumah #buku #membaca #booklover #bookstorm  
+SINOPSIS:Abi ingin memiliki baju baru bergambar robot seperti teman – https://t.co/nGpIdiNu19</t>
+  </si>
+  <si>
+    <t>Mon Jan 25 05:12:10 +0000 2021</t>
+  </si>
+  <si>
+    <t>Gak usah pusing belajar di mana dan bagaimana, kalo udah pake Kelas Pintar, tinggal install aplikasi aja, kamu bisa belajar bahkan dari gadget kamu saja.
+.
+Yuk pake Kelas Pintar sekarang!
+#pjj #pjjonline #bimbelberkualitasjakarta #belajardirumah #kelaspintarindonesia https://t.co/PH3QhiH2EU</t>
+  </si>
+  <si>
+    <t>Mon Jan 25 02:04:31 +0000 2021</t>
+  </si>
+  <si>
+    <t>Seri Adab Kepada Orang Tua - Diskon 20% menjadi Rp.20000
+Gratis ongkos kirim hingga 40rb keseluruh Indonesia.
+#mainanbukuanak #promo #dirumahaja #belajardirumah #buku #membaca #booklover #bookstorm  
+SINOPSIS:Abi merajuk saat keingin annya membeli mobil- mobilan tidak https://t.co/6vwde4JF4D</t>
+  </si>
+  <si>
+    <t>Mon Jan 25 00:13:18 +0000 2021</t>
+  </si>
+  <si>
+    <t>Seri Adab Makan dan Minum - Diskon 20% menjadi Rp.20000
+Gratis ongkos kirim hingga 40rb keseluruh Indonesia.
+#mainanbukuanak #promo #dirumahaja #belajardirumah #buku #membaca #booklover #bookstorm  
+SINOPSIS:Mengapa bu Ihda menegur Abi saat Abi sedang makan? Seperti apa https://t.co/M9yOo0x5a6</t>
+  </si>
+  <si>
+    <t>Sun Jan 24 21:43:45 +0000 2021</t>
+  </si>
+  <si>
+    <t>Seri Adab Berbicara - Diskon 20% menjadi Rp.20000
+Gratis ongkos kirim hingga 40rb keseluruh Indonesia.
+#mainanbukuanak #promo #dirumahaja #belajardirumah #buku #membaca #booklover #bookstorm  
+SINOPSIS:Saat berbicara Gema dan Gina tidak pernah berbohong Indahnya https://t.co/f2qfHQAYSx</t>
+  </si>
+  <si>
+    <t>Sun Jan 24 16:42:35 +0000 2021</t>
+  </si>
+  <si>
+    <t>Tematik Kelas 1 SD | Tema 5 Subtema 3 | Pembelajaran 1 | Pengalaman di S... https://t.co/xZgAqNq4pJ via @YouTube #new #video #bdr #belajardirumah</t>
+  </si>
+  <si>
+    <t>Sun Jan 24 14:50:30 +0000 2021</t>
+  </si>
+  <si>
+    <t>Seri Adab Bepergian - Diskon 20% menjadi Rp.20000
+Gratis ongkos kirim hingga 40rb keseluruh Indonesia.
+#mainanbukuanak #promo #dirumahaja #belajardirumah #buku #membaca #booklover #bookstorm  
+SINOPSIS:Lila kesal karena lupa membawa mainan pasirnya saat ke pantai.</t>
+  </si>
+  <si>
+    <t>Sun Jan 24 14:28:21 +0000 2021</t>
+  </si>
+  <si>
+    <t>UPDATE COVID19, PASIEN SEMBUH BERTAMBAH 30 DAN 135 KASUS BARU
+INFORMASI LENGKAPNYA BACA DI 👉 https://t.co/pnxKpJpQYO
+#ayolawancorona #belajardirumah #bermaindirumah #dirumahsaja #jagakebersihan #jagakesehatan #jagajarak #pakemasker #tetapwaspada #coronabisasembuh https://t.co/rsBuB9D8aM</t>
+  </si>
+  <si>
+    <t>Sun Jan 24 13:27:47 +0000 2021</t>
+  </si>
+  <si>
+    <t>Update Perkembangan Covid-19 di Kabupaten Luwu Timur per 24 Januari 2021.
+30 sembuh dan 135 kasus baru.
+Perbaharui terus informasi anda di https://t.co/D4pL3qgDlY
+#ayolawancorona #belajardirumah #bermaindirumah #dirumahsaja #jagakebersihan #jagakesehatan #jagajarak #pakemasker https://t.co/ToRQPioRQL</t>
+  </si>
+  <si>
+    <t>Sun Jan 24 13:27:32 +0000 2021</t>
+  </si>
+  <si>
+    <t>Buku Aktivitas Mengenal Hewan - Diskon 20% menjadi Rp.16000
+Gratis ongkos kirim hingga 40rb keseluruh Indonesia.
+#mainanbukuanak #promo #dirumahaja #belajardirumah #buku #membaca #booklover #bookstorm  
+SINOPSIS:Mewarnai Membaca Menulis dan Menghitung
+Di buku ini kita</t>
+  </si>
+  <si>
+    <t>Sun Jan 24 11:56:22 +0000 2021</t>
+  </si>
+  <si>
+    <t>Seri Adab Belajar - Diskon 20% menjadi Rp.20000
+Gratis ongkos kirim hingga 40rb keseluruh Indonesia.
+#mainanbukuanak #promo #dirumahaja #belajardirumah #buku #membaca #booklover #bookstorm  
+SINOPSIS:Nilai ulangan harianku tadi jelek Di. Aku hanya mendapat angka 5. Itu https://t.co/wPIfbRg8GX</t>
+  </si>
+  <si>
+    <t>Sun Jan 24 09:14:26 +0000 2021</t>
+  </si>
+  <si>
+    <t>Seri Akhlak Anak Hebat;Bangganya Berlaku Jujur - Diskon 20% menjadi Rp.28000
+Gratis ongkos kirim hingga 40rb keseluruh Indonesia.
+#mainanbukuanak #promo #dirumahaja #belajardirumah #buku #membaca #booklover #bookstorm  
+SINOPSIS:Saat Gina ingin mangga
+ada buah mangga https://t.co/MKaYAUCyKA</t>
+  </si>
+  <si>
+    <t>Sun Jan 24 06:44:38 +0000 2021</t>
+  </si>
+  <si>
+    <t>Hi sahabat Kelas Pintar! Buat kalian yang duduk di kelas XII, simak postingan ini untuk jadwal GURU setiap harinya!
+.
+Buat kamu yang belum pakai Kelas Pintar, pakai Kelas Pintar sekarang ya!
+#belajardirumah #bimbelberkualitas #bimbelberkualitasjakarta #pjj #kelaspintarindonesia https://t.co/Dv2jAc93BD</t>
+  </si>
+  <si>
+    <t>Sun Jan 24 06:06:01 +0000 2021</t>
+  </si>
+  <si>
+    <t>Simak ini baru dan lengkap.. 
+Selamat berolahraga
+#pjoksd #senamlantai #belajardirumah #salamolahraga 
+https://t.co/DJCpH29WqB</t>
+  </si>
+  <si>
+    <t>basukirahmat21</t>
+  </si>
+  <si>
+    <t>Sun Jan 24 05:09:49 +0000 2021</t>
+  </si>
+  <si>
+    <t>Buku Aktivitas Mengenal Hewan - Diskon 20% menjadi Rp.16000
+Gratis ongkos kirim hingga 40rb keseluruh Indonesia.
+#mainanbukuanak #promo #dirumahaja #belajardirumah #buku #membaca #booklover #bookstorm  
+SINOPSIS:Mewarnai Membaca Menulis dan Menghitung
+Di buku ini kita https://t.co/x1VhoTwAuu</t>
+  </si>
+  <si>
+    <t>Sun Jan 24 04:12:06 +0000 2021</t>
+  </si>
+  <si>
+    <t>Seri Adab Berbicara - Diskon 20% menjadi Rp.20000
+Gratis ongkos kirim hingga 40rb keseluruh Indonesia.
+#mainanbukuanak #promo #dirumahaja #belajardirumah #buku #membaca #booklover #bookstorm  
+SINOPSIS:Saat berbicara Gema dan Gina tidak pernah berbohong Indahnya https://t.co/Im5IBoLX10</t>
+  </si>
+  <si>
+    <t>Sun Jan 24 01:43:14 +0000 2021</t>
+  </si>
+  <si>
+    <t>Seri Adab Bepergian - Diskon 20% menjadi Rp.20000
+Gratis ongkos kirim hingga 40rb keseluruh Indonesia.
+#mainanbukuanak #promo #dirumahaja #belajardirumah #buku #membaca #booklover #bookstorm  
+SINOPSIS:Lila kesal karena lupa membawa mainan pasirnya saat ke pantai. https://t.co/WKdOgvORdU</t>
+  </si>
+  <si>
+    <t>Sat Jan 23 23:12:37 +0000 2021</t>
+  </si>
+  <si>
+    <t>Cerita Si Ayam - Diskon 20% menjadi Rp.20000
+Gratis ongkos kirim hingga 40rb keseluruh Indonesia.
+#mainanbukuanak #promo #dirumahaja #belajardirumah #buku #membaca #booklover #bookstorm  
+SINOPSIS:Ciap… ciap… ciap ….Assalamualaikum Teman-Teman ….Aku Taji si anak https://t.co/Q6ostMdnjx</t>
+  </si>
+  <si>
+    <t>Sat Jan 23 20:42:20 +0000 2021</t>
+  </si>
+  <si>
+    <t>Seri Mengenal Allah 5 : Aku Ciptaan Allah - Diskon 20% menjadi Rp.20000
+Gratis ongkos kirim hingga 40rb keseluruh Indonesia.
+#mainanbukuanak #promo #dirumahaja #belajardirumah #buku #membaca #booklover #bookstorm  
+SINOPSIS:Allah ciptakan aku dalam rahim ibuku. Sukacita https://t.co/4QkEp4vH7o</t>
+  </si>
+  <si>
+    <t>Sat Jan 23 18:12:11 +0000 2021</t>
+  </si>
+  <si>
+    <t>Seri Adab Belajar - Diskon 20% menjadi Rp.20000
+Gratis ongkos kirim hingga 40rb keseluruh Indonesia.
+#mainanbukuanak #promo #dirumahaja #belajardirumah #buku #membaca #booklover #bookstorm  
+SINOPSIS:Nilai ulangan harianku tadi jelek Di. Aku hanya mendapat angka 5. Itu https://t.co/TV6x2zbbb8</t>
+  </si>
+  <si>
+    <t>Sat Jan 23 15:42:51 +0000 2021</t>
+  </si>
+  <si>
+    <t>Buku Aktivitas Mengenal Hewan - Diskon 20% menjadi Rp.16000
+Gratis ongkos kirim hingga 40rb keseluruh Indonesia.
+#mainanbukuanak #promo #dirumahaja #belajardirumah #buku #membaca #booklover #bookstorm  
+SINOPSIS:Mewarnai Membaca Menulis dan Menghitung
+Di buku ini kita https://t.co/HPMVDrYXvE</t>
+  </si>
+  <si>
+    <t>Sat Jan 23 13:12:05 +0000 2021</t>
+  </si>
+  <si>
+    <t>TOTAL PASIEN COVID19 YANG SEMBUH MENCAPAI 2.313 DARI 2.664 KASUS KONFIRMASI DAN 40 MENINGGAL
+INFORMASI LENGKAPNYA BACA DI 👉 https://t.co/g0DCRH1aaJ
+#ayolawancorona #belajardirumah #bermaindirumah #dirumahsaja #jagakebersihan #jagakesehatan #jagajarak #pakemasker #tetapwaspada https://t.co/nlssvKsCE6</t>
+  </si>
+  <si>
+    <t>Sat Jan 23 11:43:43 +0000 2021</t>
+  </si>
+  <si>
+    <t>Update Perkembangan Covid-19 di Kabupaten Luwu Timur per 23 Januari 2021.
+19 sembuh, 52 kasus baru &amp;amp; 2 meninggal.
+Perbaharui terus informasi anda di https://t.co/D4pL3qgDlY
+#ayolawancorona #belajardirumah #dirumahsaja #jagakebersihan #jagakesehatan #jagajarak #pakemasker https://t.co/WhIgbbqLWa</t>
+  </si>
+  <si>
+    <t>Sat Jan 23 11:43:23 +0000 2021</t>
+  </si>
+  <si>
+    <t>Seri Akhlak Anak Hebat;Bangganya Berlaku Jujur - Diskon 20% menjadi Rp.28000
+Gratis ongkos kirim hingga 40rb keseluruh Indonesia.
+#mainanbukuanak #promo #dirumahaja #belajardirumah #buku #membaca #booklover #bookstorm  
+SINOPSIS:Saat Gina ingin mangga
+ada buah mangga https://t.co/4vG0aIPRSF</t>
+  </si>
+  <si>
+    <t>Sat Jan 23 10:42:16 +0000 2021</t>
+  </si>
+  <si>
+    <t>[INFOGRAFIK] Penambahbaikan sesi pembelajaran 2021
+Dapatkan berita menarik di https://t.co/WsqsBf5GC4
+Untuk lebih banyak bahan menarik, jangan lupa klik di Bio link kami di https://t.co/Ov8NomQMn7
+#SinarHarian #Belajar #BelajarDiRumah #PdPR #PdP #Sekolah #Internet #KPM #JPN https://t.co/XDlVm5fsyf</t>
+  </si>
+  <si>
+    <t>Sat Jan 23 09:01:03 +0000 2021</t>
+  </si>
+  <si>
+    <t>Seri Adab Kepada Orang Tua - Diskon 20% menjadi Rp.20000
+Gratis ongkos kirim hingga 40rb keseluruh Indonesia.
+#mainanbukuanak #promo #dirumahaja #belajardirumah #buku #membaca #booklover #bookstorm  
+SINOPSIS:Abi merajuk saat keingin annya membeli mobil- mobilan tidak https://t.co/7VUj5z7U7S</t>
+  </si>
+  <si>
+    <t>Sat Jan 23 08:12:44 +0000 2021</t>
+  </si>
+  <si>
+    <t>MELAYAT ISTRI KADIS PMPTSP LUTIM, SEKDA KEMBALI INGATKAN PROTOKOL KESEHATAN
+BACA INFORMASI LENGKAPNYA DI 👉 
+#ayolawancorona #belajardirumah #beribadahdirumah #bermaindirumah #dirumahsaja #jagakebersihan #jagakesehatan #jagajarak #pakemasker #tetapwaspada #coronabisasembuh https://t.co/YFpmLMLDIa</t>
+  </si>
+  <si>
+    <t>Sat Jan 23 07:39:20 +0000 2021</t>
+  </si>
+  <si>
+    <t>Seri Adab Makan dan Minum - Diskon 20% menjadi Rp.20000
+Gratis ongkos kirim hingga 40rb keseluruh Indonesia.
+#mainanbukuanak #promo #dirumahaja #belajardirumah #buku #membaca #booklover #bookstorm  
+SINOPSIS:Mengapa bu Ihda menegur Abi saat Abi sedang makan? Seperti apa https://t.co/vsVE3TGdyS</t>
+  </si>
+  <si>
+    <t>Sat Jan 23 05:43:45 +0000 2021</t>
+  </si>
+  <si>
+    <t>Seri Adab Berbicara - Diskon 20% menjadi Rp.20000
+Gratis ongkos kirim hingga 40rb keseluruh Indonesia.
+#mainanbukuanak #promo #dirumahaja #belajardirumah #buku #membaca #booklover #bookstorm  
+SINOPSIS:Saat berbicara Gema dan Gina tidak pernah berbohong Indahnya https://t.co/NLrnUsov54</t>
+  </si>
+  <si>
+    <t>Sat Jan 23 03:13:33 +0000 2021</t>
+  </si>
+  <si>
+    <t>Kunci Jawaban Tema 6 Kelas 5 Halaman 94 95 98 99 102 103 Festival Manee Tradisi Nelayan Pantai Malo
+#BukuTematik #kuncijawabanBukuTematik #belajardirumah
+https://t.co/O4XM3lRfVo</t>
+  </si>
+  <si>
+    <t>Sat Jan 23 02:07:00 +0000 2021</t>
+  </si>
+  <si>
+    <t>Seri Adab Bepergian - Diskon 20% menjadi Rp.20000
+Gratis ongkos kirim hingga 40rb keseluruh Indonesia.
+#mainanbukuanak #promo #dirumahaja #belajardirumah #buku #membaca #booklover #bookstorm  
+SINOPSIS:Lila kesal karena lupa membawa mainan pasirnya saat ke pantai. https://t.co/1ldHLXshvq</t>
+  </si>
+  <si>
+    <t>Sat Jan 23 00:42:03 +0000 2021</t>
+  </si>
+  <si>
+    <t>Seri Adab Belajar - Diskon 20% menjadi Rp.20000
+Gratis ongkos kirim hingga 40rb keseluruh Indonesia.
+#mainanbukuanak #promo #dirumahaja #belajardirumah #buku #membaca #booklover #bookstorm  
+SINOPSIS:Nilai ulangan harianku tadi jelek Di. Aku hanya mendapat angka 5. Itu https://t.co/LE9K60Q7tL</t>
+  </si>
+  <si>
+    <t>Fri Jan 22 22:12:08 +0000 2021</t>
+  </si>
+  <si>
+    <t>Cerita Si Ayam - Diskon 20% menjadi Rp.20000
+Gratis ongkos kirim hingga 40rb keseluruh Indonesia.
+#mainanbukuanak #promo #dirumahaja #belajardirumah #buku #membaca #booklover #bookstorm  
+SINOPSIS:Ciap… ciap… ciap ….Assalamualaikum Teman-Teman ….Aku Taji si anak https://t.co/m6uDyq6tC0</t>
+  </si>
+  <si>
+    <t>Fri Jan 22 19:42:07 +0000 2021</t>
+  </si>
+  <si>
+    <t>Seri Mengenal Allah 5 : Aku Ciptaan Allah - Diskon 20% menjadi Rp.20000
+Gratis ongkos kirim hingga 40rb keseluruh Indonesia.
+#mainanbukuanak #promo #dirumahaja #belajardirumah #buku #membaca #booklover #bookstorm  
+SINOPSIS:Allah ciptakan aku dalam rahim ibuku. Sukacita https://t.co/Fmvm9K75fi</t>
+  </si>
+  <si>
+    <t>Fri Jan 22 17:12:18 +0000 2021</t>
+  </si>
+  <si>
+    <t>Seri Mengenal Allah 5 : Aku Ciptaan Allah - Diskon 20% menjadi Rp.20000
+Gratis ongkos kirim hingga 40rb keseluruh Indonesia.
+#mainanbukuanak #promo #dirumahaja #belajardirumah #buku #membaca #booklover #bookstorm  
+SINOPSIS:Allah ciptakan aku dalam rahim ibuku. Sukacita https://t.co/0zixpcER88</t>
+  </si>
+  <si>
+    <t>Fri Jan 22 14:42:17 +0000 2021</t>
   </si>
 </sst>
 </file>
@@ -10683,10 +11694,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D1358"/>
+  <dimension ref="A1:D1484"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A1350" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="E1361" sqref="E1361"/>
+    <sheetView tabSelected="1" topLeftCell="A1476" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="H1496" sqref="H1496"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -29703,6 +30714,1770 @@
         <v>2095</v>
       </c>
     </row>
+    <row r="1359" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1359">
+        <v>1.354780806611276E+18</v>
+      </c>
+      <c r="B1359" t="s">
+        <v>2460</v>
+      </c>
+      <c r="C1359" t="s">
+        <v>2461</v>
+      </c>
+      <c r="D1359" t="s">
+        <v>2462</v>
+      </c>
+    </row>
+    <row r="1360" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1360">
+        <v>1.3547805518870321E+18</v>
+      </c>
+      <c r="B1360" t="s">
+        <v>2463</v>
+      </c>
+      <c r="C1360" t="s">
+        <v>2461</v>
+      </c>
+      <c r="D1360" t="s">
+        <v>2464</v>
+      </c>
+    </row>
+    <row r="1361" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1361">
+        <v>1.354779355377922E+18</v>
+      </c>
+      <c r="B1361" t="s">
+        <v>2465</v>
+      </c>
+      <c r="C1361" t="s">
+        <v>625</v>
+      </c>
+      <c r="D1361" t="s">
+        <v>2466</v>
+      </c>
+    </row>
+    <row r="1362" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1362">
+        <v>1.3547791860831601E+18</v>
+      </c>
+      <c r="B1362" t="s">
+        <v>2467</v>
+      </c>
+      <c r="C1362" t="s">
+        <v>72</v>
+      </c>
+      <c r="D1362" t="s">
+        <v>2468</v>
+      </c>
+    </row>
+    <row r="1363" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1363">
+        <v>1.354760251854057E+18</v>
+      </c>
+      <c r="B1363" t="s">
+        <v>2469</v>
+      </c>
+      <c r="C1363" t="s">
+        <v>21</v>
+      </c>
+      <c r="D1363" t="s">
+        <v>2470</v>
+      </c>
+    </row>
+    <row r="1364" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1364">
+        <v>1.354760139769696E+18</v>
+      </c>
+      <c r="B1364" t="s">
+        <v>2471</v>
+      </c>
+      <c r="C1364" t="s">
+        <v>21</v>
+      </c>
+      <c r="D1364" t="s">
+        <v>2472</v>
+      </c>
+    </row>
+    <row r="1365" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1365">
+        <v>1.354741695120777E+18</v>
+      </c>
+      <c r="B1365" t="s">
+        <v>2473</v>
+      </c>
+      <c r="C1365" t="s">
+        <v>625</v>
+      </c>
+      <c r="D1365" t="s">
+        <v>2474</v>
+      </c>
+    </row>
+    <row r="1366" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1366">
+        <v>1.3547037908096159E+18</v>
+      </c>
+      <c r="B1366" t="s">
+        <v>2475</v>
+      </c>
+      <c r="C1366" t="s">
+        <v>625</v>
+      </c>
+      <c r="D1366" t="s">
+        <v>2476</v>
+      </c>
+    </row>
+    <row r="1367" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1367">
+        <v>1.354689473758507E+18</v>
+      </c>
+      <c r="B1367" t="s">
+        <v>2477</v>
+      </c>
+      <c r="C1367" t="s">
+        <v>80</v>
+      </c>
+      <c r="D1367" t="s">
+        <v>2478</v>
+      </c>
+    </row>
+    <row r="1368" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1368">
+        <v>1.354689385304875E+18</v>
+      </c>
+      <c r="B1368" t="s">
+        <v>2479</v>
+      </c>
+      <c r="C1368" t="s">
+        <v>80</v>
+      </c>
+      <c r="D1368" t="s">
+        <v>2480</v>
+      </c>
+    </row>
+    <row r="1369" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1369">
+        <v>1.3546892717524951E+18</v>
+      </c>
+      <c r="B1369" t="s">
+        <v>2481</v>
+      </c>
+      <c r="C1369" t="s">
+        <v>80</v>
+      </c>
+      <c r="D1369" t="s">
+        <v>2482</v>
+      </c>
+    </row>
+    <row r="1370" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1370">
+        <v>1.354688961759871E+18</v>
+      </c>
+      <c r="B1370" t="s">
+        <v>2483</v>
+      </c>
+      <c r="C1370" t="s">
+        <v>80</v>
+      </c>
+      <c r="D1370" t="s">
+        <v>2484</v>
+      </c>
+    </row>
+    <row r="1371" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1371">
+        <v>1.354688598797398E+18</v>
+      </c>
+      <c r="B1371" t="s">
+        <v>2485</v>
+      </c>
+      <c r="C1371" t="s">
+        <v>80</v>
+      </c>
+      <c r="D1371" t="s">
+        <v>2486</v>
+      </c>
+    </row>
+    <row r="1372" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1372">
+        <v>1.3546884975678789E+18</v>
+      </c>
+      <c r="B1372" t="s">
+        <v>2487</v>
+      </c>
+      <c r="C1372" t="s">
+        <v>80</v>
+      </c>
+      <c r="D1372" t="s">
+        <v>2488</v>
+      </c>
+    </row>
+    <row r="1373" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1373">
+        <v>1.3546882526708329E+18</v>
+      </c>
+      <c r="B1373" t="s">
+        <v>2489</v>
+      </c>
+      <c r="C1373" t="s">
+        <v>80</v>
+      </c>
+      <c r="D1373" t="s">
+        <v>2490</v>
+      </c>
+    </row>
+    <row r="1374" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1374">
+        <v>1.3546879888155891E+18</v>
+      </c>
+      <c r="B1374" t="s">
+        <v>2491</v>
+      </c>
+      <c r="C1374" t="s">
+        <v>80</v>
+      </c>
+      <c r="D1374" t="s">
+        <v>2492</v>
+      </c>
+    </row>
+    <row r="1375" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1375">
+        <v>1.3546879339079229E+18</v>
+      </c>
+      <c r="B1375" t="s">
+        <v>2493</v>
+      </c>
+      <c r="C1375" t="s">
+        <v>80</v>
+      </c>
+      <c r="D1375" t="s">
+        <v>2494</v>
+      </c>
+    </row>
+    <row r="1376" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1376">
+        <v>1.354687860562133E+18</v>
+      </c>
+      <c r="B1376" t="s">
+        <v>2495</v>
+      </c>
+      <c r="C1376" t="s">
+        <v>80</v>
+      </c>
+      <c r="D1376" t="s">
+        <v>2496</v>
+      </c>
+    </row>
+    <row r="1377" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1377">
+        <v>1.3546878093119319E+18</v>
+      </c>
+      <c r="B1377" t="s">
+        <v>2497</v>
+      </c>
+      <c r="C1377" t="s">
+        <v>80</v>
+      </c>
+      <c r="D1377" t="s">
+        <v>2498</v>
+      </c>
+    </row>
+    <row r="1378" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1378">
+        <v>1.354687748096086E+18</v>
+      </c>
+      <c r="B1378" t="s">
+        <v>2499</v>
+      </c>
+      <c r="C1378" t="s">
+        <v>80</v>
+      </c>
+      <c r="D1378" t="s">
+        <v>2500</v>
+      </c>
+    </row>
+    <row r="1379" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1379">
+        <v>1.354687694979424E+18</v>
+      </c>
+      <c r="B1379" t="s">
+        <v>2501</v>
+      </c>
+      <c r="C1379" t="s">
+        <v>80</v>
+      </c>
+      <c r="D1379" t="s">
+        <v>2502</v>
+      </c>
+    </row>
+    <row r="1380" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1380">
+        <v>1.3546661042751319E+18</v>
+      </c>
+      <c r="B1380" t="s">
+        <v>2503</v>
+      </c>
+      <c r="C1380" t="s">
+        <v>625</v>
+      </c>
+      <c r="D1380" t="s">
+        <v>2504</v>
+      </c>
+    </row>
+    <row r="1381" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1381">
+        <v>1.354628380981748E+18</v>
+      </c>
+      <c r="B1381" t="s">
+        <v>2505</v>
+      </c>
+      <c r="C1381" t="s">
+        <v>625</v>
+      </c>
+      <c r="D1381" t="s">
+        <v>2506</v>
+      </c>
+    </row>
+    <row r="1382" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1382">
+        <v>1.3545905479318531E+18</v>
+      </c>
+      <c r="B1382" t="s">
+        <v>2507</v>
+      </c>
+      <c r="C1382" t="s">
+        <v>625</v>
+      </c>
+      <c r="D1382" t="s">
+        <v>2508</v>
+      </c>
+    </row>
+    <row r="1383" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1383">
+        <v>1.3545527543168289E+18</v>
+      </c>
+      <c r="B1383" t="s">
+        <v>2509</v>
+      </c>
+      <c r="C1383" t="s">
+        <v>625</v>
+      </c>
+      <c r="D1383" t="s">
+        <v>2510</v>
+      </c>
+    </row>
+    <row r="1384" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1384">
+        <v>1.354515090288992E+18</v>
+      </c>
+      <c r="B1384" t="s">
+        <v>2511</v>
+      </c>
+      <c r="C1384" t="s">
+        <v>625</v>
+      </c>
+      <c r="D1384" t="s">
+        <v>2512</v>
+      </c>
+    </row>
+    <row r="1385" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1385">
+        <v>1.3544773198139269E+18</v>
+      </c>
+      <c r="B1385" t="s">
+        <v>2513</v>
+      </c>
+      <c r="C1385" t="s">
+        <v>625</v>
+      </c>
+      <c r="D1385" t="s">
+        <v>2514</v>
+      </c>
+    </row>
+    <row r="1386" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1386">
+        <v>1.3544396022331971E+18</v>
+      </c>
+      <c r="B1386" t="s">
+        <v>2515</v>
+      </c>
+      <c r="C1386" t="s">
+        <v>625</v>
+      </c>
+      <c r="D1386" t="s">
+        <v>2516</v>
+      </c>
+    </row>
+    <row r="1387" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1387">
+        <v>1.3544148490071199E+18</v>
+      </c>
+      <c r="B1387" t="s">
+        <v>2517</v>
+      </c>
+      <c r="C1387" t="s">
+        <v>72</v>
+      </c>
+      <c r="D1387" t="s">
+        <v>2518</v>
+      </c>
+    </row>
+    <row r="1388" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1388">
+        <v>1.3544017692840141E+18</v>
+      </c>
+      <c r="B1388" t="s">
+        <v>2519</v>
+      </c>
+      <c r="C1388" t="s">
+        <v>625</v>
+      </c>
+      <c r="D1388" t="s">
+        <v>2520</v>
+      </c>
+    </row>
+    <row r="1389" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1389">
+        <v>1.3543960195936051E+18</v>
+      </c>
+      <c r="B1389" t="s">
+        <v>2521</v>
+      </c>
+      <c r="C1389" t="s">
+        <v>21</v>
+      </c>
+      <c r="D1389" t="s">
+        <v>2522</v>
+      </c>
+    </row>
+    <row r="1390" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1390">
+        <v>1.3543959180620841E+18</v>
+      </c>
+      <c r="B1390" t="s">
+        <v>2523</v>
+      </c>
+      <c r="C1390" t="s">
+        <v>21</v>
+      </c>
+      <c r="D1390" t="s">
+        <v>2524</v>
+      </c>
+    </row>
+    <row r="1391" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1391">
+        <v>1.3543875765225679E+18</v>
+      </c>
+      <c r="B1391" t="s">
+        <v>2525</v>
+      </c>
+      <c r="C1391" t="s">
+        <v>21</v>
+      </c>
+      <c r="D1391" t="s">
+        <v>2526</v>
+      </c>
+    </row>
+    <row r="1392" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1392">
+        <v>1.3543640196839419E+18</v>
+      </c>
+      <c r="B1392" t="s">
+        <v>2527</v>
+      </c>
+      <c r="C1392" t="s">
+        <v>625</v>
+      </c>
+      <c r="D1392" t="s">
+        <v>2528</v>
+      </c>
+    </row>
+    <row r="1393" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1393">
+        <v>1.354326360324362E+18</v>
+      </c>
+      <c r="B1393" t="s">
+        <v>2529</v>
+      </c>
+      <c r="C1393" t="s">
+        <v>625</v>
+      </c>
+      <c r="D1393" t="s">
+        <v>2530</v>
+      </c>
+    </row>
+    <row r="1394" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1394">
+        <v>1.35428879572675E+18</v>
+      </c>
+      <c r="B1394" t="s">
+        <v>2531</v>
+      </c>
+      <c r="C1394" t="s">
+        <v>625</v>
+      </c>
+      <c r="D1394" t="s">
+        <v>2532</v>
+      </c>
+    </row>
+    <row r="1395" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1395">
+        <v>1.3542741941842619E+18</v>
+      </c>
+      <c r="B1395" t="s">
+        <v>2533</v>
+      </c>
+      <c r="C1395" t="s">
+        <v>2534</v>
+      </c>
+      <c r="D1395" t="s">
+        <v>2535</v>
+      </c>
+    </row>
+    <row r="1396" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1396">
+        <v>1.354250869500375E+18</v>
+      </c>
+      <c r="B1396" t="s">
+        <v>2536</v>
+      </c>
+      <c r="C1396" t="s">
+        <v>625</v>
+      </c>
+      <c r="D1396" t="s">
+        <v>2537</v>
+      </c>
+    </row>
+    <row r="1397" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1397">
+        <v>1.3542131494366131E+18</v>
+      </c>
+      <c r="B1397" t="s">
+        <v>2538</v>
+      </c>
+      <c r="C1397" t="s">
+        <v>625</v>
+      </c>
+      <c r="D1397" t="s">
+        <v>2539</v>
+      </c>
+    </row>
+    <row r="1398" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1398">
+        <v>1.3541754094624691E+18</v>
+      </c>
+      <c r="B1398" t="s">
+        <v>2540</v>
+      </c>
+      <c r="C1398" t="s">
+        <v>625</v>
+      </c>
+      <c r="D1398" t="s">
+        <v>2541</v>
+      </c>
+    </row>
+    <row r="1399" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1399">
+        <v>1.3541375630830669E+18</v>
+      </c>
+      <c r="B1399" t="s">
+        <v>2542</v>
+      </c>
+      <c r="C1399" t="s">
+        <v>625</v>
+      </c>
+      <c r="D1399" t="s">
+        <v>2543</v>
+      </c>
+    </row>
+    <row r="1400" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1400">
+        <v>1.3540998390054669E+18</v>
+      </c>
+      <c r="B1400" t="s">
+        <v>2544</v>
+      </c>
+      <c r="C1400" t="s">
+        <v>625</v>
+      </c>
+      <c r="D1400" t="s">
+        <v>2545</v>
+      </c>
+    </row>
+    <row r="1401" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1401">
+        <v>1.3540627949418209E+18</v>
+      </c>
+      <c r="B1401" t="s">
+        <v>2546</v>
+      </c>
+      <c r="C1401" t="s">
+        <v>625</v>
+      </c>
+      <c r="D1401" t="s">
+        <v>2547</v>
+      </c>
+    </row>
+    <row r="1402" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1402">
+        <v>1.3540259759740439E+18</v>
+      </c>
+      <c r="B1402" t="s">
+        <v>2548</v>
+      </c>
+      <c r="C1402" t="s">
+        <v>21</v>
+      </c>
+      <c r="D1402" t="s">
+        <v>2549</v>
+      </c>
+    </row>
+    <row r="1403" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1403">
+        <v>1.3540258742327749E+18</v>
+      </c>
+      <c r="B1403" t="s">
+        <v>2550</v>
+      </c>
+      <c r="C1403" t="s">
+        <v>21</v>
+      </c>
+      <c r="D1403" t="s">
+        <v>2551</v>
+      </c>
+    </row>
+    <row r="1404" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1404">
+        <v>1.354024451453514E+18</v>
+      </c>
+      <c r="B1404" t="s">
+        <v>2552</v>
+      </c>
+      <c r="C1404" t="s">
+        <v>625</v>
+      </c>
+      <c r="D1404" t="s">
+        <v>2553</v>
+      </c>
+    </row>
+    <row r="1405" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1405">
+        <v>1.354022471851074E+18</v>
+      </c>
+      <c r="B1405" t="s">
+        <v>2554</v>
+      </c>
+      <c r="C1405" t="s">
+        <v>72</v>
+      </c>
+      <c r="D1405" t="s">
+        <v>2555</v>
+      </c>
+    </row>
+    <row r="1406" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1406">
+        <v>1.353988208917246E+18</v>
+      </c>
+      <c r="B1406" t="s">
+        <v>2556</v>
+      </c>
+      <c r="C1406" t="s">
+        <v>625</v>
+      </c>
+      <c r="D1406" t="s">
+        <v>2557</v>
+      </c>
+    </row>
+    <row r="1407" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1407">
+        <v>1.3539870230617421E+18</v>
+      </c>
+      <c r="B1407" t="s">
+        <v>2558</v>
+      </c>
+      <c r="C1407" t="s">
+        <v>80</v>
+      </c>
+      <c r="D1407" t="s">
+        <v>2559</v>
+      </c>
+    </row>
+    <row r="1408" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1408">
+        <v>1.3539792635280471E+18</v>
+      </c>
+      <c r="B1408" t="s">
+        <v>2560</v>
+      </c>
+      <c r="C1408" t="s">
+        <v>80</v>
+      </c>
+      <c r="D1408" t="s">
+        <v>2561</v>
+      </c>
+    </row>
+    <row r="1409" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1409">
+        <v>1.3539777034650089E+18</v>
+      </c>
+      <c r="B1409" t="s">
+        <v>2562</v>
+      </c>
+      <c r="C1409" t="s">
+        <v>45</v>
+      </c>
+      <c r="D1409" t="s">
+        <v>2563</v>
+      </c>
+    </row>
+    <row r="1410" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1410">
+        <v>1.3539654845053261E+18</v>
+      </c>
+      <c r="B1410" t="s">
+        <v>2564</v>
+      </c>
+      <c r="C1410" t="s">
+        <v>45</v>
+      </c>
+      <c r="D1410" t="s">
+        <v>2565</v>
+      </c>
+    </row>
+    <row r="1411" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1411">
+        <v>1.3539570737807611E+18</v>
+      </c>
+      <c r="B1411" t="s">
+        <v>2566</v>
+      </c>
+      <c r="C1411" t="s">
+        <v>625</v>
+      </c>
+      <c r="D1411" t="s">
+        <v>2567</v>
+      </c>
+    </row>
+    <row r="1412" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1412">
+        <v>1.353939459272798E+18</v>
+      </c>
+      <c r="B1412" t="s">
+        <v>2568</v>
+      </c>
+      <c r="C1412" t="s">
+        <v>80</v>
+      </c>
+      <c r="D1412" t="s">
+        <v>2569</v>
+      </c>
+    </row>
+    <row r="1413" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1413">
+        <v>1.3539394066384809E+18</v>
+      </c>
+      <c r="B1413" t="s">
+        <v>2570</v>
+      </c>
+      <c r="C1413" t="s">
+        <v>80</v>
+      </c>
+      <c r="D1413" t="s">
+        <v>2571</v>
+      </c>
+    </row>
+    <row r="1414" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1414">
+        <v>1.3539393408424351E+18</v>
+      </c>
+      <c r="B1414" t="s">
+        <v>2572</v>
+      </c>
+      <c r="C1414" t="s">
+        <v>80</v>
+      </c>
+      <c r="D1414" t="s">
+        <v>2573</v>
+      </c>
+    </row>
+    <row r="1415" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1415">
+        <v>1.353939276275319E+18</v>
+      </c>
+      <c r="B1415" t="s">
+        <v>2574</v>
+      </c>
+      <c r="C1415" t="s">
+        <v>80</v>
+      </c>
+      <c r="D1415" t="s">
+        <v>2575</v>
+      </c>
+    </row>
+    <row r="1416" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1416">
+        <v>1.353939103570657E+18</v>
+      </c>
+      <c r="B1416" t="s">
+        <v>2576</v>
+      </c>
+      <c r="C1416" t="s">
+        <v>80</v>
+      </c>
+      <c r="D1416" t="s">
+        <v>2577</v>
+      </c>
+    </row>
+    <row r="1417" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1417">
+        <v>1.353938937602048E+18</v>
+      </c>
+      <c r="B1417" t="s">
+        <v>2578</v>
+      </c>
+      <c r="C1417" t="s">
+        <v>80</v>
+      </c>
+      <c r="D1417" t="s">
+        <v>2579</v>
+      </c>
+    </row>
+    <row r="1418" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1418">
+        <v>1.3539174231209119E+18</v>
+      </c>
+      <c r="B1418" t="s">
+        <v>2580</v>
+      </c>
+      <c r="C1418" t="s">
+        <v>2581</v>
+      </c>
+      <c r="D1418" t="s">
+        <v>2582</v>
+      </c>
+    </row>
+    <row r="1419" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1419">
+        <v>1.3539117803475351E+18</v>
+      </c>
+      <c r="B1419" t="s">
+        <v>2583</v>
+      </c>
+      <c r="C1419" t="s">
+        <v>625</v>
+      </c>
+      <c r="D1419" t="s">
+        <v>2584</v>
+      </c>
+    </row>
+    <row r="1420" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1420">
+        <v>1.3539039251460869E+18</v>
+      </c>
+      <c r="B1420" t="s">
+        <v>2585</v>
+      </c>
+      <c r="C1420" t="s">
+        <v>2586</v>
+      </c>
+      <c r="D1420" t="s">
+        <v>2587</v>
+      </c>
+    </row>
+    <row r="1421" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1421">
+        <v>1.3538917702375219E+18</v>
+      </c>
+      <c r="B1421" t="s">
+        <v>2588</v>
+      </c>
+      <c r="C1421" t="s">
+        <v>2589</v>
+      </c>
+      <c r="D1421" t="s">
+        <v>2590</v>
+      </c>
+    </row>
+    <row r="1422" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1422">
+        <v>1.353888342127989E+18</v>
+      </c>
+      <c r="B1422" t="s">
+        <v>2591</v>
+      </c>
+      <c r="C1422" t="s">
+        <v>72</v>
+      </c>
+      <c r="D1422" t="s">
+        <v>2592</v>
+      </c>
+    </row>
+    <row r="1423" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1423">
+        <v>1.353883475326112E+18</v>
+      </c>
+      <c r="B1423" t="s">
+        <v>2593</v>
+      </c>
+      <c r="C1423" t="s">
+        <v>2594</v>
+      </c>
+      <c r="D1423" t="s">
+        <v>2595</v>
+      </c>
+    </row>
+    <row r="1424" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1424">
+        <v>1.3538735321496699E+18</v>
+      </c>
+      <c r="B1424" t="s">
+        <v>2596</v>
+      </c>
+      <c r="C1424" t="s">
+        <v>625</v>
+      </c>
+      <c r="D1424" t="s">
+        <v>2597</v>
+      </c>
+    </row>
+    <row r="1425" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1425">
+        <v>1.3538476193705569E+18</v>
+      </c>
+      <c r="B1425" t="s">
+        <v>2598</v>
+      </c>
+      <c r="C1425" t="s">
+        <v>2599</v>
+      </c>
+      <c r="D1425" t="s">
+        <v>2600</v>
+      </c>
+    </row>
+    <row r="1426" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1426">
+        <v>1.3538357605798011E+18</v>
+      </c>
+      <c r="B1426" t="s">
+        <v>2601</v>
+      </c>
+      <c r="C1426" t="s">
+        <v>625</v>
+      </c>
+      <c r="D1426" t="s">
+        <v>2602</v>
+      </c>
+    </row>
+    <row r="1427" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1427">
+        <v>1.3537979518862989E+18</v>
+      </c>
+      <c r="B1427" t="s">
+        <v>2603</v>
+      </c>
+      <c r="C1427" t="s">
+        <v>625</v>
+      </c>
+      <c r="D1427" t="s">
+        <v>2604</v>
+      </c>
+    </row>
+    <row r="1428" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1428">
+        <v>1.353761482341708E+18</v>
+      </c>
+      <c r="B1428" t="s">
+        <v>2605</v>
+      </c>
+      <c r="C1428" t="s">
+        <v>625</v>
+      </c>
+      <c r="D1428" t="s">
+        <v>2606</v>
+      </c>
+    </row>
+    <row r="1429" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1429">
+        <v>1.3537223934291231E+18</v>
+      </c>
+      <c r="B1429" t="s">
+        <v>2607</v>
+      </c>
+      <c r="C1429" t="s">
+        <v>625</v>
+      </c>
+      <c r="D1429" t="s">
+        <v>2608</v>
+      </c>
+    </row>
+    <row r="1430" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1430">
+        <v>1.3536845585084831E+18</v>
+      </c>
+      <c r="B1430" t="s">
+        <v>2609</v>
+      </c>
+      <c r="C1430" t="s">
+        <v>625</v>
+      </c>
+      <c r="D1430" t="s">
+        <v>2610</v>
+      </c>
+    </row>
+    <row r="1431" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1431">
+        <v>1.353663507607081E+18</v>
+      </c>
+      <c r="B1431" t="s">
+        <v>2611</v>
+      </c>
+      <c r="C1431" t="s">
+        <v>21</v>
+      </c>
+      <c r="D1431" t="s">
+        <v>2612</v>
+      </c>
+    </row>
+    <row r="1432" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1432">
+        <v>1.3536632947504289E+18</v>
+      </c>
+      <c r="B1432" t="s">
+        <v>2613</v>
+      </c>
+      <c r="C1432" t="s">
+        <v>21</v>
+      </c>
+      <c r="D1432" t="s">
+        <v>2614</v>
+      </c>
+    </row>
+    <row r="1433" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1433">
+        <v>1.3536469657376771E+18</v>
+      </c>
+      <c r="B1433" t="s">
+        <v>2615</v>
+      </c>
+      <c r="C1433" t="s">
+        <v>625</v>
+      </c>
+      <c r="D1433" t="s">
+        <v>2616</v>
+      </c>
+    </row>
+    <row r="1434" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1434">
+        <v>1.3536096114844019E+18</v>
+      </c>
+      <c r="B1434" t="s">
+        <v>2617</v>
+      </c>
+      <c r="C1434" t="s">
+        <v>625</v>
+      </c>
+      <c r="D1434" t="s">
+        <v>2618</v>
+      </c>
+    </row>
+    <row r="1435" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1435">
+        <v>1.3535916966934531E+18</v>
+      </c>
+      <c r="B1435" t="s">
+        <v>2619</v>
+      </c>
+      <c r="C1435" t="s">
+        <v>45</v>
+      </c>
+      <c r="D1435" t="s">
+        <v>2620</v>
+      </c>
+    </row>
+    <row r="1436" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1436">
+        <v>1.3535913685310999E+18</v>
+      </c>
+      <c r="B1436" t="s">
+        <v>2621</v>
+      </c>
+      <c r="C1436" t="s">
+        <v>45</v>
+      </c>
+      <c r="D1436" t="s">
+        <v>2622</v>
+      </c>
+    </row>
+    <row r="1437" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1437">
+        <v>1.353590598092034E+18</v>
+      </c>
+      <c r="B1437" t="s">
+        <v>2623</v>
+      </c>
+      <c r="C1437" t="s">
+        <v>45</v>
+      </c>
+      <c r="D1437" t="s">
+        <v>2624</v>
+      </c>
+    </row>
+    <row r="1438" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1438">
+        <v>1.3535901374189901E+18</v>
+      </c>
+      <c r="B1438" t="s">
+        <v>2625</v>
+      </c>
+      <c r="C1438" t="s">
+        <v>45</v>
+      </c>
+      <c r="D1438" t="s">
+        <v>2626</v>
+      </c>
+    </row>
+    <row r="1439" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1439">
+        <v>1.3535713397145229E+18</v>
+      </c>
+      <c r="B1439" t="s">
+        <v>2627</v>
+      </c>
+      <c r="C1439" t="s">
+        <v>625</v>
+      </c>
+      <c r="D1439" t="s">
+        <v>2628</v>
+      </c>
+    </row>
+    <row r="1440" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1440">
+        <v>1.35352411630157E+18</v>
+      </c>
+      <c r="B1440" t="s">
+        <v>2629</v>
+      </c>
+      <c r="C1440" t="s">
+        <v>72</v>
+      </c>
+      <c r="D1440" t="s">
+        <v>2630</v>
+      </c>
+    </row>
+    <row r="1441" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1441">
+        <v>1.353496129728471E+18</v>
+      </c>
+      <c r="B1441" t="s">
+        <v>2631</v>
+      </c>
+      <c r="C1441" t="s">
+        <v>625</v>
+      </c>
+      <c r="D1441" t="s">
+        <v>2632</v>
+      </c>
+    </row>
+    <row r="1442" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1442">
+        <v>1.353458493370495E+18</v>
+      </c>
+      <c r="B1442" t="s">
+        <v>2633</v>
+      </c>
+      <c r="C1442" t="s">
+        <v>625</v>
+      </c>
+      <c r="D1442" t="s">
+        <v>2634</v>
+      </c>
+    </row>
+    <row r="1443" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1443">
+        <v>1.3533827006991969E+18</v>
+      </c>
+      <c r="B1443" t="s">
+        <v>2635</v>
+      </c>
+      <c r="C1443" t="s">
+        <v>625</v>
+      </c>
+      <c r="D1443" t="s">
+        <v>2636</v>
+      </c>
+    </row>
+    <row r="1444" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1444">
+        <v>1.353354495569195E+18</v>
+      </c>
+      <c r="B1444" t="s">
+        <v>2637</v>
+      </c>
+      <c r="C1444" t="s">
+        <v>1780</v>
+      </c>
+      <c r="D1444" t="s">
+        <v>2638</v>
+      </c>
+    </row>
+    <row r="1445" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1445">
+        <v>1.3533489231050591E+18</v>
+      </c>
+      <c r="B1445" t="s">
+        <v>2639</v>
+      </c>
+      <c r="C1445" t="s">
+        <v>625</v>
+      </c>
+      <c r="D1445" t="s">
+        <v>2640</v>
+      </c>
+    </row>
+    <row r="1446" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1446">
+        <v>1.353333679804703E+18</v>
+      </c>
+      <c r="B1446" t="s">
+        <v>2641</v>
+      </c>
+      <c r="C1446" t="s">
+        <v>21</v>
+      </c>
+      <c r="D1446" t="s">
+        <v>2642</v>
+      </c>
+    </row>
+    <row r="1447" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1447">
+        <v>1.353333617192129E+18</v>
+      </c>
+      <c r="B1447" t="s">
+        <v>2643</v>
+      </c>
+      <c r="C1447" t="s">
+        <v>21</v>
+      </c>
+      <c r="D1447" t="s">
+        <v>2644</v>
+      </c>
+    </row>
+    <row r="1448" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1448">
+        <v>1.3533106722646751E+18</v>
+      </c>
+      <c r="B1448" t="s">
+        <v>2645</v>
+      </c>
+      <c r="C1448" t="s">
+        <v>625</v>
+      </c>
+      <c r="D1448" t="s">
+        <v>2646</v>
+      </c>
+    </row>
+    <row r="1449" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1449">
+        <v>1.353269922982314E+18</v>
+      </c>
+      <c r="B1449" t="s">
+        <v>2647</v>
+      </c>
+      <c r="C1449" t="s">
+        <v>625</v>
+      </c>
+      <c r="D1449" t="s">
+        <v>2648</v>
+      </c>
+    </row>
+    <row r="1450" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1450">
+        <v>1.353232221641994E+18</v>
+      </c>
+      <c r="B1450" t="s">
+        <v>2649</v>
+      </c>
+      <c r="C1450" t="s">
+        <v>625</v>
+      </c>
+      <c r="D1450" t="s">
+        <v>2650</v>
+      </c>
+    </row>
+    <row r="1451" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1451">
+        <v>1.353222504756638E+18</v>
+      </c>
+      <c r="B1451" t="s">
+        <v>2651</v>
+      </c>
+      <c r="C1451" t="s">
+        <v>72</v>
+      </c>
+      <c r="D1451" t="s">
+        <v>2652</v>
+      </c>
+    </row>
+    <row r="1452" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1452">
+        <v>1.3532083607204211E+18</v>
+      </c>
+      <c r="B1452" t="s">
+        <v>2653</v>
+      </c>
+      <c r="C1452" t="s">
+        <v>2654</v>
+      </c>
+      <c r="D1452" t="s">
+        <v>2655</v>
+      </c>
+    </row>
+    <row r="1453" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1453">
+        <v>1.353193837829612E+18</v>
+      </c>
+      <c r="B1453" t="s">
+        <v>2656</v>
+      </c>
+      <c r="C1453" t="s">
+        <v>625</v>
+      </c>
+      <c r="D1453" t="s">
+        <v>2657</v>
+      </c>
+    </row>
+    <row r="1454" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1454">
+        <v>1.353156373987561E+18</v>
+      </c>
+      <c r="B1454" t="s">
+        <v>2658</v>
+      </c>
+      <c r="C1454" t="s">
+        <v>625</v>
+      </c>
+      <c r="D1454" t="s">
+        <v>2659</v>
+      </c>
+    </row>
+    <row r="1455" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1455">
+        <v>1.353118468858474E+18</v>
+      </c>
+      <c r="B1455" t="s">
+        <v>2660</v>
+      </c>
+      <c r="C1455" t="s">
+        <v>625</v>
+      </c>
+      <c r="D1455" t="s">
+        <v>2661</v>
+      </c>
+    </row>
+    <row r="1456" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1456">
+        <v>1.353080647951114E+18</v>
+      </c>
+      <c r="B1456" t="s">
+        <v>2662</v>
+      </c>
+      <c r="C1456" t="s">
+        <v>625</v>
+      </c>
+      <c r="D1456" t="s">
+        <v>2663</v>
+      </c>
+    </row>
+    <row r="1457" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1457">
+        <v>1.353042864041726E+18</v>
+      </c>
+      <c r="B1457" t="s">
+        <v>2664</v>
+      </c>
+      <c r="C1457" t="s">
+        <v>625</v>
+      </c>
+      <c r="D1457" t="s">
+        <v>2665</v>
+      </c>
+    </row>
+    <row r="1458" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1458">
+        <v>1.3530052808758441E+18</v>
+      </c>
+      <c r="B1458" t="s">
+        <v>2666</v>
+      </c>
+      <c r="C1458" t="s">
+        <v>625</v>
+      </c>
+      <c r="D1458" t="s">
+        <v>2667</v>
+      </c>
+    </row>
+    <row r="1459" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1459">
+        <v>1.352967342146241E+18</v>
+      </c>
+      <c r="B1459" t="s">
+        <v>2668</v>
+      </c>
+      <c r="C1459" t="s">
+        <v>625</v>
+      </c>
+      <c r="D1459" t="s">
+        <v>2669</v>
+      </c>
+    </row>
+    <row r="1460" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1460">
+        <v>1.352945103027851E+18</v>
+      </c>
+      <c r="B1460" t="s">
+        <v>2670</v>
+      </c>
+      <c r="C1460" t="s">
+        <v>21</v>
+      </c>
+      <c r="D1460" t="s">
+        <v>2671</v>
+      </c>
+    </row>
+    <row r="1461" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1461">
+        <v>1.352945016298082E+18</v>
+      </c>
+      <c r="B1461" t="s">
+        <v>2672</v>
+      </c>
+      <c r="C1461" t="s">
+        <v>21</v>
+      </c>
+      <c r="D1461" t="s">
+        <v>2673</v>
+      </c>
+    </row>
+    <row r="1462" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1462">
+        <v>1.3529296369638689E+18</v>
+      </c>
+      <c r="B1462" t="s">
+        <v>2674</v>
+      </c>
+      <c r="C1462" t="s">
+        <v>625</v>
+      </c>
+      <c r="D1462" t="s">
+        <v>2675</v>
+      </c>
+    </row>
+    <row r="1463" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1463">
+        <v>1.352904164523733E+18</v>
+      </c>
+      <c r="B1463" t="s">
+        <v>2676</v>
+      </c>
+      <c r="C1463" t="s">
+        <v>2599</v>
+      </c>
+      <c r="D1463" t="s">
+        <v>2677</v>
+      </c>
+    </row>
+    <row r="1464" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1464">
+        <v>1.352892007815946E+18</v>
+      </c>
+      <c r="B1464" t="s">
+        <v>2678</v>
+      </c>
+      <c r="C1464" t="s">
+        <v>625</v>
+      </c>
+      <c r="D1464" t="s">
+        <v>2679</v>
+      </c>
+    </row>
+    <row r="1465" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1465">
+        <v>1.3528836018098949E+18</v>
+      </c>
+      <c r="B1465" t="s">
+        <v>2680</v>
+      </c>
+      <c r="C1465" t="s">
+        <v>21</v>
+      </c>
+      <c r="D1465" t="s">
+        <v>2681</v>
+      </c>
+    </row>
+    <row r="1466" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1466">
+        <v>1.3528545137622751E+18</v>
+      </c>
+      <c r="B1466" t="s">
+        <v>2682</v>
+      </c>
+      <c r="C1466" t="s">
+        <v>625</v>
+      </c>
+      <c r="D1466" t="s">
+        <v>2683</v>
+      </c>
+    </row>
+    <row r="1467" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1467">
+        <v>1.35281671392707E+18</v>
+      </c>
+      <c r="B1467" t="s">
+        <v>2684</v>
+      </c>
+      <c r="C1467" t="s">
+        <v>625</v>
+      </c>
+      <c r="D1467" t="s">
+        <v>2685</v>
+      </c>
+    </row>
+    <row r="1468" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1468">
+        <v>1.3527999656770309E+18</v>
+      </c>
+      <c r="B1468" t="s">
+        <v>2686</v>
+      </c>
+      <c r="C1468" t="s">
+        <v>53</v>
+      </c>
+      <c r="D1468" t="s">
+        <v>2687</v>
+      </c>
+    </row>
+    <row r="1469" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1469">
+        <v>1.3527785872255511E+18</v>
+      </c>
+      <c r="B1469" t="s">
+        <v>2688</v>
+      </c>
+      <c r="C1469" t="s">
+        <v>625</v>
+      </c>
+      <c r="D1469" t="s">
+        <v>2689</v>
+      </c>
+    </row>
+    <row r="1470" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1470">
+        <v>1.3527408609248169E+18</v>
+      </c>
+      <c r="B1470" t="s">
+        <v>2690</v>
+      </c>
+      <c r="C1470" t="s">
+        <v>625</v>
+      </c>
+      <c r="D1470" t="s">
+        <v>2691</v>
+      </c>
+    </row>
+    <row r="1471" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1471">
+        <v>1.352703108908863E+18</v>
+      </c>
+      <c r="B1471" t="s">
+        <v>2692</v>
+      </c>
+      <c r="C1471" t="s">
+        <v>625</v>
+      </c>
+      <c r="D1471" t="s">
+        <v>2693</v>
+      </c>
+    </row>
+    <row r="1472" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1472">
+        <v>1.352665404741612E+18</v>
+      </c>
+      <c r="B1472" t="s">
+        <v>2694</v>
+      </c>
+      <c r="C1472" t="s">
+        <v>625</v>
+      </c>
+      <c r="D1472" t="s">
+        <v>2695</v>
+      </c>
+    </row>
+    <row r="1473" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1473">
+        <v>1.3526276514337789E+18</v>
+      </c>
+      <c r="B1473" t="s">
+        <v>2696</v>
+      </c>
+      <c r="C1473" t="s">
+        <v>625</v>
+      </c>
+      <c r="D1473" t="s">
+        <v>2697</v>
+      </c>
+    </row>
+    <row r="1474" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1474">
+        <v>1.352589922687881E+18</v>
+      </c>
+      <c r="B1474" t="s">
+        <v>2305</v>
+      </c>
+      <c r="C1474" t="s">
+        <v>625</v>
+      </c>
+      <c r="D1474" t="s">
+        <v>2306</v>
+      </c>
+    </row>
+    <row r="1475" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1475">
+        <v>1.352571201059582E+18</v>
+      </c>
+      <c r="B1475" t="s">
+        <v>2307</v>
+      </c>
+      <c r="C1475" t="s">
+        <v>21</v>
+      </c>
+      <c r="D1475" t="s">
+        <v>2308</v>
+      </c>
+    </row>
+    <row r="1476" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1476">
+        <v>1.352552095048585E+18</v>
+      </c>
+      <c r="B1476" t="s">
+        <v>2309</v>
+      </c>
+      <c r="C1476" t="s">
+        <v>625</v>
+      </c>
+      <c r="D1476" t="s">
+        <v>2310</v>
+      </c>
+    </row>
+    <row r="1477" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1477">
+        <v>1.3525368673846111E+18</v>
+      </c>
+      <c r="B1477" t="s">
+        <v>2311</v>
+      </c>
+      <c r="C1477" t="s">
+        <v>21</v>
+      </c>
+      <c r="D1477" t="s">
+        <v>2312</v>
+      </c>
+    </row>
+    <row r="1478" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1478">
+        <v>1.352514484418486E+18</v>
+      </c>
+      <c r="B1478" t="s">
+        <v>2313</v>
+      </c>
+      <c r="C1478" t="s">
+        <v>625</v>
+      </c>
+      <c r="D1478" t="s">
+        <v>2314</v>
+      </c>
+    </row>
+    <row r="1479" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1479">
+        <v>1.3524991696010491E+18</v>
+      </c>
+      <c r="B1479" t="s">
+        <v>2315</v>
+      </c>
+      <c r="C1479" t="s">
+        <v>45</v>
+      </c>
+      <c r="D1479" t="s">
+        <v>2316</v>
+      </c>
+    </row>
+    <row r="1480" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1480">
+        <v>1.3524985054875891E+18</v>
+      </c>
+      <c r="B1480" t="s">
+        <v>2317</v>
+      </c>
+      <c r="C1480" t="s">
+        <v>53</v>
+      </c>
+      <c r="D1480" t="s">
+        <v>2318</v>
+      </c>
+    </row>
+    <row r="1481" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1481">
+        <v>1.3524884791422359E+18</v>
+      </c>
+      <c r="B1481" t="s">
+        <v>2319</v>
+      </c>
+      <c r="C1481" t="s">
+        <v>2320</v>
+      </c>
+      <c r="D1481" t="s">
+        <v>2321</v>
+      </c>
+    </row>
+    <row r="1482" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1482">
+        <v>1.352476625053524E+18</v>
+      </c>
+      <c r="B1482" t="s">
+        <v>2322</v>
+      </c>
+      <c r="C1482" t="s">
+        <v>625</v>
+      </c>
+      <c r="D1482" t="s">
+        <v>2323</v>
+      </c>
+    </row>
+    <row r="1483" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1483">
+        <v>1.352451740361089E+18</v>
+      </c>
+      <c r="B1483" t="s">
+        <v>2324</v>
+      </c>
+      <c r="C1483" t="s">
+        <v>2325</v>
+      </c>
+      <c r="D1483" t="s">
+        <v>2326</v>
+      </c>
+    </row>
+    <row r="1484" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1484">
+        <v>1.3524281233887439E+18</v>
+      </c>
+      <c r="B1484" t="s">
+        <v>2327</v>
+      </c>
+      <c r="C1484" t="s">
+        <v>2328</v>
+      </c>
+      <c r="D1484" t="s">
+        <v>2329</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
